--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">09/30/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/01/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>332.84</v>
+        <v>334.26</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.096</v>
+        <v>0.104</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.242</v>
+        <v>0.237</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.214</v>
+        <v>0.232</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.121</v>
+        <v>1.13</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.272</v>
+        <v>1.266</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.609</v>
+        <v>3.613</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.52</v>
+        <v>47.56</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.001</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.011</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.059</v>
+        <v>0.054</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.026</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.055</v>
+        <v>0.034</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.478</v>
+        <v>2.593</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.964</v>
+        <v>0.963</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,37 +1747,37 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.96</v>
+        <v>82.8</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.132</v>
+        <v>0.129</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.073</v>
+        <v>0.071</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.165</v>
+        <v>0.163</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>669.3</v>
+        <v>671.84</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.081</v>
+        <v>0.086</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.207</v>
+        <v>0.199</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.175</v>
+        <v>0.191</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.948</v>
+        <v>0.956</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.141</v>
+        <v>1.135</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>3.116</v>
+        <v>3.12</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.147</v>
+        <v>0.152</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.6</v>
+        <v>93.5</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="1" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="T6" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="U6" s="1" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="V6" s="1" t="n">
         <v>-0.005</v>
       </c>
-      <c r="U6" s="1" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="V6" s="1" t="n">
-        <v>0.006</v>
-      </c>
       <c r="W6" s="1" t="n">
-        <v>0.038</v>
+        <v>0.025</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.213</v>
+        <v>0.225</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>3.063</v>
+        <v>3.234</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>1.126</v>
+        <v>1.119</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.052</v>
+        <v>0.063</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,25 +1866,25 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.51</v>
+        <v>119.47</v>
       </c>
       <c r="AF6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AH6" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="AJ6" s="1" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AK6" s="1" t="n">
         <v>0.031</v>
-      </c>
-      <c r="AK6" s="1" t="n">
-        <v>0.034</v>
       </c>
       <c r="AL6" s="1" t="n">
         <v>0.138</v>
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.26</v>
+        <v>65.49</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.007</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.056</v>
+        <v>0.046</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.128</v>
+        <v>0.124</v>
       </c>
       <c r="I7" s="1" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>0.559</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="M7" s="1" t="n">
         <v>0.061</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>0.553</v>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>0.057</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.29</v>
+        <v>19.54</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.013</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.018</v>
+        <v>0.031</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.143</v>
+        <v>0.128</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.032</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.4</v>
+        <v>0.419</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.851</v>
+        <v>1.996</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.367</v>
+        <v>-0.346</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.003</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.46</v>
+        <v>96.49</v>
       </c>
       <c r="AF7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.034</v>
+        <v>0.028</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="AL7" s="1" t="n">
         <v>0.109</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.107</v>
+        <v>-0.108</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.107</v>
+        <v>0.106</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.07</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>241.96</v>
+        <v>242.49</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.004</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.124</v>
+        <v>0.115</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.214</v>
+        <v>0.222</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.107</v>
+        <v>0.125</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.525</v>
+        <v>0.529</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.717</v>
+        <v>0.694</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.525</v>
+        <v>1.535</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.48</v>
+        <v>15.88</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.005</v>
+        <v>0.026</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.019</v>
+        <v>0.049</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.076</v>
+        <v>0.104</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.181</v>
+        <v>0.201</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.357</v>
+        <v>0.397</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.075</v>
+        <v>0.118</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.153</v>
+        <v>-0.131</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.108</v>
+        <v>-0.114</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>1.045</v>
+        <v>1.073</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.375</v>
+        <v>0.41</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,34 +2104,34 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>102.99</v>
+        <v>102.96</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>0.024</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.02</v>
+        <v>0.007</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.024</v>
       </c>
       <c r="AL8" s="1" t="n">
         <v>0.064</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.272</v>
+        <v>-0.273</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.026</v>
       </c>
       <c r="AO8" s="1" t="n">
         <v>0.063</v>
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.08</v>
+        <v>25.15</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.003</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.014</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.057</v>
+        <v>0.05</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.032</v>
+        <v>0.025</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.055</v>
+        <v>0.035</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.343</v>
+        <v>0.347</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.953</v>
+        <v>2.028</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>1.206</v>
+        <v>1.187</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.117</v>
+        <v>0.12</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,34 +2199,34 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>89.37</v>
+        <v>89.29</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.006</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>-0.049</v>
+        <v>-0.057</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.024</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.366</v>
+        <v>-0.368</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.063</v>
       </c>
       <c r="AO9" s="1" t="n">
         <v>0.053</v>
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.21</v>
+        <v>147.64</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="S10" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="T10" s="1" t="n">
         <v>-0.006</v>
       </c>
-      <c r="T10" s="1" t="n">
-        <v>-0.002</v>
-      </c>
       <c r="U10" s="1" t="n">
-        <v>0.063</v>
+        <v>0.039</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.114</v>
+        <v>0.103</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.441</v>
+        <v>0.435</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.634</v>
+        <v>0.651</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.722</v>
+        <v>1.691</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.153</v>
+        <v>0.149</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1" t="n">
         <v>0.004</v>
@@ -2309,19 +2309,19 @@
         <v>0.021</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.036</v>
+        <v>0.033</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>0.149</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.322</v>
+        <v>0.317</v>
       </c>
       <c r="AO10" s="1" t="n">
         <v>0.069</v>
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>203.59</v>
+        <v>203.87</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.053</v>
+        <v>0.045</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.103</v>
+        <v>0.095</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.092</v>
+        <v>0.098</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.589</v>
+        <v>0.592</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.898</v>
+        <v>0.896</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.721</v>
+        <v>1.723</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.114</v>
+        <v>0.116</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.5</v>
+        <v>44.92</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>0.009</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.034</v>
+        <v>0.043</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.085</v>
+        <v>0.096</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.184</v>
+        <v>0.185</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.245</v>
+        <v>0.266</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.068</v>
+        <v>0.071</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.469</v>
+        <v>0.483</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.083</v>
+        <v>1.101</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.542</v>
+        <v>2.526</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.296</v>
+        <v>0.308</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,37 +2413,37 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.36</v>
+        <v>103.24</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>0.202</v>
+        <v>0.201</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>468.41</v>
+        <v>471.18</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.052</v>
+        <v>0.058</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.104</v>
+        <v>0.123</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.302</v>
+        <v>0.297</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.253</v>
+        <v>0.278</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.267</v>
+        <v>1.28</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.228</v>
+        <v>1.213</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.517</v>
+        <v>4.523</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.17</v>
+        <v>0.177</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.71</v>
+        <v>65.57</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0.004</v>
+        <v>0.013</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.2</v>
+        <v>0.216</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.478</v>
+        <v>0.497</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.707</v>
+        <v>0.72</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>0.985</v>
+        <v>0.972</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.633</v>
+        <v>2.681</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.165</v>
+        <v>1.179</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5.882</v>
+        <v>6.133</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.314</v>
+        <v>1.345</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,37 +2532,37 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.49</v>
+        <v>106.39</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="1" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="AI12" s="1" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="AJ12" s="1" t="n">
-        <v>0.029</v>
-      </c>
       <c r="AK12" s="1" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.236</v>
+        <v>0.235</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>194.5</v>
+        <v>195.84</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.032</v>
+        <v>0.039</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.067</v>
+        <v>0.07</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.152</v>
+        <v>0.149</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.096</v>
+        <v>0.11</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.938</v>
+        <v>0.951</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0.997</v>
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.74</v>
+        <v>2.767</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.1</v>
+        <v>0.107</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.37</v>
+        <v>27.57</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.034</v>
+        <v>0.067</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.26</v>
+        <v>0.269</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.537</v>
+        <v>0.543</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.083</v>
+        <v>1.076</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.132</v>
+        <v>2.155</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.875</v>
+        <v>0.836</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>4.379</v>
+        <v>4.418</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.378</v>
+        <v>1.395</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.38</v>
+        <v>22.35</v>
       </c>
       <c r="AF13" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG13" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="AG13" s="1" t="n">
-        <v>-0.003</v>
-      </c>
       <c r="AH13" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.094</v>
+        <v>0.093</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.106</v>
+        <v>0.101</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.226</v>
+        <v>0.224</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>95.14</v>
+        <v>94.97</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="E14" s="1" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>0.011</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <v>0.013</v>
-      </c>
       <c r="G14" s="1" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.033</v>
+        <v>0.022</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0.058</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.516</v>
+        <v>0.513</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.892</v>
+        <v>1.883</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.083</v>
+        <v>0.081</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.62</v>
+        <v>37.8</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.072</v>
+        <v>0.061</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.162</v>
+        <v>0.167</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.258</v>
+        <v>0.257</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.433</v>
+        <v>0.449</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.208</v>
+        <v>0.205</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.49</v>
+        <v>0.496</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,25 +2764,25 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>76.18</v>
+        <v>76.21</v>
       </c>
       <c r="AF14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="AG14" s="1" t="n">
-        <v>-0.005</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.08</v>
+        <v>0.084</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="AL14" s="1" t="n">
         <v>0.22</v>
@@ -2791,7 +2791,7 @@
         <v>-0.028</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="AO14" s="1" t="n">
         <v>0.131</v>
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>256.45</v>
+        <v>255.9</v>
       </c>
       <c r="D15" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>-0.001</v>
-      </c>
       <c r="F15" s="1" t="n">
-        <v>0.055</v>
+        <v>0.052</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.07</v>
+        <v>0.083</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.282</v>
+        <v>0.263</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.278</v>
+        <v>0.283</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1.025</v>
+        <v>1.021</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.839</v>
+        <v>0.812</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.239</v>
+        <v>3.194</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.12</v>
+        <v>12.55</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.011</v>
+        <v>0.035</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.126</v>
+        <v>0.076</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.167</v>
+        <v>0.208</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.542</v>
+        <v>0.603</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.452</v>
+        <v>0.563</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.128</v>
+        <v>0.158</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.379</v>
+        <v>0.428</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,34 +2877,34 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.19</v>
+        <v>95.12</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AG15" s="1" t="n">
         <v>-0.004</v>
       </c>
       <c r="AH15" s="1" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.081</v>
+        <v>0.074</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.076</v>
+        <v>0.072</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.09</v>
+        <v>0.087</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.443</v>
+        <v>0.446</v>
       </c>
       <c r="AO15" s="1" t="n">
         <v>0.107</v>
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>122.45</v>
+        <v>122.79</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.006</v>
+        <v>0.009</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.053</v>
+        <v>0.044</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.041</v>
+        <v>0.035</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.495</v>
+        <v>0.499</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.822</v>
+        <v>0.838</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.527</v>
+        <v>1.543</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.115</v>
+        <v>0.118</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.41</v>
+        <v>73.8</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.006</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.029</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="V16" s="1" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>-0.127</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="AA16" s="1" t="n">
         <v>-0.023</v>
-      </c>
-      <c r="W16" s="1" t="n">
-        <v>-0.136</v>
-      </c>
-      <c r="X16" s="1" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y16" s="1" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="Z16" s="1" t="n">
-        <v>0.973</v>
-      </c>
-      <c r="AA16" s="1" t="n">
-        <v>-0.028</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,16 +2996,16 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.21</v>
+        <v>41.3</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="AI16" s="1" t="n">
         <v>0.02</v>
@@ -3014,19 +3014,19 @@
         <v>0.103</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.072</v>
+        <v>0.075</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.304</v>
+        <v>0.307</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.234</v>
+        <v>0.236</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.142</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>145.6</v>
+        <v>146.14</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.079</v>
+        <v>0.086</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.207</v>
+        <v>0.2</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.166</v>
+        <v>0.182</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.908</v>
+        <v>0.915</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1.041</v>
+        <v>1.036</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.6</v>
+        <v>95.16</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.005</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.009</v>
+        <v>0.022</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.19</v>
+        <v>0.171</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.423</v>
+        <v>0.401</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.203</v>
+        <v>0.204</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.596</v>
+        <v>1.584</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.676</v>
+        <v>1.636</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.395</v>
+        <v>3.317</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.264</v>
+        <v>0.258</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.6</v>
+        <v>42.64</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="AJ17" s="1" t="n">
         <v>0.079</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.172</v>
+        <v>0.173</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.186</v>
+        <v>-0.187</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.042</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.109</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3172,19 +3172,19 @@
         <v>145.88</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0.004</v>
+        <v>0.009</v>
       </c>
       <c r="T18" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.028</v>
+        <v>0.02</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.135</v>
+        <v>0.12</v>
       </c>
       <c r="W18" s="1" t="n">
         <v>0.102</v>
@@ -3193,10 +3193,10 @@
         <v>0.794</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.833</v>
+        <v>0.836</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.407</v>
+        <v>2.41</v>
       </c>
       <c r="AA18" s="1" t="n">
         <v>0.1</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.27</v>
+        <v>29.42</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0.006</v>
+        <v>0.02</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.104</v>
+        <v>0.098</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.27</v>
+        <v>0.268</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.186</v>
+        <v>0.197</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.192</v>
+        <v>0.198</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,34 +3290,34 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.55</v>
+        <v>50.57</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>0.036</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.094</v>
+        <v>0.095</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.254</v>
+        <v>0.238</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.242</v>
+        <v>0.239</v>
       </c>
       <c r="J20" s="1" t="n">
         <v>0.758</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1.05</v>
+        <v>1.039</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.724</v>
+        <v>1.725</v>
       </c>
       <c r="M20" s="1" t="n">
         <v>0.263</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.71</v>
+        <v>71.22</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.009</v>
+        <v>0.002</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.049</v>
+        <v>0.025</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.133</v>
+        <v>0.12</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.052</v>
+        <v>0.058</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.515</v>
+        <v>0.505</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.526</v>
+        <v>0.518</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.305</v>
+        <v>1.274</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.071</v>
+        <v>0.063</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,13 +3368,13 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.25</v>
+        <v>100.18</v>
       </c>
       <c r="AF20" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG20" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AG20" s="1" t="n">
-        <v>-0.001</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>0.011</v>
@@ -3383,22 +3383,22 @@
         <v>0.021</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.036</v>
+        <v>0.029</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.029</v>
+        <v>0.026</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.155</v>
+        <v>0.154</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.024</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.198</v>
+        <v>0.197</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>28.89</v>
+        <v>28.45</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.015</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.01</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.066</v>
+        <v>0.05</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.102</v>
+        <v>0.083</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.244</v>
+        <v>0.219</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.188</v>
+        <v>0.17</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.509</v>
+        <v>0.486</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.933</v>
+        <v>0.914</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>1.048</v>
+        <v>1.016</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.414</v>
+        <v>0.393</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,34 +3448,34 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.26</v>
+        <v>209.25</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0.015</v>
+        <v>0.027</v>
       </c>
       <c r="T21" s="1" t="n">
         <v>0.059</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.113</v>
+        <v>0.135</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.372</v>
+        <v>0.363</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.411</v>
+        <v>0.395</v>
       </c>
       <c r="X21" s="1" t="n">
         <v>1.358</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.766</v>
+        <v>1.752</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.267</v>
+        <v>3.283</v>
       </c>
       <c r="AA21" s="1" t="n">
         <v>0.449</v>
@@ -3487,35 +3487,35 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.23</v>
+        <v>51.27</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.17</v>
+        <v>0.171</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>68.21</v>
+        <v>66.78</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.021</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.101</v>
+        <v>0.078</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.126</v>
+        <v>0.093</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.345</v>
+        <v>0.306</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.334</v>
+        <v>0.305</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.704</v>
+        <v>0.669</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.371</v>
+        <v>1.34</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.708</v>
+        <v>0.675</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.483</v>
+        <v>0.452</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.053</v>
+        <v>0.049</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.194</v>
+        <v>0.179</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.198</v>
+        <v>0.203</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.835</v>
+        <v>0.833</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.727</v>
+        <v>0.704</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.291</v>
+        <v>2.268</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.095</v>
+        <v>0.094</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.07</v>
+        <v>48.97</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
       <c r="AG22" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="AJ22" s="1" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="AK22" s="1" t="n">
         <v>0.039</v>
       </c>
-      <c r="AK22" s="1" t="n">
-        <v>0.038</v>
-      </c>
       <c r="AL22" s="1" t="n">
-        <v>0.178</v>
+        <v>0.175</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.243</v>
+        <v>0.239</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>30.58</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0</v>
+        <v>-0.014</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.051</v>
+        <v>0.037</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.075</v>
+        <v>0.062</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.216</v>
+        <v>0.192</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.12</v>
+        <v>0.104</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.313</v>
+        <v>0.296</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.62</v>
+        <v>0.598</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1.304</v>
+        <v>1.273</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.403</v>
+        <v>0.384</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.25</v>
+        <v>108.13</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.008</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0.002</v>
+        <v>0.009</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.022</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.152</v>
+        <v>0.115</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.146</v>
+        <v>0.145</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.142</v>
+        <v>-0.138</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>1.119</v>
+        <v>1.136</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.971</v>
+        <v>0.949</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.385</v>
+        <v>3.363</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.053</v>
+        <v>0.062</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.15</v>
+        <v>95.12</v>
       </c>
       <c r="AF23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="1" t="n">
         <v>0.012</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.038</v>
+        <v>0.029</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.035</v>
+        <v>0.028</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.161</v>
+        <v>0.157</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.013</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.137</v>
+        <v>0.131</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.068</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>61.94</v>
+        <v>62.63</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.01</v>
+        <v>0.026</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.036</v>
+        <v>0.047</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.042</v>
+        <v>0.056</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.173</v>
+        <v>0.194</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.219</v>
+        <v>0.251</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.096</v>
+        <v>1.12</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.88</v>
+        <v>0.885</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.345</v>
+        <v>1.376</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.34</v>
+        <v>0.355</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.67</v>
+        <v>37.28</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0.002</v>
+        <v>0.017</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0.004</v>
+        <v>0.024</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.037</v>
+        <v>0.054</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.199</v>
+        <v>0.211</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.252</v>
+        <v>0.282</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.181</v>
+        <v>0.201</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.172</v>
+        <v>0.191</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.199</v>
+        <v>0.202</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.267</v>
+        <v>0.289</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,13 +3840,13 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.47</v>
+        <v>111.51</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>0.019</v>
@@ -3855,22 +3855,22 @@
         <v>0.028</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.051</v>
+        <v>0.046</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.031</v>
+        <v>0.027</v>
       </c>
       <c r="AL24" s="1" t="n">
         <v>0.237</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.16</v>
+        <v>42.66</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.017</v>
+        <v>0.028</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.034</v>
+        <v>0.046</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.05</v>
+        <v>0.069</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.094</v>
+        <v>0.109</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.18</v>
+        <v>0.203</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.875</v>
+        <v>0.897</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.077</v>
+        <v>1.093</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.727</v>
+        <v>1.769</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.202</v>
+        <v>0.216</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.18</v>
+        <v>86.34</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.002</v>
       </c>
       <c r="S25" s="1" t="n">
         <v>-0.009</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.12</v>
+        <v>0.089</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.262</v>
+        <v>0.24</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.124</v>
+        <v>0.147</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.6</v>
+        <v>0.603</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.877</v>
+        <v>0.83</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.26</v>
+        <v>1.278</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.55</v>
+        <v>93.67</v>
       </c>
       <c r="AF25" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG25" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.046</v>
+        <v>0.048</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.307</v>
+        <v>0.309</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.322</v>
+        <v>0.317</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.525</v>
+        <v>0.529</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>41.97</v>
+        <v>42.5</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.012</v>
+        <v>0.028</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.012</v>
+        <v>0.025</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.057</v>
+        <v>0.066</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.139</v>
+        <v>0.158</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.169</v>
+        <v>0.186</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.8</v>
+        <v>0.823</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.991</v>
+        <v>1.012</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.894</v>
+        <v>0.911</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.263</v>
+        <v>0.279</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.58</v>
+        <v>60.12</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.008</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.021</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.066</v>
+        <v>0.054</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.245</v>
+        <v>0.236</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.272</v>
+        <v>0.271</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.769</v>
+        <v>0.756</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.933</v>
+        <v>0.906</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.795</v>
+        <v>0.778</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.162</v>
+        <v>0.153</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.91</v>
+        <v>26.98</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.056</v>
+        <v>0.054</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.269</v>
+        <v>0.272</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.164</v>
+        <v>0.162</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.09</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>43.93</v>
+        <v>44.49</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.003</v>
+        <v>0.013</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.001</v>
+        <v>0.025</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.031</v>
+        <v>0.045</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.026</v>
+        <v>0.038</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.114</v>
+        <v>0.136</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.12</v>
+        <v>0.152</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.784</v>
+        <v>0.807</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.838</v>
+        <v>0.85</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.384</v>
+        <v>1.415</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.252</v>
+        <v>0.268</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.71</v>
+        <v>25.86</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.006</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.009</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.056</v>
+        <v>0.041</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.109</v>
+        <v>0.117</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.024</v>
+        <v>0.055</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.087</v>
+        <v>0.093</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>53.03</v>
+        <v>52.94</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>0.016</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.036</v>
+        <v>0.033</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>0.052</v>
+        <v>0.049</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.203</v>
+        <v>0.201</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.121</v>
+        <v>0.118</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>41.61</v>
+        <v>42.13</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.008</v>
+        <v>0.022</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.006</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.003</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.131</v>
+        <v>0.149</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.25</v>
+        <v>0.284</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.256</v>
+        <v>1.284</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.636</v>
+        <v>0.646</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.144</v>
+        <v>1.189</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.329</v>
+        <v>0.346</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4272,31 +4272,31 @@
         <v>68.39</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1" t="n">
         <v>-0.021</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.031</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.034</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="X28" s="1" t="n">
         <v>0.231</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.535</v>
+        <v>0.515</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.504</v>
+        <v>1.505</v>
       </c>
       <c r="AA28" s="1" t="n">
         <v>0.06</v>
@@ -4308,13 +4308,13 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.09</v>
+        <v>54.08</v>
       </c>
       <c r="AF28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>0.012</v>
@@ -4323,19 +4323,19 @@
         <v>0.027</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="AL28" s="1" t="n">
         <v>0.269</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="AO28" s="1" t="n">
         <v>0.083</v>
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>55.24</v>
+        <v>55.94</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0</v>
+        <v>0.026</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.011</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.008</v>
+        <v>0.017</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.072</v>
+        <v>0.101</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.08</v>
+        <v>0.099</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.568</v>
+        <v>0.588</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.225</v>
+        <v>1.254</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.225</v>
+        <v>0.24</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.23</v>
+        <v>38.7</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.014</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.024</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.041</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.047</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.075</v>
+        <v>0.047</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.057</v>
+        <v>0.042</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.074</v>
+        <v>0.06</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.505</v>
+        <v>0.491</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.206</v>
+        <v>1.187</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.118</v>
+        <v>0.103</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,34 +4427,34 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.54</v>
+        <v>51.51</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.058</v>
+        <v>0.048</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="AL29" s="1" t="n">
         <v>0.238</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.092</v>
+        <v>-0.093</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.365</v>
+        <v>0.368</v>
       </c>
       <c r="AO29" s="1" t="n">
         <v>0.08</v>
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>91.75</v>
+        <v>92.7</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.001</v>
+        <v>0.014</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.073</v>
+        <v>0.084</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.111</v>
+        <v>0.121</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.242</v>
+        <v>0.254</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.19</v>
+        <v>0.188</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.688</v>
+        <v>0.705</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.343</v>
+        <v>0.336</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.197</v>
+        <v>1.213</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.283</v>
+        <v>0.297</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.86</v>
+        <v>45.75</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.031</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.04</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.022</v>
+        <v>-0.002</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.035</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.153</v>
+        <v>0.15</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.509</v>
+        <v>0.49</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.67</v>
+        <v>0.667</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,34 +4546,34 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.62</v>
+        <v>24.64</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.082</v>
+        <v>0.083</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.597</v>
+        <v>0.605</v>
       </c>
       <c r="AO30" s="1" t="n">
         <v>0.058</v>
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.1</v>
+        <v>17.18</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.005</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.005</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.112</v>
+        <v>0.118</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.395</v>
+        <v>0.401</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.731</v>
+        <v>0.718</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.978</v>
+        <v>0.997</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.095</v>
+        <v>0.1</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.72</v>
+        <v>60.49</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0.016</v>
+        <v>0.052</v>
       </c>
       <c r="T31" s="1" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="V31" s="1" t="n">
         <v>0.018</v>
       </c>
-      <c r="U31" s="1" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="V31" s="1" t="n">
-        <v>-0.021</v>
-      </c>
       <c r="W31" s="1" t="n">
-        <v>-0.085</v>
+        <v>-0.052</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.203</v>
+        <v>0.239</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.369</v>
+        <v>0.413</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.405</v>
+        <v>1.454</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.017</v>
+        <v>0.047</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>81.19</v>
+        <v>80.96</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>0.009</v>
+        <v>0.006</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.071</v>
+        <v>0.069</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.262</v>
+        <v>0.254</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.654</v>
+        <v>0.659</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.073</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.58</v>
+        <v>40.25</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.008</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.086</v>
+        <v>0.077</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.009</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.08</v>
+        <v>0.071</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.531</v>
+        <v>0.526</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>1.03</v>
+        <v>1.031</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.39</v>
+        <v>49.34</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.053</v>
+        <v>-0.061</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.128</v>
+        <v>-0.115</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.28</v>
+        <v>0.277</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.208</v>
+        <v>1.21</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.73</v>
+        <v>29.63</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.064</v>
+        <v>0.058</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.076</v>
+        <v>0.072</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.297</v>
+        <v>0.288</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.989</v>
+        <v>0.982</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.081</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.06</v>
+        <v>52.39</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.007</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-0.065</v>
+        <v>-0.062</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0.015</v>
+        <v>0.026</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.104</v>
+        <v>-0.093</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.288</v>
+        <v>0.296</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.653</v>
+        <v>0.64</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>72.56</v>
+        <v>74.96</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0.027</v>
+        <v>0.033</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0.031</v>
+        <v>0.068</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.024</v>
+        <v>0.058</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.112</v>
+        <v>0.138</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.068</v>
+        <v>0.118</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.045</v>
+        <v>0.082</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.352</v>
+        <v>0.397</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.447</v>
+        <v>0.501</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.72</v>
+        <v>0.759</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.119</v>
+        <v>0.156</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,35 +4903,35 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.13</v>
+        <v>48.05</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AG33" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AH33" s="1" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.039</v>
+        <v>0.034</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.186</v>
+        <v>0.184</v>
       </c>
       <c r="AM33" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -4945,31 +4945,31 @@
         <v>80.21</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.008</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>0.025</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.07</v>
+        <v>0.078</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.168</v>
+        <v>0.186</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.148</v>
+        <v>0.146</v>
       </c>
       <c r="J34" s="1" t="n">
         <v>0.733</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.483</v>
+        <v>0.482</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>1.084</v>
+        <v>1.069</v>
       </c>
       <c r="M34" s="1" t="n">
         <v>0.205</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.37</v>
+        <v>148.51</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0.014</v>
+        <v>0.029</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.013</v>
+        <v>0.049</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.142</v>
+        <v>0.164</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.109</v>
+        <v>0.194</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.028</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.244</v>
+        <v>0.28</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.08</v>
+        <v>0.101</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.464</v>
+        <v>0.498</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.094</v>
+        <v>0.125</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>100.05</v>
+        <v>100.82</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.005</v>
+        <v>0.014</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.061</v>
+        <v>0.069</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.115</v>
+        <v>0.132</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.203</v>
+        <v>0.213</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.221</v>
+        <v>0.235</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.548</v>
+        <v>0.56</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.486</v>
+        <v>0.464</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.096</v>
+        <v>2.115</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.193</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>65.85</v>
+        <v>66.25</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0.074</v>
+        <v>0.081</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.195</v>
+        <v>0.199</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.331</v>
+        <v>0.287</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.679</v>
+        <v>0.689</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.018</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.809</v>
+        <v>0.808</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.419</v>
+        <v>0.428</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.08</v>
+        <v>59.53</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.009</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.041</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.046</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.005</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.291</v>
+        <v>0.28</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.229</v>
+        <v>0.221</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.394</v>
+        <v>2.337</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.032</v>
+        <v>0.023</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.55</v>
+        <v>21.67</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.017</v>
+        <v>0.028</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.085</v>
+        <v>0.088</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.254</v>
+        <v>0.248</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.204</v>
+        <v>0.184</v>
       </c>
       <c r="J36" s="1" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>0.563</v>
+      </c>
+      <c r="M36" s="1" t="n">
         <v>0.329</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>0.161</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>0.562</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>0.322</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>23.61</v>
+        <v>24.33</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0.026</v>
+        <v>0.062</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.066</v>
+        <v>0.098</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.151</v>
+        <v>0.179</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.133</v>
+        <v>0.227</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>-0.029</v>
+        <v>0.007</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.081</v>
+        <v>-0.053</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.37</v>
+        <v>-0.356</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.051</v>
+        <v>0.083</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>63.62</v>
+        <v>64.14</v>
       </c>
       <c r="D37" s="1" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>0.009</v>
       </c>
-      <c r="E37" s="1" t="n">
-        <v>-0.01</v>
-      </c>
       <c r="F37" s="1" t="n">
-        <v>0.082</v>
+        <v>0.09</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.108</v>
+        <v>0.114</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.219</v>
+        <v>0.238</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.023</v>
+        <v>1.04</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>1.032</v>
+        <v>1.019</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.982</v>
+        <v>2.93</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.229</v>
+        <v>0.239</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>126.64</v>
+        <v>124.96</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.013</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>0</v>
+        <v>-0.008</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.003</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="V37" s="1" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="Y37" s="1" t="n">
+        <v>1.363</v>
+      </c>
+      <c r="Z37" s="1" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="AA37" s="1" t="n">
         <v>0.141</v>
-      </c>
-      <c r="W37" s="1" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="X37" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="Y37" s="1" t="n">
-        <v>1.414</v>
-      </c>
-      <c r="Z37" s="1" t="n">
-        <v>2.571</v>
-      </c>
-      <c r="AA37" s="1" t="n">
-        <v>0.156</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>72.77</v>
+        <v>72.88</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.026</v>
+        <v>0.037</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.167</v>
+        <v>0.158</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.252</v>
+        <v>0.238</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.464</v>
+        <v>0.452</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.308</v>
+        <v>1.311</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.023</v>
+        <v>1.009</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.375</v>
+        <v>2.387</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>80.1</v>
+        <v>81.89</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.022</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.023</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.109</v>
+        <v>0.134</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.116</v>
+        <v>0.143</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.462</v>
+        <v>0.493</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.282</v>
+        <v>0.321</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.798</v>
+        <v>0.839</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.342</v>
+        <v>0.358</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.986</v>
+        <v>0.998</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.574</v>
+        <v>0.609</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.42</v>
+        <v>59.07</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.016</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.027</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0.072</v>
+        <v>0.036</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.146</v>
+        <v>0.135</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.153</v>
+        <v>0.179</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.466</v>
+        <v>0.457</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.316</v>
+        <v>1.28</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.277</v>
+        <v>1.263</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.093</v>
+        <v>0.086</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>42.37</v>
+        <v>42.91</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.013</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.06</v>
+        <v>0.078</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.171</v>
+        <v>0.186</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.291</v>
+        <v>0.311</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.367</v>
+        <v>0.401</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.491</v>
+        <v>0.501</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.421</v>
+        <v>1.452</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>0.958</v>
+        <v>0.943</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>2.055</v>
+        <v>2.087</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.609</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.37</v>
+        <v>24.34</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.001</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.087</v>
+        <v>0.086</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.209</v>
+        <v>0.191</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.389</v>
+        <v>0.39</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.451</v>
+        <v>0.423</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.714</v>
+        <v>0.711</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.603</v>
+        <v>0.599</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.646</v>
+        <v>0.636</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.575</v>
+        <v>0.573</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.3</v>
+        <v>62.97</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.015</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.033</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.072</v>
+        <v>0.032</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.137</v>
+        <v>0.131</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.148</v>
+        <v>0.182</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.178</v>
+        <v>0.171</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>1.034</v>
+        <v>1.01</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.967</v>
+        <v>0.958</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.07</v>
+        <v>0.064</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>142.88</v>
+        <v>142.07</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.006</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.141</v>
+        <v>0.135</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.163</v>
+        <v>0.15</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.588</v>
+        <v>0.577</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.591</v>
+        <v>0.559</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.788</v>
+        <v>0.778</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.701</v>
+        <v>0.677</v>
       </c>
       <c r="AN39" s="1" t="n">
         <v>0.626</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.72</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>64.1</v>
+        <v>64.75</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.02</v>
+        <v>0.045</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.111</v>
+        <v>0.123</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.193</v>
+        <v>0.194</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.363</v>
+        <v>0.362</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.354</v>
+        <v>0.374</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>1.012</v>
+        <v>1.032</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.131</v>
+        <v>1.111</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.887</v>
+        <v>0.888</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.548</v>
+        <v>0.563</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.03</v>
+        <v>133.31</v>
       </c>
       <c r="R40" s="1" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="S40" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="S40" s="1" t="n">
-        <v>0.018</v>
-      </c>
       <c r="T40" s="1" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.03</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.057</v>
+        <v>0.049</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.779</v>
+        <v>0.769</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.341</v>
+        <v>2.33</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.073</v>
+        <v>0.067</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>30</v>
+        <v>30.15</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.005</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>0.048</v>
+        <v>0.015</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.066</v>
+        <v>0.072</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.045</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.043</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.467</v>
+        <v>0.474</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.604</v>
+        <v>0.688</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.923</v>
+        <v>0.962</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.192</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>27</v>
+        <v>27.15</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.005</v>
+        <v>0.026</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.003</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.168</v>
+        <v>0.163</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.028</v>
+        <v>0.042</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.534</v>
+        <v>0.542</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.668</v>
+        <v>0.663</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.301</v>
+        <v>1.295</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.149</v>
+        <v>0.155</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.88</v>
+        <v>173.94</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.017</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>0.018</v>
+        <v>0.001</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0.048</v>
+        <v>0.032</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.275</v>
+        <v>0.244</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.391</v>
+        <v>0.378</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.168</v>
+        <v>1.132</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>2.088</v>
+        <v>2.033</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.425</v>
+        <v>4.328</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.237</v>
+        <v>0.217</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>65.01</v>
+        <v>65.54</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.002</v>
+        <v>0.016</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.036</v>
+        <v>0.045</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.067</v>
+        <v>0.076</v>
       </c>
       <c r="H42" s="1" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I42" s="1" t="n">
         <v>0.181</v>
       </c>
-      <c r="I42" s="1" t="n">
-        <v>0.169</v>
-      </c>
       <c r="J42" s="1" t="n">
-        <v>0.763</v>
+        <v>0.777</v>
       </c>
       <c r="K42" s="1" t="n">
         <v>0.617</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.264</v>
+        <v>0.274</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.52</v>
+        <v>33.5</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.001</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.018</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>-0.014</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.008</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.211</v>
+        <v>0.202</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.203</v>
+        <v>0.217</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.67</v>
+        <v>0.669</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.074</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>93.37</v>
+        <v>94.14</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.003</v>
+        <v>0.017</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.021</v>
+        <v>0.029</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.152</v>
+        <v>0.17</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.151</v>
+        <v>0.169</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.811</v>
+        <v>0.826</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.699</v>
+        <v>0.703</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.177</v>
+        <v>1.188</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.256</v>
+        <v>0.267</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>195.86</v>
+        <v>197.21</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0.004</v>
+        <v>0.018</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.078</v>
+        <v>0.085</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.131</v>
+        <v>0.151</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.394</v>
+        <v>0.391</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.294</v>
+        <v>0.334</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.7</v>
+        <v>1.718</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.651</v>
+        <v>1.634</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.465</v>
+        <v>7.522</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.229</v>
+        <v>0.238</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>47.67</v>
+        <v>48.26</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.012</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>-0.053</v>
+        <v>-0.007</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.172</v>
+        <v>0.187</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.228</v>
+        <v>0.29</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.064</v>
+        <v>1.091</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.711</v>
+        <v>0.695</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>1.629</v>
+        <v>1.661</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>4.015</v>
+        <v>4.237</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.648</v>
+        <v>3.719</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>0.78</v>
+        <v>0.802</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>39.61</v>
+        <v>39.86</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.061</v>
+        <v>0.072</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.102</v>
+        <v>0.115</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.153</v>
+        <v>0.165</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.74</v>
+        <v>0.751</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.014</v>
+        <v>1.018</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.711</v>
+        <v>1.72</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.159</v>
+        <v>0.167</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,34 +6115,34 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.01</v>
+        <v>115.07</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.001</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.001</v>
       </c>
       <c r="T44" s="1" t="n">
         <v>0.064</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.05</v>
+        <v>0.063</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.28</v>
+        <v>0.274</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.287</v>
+        <v>0.315</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.299</v>
+        <v>1.3</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.849</v>
+        <v>0.815</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>5.189</v>
+        <v>5.118</v>
       </c>
       <c r="AA44" s="1" t="n">
         <v>0.149</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>73.75</v>
+        <v>73.14</v>
       </c>
       <c r="AF44" s="1" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="AG44" s="1" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="AH44" s="1" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="AI44" s="1" t="n">
         <v>-0.011</v>
       </c>
-      <c r="AG44" s="1" t="n">
-        <v>-0.017</v>
-      </c>
-      <c r="AH44" s="1" t="n">
-        <v>-0.015</v>
-      </c>
-      <c r="AI44" s="1" t="n">
-        <v>0.009</v>
-      </c>
       <c r="AJ44" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.051</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>0.055</v>
+        <v>0.014</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.607</v>
+        <v>1.659</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.372</v>
+        <v>-0.373</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.032</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>53.4</v>
+        <v>53.82</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.002</v>
+        <v>0.013</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.071</v>
+        <v>0.079</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.107</v>
+        <v>0.114</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.232</v>
+        <v>0.24</v>
       </c>
       <c r="I45" s="1" t="n">
         <v>0.196</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.65</v>
+        <v>0.663</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.356</v>
+        <v>0.354</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>1.036</v>
+        <v>1.041</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.289</v>
+        <v>0.299</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>86.8</v>
+        <v>87.09</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.008</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.029</v>
+        <v>0.032</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.005</v>
+        <v>0.024</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.199</v>
+        <v>0.204</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.272</v>
+        <v>0.294</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.011</v>
+        <v>1.018</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.882</v>
+        <v>0.86</v>
       </c>
       <c r="Z45" s="1" t="n">
         <v>2.591</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.165</v>
+        <v>0.169</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>30.05</v>
+        <v>29.77</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.04</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.018</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>0.029</v>
+        <v>0.009</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.04</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>0.061</v>
+        <v>0.02</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.822</v>
+        <v>1.879</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.806</v>
+        <v>0.814</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.006</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,19 +6314,19 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.25</v>
+        <v>30.36</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.009</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.084</v>
+        <v>0.082</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -6341,37 +6341,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>271.12</v>
+        <v>276.34</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0.006</v>
+        <v>0.027</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.107</v>
+        <v>0.129</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.138</v>
+        <v>0.165</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.443</v>
+        <v>0.474</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.184</v>
+        <v>0.242</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.614</v>
+        <v>1.664</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.786</v>
+        <v>1.78</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10.071</v>
+        <v>10.42</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.265</v>
+        <v>0.29</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6380,37 +6380,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>13.07</v>
+        <v>13.62</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>0.02</v>
+        <v>0.042</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>0.057</v>
+        <v>0.102</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>0.019</v>
+        <v>0.062</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.145</v>
+        <v>-0.099</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.387</v>
+        <v>-0.342</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.2</v>
+        <v>-0.168</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.86</v>
+        <v>-0.854</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.714</v>
+        <v>-0.697</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.93</v>
+        <v>-0.924</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.222</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6421,37 +6421,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>44.19</v>
+        <v>44.63</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.004</v>
+        <v>0.023</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.024</v>
+        <v>0.035</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.022</v>
+        <v>0.035</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.12</v>
+        <v>0.137</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.093</v>
+        <v>0.11</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.713</v>
+        <v>0.73</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.597</v>
+        <v>0.598</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.339</v>
+        <v>1.363</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.207</v>
+        <v>0.219</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6460,37 +6460,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>125.95</v>
+        <v>126.81</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.009</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.075</v>
+        <v>0.082</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.122</v>
+        <v>0.143</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.315</v>
+        <v>0.349</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.766</v>
+        <v>1.785</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.486</v>
+        <v>1.464</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.917</v>
+        <v>6.967</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.236</v>
+        <v>0.244</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6540,37 +6540,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.55</v>
+        <v>36.62</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.07</v>
+        <v>0.068</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.211</v>
+        <v>0.216</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.275</v>
+        <v>0.29</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.946</v>
+        <v>0.95</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.988</v>
+        <v>0.985</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.328</v>
+        <v>1.324</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.388</v>
+        <v>0.391</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6579,35 +6579,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>45.78</v>
+        <v>46.6</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0.002</v>
+        <v>0.029</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.073</v>
+        <v>0.092</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.117</v>
+        <v>0.153</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.442</v>
+        <v>0.465</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.339</v>
+        <v>0.398</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>0.953</v>
+        <v>0.988</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.468</v>
+        <v>0.474</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.235</v>
+        <v>0.257</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6616,37 +6616,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.76</v>
+        <v>26.81</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.002</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.035</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.023</v>
+        <v>0.045</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.004</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.068</v>
+        <v>0.094</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.462</v>
+        <v>0.465</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.986</v>
+        <v>1.002</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.439</v>
+        <v>0.448</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6657,37 +6657,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>47.88</v>
+        <v>47.95</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.048</v>
+        <v>0.058</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.208</v>
+        <v>0.21</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.218</v>
+        <v>0.228</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.921</v>
+        <v>0.924</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.632</v>
+        <v>0.618</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.511</v>
+        <v>1.495</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.296</v>
+        <v>0.298</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6696,29 +6696,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>34.16</v>
+        <v>34.53</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.009</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.085</v>
+        <v>0.097</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.184</v>
+        <v>0.223</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.542</v>
+        <v>0.556</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.262</v>
+        <v>0.275</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6727,37 +6727,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.45</v>
+        <v>17.55</v>
       </c>
       <c r="AF49" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AG49" s="1" t="n">
         <v>-0.01</v>
       </c>
-      <c r="AG49" s="1" t="n">
-        <v>-0.017</v>
-      </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.001</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.002</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.063</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.06</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.355</v>
+        <v>-0.351</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.331</v>
+        <v>0.326</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.259</v>
+        <v>-0.255</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.07</v>
+        <v>-0.065</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6783,37 +6783,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>32.26</v>
+        <v>32.51</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.019</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.029</v>
+        <v>0.036</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.195</v>
+        <v>0.196</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.305</v>
+        <v>0.312</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.657</v>
+        <v>0.67</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.333</v>
+        <v>0.342</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.523</v>
+        <v>0.554</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.223</v>
+        <v>0.233</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6822,37 +6822,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.005</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.012</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.035</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.074</v>
+        <v>-0.088</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.11</v>
+        <v>-0.125</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.216</v>
+        <v>-0.228</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.551</v>
+        <v>-0.549</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.592</v>
+        <v>-0.593</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.147</v>
+        <v>-0.143</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6917,37 +6917,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.46</v>
+        <v>21.73</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.013</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.003</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.029</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.003</v>
       </c>
       <c r="AJ51" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.069</v>
+        <v>-0.057</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.178</v>
+        <v>-0.168</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.355</v>
+        <v>0.367</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.192</v>
+        <v>0.222</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6958,31 +6958,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>65</v>
+        <v>66.74</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0</v>
+        <v>0.027</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.025</v>
+        <v>0.036</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>0.058</v>
+        <v>0.086</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.062</v>
+        <v>0.115</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.367</v>
+        <v>0.382</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.799</v>
+        <v>0.9</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.225</v>
+        <v>0.258</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6991,37 +6991,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>60.75</v>
+        <v>59.93</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.013</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0.009</v>
+        <v>0.003</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>0.057</v>
+        <v>0.042</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.137</v>
+        <v>0.12</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.38</v>
+        <v>0.347</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.406</v>
+        <v>0.365</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.214</v>
+        <v>1.184</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.263</v>
+        <v>0.217</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.583</v>
+        <v>2.567</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.438</v>
+        <v>0.419</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7069,31 +7069,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>31.51</v>
+        <v>32.8</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.041</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.003</v>
+        <v>0.043</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.001</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.652</v>
+        <v>0.803</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.225</v>
+        <v>1.267</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.602</v>
+        <v>0.739</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.246</v>
+        <v>0.297</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7102,35 +7102,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>121.23</v>
+        <v>122.11</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.007</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0.005</v>
+        <v>0.023</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>0.062</v>
+        <v>0.069</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.107</v>
+        <v>0.129</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.382</v>
+        <v>0.391</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.6</v>
+        <v>0.624</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>2.056</v>
+        <v>2.078</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>1.088</v>
+        <v>1.078</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.454</v>
+        <v>0.464</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7139,37 +7139,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.6</v>
+        <v>10.36</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.023</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>0.026</v>
+        <v>0.001</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.05</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.031</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.14</v>
+        <v>-0.173</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.198</v>
+        <v>-0.222</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.221</v>
+        <v>0.194</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.741</v>
+        <v>0.693</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.211</v>
+        <v>0.173</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.073</v>
+        <v>-0.094</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7180,37 +7180,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>69.02</v>
+        <v>68.55</v>
       </c>
       <c r="D54" s="1" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="E54" s="1" t="n">
         <v>-0.009</v>
       </c>
-      <c r="E54" s="1" t="n">
-        <v>-0.03</v>
-      </c>
       <c r="F54" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.031</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.101</v>
+        <v>0.096</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.068</v>
+        <v>0.074</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.935</v>
+        <v>0.921</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.69</v>
+        <v>0.653</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.398</v>
+        <v>1.363</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.072</v>
+        <v>0.065</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7219,37 +7219,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>110.9</v>
+        <v>111.71</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.035</v>
+        <v>0.043</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.066</v>
+        <v>0.071</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.118</v>
+        <v>0.11</v>
       </c>
       <c r="W54" s="1" t="n">
         <v>0.113</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.473</v>
+        <v>0.484</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.719</v>
+        <v>1.769</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.172</v>
+        <v>0.181</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7299,37 +7299,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>37.89</v>
+        <v>38.05</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.104</v>
+        <v>0.109</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.105</v>
+        <v>0.113</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.257</v>
+        <v>0.263</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.423</v>
+        <v>0.437</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.266</v>
+        <v>0.268</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.085</v>
+        <v>0.089</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7338,37 +7338,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>87.21</v>
+        <v>88.05</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.041</v>
+        <v>0.051</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.075</v>
+        <v>0.082</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.134</v>
+        <v>0.129</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.461</v>
+        <v>0.475</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.712</v>
+        <v>0.711</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.779</v>
+        <v>1.839</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.176</v>
+        <v>0.188</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7416,35 +7416,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>33.16</v>
+        <v>32.97</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.026</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>-0.086</v>
+        <v>-0.091</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.31</v>
+        <v>-0.314</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.355</v>
+        <v>-0.36</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.331</v>
+        <v>-0.383</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.902</v>
+        <v>-0.903</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>-0.979</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.276</v>
+        <v>-0.28</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7453,34 +7453,34 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>72.11</v>
+        <v>72.12</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.007</v>
+        <v>0.019</v>
       </c>
       <c r="T56" s="1" t="n">
         <v>-0.009</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.033</v>
+        <v>0.016</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.125</v>
+        <v>0.116</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.028</v>
+        <v>0.036</v>
       </c>
       <c r="X56" s="1" t="n">
         <v>0.605</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.861</v>
+        <v>0.855</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.683</v>
+        <v>2.689</v>
       </c>
       <c r="AA56" s="1" t="n">
         <v>0.101</v>
@@ -7541,37 +7541,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>97.08</v>
+        <v>97.13</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0.003</v>
+        <v>0.013</v>
       </c>
       <c r="T57" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.031</v>
+        <v>0.024</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.037</v>
+        <v>0.026</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.018</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.291</v>
+        <v>0.292</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.382</v>
+        <v>0.356</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.864</v>
+        <v>0.856</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7605,37 +7605,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>84.97</v>
+        <v>85.05</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0.012</v>
+        <v>0.022</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.282</v>
+        <v>0.284</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.59</v>
+        <v>0.542</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.972</v>
+        <v>0.976</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7673,37 +7673,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>91.42</v>
+        <v>91.56</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0.036</v>
+        <v>0.03</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.039</v>
+        <v>0.03</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.016</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.293</v>
+        <v>0.295</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.404</v>
+        <v>0.378</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.809</v>
+        <v>0.803</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.057</v>
+        <v>0.059</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7739,37 +7739,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>21.97</v>
+        <v>22.24</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.016</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.006</v>
       </c>
       <c r="U60" s="1" t="n">
         <v>0.049</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.012</v>
+        <v>0.045</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.387</v>
+        <v>0.404</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.298</v>
+        <v>0.3</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.384</v>
+        <v>0.398</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.082</v>
+        <v>0.095</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7805,37 +7805,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>86.74</v>
+        <v>87.14</v>
       </c>
       <c r="R61" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.005</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.047</v>
+        <v>0.055</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.186</v>
+        <v>0.177</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.112</v>
+        <v>0.129</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.384</v>
+        <v>0.391</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.928</v>
+        <v>0.927</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.582</v>
+        <v>1.601</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.085</v>
+        <v>0.09</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/01/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/02/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,34 +1669,34 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>334.26</v>
+        <v>334.28</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.048</v>
+        <v>0.054</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.104</v>
+        <v>0.097</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.237</v>
+        <v>0.23</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.232</v>
+        <v>0.233</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>1.13</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.266</v>
+        <v>1.301</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.613</v>
+        <v>3.546</v>
       </c>
       <c r="M5" s="1" t="n">
         <v>0.165</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.56</v>
+        <v>47.09</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.029</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.013</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.054</v>
+        <v>0.026</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.038</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.034</v>
+        <v>0.015</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.32</v>
+        <v>0.307</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.593</v>
+        <v>2.519</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.963</v>
+        <v>0.865</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.066</v>
+        <v>0.056</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,37 +1747,37 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.8</v>
+        <v>82.82</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.129</v>
+        <v>0.133</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.071</v>
+        <v>0.074</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.163</v>
+        <v>0.165</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.036</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>671.84</v>
+        <v>672.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.011</v>
+        <v>0.017</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.039</v>
+        <v>0.048</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.086</v>
+        <v>0.082</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.199</v>
+        <v>0.193</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.191</v>
+        <v>0.192</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.956</v>
+        <v>0.957</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.135</v>
+        <v>1.157</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>3.12</v>
+        <v>3.065</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.5</v>
+        <v>92.1</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.028</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.018</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>0.051</v>
+        <v>0.017</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.028</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>0.025</v>
+        <v>-0.001</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.225</v>
+        <v>0.206</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>3.234</v>
+        <v>3.095</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>1.119</v>
+        <v>0.992</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.063</v>
+        <v>0.047</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,37 +1866,37 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.47</v>
+        <v>119.52</v>
       </c>
       <c r="AF6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.014</v>
+        <v>0.018</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.027</v>
+        <v>0.032</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.031</v>
+        <v>0.036</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.138</v>
+        <v>0.142</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.006</v>
       </c>
       <c r="AN6" s="1" t="n">
         <v>0.151</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.49</v>
+        <v>65.57</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.046</v>
+        <v>0.037</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.124</v>
+        <v>0.107</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.559</v>
+        <v>0.56</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.871</v>
+        <v>0.856</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.795</v>
+        <v>1.759</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.54</v>
+        <v>19.17</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.019</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.022</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.031</v>
+        <v>0.019</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.128</v>
+        <v>0.08</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.022</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.056</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.419</v>
+        <v>0.392</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.996</v>
+        <v>1.865</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.346</v>
+        <v>-0.395</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.016</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.49</v>
+        <v>96.59</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>0.007</v>
+        <v>0.014</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.019</v>
+        <v>0.026</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.028</v>
+        <v>0.033</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.109</v>
+        <v>0.114</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.108</v>
+        <v>-0.103</v>
       </c>
       <c r="AN7" s="1" t="n">
         <v>0.106</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.071</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>242.49</v>
+        <v>244.02</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.004</v>
+        <v>0.02</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.034</v>
+        <v>0.046</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.115</v>
+        <v>0.107</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.222</v>
+        <v>0.211</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.125</v>
+        <v>0.134</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.529</v>
+        <v>0.538</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.694</v>
+        <v>0.697</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.535</v>
+        <v>1.513</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.106</v>
+        <v>0.113</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.88</v>
+        <v>15.89</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.026</v>
+        <v>0.001</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.104</v>
+        <v>0.122</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.201</v>
+        <v>0.183</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.397</v>
+        <v>0.39</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.118</v>
+        <v>0.128</v>
       </c>
       <c r="X8" s="1" t="n">
         <v>-0.131</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.114</v>
+        <v>-0.113</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>1.073</v>
+        <v>1.004</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.41</v>
+        <v>0.411</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>102.96</v>
+        <v>103.21</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.002</v>
+        <v>0.009</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.024</v>
+        <v>0.036</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.024</v>
+        <v>0.036</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.013</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.064</v>
+        <v>0.07</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.273</v>
+        <v>-0.266</v>
       </c>
       <c r="AN8" s="1" t="n">
         <v>-0.026</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.063</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.15</v>
+        <v>24.96</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.008</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.026</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.015</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.025</v>
+        <v>0.018</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.035</v>
+        <v>0.015</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.347</v>
+        <v>0.337</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>2.028</v>
+        <v>1.996</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>1.187</v>
+        <v>1.096</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.12</v>
+        <v>0.112</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>89.29</v>
+        <v>89.55</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.035</v>
+        <v>0.049</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.021</v>
+        <v>0.034</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.001</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.043</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.018</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.368</v>
+        <v>-0.362</v>
       </c>
       <c r="AN9" s="1" t="n">
         <v>-0.063</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.053</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>147.64</v>
+        <v>149.13</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.006</v>
+        <v>0.026</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.01</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.039</v>
+        <v>0.034</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.103</v>
+        <v>0.106</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.435</v>
+        <v>0.45</v>
       </c>
       <c r="Y10" s="1" t="n">
         <v>0.651</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.691</v>
+        <v>1.652</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.149</v>
+        <v>0.161</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.22</v>
+        <v>111.17</v>
       </c>
       <c r="AF10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.149</v>
+        <v>0.151</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.317</v>
+        <v>0.311</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.069</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>203.87</v>
+        <v>204.06</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.016</v>
+        <v>0.022</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.095</v>
+        <v>0.089</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.098</v>
+        <v>0.099</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.592</v>
+        <v>0.593</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.896</v>
+        <v>0.892</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.723</v>
+        <v>1.685</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.92</v>
+        <v>45.02</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0.009</v>
+        <v>0.002</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.043</v>
+        <v>0.035</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.096</v>
+        <v>0.103</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.185</v>
+        <v>0.15</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.266</v>
+        <v>0.273</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.071</v>
+        <v>0.068</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.483</v>
+        <v>0.486</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.101</v>
+        <v>1.106</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.526</v>
+        <v>2.458</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.308</v>
+        <v>0.311</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,37 +2413,37 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.24</v>
+        <v>103.19</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>0.053</v>
+        <v>0.055</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.172</v>
+        <v>0.174</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>0.201</v>
+        <v>0.203</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>0.055</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>471.18</v>
+        <v>471.72</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.013</v>
+        <v>0.019</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.058</v>
+        <v>0.069</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.123</v>
+        <v>0.115</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.297</v>
+        <v>0.288</v>
       </c>
       <c r="I12" s="1" t="n">
         <v>0.278</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.28</v>
+        <v>1.283</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.213</v>
+        <v>1.261</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.523</v>
+        <v>4.451</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.177</v>
+        <v>0.178</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.57</v>
+        <v>65.45</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.002</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.216</v>
+        <v>0.179</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.497</v>
+        <v>0.477</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>0.972</v>
+        <v>0.971</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.681</v>
+        <v>2.675</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.179</v>
+        <v>1.215</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>6.133</v>
+        <v>5.628</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.345</v>
+        <v>1.341</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,37 +2532,37 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.39</v>
+        <v>106.36</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.021</v>
+        <v>0.026</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="AJ12" s="1" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AK12" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="AO12" s="1" t="n">
         <v>0.022</v>
-      </c>
-      <c r="AK12" s="1" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="AL12" s="1" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AM12" s="1" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="AN12" s="1" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="AO12" s="1" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>195.84</v>
+        <v>196.36</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.019</v>
+        <v>0.026</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.039</v>
+        <v>0.049</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0.07</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.149</v>
+        <v>0.145</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="M13" s="1" t="n">
         <v>0.11</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>0.951</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>2.767</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>0.107</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.57</v>
+        <v>27.22</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.013</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.067</v>
+        <v>0.041</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.269</v>
+        <v>0.198</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.543</v>
+        <v>0.513</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.86</v>
+        <v>0.823</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.076</v>
+        <v>1.033</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.155</v>
+        <v>2.115</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.836</v>
+        <v>0.844</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>4.418</v>
+        <v>4.079</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.395</v>
+        <v>1.365</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,7 +2651,7 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.35</v>
+        <v>22.33</v>
       </c>
       <c r="AF13" s="1" t="n">
         <v>-0.001</v>
@@ -2660,28 +2660,28 @@
         <v>0.002</v>
       </c>
       <c r="AH13" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.001</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AL13" s="1" t="n">
         <v>0.093</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.101</v>
+        <v>0.091</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.224</v>
+        <v>0.222</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>94.97</v>
+        <v>94.83</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.009</v>
+        <v>0.013</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.011</v>
+        <v>0.019</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.513</v>
+        <v>0.511</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.883</v>
+        <v>1.843</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2734,28 +2734,28 @@
         <v>37.8</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.061</v>
+        <v>0.058</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.167</v>
+        <v>0.164</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.257</v>
+        <v>0.218</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.205</v>
+        <v>0.199</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.496</v>
+        <v>0.497</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>76.21</v>
+        <v>76.15</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.084</v>
+        <v>0.078</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.22</v>
+        <v>0.219</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.029</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,34 +2805,34 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>255.9</v>
+        <v>255.81</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.003</v>
+        <v>0.009</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.052</v>
+        <v>0.057</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.263</v>
+        <v>0.247</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.283</v>
+        <v>0.278</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1.021</v>
+        <v>1.02</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.812</v>
+        <v>0.854</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.194</v>
+        <v>3.133</v>
       </c>
       <c r="M15" s="1" t="n">
         <v>0.245</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.55</v>
+        <v>12.68</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.035</v>
+        <v>0.01</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.076</v>
+        <v>0.052</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.208</v>
+        <v>0.268</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.603</v>
+        <v>0.547</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.563</v>
+        <v>0.594</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.158</v>
+        <v>0.137</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.428</v>
+        <v>0.443</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.12</v>
+        <v>95.17</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AH15" s="1" t="n">
-        <v>0.015</v>
+        <v>0.024</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.074</v>
+        <v>0.08</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.072</v>
+        <v>0.079</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.4</v>
+        <v>0.407</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.087</v>
+        <v>0.096</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.446</v>
+        <v>0.437</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.107</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>122.79</v>
+        <v>121.88</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.007</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.009</v>
+        <v>0.004</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.044</v>
+        <v>0.032</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.073</v>
+        <v>0.064</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.499</v>
+        <v>0.488</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.838</v>
+        <v>0.822</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.543</v>
+        <v>1.486</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.118</v>
+        <v>0.11</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.8</v>
+        <v>73.77</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.014</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.027</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.02</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-0.127</v>
+        <v>-0.123</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.186</v>
+        <v>0.185</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.224</v>
+        <v>0.218</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.981</v>
+        <v>0.952</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.024</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,34 +2996,34 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.3</v>
+        <v>41.27</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.103</v>
+        <v>0.099</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.075</v>
+        <v>0.079</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.307</v>
+        <v>0.306</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.236</v>
+        <v>0.218</v>
       </c>
       <c r="AO16" s="1" t="n">
         <v>0.144</v>
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>146.14</v>
+        <v>146.44</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.011</v>
+        <v>0.018</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.039</v>
+        <v>0.049</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.086</v>
+        <v>0.083</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.2</v>
+        <v>0.194</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.182</v>
+        <v>0.184</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.915</v>
+        <v>0.919</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1.036</v>
+        <v>1.057</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.143</v>
+        <v>0.146</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.16</v>
+        <v>95.46</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.003</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.022</v>
+        <v>0.033</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.04</v>
+        <v>0.051</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.171</v>
+        <v>0.162</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.401</v>
+        <v>0.376</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.204</v>
+        <v>0.215</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.584</v>
+        <v>1.592</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.636</v>
+        <v>1.613</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.317</v>
+        <v>3.291</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.258</v>
+        <v>0.262</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.64</v>
+        <v>42.61</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>0.005</v>
+        <v>0.014</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.011</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.079</v>
+        <v>0.074</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.187</v>
+        <v>-0.186</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.049</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.88</v>
+        <v>146.61</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0.009</v>
+        <v>0.023</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0.001</v>
+        <v>0.016</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.12</v>
+        <v>0.116</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.102</v>
+        <v>0.108</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.794</v>
+        <v>0.803</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>0.836</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.41</v>
+        <v>2.378</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.1</v>
+        <v>0.106</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.42</v>
+        <v>29.47</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0.02</v>
+        <v>0.028</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.037</v>
+        <v>0.047</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.098</v>
+        <v>0.088</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.268</v>
+        <v>0.253</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.197</v>
+        <v>0.203</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.198</v>
+        <v>0.2</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.57</v>
+        <v>50.59</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.036</v>
+        <v>0.041</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.095</v>
+        <v>0.092</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.238</v>
+        <v>0.225</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.239</v>
+        <v>0.241</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1.039</v>
+        <v>1.042</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.725</v>
+        <v>1.686</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.263</v>
+        <v>0.264</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.22</v>
+        <v>71.72</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.007</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.007</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.002</v>
+        <v>0.019</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.058</v>
+        <v>0.076</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.505</v>
+        <v>0.516</v>
       </c>
       <c r="Y20" s="1" t="n">
         <v>0.518</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.274</v>
+        <v>1.28</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.063</v>
+        <v>0.071</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.18</v>
+        <v>100.29</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.011</v>
+        <v>0.018</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.021</v>
+        <v>0.027</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.029</v>
+        <v>0.035</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.154</v>
+        <v>0.159</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.019</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.197</v>
+        <v>0.198</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.061</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>28.45</v>
+        <v>28.31</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.005</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.005</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.083</v>
+        <v>0.068</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.219</v>
+        <v>0.209</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.17</v>
+        <v>0.156</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.486</v>
+        <v>0.479</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.914</v>
+        <v>0.917</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>1.016</v>
+        <v>0.945</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.393</v>
+        <v>0.386</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.25</v>
+        <v>209.38</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0.027</v>
+        <v>0.031</v>
       </c>
       <c r="T21" s="1" t="n">
         <v>0.059</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.135</v>
+        <v>0.138</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.363</v>
+        <v>0.359</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.395</v>
+        <v>0.396</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.358</v>
+        <v>1.36</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.752</v>
+        <v>1.725</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.283</v>
+        <v>3.251</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,35 +3487,35 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.27</v>
+        <v>51.32</v>
       </c>
       <c r="AF21" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="AJ21" s="1" t="n">
         <v>0.024</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.171</v>
+        <v>0.172</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>66.78</v>
+        <v>66.9</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.002</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.078</v>
+        <v>0.063</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.093</v>
+        <v>0.086</v>
       </c>
       <c r="H22" s="1" t="n">
         <v>0.306</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.305</v>
+        <v>0.291</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.669</v>
+        <v>0.672</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.34</v>
+        <v>1.333</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.675</v>
+        <v>0.659</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.452</v>
+        <v>0.455</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>104.7</v>
+        <v>104.33</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.049</v>
+        <v>0.042</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.179</v>
+        <v>0.156</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.203</v>
+        <v>0.207</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.833</v>
+        <v>0.826</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.704</v>
+        <v>0.708</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.268</v>
+        <v>2.212</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.094</v>
+        <v>0.09</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>48.97</v>
+        <v>49.1</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AG22" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.006</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.031</v>
+        <v>0.04</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.039</v>
+        <v>0.049</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.175</v>
+        <v>0.182</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.239</v>
+        <v>0.251</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.062</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58</v>
+        <v>30.24</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.011</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.037</v>
+        <v>0.043</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.062</v>
+        <v>0.046</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.192</v>
+        <v>0.178</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.104</v>
+        <v>0.083</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.296</v>
+        <v>0.281</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.598</v>
+        <v>0.61</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1.273</v>
+        <v>1.143</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.384</v>
+        <v>0.368</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>108.13</v>
+        <v>108.26</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0.009</v>
+        <v>0.026</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.016</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.115</v>
+        <v>0.105</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.145</v>
+        <v>0.13</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.138</v>
+        <v>-0.129</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>1.136</v>
+        <v>1.139</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.949</v>
+        <v>0.941</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.363</v>
+        <v>3.345</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.12</v>
+        <v>95.24</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AH23" s="1" t="n">
-        <v>0.012</v>
+        <v>0.021</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.029</v>
+        <v>0.039</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.028</v>
+        <v>0.038</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.157</v>
+        <v>0.166</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.005</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.131</v>
+        <v>0.138</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.064</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>62.63</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.026</v>
+        <v>0.041</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.047</v>
+        <v>0.067</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>0.056</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.194</v>
+        <v>0.196</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.251</v>
+        <v>0.262</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.12</v>
+        <v>1.132</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.885</v>
+        <v>0.9</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.376</v>
+        <v>1.35</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.355</v>
+        <v>0.363</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.28</v>
+        <v>37.56</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0.017</v>
+        <v>0.008</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.054</v>
+        <v>0.077</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.211</v>
+        <v>0.194</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.282</v>
+        <v>0.286</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.201</v>
+        <v>0.199</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.191</v>
+        <v>0.2</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.202</v>
+        <v>0.231</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.289</v>
+        <v>0.298</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.51</v>
+        <v>111.69</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.002</v>
+        <v>0.009</v>
       </c>
       <c r="AH24" s="1" t="n">
-        <v>0.019</v>
+        <v>0.028</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.028</v>
+        <v>0.033</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.046</v>
+        <v>0.049</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.027</v>
+        <v>0.035</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.237</v>
+        <v>0.243</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.009</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.076</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.66</v>
+        <v>42.99</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.028</v>
+        <v>0.036</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.046</v>
+        <v>0.063</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.069</v>
+        <v>0.07</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.109</v>
+        <v>0.119</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.203</v>
+        <v>0.215</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.897</v>
+        <v>0.912</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.093</v>
+        <v>1.106</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.769</v>
+        <v>1.746</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.216</v>
+        <v>0.225</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.34</v>
+        <v>86.78</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.013</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.089</v>
+        <v>0.084</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.147</v>
+        <v>0.168</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.603</v>
+        <v>0.611</v>
       </c>
       <c r="Y25" s="1" t="n">
         <v>0.83</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.278</v>
+        <v>1.25</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.092</v>
+        <v>0.097</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,34 +3959,34 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.67</v>
+        <v>93.16</v>
       </c>
       <c r="AF25" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>0.015</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.048</v>
+        <v>0.045</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.074</v>
+        <v>0.072</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.309</v>
+        <v>0.308</v>
       </c>
       <c r="AM25" s="1" t="n">
         <v>0.317</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.529</v>
+        <v>0.525</v>
       </c>
       <c r="AO25" s="1" t="n">
         <v>0.053</v>
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.5</v>
+        <v>42.26</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.006</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.025</v>
+        <v>0.033</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.158</v>
+        <v>0.147</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.186</v>
+        <v>0.182</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.823</v>
+        <v>0.812</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>1.012</v>
+        <v>0.985</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.911</v>
+        <v>0.851</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.279</v>
+        <v>0.272</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.12</v>
+        <v>60.35</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.004</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.014</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>0.011</v>
+        <v>0.023</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.236</v>
+        <v>0.214</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.271</v>
+        <v>0.275</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.756</v>
+        <v>0.762</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.906</v>
+        <v>0.911</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.778</v>
+        <v>0.766</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.153</v>
+        <v>0.158</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,31 +4078,31 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.98</v>
+        <v>26.88</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
       <c r="AJ26" s="1" t="n">
         <v>0.054</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="AL26" s="1" t="n">
         <v>0.272</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.162</v>
+        <v>0.163</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>44.49</v>
+        <v>44.77</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.045</v>
+        <v>0.059</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.136</v>
+        <v>0.14</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.152</v>
+        <v>0.164</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.807</v>
+        <v>0.818</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.85</v>
+        <v>0.862</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.415</v>
+        <v>1.388</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.268</v>
+        <v>0.276</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.86</v>
+        <v>26.22</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.006</v>
+        <v>0.014</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0.009</v>
+        <v>0.043</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.019</v>
+        <v>0.029</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.117</v>
+        <v>0.123</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.055</v>
+        <v>0.073</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.093</v>
+        <v>0.108</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>52.94</v>
+        <v>52.95</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.033</v>
+        <v>0.037</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.201</v>
+        <v>0.206</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.118</v>
+        <v>0.122</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.301</v>
+        <v>0.304</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>42.13</v>
+        <v>42.47</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.022</v>
+        <v>0.042</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.006</v>
+        <v>0.035</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.149</v>
+        <v>0.155</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.284</v>
+        <v>0.3</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.284</v>
+        <v>1.303</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.646</v>
+        <v>0.667</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.189</v>
+        <v>1.178</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.346</v>
+        <v>0.357</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.39</v>
+        <v>68.04</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.027</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.036</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>-0.034</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.231</v>
+        <v>0.225</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.515</v>
+        <v>0.526</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.505</v>
+        <v>1.461</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.08</v>
+        <v>54.12</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="AH28" s="1" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>0.027</v>
+        <v>0.032</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.052</v>
+        <v>0.055</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>0.05</v>
+        <v>0.056</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.269</v>
+        <v>0.275</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.057</v>
+        <v>0.063</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.374</v>
+        <v>0.377</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.083</v>
+        <v>0.088</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>55.94</v>
+        <v>56.25</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.026</v>
+        <v>0.044</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.011</v>
+        <v>0.029</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.101</v>
+        <v>0.113</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.099</v>
+        <v>0.11</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.588</v>
+        <v>0.597</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.493</v>
+        <v>0.498</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.254</v>
+        <v>1.237</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.24</v>
+        <v>0.247</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.7</v>
+        <v>39.24</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.014</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.024</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.02</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.048</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.047</v>
+        <v>0.06</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.042</v>
+        <v>0.054</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.491</v>
+        <v>0.498</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.187</v>
+        <v>1.209</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.103</v>
+        <v>0.119</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.51</v>
+        <v>51.65</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.032</v>
+        <v>0.044</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.036</v>
+        <v>0.044</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.048</v>
+        <v>0.051</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.005</v>
+        <v>0.016</v>
       </c>
       <c r="AL29" s="1" t="n">
-        <v>0.238</v>
+        <v>0.246</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.093</v>
+        <v>-0.088</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.08</v>
+        <v>0.087</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>92.7</v>
+        <v>93.37</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.014</v>
+        <v>0.025</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.084</v>
+        <v>0.091</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.121</v>
+        <v>0.125</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.254</v>
+        <v>0.262</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.188</v>
+        <v>0.177</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.705</v>
+        <v>0.717</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.336</v>
+        <v>0.364</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.213</v>
+        <v>1.186</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.297</v>
+        <v>0.306</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.75</v>
+        <v>45.86</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.015</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.03</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.041</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.021</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.15</v>
+        <v>0.153</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.667</v>
+        <v>0.646</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,7 +4546,7 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.64</v>
+        <v>24.53</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>0.001</v>
@@ -4555,28 +4555,28 @@
         <v>0.006</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.058</v>
+        <v>0.055</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.605</v>
+        <v>0.601</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.18</v>
+        <v>17.34</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.005</v>
+        <v>0.009</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0.005</v>
+        <v>0.023</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.007</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.049</v>
+        <v>0.061</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.118</v>
+        <v>0.125</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.019</v>
+        <v>0.035</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.401</v>
+        <v>0.414</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.718</v>
+        <v>0.74</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.997</v>
+        <v>0.977</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.1</v>
+        <v>0.111</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.49</v>
+        <v>60.43</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0.03</v>
+        <v>-0.001</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0.052</v>
+        <v>0.068</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.049</v>
+        <v>0.046</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.06</v>
+        <v>0.067</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.018</v>
+        <v>0.011</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.051</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.239</v>
+        <v>0.238</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.413</v>
+        <v>0.425</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.454</v>
+        <v>1.398</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.96</v>
+        <v>80.93</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.069</v>
+        <v>0.073</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.353</v>
+        <v>0.359</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.254</v>
+        <v>0.26</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.659</v>
+        <v>0.665</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.07</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.25</v>
+        <v>40.48</v>
       </c>
       <c r="D32" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0.088</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="H32" s="1" t="n">
         <v>-0.008</v>
       </c>
-      <c r="E32" s="1" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="F32" s="1" t="n">
+      <c r="I32" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J32" s="1" t="n">
         <v>0.077</v>
       </c>
-      <c r="G32" s="1" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="H32" s="1" t="n">
-        <v>-0.009</v>
-      </c>
-      <c r="I32" s="1" t="n">
-        <v>-0.009</v>
-      </c>
-      <c r="J32" s="1" t="n">
-        <v>0.071</v>
-      </c>
       <c r="K32" s="1" t="n">
-        <v>0.526</v>
+        <v>0.55</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>1.031</v>
+        <v>1.015</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.34</v>
+        <v>49.92</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.012</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0.003</v>
+        <v>0.028</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.047</v>
+        <v>0.057</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.052</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.115</v>
+        <v>-0.099</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.01</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.277</v>
+        <v>0.286</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.21</v>
+        <v>1.201</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.034</v>
+        <v>0.046</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.63</v>
+        <v>29.65</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.007</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>0.014</v>
+        <v>0.021</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.058</v>
+        <v>0.062</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.072</v>
+        <v>0.079</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.288</v>
+        <v>0.298</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.982</v>
+        <v>0.992</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.078</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.39</v>
+        <v>52.3</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.001</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-0.062</v>
+        <v>-0.059</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0.026</v>
+        <v>0.014</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.093</v>
+        <v>-0.092</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.296</v>
+        <v>0.294</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>1.09</v>
+        <v>1.049</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.96</v>
+        <v>74.59</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0.033</v>
+        <v>-0.005</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0.068</v>
+        <v>0.08</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.058</v>
+        <v>0.05</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.138</v>
+        <v>0.125</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.118</v>
+        <v>0.103</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.082</v>
+        <v>0.079</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.397</v>
+        <v>0.39</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.501</v>
+        <v>0.505</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.759</v>
+        <v>0.701</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.156</v>
+        <v>0.15</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,35 +4903,35 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.05</v>
+        <v>48.09</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG33" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AH33" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AI33" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="AJ33" s="1" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="AK33" s="1" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="AL33" s="1" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="AM33" s="1" t="n">
         <v>-0.001</v>
-      </c>
-      <c r="AH33" s="1" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="AI33" s="1" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="AJ33" s="1" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="AK33" s="1" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="AL33" s="1" t="n">
-        <v>0.184</v>
-      </c>
-      <c r="AM33" s="1" t="n">
-        <v>-0.006</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>80.21</v>
+        <v>80.15</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.186</v>
+        <v>0.184</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.146</v>
+        <v>0.152</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.482</v>
+        <v>0.489</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>1.069</v>
+        <v>1.043</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.205</v>
+        <v>0.204</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>148.51</v>
+        <v>149.62</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0.029</v>
+        <v>0.007</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.049</v>
+        <v>0.076</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.075</v>
+        <v>0.066</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.164</v>
+        <v>0.156</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.194</v>
+        <v>0.181</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.028</v>
+        <v>0.035</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.28</v>
+        <v>0.289</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.101</v>
+        <v>0.132</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.498</v>
+        <v>0.459</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.125</v>
+        <v>0.133</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>100.82</v>
+        <v>101.65</v>
       </c>
       <c r="AF34" s="1" t="n">
         <v>0.008</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.014</v>
+        <v>0.03</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.069</v>
+        <v>0.08</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.132</v>
+        <v>0.136</v>
       </c>
       <c r="AJ34" s="1" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="AK34" s="1" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="AL34" s="1" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="AM34" s="1" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="AN34" s="1" t="n">
+        <v>2.156</v>
+      </c>
+      <c r="AO34" s="1" t="n">
         <v>0.213</v>
-      </c>
-      <c r="AK34" s="1" t="n">
-        <v>0.235</v>
-      </c>
-      <c r="AL34" s="1" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="AM34" s="1" t="n">
-        <v>0.464</v>
-      </c>
-      <c r="AN34" s="1" t="n">
-        <v>2.115</v>
-      </c>
-      <c r="AO34" s="1" t="n">
-        <v>0.202</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>66.25</v>
+        <v>66.99</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.026</v>
+        <v>0.034</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0.081</v>
+        <v>0.087</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.199</v>
+        <v>0.218</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.226</v>
+        <v>0.249</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.287</v>
+        <v>0.221</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.689</v>
+        <v>0.708</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.005</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.808</v>
+        <v>0.759</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.428</v>
+        <v>0.444</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.53</v>
+        <v>59.95</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.007</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.011</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.027</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.035</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.021</v>
+        <v>0.031</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.28</v>
+        <v>0.289</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.221</v>
+        <v>0.244</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.337</v>
+        <v>2.29</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.023</v>
+        <v>0.03</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.67</v>
+        <v>21.6</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.088</v>
+        <v>0.074</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.248</v>
+        <v>0.24</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.184</v>
+        <v>0.124</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.336</v>
+        <v>0.332</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.155</v>
+        <v>0.158</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.563</v>
+        <v>0.514</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.329</v>
+        <v>0.325</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.33</v>
+        <v>24.46</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0.03</v>
+        <v>0.005</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0.062</v>
+        <v>0.089</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.098</v>
+        <v>0.095</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.179</v>
+        <v>0.165</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.227</v>
+        <v>0.208</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.053</v>
+        <v>-0.048</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.356</v>
+        <v>-0.334</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.083</v>
+        <v>0.089</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>64.14</v>
+        <v>64</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.009</v>
+        <v>0.015</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.09</v>
+        <v>0.102</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.114</v>
+        <v>0.089</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.331</v>
+        <v>0.32</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.238</v>
+        <v>0.233</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.04</v>
+        <v>1.035</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>1.019</v>
+        <v>1.041</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.93</v>
+        <v>2.879</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.239</v>
+        <v>0.236</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.96</v>
+        <v>124.72</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.002</v>
       </c>
       <c r="S37" s="1" t="n">
         <v>-0.008</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.115</v>
+        <v>0.101</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.229</v>
+        <v>0.225</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.94</v>
+        <v>0.937</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.363</v>
+        <v>1.338</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.515</v>
+        <v>2.503</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.141</v>
+        <v>0.139</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>72.88</v>
+        <v>72.65</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.037</v>
+        <v>0.029</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.158</v>
+        <v>0.148</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.238</v>
+        <v>0.232</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.452</v>
+        <v>0.447</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.311</v>
+        <v>1.304</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.009</v>
+        <v>1.004</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.387</v>
+        <v>2.302</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.472</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>81.89</v>
+        <v>83.53</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.023</v>
+        <v>0.046</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.134</v>
+        <v>0.161</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.143</v>
+        <v>0.161</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.493</v>
+        <v>0.529</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.321</v>
+        <v>0.349</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.839</v>
+        <v>0.875</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.358</v>
+        <v>0.402</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.998</v>
+        <v>1.018</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.609</v>
+        <v>0.641</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.07</v>
+        <v>58.88</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.018</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.022</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0.036</v>
+        <v>0.017</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.135</v>
+        <v>0.114</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.179</v>
+        <v>0.177</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.457</v>
+        <v>0.453</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.28</v>
+        <v>1.213</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.263</v>
+        <v>1.278</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.086</v>
+        <v>0.083</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>42.91</v>
+        <v>42.53</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.009</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.078</v>
+        <v>0.037</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.186</v>
+        <v>0.145</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.311</v>
+        <v>0.279</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.401</v>
+        <v>0.383</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.501</v>
+        <v>0.467</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.452</v>
+        <v>1.43</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>0.943</v>
+        <v>0.922</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>2.087</v>
+        <v>1.923</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.63</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.34</v>
+        <v>24.36</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.021</v>
+        <v>0.026</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.086</v>
+        <v>0.085</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.191</v>
+        <v>0.185</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.39</v>
+        <v>0.405</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.423</v>
+        <v>0.45</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.711</v>
+        <v>0.713</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.599</v>
+        <v>0.617</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.636</v>
+        <v>0.598</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.573</v>
+        <v>0.575</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>62.97</v>
+        <v>62.82</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.017</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.029</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.032</v>
+        <v>0.011</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.131</v>
+        <v>0.112</v>
       </c>
       <c r="W39" s="1" t="n">
         <v>0.182</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.171</v>
+        <v>0.169</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.958</v>
+        <v>0.987</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>142.07</v>
+        <v>142.84</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.057</v>
+        <v>0.021</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.135</v>
+        <v>0.115</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.15</v>
+        <v>0.097</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.577</v>
+        <v>0.609</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.559</v>
+        <v>0.546</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.778</v>
+        <v>0.788</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.677</v>
+        <v>0.729</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.626</v>
+        <v>0.624</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.711</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>64.75</v>
+        <v>64.21</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.008</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.194</v>
+        <v>0.182</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.362</v>
+        <v>0.393</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.374</v>
+        <v>0.356</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>1.032</v>
+        <v>1.015</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.111</v>
+        <v>1.102</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.888</v>
+        <v>0.792</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.563</v>
+        <v>0.55</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,34 +5645,34 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.31</v>
+        <v>133.35</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.021</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.031</v>
       </c>
       <c r="W40" s="1" t="n">
         <v>0.049</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.62</v>
+        <v>1.586</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.33</v>
+        <v>2.324</v>
       </c>
       <c r="AA40" s="1" t="n">
         <v>0.067</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>30.15</v>
+        <v>30.56</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>0.005</v>
+        <v>0.014</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>0.015</v>
+        <v>0.036</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.072</v>
+        <v>0.073</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.052</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.031</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.054</v>
+        <v>0.049</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.474</v>
+        <v>0.494</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.688</v>
+        <v>0.67</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.962</v>
+        <v>0.954</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.198</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>27.15</v>
+        <v>27.18</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.003</v>
+        <v>0.015</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.03</v>
+        <v>0.024</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.163</v>
+        <v>0.155</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.542</v>
+        <v>0.544</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.663</v>
+        <v>0.668</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.295</v>
+        <v>1.274</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.155</v>
+        <v>0.157</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>173.94</v>
+        <v>174.65</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.004</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>0.001</v>
+        <v>0.018</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0.032</v>
+        <v>0.024</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.244</v>
+        <v>0.23</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.132</v>
+        <v>1.14</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>2.033</v>
+        <v>2.027</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.328</v>
+        <v>4.403</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.217</v>
+        <v>0.222</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,16 +5842,16 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>65.54</v>
+        <v>65.72</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.016</v>
+        <v>0.025</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.045</v>
+        <v>0.054</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>0.076</v>
@@ -5860,19 +5860,19 @@
         <v>0.195</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.181</v>
+        <v>0.182</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.777</v>
+        <v>0.782</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.617</v>
+        <v>0.63</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.18</v>
+        <v>1.146</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.274</v>
+        <v>0.278</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.5</v>
+        <v>34.43</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.028</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.034</v>
       </c>
       <c r="T42" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.032</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.004</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.202</v>
+        <v>0.211</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.217</v>
+        <v>0.258</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.669</v>
+        <v>0.715</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.074</v>
+        <v>-0.039</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.073</v>
+        <v>0.103</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>94.14</v>
+        <v>94.29</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.017</v>
+        <v>0.026</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.029</v>
+        <v>0.041</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.17</v>
+        <v>0.169</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.169</v>
+        <v>0.174</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.826</v>
+        <v>0.828</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.703</v>
+        <v>0.71</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.188</v>
+        <v>1.155</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.267</v>
+        <v>0.269</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,19 +5996,19 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>197.21</v>
+        <v>198.49</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0.018</v>
+        <v>0.026</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.085</v>
+        <v>0.103</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.151</v>
+        <v>0.146</v>
       </c>
       <c r="V43" s="1" t="n">
         <v>0.391</v>
@@ -6017,16 +6017,16 @@
         <v>0.334</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.718</v>
+        <v>1.736</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.634</v>
+        <v>1.717</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.522</v>
+        <v>7.437</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.238</v>
+        <v>0.246</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>48.26</v>
+        <v>50.2</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>0.012</v>
+        <v>0.04</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.021</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.187</v>
+        <v>0.236</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.29</v>
+        <v>0.331</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.091</v>
+        <v>1.167</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.695</v>
+        <v>0.726</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>1.661</v>
+        <v>1.768</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>4.237</v>
+        <v>4.412</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.719</v>
+        <v>3.798</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>0.802</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>39.86</v>
+        <v>40.03</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.014</v>
+        <v>0.019</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.072</v>
+        <v>0.071</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="I44" s="1" t="n">
         <v>0.165</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.751</v>
+        <v>0.759</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.018</v>
+        <v>1.029</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.167</v>
+        <v>0.172</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.07</v>
+        <v>115.72</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.016</v>
       </c>
       <c r="T44" s="1" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="U44" s="1" t="n">
         <v>0.064</v>
       </c>
-      <c r="U44" s="1" t="n">
-        <v>0.063</v>
-      </c>
       <c r="V44" s="1" t="n">
-        <v>0.274</v>
+        <v>0.264</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.315</v>
+        <v>0.312</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.3</v>
+        <v>1.313</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.815</v>
+        <v>0.862</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>5.118</v>
+        <v>5.08</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.149</v>
+        <v>0.156</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>73.14</v>
+        <v>71.54</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.022</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.071</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.068</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.054</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.08</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.017</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>0.12</v>
+        <v>0.096</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.659</v>
+        <v>1.715</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.373</v>
+        <v>-0.395</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.053</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>53.82</v>
+        <v>54.07</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.013</v>
+        <v>0.024</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.079</v>
+        <v>0.085</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>0.114</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.24</v>
+        <v>0.244</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.196</v>
+        <v>0.179</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.663</v>
+        <v>0.671</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.354</v>
+        <v>0.376</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>1.041</v>
+        <v>0.997</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.299</v>
+        <v>0.305</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.09</v>
+        <v>87.95</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.032</v>
+        <v>0.057</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.024</v>
+        <v>0.033</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.204</v>
+        <v>0.201</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.294</v>
+        <v>0.301</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.018</v>
+        <v>1.038</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.86</v>
+        <v>0.897</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.591</v>
+        <v>2.545</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.169</v>
+        <v>0.181</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>29.77</v>
+        <v>29.2</v>
       </c>
       <c r="AF45" s="1" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="AG45" s="1" t="n">
+        <v>-0.066</v>
+      </c>
+      <c r="AH45" s="1" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="AI45" s="1" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="AJ45" s="1" t="n">
+        <v>-0.066</v>
+      </c>
+      <c r="AK45" s="1" t="n">
         <v>-0.009</v>
       </c>
-      <c r="AG45" s="1" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="AH45" s="1" t="n">
-        <v>-0.018</v>
-      </c>
-      <c r="AI45" s="1" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="AJ45" s="1" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="AK45" s="1" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AL45" s="1" t="n">
-        <v>0.09</v>
+        <v>0.069</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.879</v>
+        <v>1.947</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.814</v>
+        <v>0.771</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,19 +6314,19 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.36</v>
+        <v>30.43</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0.009</v>
+        <v>0.019</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.024</v>
+        <v>0.035</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.082</v>
+        <v>0.078</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -6341,37 +6341,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>276.34</v>
+        <v>281.69</v>
       </c>
       <c r="R46" s="1" t="n">
         <v>0.019</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0.027</v>
+        <v>0.05</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.129</v>
+        <v>0.162</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.165</v>
+        <v>0.166</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.474</v>
+        <v>0.493</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.242</v>
+        <v>0.249</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.664</v>
+        <v>1.716</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.78</v>
+        <v>1.921</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10.42</v>
+        <v>10.403</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.29</v>
+        <v>0.315</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6380,37 +6380,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>13.62</v>
+        <v>13.45</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>0.042</v>
+        <v>-0.012</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>0.102</v>
+        <v>0.068</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>0.062</v>
+        <v>0.052</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.099</v>
+        <v>-0.128</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.342</v>
+        <v>-0.361</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.168</v>
+        <v>-0.18</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.854</v>
+        <v>-0.856</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.697</v>
+        <v>-0.696</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.924</v>
+        <v>-0.925</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6421,37 +6421,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>44.63</v>
+        <v>44.81</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.023</v>
+        <v>0.034</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.035</v>
+        <v>0.049</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>0.137</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.11</v>
+        <v>0.116</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.73</v>
+        <v>0.737</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.598</v>
+        <v>0.607</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.363</v>
+        <v>1.309</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.219</v>
+        <v>0.224</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6460,37 +6460,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>126.81</v>
+        <v>127.65</v>
       </c>
       <c r="R47" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0.009</v>
+        <v>0.021</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.082</v>
+        <v>0.097</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.143</v>
+        <v>0.14</v>
       </c>
       <c r="V47" s="1" t="n">
         <v>0.386</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.785</v>
+        <v>1.804</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.464</v>
+        <v>1.537</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.967</v>
+        <v>6.877</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.244</v>
+        <v>0.252</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6540,37 +6540,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.62</v>
+        <v>36.5</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.068</v>
+        <v>0.061</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.216</v>
+        <v>0.212</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.29</v>
+        <v>0.287</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.95</v>
+        <v>0.944</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.985</v>
+        <v>0.966</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.324</v>
+        <v>1.277</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.391</v>
+        <v>0.387</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6579,35 +6579,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>46.6</v>
+        <v>47.01</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0.018</v>
+        <v>0.009</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0.029</v>
+        <v>0.043</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.092</v>
+        <v>0.116</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.153</v>
+        <v>0.155</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.465</v>
+        <v>0.459</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.398</v>
+        <v>0.393</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>0.988</v>
+        <v>1.006</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.474</v>
+        <v>0.508</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.257</v>
+        <v>0.268</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6616,37 +6616,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.81</v>
+        <v>26.68</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.028</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.045</v>
+        <v>0.031</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.018</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.094</v>
+        <v>0.088</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.465</v>
+        <v>0.458</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>1.002</v>
+        <v>0.993</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.448</v>
+        <v>0.431</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6657,37 +6657,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>47.95</v>
+        <v>47.91</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.21</v>
+        <v>0.202</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.228</v>
+        <v>0.233</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.924</v>
+        <v>0.923</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.618</v>
+        <v>0.627</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.495</v>
+        <v>1.493</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.298</v>
+        <v>0.296</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6696,29 +6696,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>34.53</v>
+        <v>34.93</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0.009</v>
+        <v>0.031</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.097</v>
+        <v>0.125</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.223</v>
+        <v>0.226</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.556</v>
+        <v>0.553</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.275</v>
+        <v>0.29</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6727,37 +6727,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.55</v>
+        <v>17.67</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.003</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.019</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.055</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.06</v>
+        <v>-0.059</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.347</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.326</v>
+        <v>0.346</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.255</v>
+        <v>-0.249</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.065</v>
+        <v>-0.059</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6783,37 +6783,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>32.51</v>
+        <v>32.56</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.036</v>
+        <v>0.043</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.1</v>
+        <v>0.106</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.196</v>
+        <v>0.193</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.312</v>
+        <v>0.302</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.67</v>
+        <v>0.673</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.554</v>
+        <v>0.542</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.233</v>
+        <v>0.234</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6822,37 +6822,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.13</v>
+        <v>4.16</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.017</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.014</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.088</v>
+        <v>-0.103</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.125</v>
+        <v>-0.115</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.228</v>
+        <v>-0.242</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.549</v>
+        <v>-0.545</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.27</v>
+        <v>-0.268</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.593</v>
+        <v>-0.586</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.143</v>
+        <v>-0.137</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6878,37 +6878,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>64.35</v>
+        <v>64.05</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>0.023</v>
+        <v>0.019</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.049</v>
+        <v>0.062</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.283</v>
+        <v>0.278</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.32</v>
+        <v>0.331</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.098</v>
+        <v>1.089</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.842</v>
+        <v>0.794</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.81</v>
+        <v>1.793</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.257</v>
+        <v>0.252</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6917,37 +6917,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.73</v>
+        <v>21.88</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>0.013</v>
+        <v>0.007</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.013</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.01</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.008</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.05</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.168</v>
+        <v>-0.162</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.367</v>
+        <v>0.382</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.222</v>
+        <v>0.233</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6958,31 +6958,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>66.74</v>
+        <v>68.77</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.036</v>
+        <v>0.107</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>0.086</v>
+        <v>0.092</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.115</v>
+        <v>0.102</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.382</v>
+        <v>0.392</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.9</v>
+        <v>1.008</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.258</v>
+        <v>0.296</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6991,37 +6991,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>59.93</v>
+        <v>60.59</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.011</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>0.042</v>
+        <v>0.065</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.12</v>
+        <v>0.144</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.347</v>
+        <v>0.362</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.365</v>
+        <v>0.338</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.184</v>
+        <v>1.208</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.217</v>
+        <v>0.251</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.567</v>
+        <v>2.488</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.419</v>
+        <v>0.435</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7069,31 +7069,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>32.8</v>
+        <v>34.05</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.043</v>
+        <v>0.151</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.054</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.803</v>
+        <v>0.724</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.267</v>
+        <v>1.353</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.739</v>
+        <v>0.894</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.297</v>
+        <v>0.346</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7102,35 +7102,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>122.11</v>
+        <v>121.65</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="T53" s="1" t="n">
         <v>0.069</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.129</v>
+        <v>0.142</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.391</v>
+        <v>0.369</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.624</v>
+        <v>0.602</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>2.078</v>
+        <v>2.066</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>1.078</v>
+        <v>1.116</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.464</v>
+        <v>0.459</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7139,37 +7139,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.36</v>
+        <v>10.49</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>-0.023</v>
+        <v>0.013</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.01</v>
       </c>
       <c r="AJ53" s="1" t="n">
         <v>-0.173</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.222</v>
+        <v>-0.202</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.194</v>
+        <v>0.209</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.693</v>
+        <v>0.717</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.173</v>
+        <v>0.16</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.094</v>
+        <v>-0.082</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7180,37 +7180,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>68.55</v>
+        <v>69.1</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.008</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.002</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.008</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.096</v>
+        <v>0.089</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.074</v>
+        <v>0.084</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.921</v>
+        <v>0.937</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.653</v>
+        <v>0.669</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.363</v>
+        <v>1.345</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.065</v>
+        <v>0.073</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7219,37 +7219,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>111.71</v>
+        <v>111.31</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.019</v>
+        <v>0.024</v>
       </c>
       <c r="T54" s="1" t="n">
         <v>0.043</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.071</v>
+        <v>0.078</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.11</v>
+        <v>0.101</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.113</v>
+        <v>0.109</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.484</v>
+        <v>0.478</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.72</v>
+        <v>0.694</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.769</v>
+        <v>1.722</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.181</v>
+        <v>0.176</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7299,37 +7299,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.05</v>
+        <v>38.2</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.01</v>
+        <v>0.018</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>0.039</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.074</v>
+        <v>0.081</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.109</v>
+        <v>0.115</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.113</v>
+        <v>0.122</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.263</v>
+        <v>0.268</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.437</v>
+        <v>0.446</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.268</v>
+        <v>0.277</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.089</v>
+        <v>0.094</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7338,37 +7338,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>88.05</v>
+        <v>87.89</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.002</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.021</v>
+        <v>0.029</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.082</v>
+        <v>0.089</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.129</v>
+        <v>0.122</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.113</v>
+        <v>0.11</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.475</v>
+        <v>0.472</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.711</v>
+        <v>0.688</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.839</v>
+        <v>1.796</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.188</v>
+        <v>0.185</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7416,35 +7416,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>32.97</v>
+        <v>33.44</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.014</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.025</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>-0.091</v>
+        <v>-0.106</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.314</v>
+        <v>-0.302</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.36</v>
+        <v>-0.332</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.383</v>
+        <v>-0.366</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.903</v>
+        <v>-0.901</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-0.979</v>
+        <v>-0.98</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.28</v>
+        <v>-0.27</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7453,37 +7453,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>72.12</v>
+        <v>72.66</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.019</v>
+        <v>0.032</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.008</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.016</v>
+        <v>0.022</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.116</v>
+        <v>0.114</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.036</v>
+        <v>0.044</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.605</v>
+        <v>0.617</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.855</v>
+        <v>0.858</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.689</v>
+        <v>2.617</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.101</v>
+        <v>0.109</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7541,37 +7541,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>97.13</v>
+        <v>96.62</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="S57" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="T57" s="1" t="n">
         <v>0.013</v>
       </c>
-      <c r="T57" s="1" t="n">
-        <v>0.001</v>
-      </c>
       <c r="U57" s="1" t="n">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.026</v>
+        <v>0.016</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.292</v>
+        <v>0.285</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.356</v>
+        <v>0.328</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.856</v>
+        <v>0.83</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.06</v>
+        <v>0.054</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7605,37 +7605,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>85.05</v>
+        <v>84.21</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0.022</v>
+        <v>0.014</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>0.009</v>
+        <v>0.016</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>0.037</v>
+        <v>0.027</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.013</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.014</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.284</v>
+        <v>0.271</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.542</v>
+        <v>0.493</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.976</v>
+        <v>0.937</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.067</v>
+        <v>0.056</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7673,37 +7673,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>91.56</v>
+        <v>91.08</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>0.002</v>
+        <v>0.014</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0.03</v>
+        <v>0.023</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.03</v>
+        <v>0.019</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.018</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.295</v>
+        <v>0.288</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.378</v>
+        <v>0.348</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.803</v>
+        <v>0.781</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.059</v>
+        <v>0.053</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7739,37 +7739,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>22.24</v>
+        <v>22.28</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.004</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.049</v>
+        <v>0.036</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.045</v>
+        <v>0.054</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.404</v>
+        <v>0.406</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.3</v>
+        <v>0.283</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.398</v>
+        <v>0.391</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.095</v>
+        <v>0.097</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7805,37 +7805,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>87.14</v>
+        <v>87.2</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.055</v>
+        <v>0.067</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.177</v>
+        <v>0.167</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.129</v>
+        <v>0.121</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.927</v>
+        <v>0.932</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.601</v>
+        <v>1.56</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/02/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/03/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>334.28</v>
+        <v>333.98</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.014</v>
+        <v>0.009</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.054</v>
+        <v>0.045</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.097</v>
+        <v>0.087</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.23</v>
+        <v>0.292</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.233</v>
+        <v>0.232</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.13</v>
+        <v>1.083</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.301</v>
+        <v>1.299</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.546</v>
+        <v>3.542</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.09</v>
+        <v>47.33</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.005</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.032</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.013</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.026</v>
+        <v>0.029</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>-0.038</v>
+        <v>0.048</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.015</v>
+        <v>0.002</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.307</v>
+        <v>0.246</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.519</v>
+        <v>2.537</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.865</v>
+        <v>0.874</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.056</v>
+        <v>0.061</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,28 +1747,28 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.82</v>
+        <v>82.79</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.133</v>
+        <v>0.13</v>
       </c>
       <c r="AM5" s="1" t="n">
         <v>0.074</v>
@@ -1777,7 +1777,7 @@
         <v>0.165</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
@@ -1788,34 +1788,34 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>672.5</v>
+        <v>672.42</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.048</v>
+        <v>0.043</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.082</v>
+        <v>0.074</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.193</v>
+        <v>0.253</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.192</v>
+        <v>0.194</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.957</v>
+        <v>0.907</v>
       </c>
       <c r="K6" s="1" t="n">
         <v>1.157</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>3.065</v>
+        <v>3.064</v>
       </c>
       <c r="M6" s="1" t="n">
         <v>0.153</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.1</v>
+        <v>92.54</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.005</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.033</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.016</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>-0.028</v>
+        <v>0.088</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.026</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.206</v>
+        <v>0.142</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>3.095</v>
+        <v>3.115</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.992</v>
+        <v>1.001</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.047</v>
+        <v>0.052</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,37 +1866,37 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.52</v>
+        <v>119.35</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.032</v>
+        <v>0.022</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.142</v>
+        <v>0.132</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="AN6" s="1" t="n">
-        <v>0.151</v>
+        <v>0.149</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.57</v>
+        <v>65.77</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.014</v>
+        <v>0.007</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.013</v>
+        <v>0.018</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.107</v>
+        <v>0.191</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.074</v>
+        <v>0.08</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.56</v>
+        <v>0.521</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.856</v>
+        <v>0.861</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.759</v>
+        <v>1.767</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.062</v>
+        <v>0.065</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.17</v>
+        <v>19.31</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.007</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.031</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.019</v>
+        <v>0.043</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.08</v>
+        <v>0.094</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.101</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.068</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.392</v>
+        <v>0.31</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.865</v>
+        <v>1.886</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.395</v>
+        <v>-0.39</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.009</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.59</v>
+        <v>96.4</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.033</v>
+        <v>0.021</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.114</v>
+        <v>0.098</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.103</v>
+        <v>-0.105</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.106</v>
+        <v>0.103</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>244.02</v>
+        <v>245.83</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.046</v>
+        <v>0.055</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.107</v>
+        <v>0.105</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.211</v>
+        <v>0.304</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.134</v>
+        <v>0.15</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.538</v>
+        <v>0.51</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.697</v>
+        <v>0.71</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.513</v>
+        <v>1.532</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.113</v>
+        <v>0.121</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.89</v>
+        <v>15.98</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.048</v>
+        <v>0.051</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.122</v>
+        <v>0.125</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.183</v>
+        <v>0.155</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.39</v>
+        <v>0.382</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.128</v>
+        <v>0.148</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.131</v>
+        <v>-0.152</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.113</v>
+        <v>-0.108</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>1.004</v>
+        <v>1.015</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.411</v>
+        <v>0.419</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>103.21</v>
+        <v>102.98</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.036</v>
+        <v>0.026</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.015</v>
+        <v>0.003</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.007</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.07</v>
+        <v>0.053</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.266</v>
+        <v>-0.268</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.028</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.069</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.96</v>
+        <v>25.12</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.006</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.027</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.01</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.018</v>
+        <v>0.091</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.337</v>
+        <v>0.283</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.996</v>
+        <v>2.015</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>1.096</v>
+        <v>1.109</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.112</v>
+        <v>0.119</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>89.55</v>
+        <v>89.38</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.049</v>
+        <v>0.036</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.034</v>
+        <v>0.039</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.035</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.035</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.362</v>
+        <v>-0.363</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.064</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.13</v>
+        <v>149.71</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.026</v>
+        <v>0.017</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.034</v>
+        <v>0.039</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.106</v>
+        <v>0.165</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.012</v>
+        <v>0.029</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.45</v>
+        <v>0.404</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.651</v>
+        <v>0.658</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.652</v>
+        <v>1.663</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.161</v>
+        <v>0.165</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.17</v>
+        <v>111.05</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.027</v>
+        <v>0.02</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.151</v>
+        <v>0.135</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.311</v>
+        <v>0.31</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.07</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>204.06</v>
+        <v>204.96</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.022</v>
+        <v>0.027</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.089</v>
+        <v>0.14</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.099</v>
+        <v>0.109</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.593</v>
+        <v>0.557</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.892</v>
+        <v>0.901</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.685</v>
+        <v>1.697</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.117</v>
+        <v>0.122</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.02</v>
+        <v>45.44</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0.002</v>
+        <v>0.009</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.103</v>
+        <v>0.1</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.15</v>
+        <v>0.161</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.273</v>
+        <v>0.36</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.068</v>
+        <v>0.102</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.486</v>
+        <v>0.443</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.106</v>
+        <v>1.126</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.458</v>
+        <v>2.49</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.311</v>
+        <v>0.323</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,34 +2413,34 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.19</v>
+        <v>103.15</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="1" t="n">
         <v>0.017</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="AK11" s="1" t="n">
         <v>0.055</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.174</v>
+        <v>0.165</v>
       </c>
       <c r="AM11" s="1" t="n">
         <v>0.203</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="AO11" s="1" t="n">
         <v>0.057</v>
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>471.72</v>
+        <v>469.94</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.019</v>
+        <v>0.011</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.069</v>
+        <v>0.054</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.115</v>
+        <v>0.098</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.288</v>
+        <v>0.359</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.278</v>
+        <v>0.273</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.283</v>
+        <v>1.222</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.261</v>
+        <v>1.252</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.451</v>
+        <v>4.43</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.178</v>
+        <v>0.174</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.45</v>
+        <v>65.62</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.05</v>
+        <v>0.029</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.179</v>
+        <v>0.175</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.477</v>
+        <v>0.472</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.719</v>
+        <v>0.725</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>0.971</v>
+        <v>1.016</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.675</v>
+        <v>2.541</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.215</v>
+        <v>1.221</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5.628</v>
+        <v>5.645</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.341</v>
+        <v>1.347</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,7 +2532,7 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.36</v>
+        <v>106.38</v>
       </c>
       <c r="AF12" s="1" t="n">
         <v>0</v>
@@ -2541,28 +2541,28 @@
         <v>0.004</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.027</v>
+        <v>0.022</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>0.133</v>
+        <v>0.128</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="AN12" s="1" t="n">
         <v>0.234</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>196.36</v>
+        <v>196.47</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.026</v>
+        <v>0.02</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.049</v>
+        <v>0.044</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.07</v>
+        <v>0.065</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.145</v>
+        <v>0.199</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M13" s="1" t="n">
         <v>0.111</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>0.956</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>1.021</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>2.727</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>0.11</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.22</v>
+        <v>27.3</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.003</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.041</v>
+        <v>0.018</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.198</v>
+        <v>0.173</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.513</v>
+        <v>0.515</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.823</v>
+        <v>0.867</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.033</v>
+        <v>1.048</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.115</v>
+        <v>1.918</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.844</v>
+        <v>0.849</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>4.079</v>
+        <v>4.094</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.365</v>
+        <v>1.372</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2654,25 +2654,25 @@
         <v>22.33</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.093</v>
+        <v>0.087</v>
       </c>
       <c r="AM13" s="1" t="n">
         <v>0.091</v>
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>94.83</v>
+        <v>95.15</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.019</v>
+        <v>0.034</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.059</v>
+        <v>0.066</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.511</v>
+        <v>0.479</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.614</v>
+        <v>0.62</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.843</v>
+        <v>1.853</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.8</v>
+        <v>38.24</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="S14" s="1" t="n">
         <v>0.058</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.164</v>
+        <v>0.158</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.218</v>
+        <v>0.241</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.452</v>
+        <v>0.565</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.199</v>
+        <v>0.249</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.497</v>
+        <v>0.514</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>76.15</v>
+        <v>76.22</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.078</v>
+        <v>0.06</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.063</v>
+        <v>0.068</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.219</v>
+        <v>0.208</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.028</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.13</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>255.81</v>
+        <v>254.27</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.002</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.057</v>
+        <v>0.05</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.082</v>
+        <v>0.065</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.247</v>
+        <v>0.31</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.278</v>
+        <v>0.273</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>1.02</v>
+        <v>0.954</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.854</v>
+        <v>0.843</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.133</v>
+        <v>3.108</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.245</v>
+        <v>0.237</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.68</v>
+        <v>13.17</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.01</v>
+        <v>0.039</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.052</v>
+        <v>0.116</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.268</v>
+        <v>0.312</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.547</v>
+        <v>0.579</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.594</v>
+        <v>0.734</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.137</v>
+        <v>0.215</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.443</v>
+        <v>0.499</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,31 +2877,31 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.17</v>
+        <v>95.21</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AH15" s="1" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.08</v>
+        <v>0.087</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.079</v>
+        <v>0.084</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.407</v>
+        <v>0.387</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="AN15" s="1" t="n">
         <v>0.437</v>
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>121.88</v>
+        <v>122.36</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.004</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.009</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.064</v>
+        <v>0.07</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.488</v>
+        <v>0.448</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.822</v>
+        <v>0.829</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.486</v>
+        <v>1.495</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.77</v>
+        <v>74.15</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.006</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.024</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-0.02</v>
+        <v>0.026</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-0.123</v>
+        <v>-0.114</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.185</v>
+        <v>0.155</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.218</v>
+        <v>0.224</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.952</v>
+        <v>0.962</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.019</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,28 +2996,28 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.27</v>
+        <v>41.28</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.099</v>
+        <v>0.091</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.079</v>
+        <v>0.084</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.306</v>
+        <v>0.286</v>
       </c>
       <c r="AM16" s="1" t="n">
         <v>0.048</v>
@@ -3037,31 +3037,31 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>146.44</v>
+        <v>146.46</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.049</v>
+        <v>0.044</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.083</v>
+        <v>0.075</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.194</v>
+        <v>0.256</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.184</v>
+        <v>0.187</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.919</v>
+        <v>0.869</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1.057</v>
+        <v>1.058</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.46</v>
+        <v>95.02</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.033</v>
+        <v>0.01</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.162</v>
+        <v>0.148</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.376</v>
+        <v>0.452</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.215</v>
+        <v>0.213</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.592</v>
+        <v>1.488</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.613</v>
+        <v>1.601</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.291</v>
+        <v>3.271</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.262</v>
+        <v>0.256</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,31 +3113,31 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.61</v>
+        <v>42.59</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.01</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.074</v>
+        <v>0.051</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.032</v>
+        <v>0.039</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.172</v>
+        <v>0.153</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.186</v>
+        <v>-0.187</v>
       </c>
       <c r="AN17" s="1" t="n">
         <v>-0.049</v>
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>146.61</v>
+        <v>147.04</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="S18" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="T18" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="T18" s="1" t="n">
-        <v>0.016</v>
-      </c>
       <c r="U18" s="1" t="n">
-        <v>0.023</v>
+        <v>0.017</v>
       </c>
       <c r="V18" s="1" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="W18" s="1" t="n">
         <v>0.116</v>
       </c>
-      <c r="W18" s="1" t="n">
-        <v>0.108</v>
-      </c>
       <c r="X18" s="1" t="n">
-        <v>0.803</v>
+        <v>0.76</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.836</v>
+        <v>0.841</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.378</v>
+        <v>2.388</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.106</v>
+        <v>0.109</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.47</v>
+        <v>29.52</v>
       </c>
       <c r="R19" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0.028</v>
+        <v>0.019</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.047</v>
+        <v>0.054</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.088</v>
+        <v>0.083</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.253</v>
+        <v>0.345</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.203</v>
+        <v>0.21</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.2</v>
+        <v>0.202</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.59</v>
+        <v>51.24</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.011</v>
+        <v>0.024</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.041</v>
+        <v>0.048</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.092</v>
+        <v>0.098</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.225</v>
+        <v>0.27</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.241</v>
+        <v>0.262</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.759</v>
+        <v>0.717</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1.042</v>
+        <v>1.068</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.686</v>
+        <v>1.72</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.264</v>
+        <v>0.28</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.72</v>
+        <v>72.23</v>
       </c>
       <c r="R20" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.019</v>
+        <v>0.027</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.11</v>
+        <v>0.223</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.076</v>
+        <v>0.094</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.516</v>
+        <v>0.491</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.518</v>
+        <v>0.529</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.28</v>
+        <v>1.296</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.071</v>
+        <v>0.079</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.29</v>
+        <v>100.18</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="AI20" s="1" t="n">
         <v>0.027</v>
       </c>
       <c r="AJ20" s="1" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AK20" s="1" t="n">
         <v>0.035</v>
       </c>
-      <c r="AK20" s="1" t="n">
-        <v>0.032</v>
-      </c>
       <c r="AL20" s="1" t="n">
-        <v>0.159</v>
+        <v>0.148</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.02</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.198</v>
+        <v>0.197</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>28.31</v>
+        <v>28.37</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.002</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.048</v>
+        <v>0.051</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.068</v>
+        <v>0.065</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.209</v>
+        <v>0.207</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.156</v>
+        <v>0.172</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.479</v>
+        <v>0.375</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.917</v>
+        <v>0.921</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.945</v>
+        <v>0.949</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.386</v>
+        <v>0.389</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.38</v>
+        <v>209.55</v>
       </c>
       <c r="R21" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0.031</v>
+        <v>0.019</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.059</v>
+        <v>0.068</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.138</v>
+        <v>0.126</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.359</v>
+        <v>0.425</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.396</v>
+        <v>0.407</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.36</v>
+        <v>1.295</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.725</v>
+        <v>1.727</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.251</v>
+        <v>3.254</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,7 +3487,7 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.32</v>
+        <v>51.35</v>
       </c>
       <c r="AF21" s="1" t="n">
         <v>0.001</v>
@@ -3496,26 +3496,26 @@
         <v>0.003</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.172</v>
+        <v>0.162</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>66.9</v>
+        <v>66.81</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.086</v>
+        <v>0.083</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.306</v>
+        <v>0.254</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.291</v>
+        <v>0.301</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.672</v>
+        <v>0.631</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.333</v>
+        <v>1.33</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.659</v>
+        <v>0.657</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.455</v>
+        <v>0.453</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>104.33</v>
+        <v>103.75</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.011</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>0.015</v>
+        <v>0.006</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.042</v>
+        <v>0.03</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.156</v>
+        <v>0.218</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.207</v>
+        <v>0.21</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.826</v>
+        <v>0.796</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.708</v>
+        <v>0.699</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.212</v>
+        <v>2.195</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.09</v>
+        <v>0.084</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,31 +3604,31 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.1</v>
+        <v>49.11</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="1" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.182</v>
+        <v>0.178</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="AN22" s="1" t="n">
         <v>0.251</v>
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>30.24</v>
+        <v>30.33</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.003</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.013</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.043</v>
+        <v>0.046</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.046</v>
+        <v>0.035</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.178</v>
+        <v>0.173</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.083</v>
+        <v>0.106</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.281</v>
+        <v>0.17</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1.143</v>
+        <v>1.149</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.368</v>
+        <v>0.373</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>108.26</v>
+        <v>109.24</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0.001</v>
+        <v>0.009</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0.026</v>
+        <v>0.022</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.013</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.105</v>
+        <v>0.135</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.13</v>
+        <v>0.214</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.129</v>
+        <v>-0.119</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>1.139</v>
+        <v>1.074</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.941</v>
+        <v>0.958</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.345</v>
+        <v>3.385</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.063</v>
+        <v>0.073</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.24</v>
+        <v>95.09</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AH23" s="1" t="n">
-        <v>0.021</v>
+        <v>0.016</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.039</v>
+        <v>0.031</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.166</v>
+        <v>0.154</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.138</v>
+        <v>0.137</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.072</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>63</v>
+        <v>63.11</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.041</v>
+        <v>0.03</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>0.067</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.056</v>
+        <v>0.059</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.196</v>
+        <v>0.22</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.262</v>
+        <v>0.278</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.132</v>
+        <v>1.087</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.9</v>
+        <v>0.904</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.35</v>
+        <v>1.354</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.56</v>
+        <v>37.52</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.001</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.077</v>
+        <v>0.081</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.194</v>
+        <v>0.178</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.286</v>
+        <v>0.341</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.199</v>
+        <v>0.227</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.2</v>
+        <v>0.176</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.231</v>
+        <v>0.229</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.298</v>
+        <v>0.297</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.69</v>
+        <v>111.55</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="AH24" s="1" t="n">
-        <v>0.028</v>
+        <v>0.021</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.243</v>
+        <v>0.219</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.081</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.99</v>
+        <v>42.92</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.036</v>
+        <v>0.026</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.063</v>
+        <v>0.061</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.07</v>
+        <v>0.065</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.119</v>
+        <v>0.156</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.912</v>
+        <v>0.868</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.106</v>
+        <v>1.103</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.746</v>
+        <v>1.742</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.225</v>
+        <v>0.223</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.78</v>
+        <v>86.99</v>
       </c>
       <c r="R25" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="S25" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="S25" s="1" t="n">
-        <v>0.013</v>
-      </c>
       <c r="T25" s="1" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.084</v>
+        <v>0.08</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.168</v>
+        <v>0.176</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.611</v>
+        <v>0.576</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.83</v>
+        <v>0.834</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.25</v>
+        <v>1.255</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.097</v>
+        <v>0.1</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.16</v>
+        <v>93.27</v>
       </c>
       <c r="AF25" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG25" s="1" t="n">
         <v>0.003</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.045</v>
+        <v>0.058</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.072</v>
+        <v>0.074</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.308</v>
+        <v>0.3</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.317</v>
+        <v>0.319</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.525</v>
+        <v>0.527</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.26</v>
+        <v>42.64</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.009</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.03</v>
+        <v>0.025</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.067</v>
+        <v>0.071</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.147</v>
+        <v>0.167</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.182</v>
+        <v>0.206</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.812</v>
+        <v>0.784</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.985</v>
+        <v>1.003</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.851</v>
+        <v>0.867</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.272</v>
+        <v>0.284</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>60.35</v>
+        <v>59.93</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.029</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>0.023</v>
+        <v>0.01</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.05</v>
+        <v>0.038</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.214</v>
+        <v>0.306</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.762</v>
+        <v>0.713</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.911</v>
+        <v>0.898</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.766</v>
+        <v>0.754</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.158</v>
+        <v>0.15</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.88</v>
+        <v>26.87</v>
       </c>
       <c r="AF26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="AJ26" s="1" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AK26" s="1" t="n">
         <v>0.054</v>
       </c>
-      <c r="AK26" s="1" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AL26" s="1" t="n">
-        <v>0.272</v>
+        <v>0.247</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.163</v>
+        <v>0.162</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.093</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>44.77</v>
+        <v>44.91</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.035</v>
+        <v>0.042</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.14</v>
+        <v>0.163</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.164</v>
+        <v>0.184</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.818</v>
+        <v>0.784</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.862</v>
+        <v>0.868</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.388</v>
+        <v>1.395</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.276</v>
+        <v>0.28</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.22</v>
+        <v>26.31</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.014</v>
+        <v>0.003</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0.043</v>
+        <v>0.034</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.029</v>
+        <v>0.025</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.039</v>
+        <v>0.044</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.123</v>
+        <v>0.196</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.073</v>
+        <v>0.093</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.108</v>
+        <v>0.112</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>52.95</v>
+        <v>52.92</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.037</v>
+        <v>0.033</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>0.053</v>
+        <v>0.055</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.206</v>
+        <v>0.199</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
       <c r="AN27" s="1" t="n">
         <v>0.304</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>42.47</v>
+        <v>42.43</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.001</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.042</v>
+        <v>0.03</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.155</v>
+        <v>0.174</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.3</v>
+        <v>0.312</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.303</v>
+        <v>1.246</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.667</v>
+        <v>0.666</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.178</v>
+        <v>1.176</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.04</v>
+        <v>67.92</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.024</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.039</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.051</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.007</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.225</v>
+        <v>0.201</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.526</v>
+        <v>0.523</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.461</v>
+        <v>1.457</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.055</v>
+        <v>0.053</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.12</v>
+        <v>54.06</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="AH28" s="1" t="n">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
       <c r="AI28" s="1" t="n">
         <v>0.032</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.055</v>
+        <v>0.051</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>0.056</v>
+        <v>0.06</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.275</v>
+        <v>0.257</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.377</v>
+        <v>0.376</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.088</v>
+        <v>0.087</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,10 +4349,10 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>56.25</v>
+        <v>56.66</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>0.044</v>
@@ -4361,25 +4361,25 @@
         <v>0.029</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.018</v>
+        <v>0.032</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.113</v>
+        <v>0.123</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.11</v>
+        <v>0.133</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.597</v>
+        <v>0.603</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.498</v>
+        <v>0.509</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.237</v>
+        <v>1.253</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.247</v>
+        <v>0.256</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.24</v>
+        <v>39.42</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="S29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.011</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.045</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.06</v>
+        <v>0.092</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.054</v>
+        <v>0.069</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.075</v>
+        <v>0.052</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.498</v>
+        <v>0.505</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.209</v>
+        <v>1.219</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.119</v>
+        <v>0.124</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.65</v>
+        <v>51.59</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>0.012</v>
+        <v>0.009</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.044</v>
+        <v>0.033</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.051</v>
+        <v>0.054</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.016</v>
+        <v>0.024</v>
       </c>
       <c r="AL29" s="1" t="n">
-        <v>0.246</v>
+        <v>0.22</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.088</v>
+        <v>-0.089</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.087</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>93.37</v>
+        <v>93.58</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.125</v>
+        <v>0.123</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.262</v>
+        <v>0.292</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.177</v>
+        <v>0.188</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.717</v>
+        <v>0.708</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.186</v>
+        <v>1.191</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.306</v>
+        <v>0.309</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.86</v>
+        <v>46</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0.015</v>
+        <v>0.008</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.025</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.038</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.008</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.003</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.153</v>
+        <v>0.138</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.494</v>
+        <v>0.498</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.646</v>
+        <v>0.651</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,37 +4546,37 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.53</v>
+        <v>24.56</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.055</v>
+        <v>0.073</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.082</v>
+        <v>0.084</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.601</v>
+        <v>0.603</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.34</v>
+        <v>17.4</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.009</v>
+        <v>0.003</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0.023</v>
+        <v>0.014</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>0.061</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.125</v>
+        <v>0.148</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.035</v>
+        <v>0.051</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.414</v>
+        <v>0.413</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.74</v>
+        <v>0.746</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.977</v>
+        <v>0.984</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.111</v>
+        <v>0.115</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.43</v>
+        <v>61.16</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.012</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0.068</v>
+        <v>0.071</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.046</v>
+        <v>0.063</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.067</v>
+        <v>0.079</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.011</v>
+        <v>0.033</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.03</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.238</v>
+        <v>0.229</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.425</v>
+        <v>0.442</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.398</v>
+        <v>1.427</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.046</v>
+        <v>0.059</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.93</v>
+        <v>80.84</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.057</v>
+        <v>0.069</v>
       </c>
       <c r="AK31" s="1" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="AL31" s="1" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AM31" s="1" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="AN31" s="1" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="AO31" s="1" t="n">
         <v>0.073</v>
-      </c>
-      <c r="AL31" s="1" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="AM31" s="1" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AN31" s="1" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="AO31" s="1" t="n">
-        <v>0.074</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.48</v>
+        <v>40.49</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.088</v>
+        <v>0.091</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.053</v>
+        <v>0.041</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.014</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.002</v>
+        <v>0.015</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.077</v>
+        <v>0.043</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.55</v>
+        <v>0.551</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>1.015</v>
+        <v>1.016</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.92</v>
+        <v>50.65</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0.012</v>
+        <v>0.015</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.057</v>
+        <v>0.073</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.08</v>
+        <v>0.093</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.053</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.099</v>
+        <v>-0.077</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.001</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.286</v>
+        <v>0.305</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.201</v>
+        <v>1.234</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.046</v>
+        <v>0.061</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,28 +4784,28 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.65</v>
+        <v>29.64</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="AI32" s="1" t="n">
         <v>0.032</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.062</v>
+        <v>0.076</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.079</v>
+        <v>0.081</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.354</v>
+        <v>0.337</v>
       </c>
       <c r="AM32" s="1" t="n">
         <v>0.298</v>
@@ -4814,7 +4814,7 @@
         <v>0.992</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.084</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.3</v>
+        <v>52.45</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E33" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>1.055</v>
+      </c>
+      <c r="M33" s="1" t="n">
         <v>-0.004</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>-0.059</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>-0.092</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>1.049</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>-0.006</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.59</v>
+        <v>75.61</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.014</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.05</v>
+        <v>0.066</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.125</v>
+        <v>0.141</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.103</v>
+        <v>0.139</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.079</v>
+        <v>0.1</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.39</v>
+        <v>0.398</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.505</v>
+        <v>0.526</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.701</v>
+        <v>0.725</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.15</v>
+        <v>0.166</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,31 +4903,31 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.09</v>
+        <v>48.08</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AH33" s="1" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.039</v>
+        <v>0.036</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.189</v>
+        <v>0.179</v>
       </c>
       <c r="AM33" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>80.15</v>
+        <v>81.78</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.02</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.017</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0.026</v>
+        <v>0.049</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.076</v>
+        <v>0.096</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.184</v>
+        <v>0.26</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.152</v>
+        <v>0.18</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.732</v>
+        <v>0.736</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.489</v>
+        <v>0.519</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>1.043</v>
+        <v>1.084</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.204</v>
+        <v>0.229</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.62</v>
+        <v>151</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0.007</v>
+        <v>0.009</v>
       </c>
       <c r="S34" s="1" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="T34" s="1" t="n">
         <v>0.076</v>
       </c>
-      <c r="T34" s="1" t="n">
-        <v>0.066</v>
-      </c>
       <c r="U34" s="1" t="n">
-        <v>0.156</v>
+        <v>0.162</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.181</v>
+        <v>0.221</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.035</v>
+        <v>0.061</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.289</v>
+        <v>0.276</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.132</v>
+        <v>0.142</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.459</v>
+        <v>0.472</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.133</v>
+        <v>0.144</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>101.65</v>
+        <v>101.79</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.136</v>
+        <v>0.132</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.218</v>
+        <v>0.255</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.245</v>
+        <v>0.251</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.575</v>
+        <v>0.556</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.499</v>
+        <v>0.501</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.156</v>
+        <v>2.16</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.213</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>66.99</v>
+        <v>66.55</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.007</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0.087</v>
+        <v>0.085</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.218</v>
+        <v>0.216</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.249</v>
+        <v>0.252</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.221</v>
+        <v>0.246</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.708</v>
+        <v>0.687</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.759</v>
+        <v>0.747</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.444</v>
+        <v>0.434</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.95</v>
+        <v>60.63</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.01</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.026</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.034</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.031</v>
+        <v>0.054</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.289</v>
+        <v>0.267</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.244</v>
+        <v>0.258</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.29</v>
+        <v>2.327</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.03</v>
+        <v>0.042</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.6</v>
+        <v>21.56</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.029</v>
+        <v>0.021</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.074</v>
+        <v>0.069</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.124</v>
+        <v>0.154</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.332</v>
+        <v>0.31</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.158</v>
+        <v>0.156</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.514</v>
+        <v>0.511</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.46</v>
+        <v>24.64</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="S36" s="1" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="T36" s="1" t="n">
         <v>0.089</v>
       </c>
-      <c r="T36" s="1" t="n">
-        <v>0.095</v>
-      </c>
       <c r="U36" s="1" t="n">
-        <v>0.165</v>
+        <v>0.169</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.208</v>
+        <v>0.247</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.011</v>
+        <v>0.033</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.054</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.334</v>
+        <v>-0.33</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.089</v>
+        <v>0.097</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>64</v>
+        <v>64.64</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.01</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.102</v>
+        <v>0.101</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.089</v>
+        <v>0.087</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.32</v>
+        <v>0.404</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.233</v>
+        <v>0.244</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.035</v>
+        <v>1.032</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>1.041</v>
+        <v>1.062</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.879</v>
+        <v>2.917</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.236</v>
+        <v>0.249</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.72</v>
+        <v>125.67</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.008</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.009</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.101</v>
+        <v>0.176</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.225</v>
+        <v>0.241</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.937</v>
+        <v>0.9</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.338</v>
+        <v>1.356</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.503</v>
+        <v>2.53</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.139</v>
+        <v>0.147</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>72.65</v>
+        <v>73.22</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.008</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="AH37" s="1" t="n">
         <v>0.09</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.148</v>
+        <v>0.165</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.232</v>
+        <v>0.249</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.447</v>
+        <v>0.459</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.304</v>
+        <v>1.268</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.004</v>
+        <v>1.019</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.302</v>
+        <v>2.328</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.467</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>83.53</v>
+        <v>83.85</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.046</v>
+        <v>0.063</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.161</v>
+        <v>0.15</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.161</v>
+        <v>0.153</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.529</v>
+        <v>0.578</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.349</v>
+        <v>0.369</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.875</v>
+        <v>0.841</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.402</v>
+        <v>0.408</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>1.018</v>
+        <v>1.026</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.641</v>
+        <v>0.648</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.88</v>
+        <v>59.28</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.007</v>
       </c>
       <c r="S38" s="1" t="n">
         <v>-0.018</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.017</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.114</v>
+        <v>0.235</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.177</v>
+        <v>0.184</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.453</v>
+        <v>0.425</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.213</v>
+        <v>1.228</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.278</v>
+        <v>1.293</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.083</v>
+        <v>0.09</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>42.53</v>
+        <v>43.52</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.023</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.145</v>
+        <v>0.166</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.279</v>
+        <v>0.299</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.383</v>
+        <v>0.506</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.467</v>
+        <v>0.489</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.43</v>
+        <v>1.279</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>0.922</v>
+        <v>0.967</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>1.923</v>
+        <v>1.991</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.615</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.36</v>
+        <v>24.61</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.085</v>
+        <v>0.095</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.185</v>
+        <v>0.191</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.405</v>
+        <v>0.473</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.45</v>
+        <v>0.465</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.713</v>
+        <v>0.69</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.617</v>
+        <v>0.633</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.598</v>
+        <v>0.615</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.575</v>
+        <v>0.591</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>62.82</v>
+        <v>63.45</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.01</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.012</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.02</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.112</v>
+        <v>0.253</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.182</v>
+        <v>0.191</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.169</v>
+        <v>0.154</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.987</v>
+        <v>1.006</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.062</v>
+        <v>0.072</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>142.84</v>
+        <v>146.39</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>0.005</v>
+        <v>0.025</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.115</v>
+        <v>0.129</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.097</v>
+        <v>0.17</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.609</v>
+        <v>0.692</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.546</v>
+        <v>0.607</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.788</v>
+        <v>0.746</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.729</v>
+        <v>0.772</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.624</v>
+        <v>0.665</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.72</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>64.21</v>
+        <v>65.06</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.013</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.041</v>
+        <v>0.028</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.122</v>
+        <v>0.128</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.182</v>
+        <v>0.187</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.393</v>
+        <v>0.467</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.356</v>
+        <v>0.392</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>1.015</v>
+        <v>0.985</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.102</v>
+        <v>1.129</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.792</v>
+        <v>0.816</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.55</v>
+        <v>0.571</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.35</v>
+        <v>135.02</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
       <c r="U40" s="1" t="n">
         <v>0.021</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.004</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.049</v>
+        <v>0.07</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.77</v>
+        <v>0.743</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.586</v>
+        <v>1.618</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.324</v>
+        <v>2.365</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.067</v>
+        <v>0.081</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>30.56</v>
+        <v>31.32</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>0.014</v>
+        <v>0.025</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>0.036</v>
+        <v>0.066</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.073</v>
+        <v>0.104</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.018</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>-0.031</v>
+        <v>0.042</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.049</v>
+        <v>0.101</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.494</v>
+        <v>0.525</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.67</v>
+        <v>0.711</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.954</v>
+        <v>1.003</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.215</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>27.18</v>
+        <v>27.43</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.001</v>
+        <v>0.009</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.015</v>
+        <v>0.031</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.024</v>
+        <v>0.036</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.155</v>
+        <v>0.198</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.043</v>
+        <v>0.063</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.544</v>
+        <v>0.515</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.668</v>
+        <v>0.683</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.274</v>
+        <v>1.295</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.157</v>
+        <v>0.167</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>174.65</v>
+        <v>175.89</v>
       </c>
       <c r="R41" s="1" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="S41" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="S41" s="1" t="n">
-        <v>0.005</v>
-      </c>
       <c r="T41" s="1" t="n">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.23</v>
+        <v>0.321</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.379</v>
+        <v>0.389</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.14</v>
+        <v>1.112</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>2.027</v>
+        <v>2.049</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.403</v>
+        <v>4.441</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.222</v>
+        <v>0.231</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>65.72</v>
+        <v>66.17</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.054</v>
+        <v>0.06</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.195</v>
+        <v>0.228</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.182</v>
+        <v>0.202</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.782</v>
+        <v>0.758</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.63</v>
+        <v>0.641</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.146</v>
+        <v>1.161</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.278</v>
+        <v>0.287</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.43</v>
+        <v>34.3</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0.028</v>
+        <v>-0.004</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>0.032</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.211</v>
+        <v>0.287</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.258</v>
+        <v>0.255</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.715</v>
+        <v>0.67</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.043</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.103</v>
+        <v>0.099</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29</v>
+        <v>95.08</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="E43" s="1" t="n">
         <v>0.026</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.041</v>
+        <v>0.048</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.054</v>
+        <v>0.062</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.169</v>
+        <v>0.204</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.174</v>
+        <v>0.195</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.828</v>
+        <v>0.808</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.71</v>
+        <v>0.724</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.155</v>
+        <v>1.173</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.269</v>
+        <v>0.279</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>198.49</v>
+        <v>197.46</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0.026</v>
+        <v>0.018</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.103</v>
+        <v>0.086</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.146</v>
+        <v>0.125</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.391</v>
+        <v>0.486</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.334</v>
+        <v>0.321</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.736</v>
+        <v>1.639</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.717</v>
+        <v>1.703</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.437</v>
+        <v>7.394</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.246</v>
+        <v>0.24</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>50.2</v>
+        <v>49.6</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>0.04</v>
+        <v>-0.012</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.236</v>
+        <v>0.2</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.331</v>
+        <v>0.309</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.167</v>
+        <v>1.208</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.726</v>
+        <v>0.718</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>1.768</v>
+        <v>1.63</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>4.412</v>
+        <v>4.348</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.798</v>
+        <v>3.74</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>0.875</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.03</v>
+        <v>40.29</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.034</v>
+        <v>0.045</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.071</v>
+        <v>0.074</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.12</v>
+        <v>0.171</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.165</v>
+        <v>0.179</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.759</v>
+        <v>0.738</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.029</v>
+        <v>1.042</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.69</v>
+        <v>1.708</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.172</v>
+        <v>0.179</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.72</v>
+        <v>114.83</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.001</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.079</v>
+        <v>0.07</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.064</v>
+        <v>0.032</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.264</v>
+        <v>0.326</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.312</v>
+        <v>0.3</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.313</v>
+        <v>1.231</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.862</v>
+        <v>0.847</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>5.08</v>
+        <v>5.033</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.156</v>
+        <v>0.147</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>71.54</v>
+        <v>71.71</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.002</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.071</v>
+        <v>-0.069</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-0.068</v>
+        <v>-0.042</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>-0.054</v>
+        <v>-0.046</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>-0.08</v>
+        <v>-0.007</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.053</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>0.096</v>
+        <v>0.056</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.715</v>
+        <v>1.721</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.395</v>
+        <v>-0.393</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.053</v>
+        <v>-0.051</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>54.07</v>
+        <v>54.23</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.024</v>
+        <v>0.029</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.085</v>
+        <v>0.084</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.244</v>
+        <v>0.274</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.179</v>
+        <v>0.196</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.671</v>
+        <v>0.649</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.997</v>
+        <v>1.003</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.305</v>
+        <v>0.309</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.95</v>
+        <v>87.42</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.006</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0.019</v>
+        <v>0.007</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.057</v>
+        <v>0.051</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.033</v>
+        <v>0.008</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.201</v>
+        <v>0.265</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.301</v>
+        <v>0.297</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.038</v>
+        <v>0.973</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.897</v>
+        <v>0.886</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.545</v>
+        <v>2.524</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.181</v>
+        <v>0.174</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>29.2</v>
+        <v>29.28</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.003</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>-0.066</v>
+        <v>-0.063</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.036</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.027</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>-0.066</v>
+        <v>0.005</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.045</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>0.069</v>
+        <v>0.031</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.947</v>
+        <v>1.955</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.771</v>
+        <v>0.776</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,21 +6314,23 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.43</v>
+        <v>30.63</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.035</v>
+        <v>0.041</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>0.078</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1" t="n">
+        <v>0.271</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -6341,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>281.69</v>
+        <v>279.96</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0.019</v>
+        <v>-0.006</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0.05</v>
+        <v>0.041</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.166</v>
+        <v>0.153</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.493</v>
+        <v>0.65</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.249</v>
+        <v>0.237</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.716</v>
+        <v>1.609</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.921</v>
+        <v>1.903</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10.403</v>
+        <v>10.333</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.315</v>
+        <v>0.306</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6380,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>13.45</v>
+        <v>13.05</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.03</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>0.068</v>
+        <v>0.047</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>0.052</v>
+        <v>-0.001</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.128</v>
+        <v>-0.144</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.361</v>
+        <v>-0.395</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.18</v>
+        <v>-0.218</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.856</v>
+        <v>-0.855</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.696</v>
+        <v>-0.705</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.925</v>
+        <v>-0.928</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.2</v>
+        <v>-0.224</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6421,37 +6423,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>44.81</v>
+        <v>45.08</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.037</v>
+        <v>0.044</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.137</v>
+        <v>0.162</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.116</v>
+        <v>0.134</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.737</v>
+        <v>0.71</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.607</v>
+        <v>0.617</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.309</v>
+        <v>1.323</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.224</v>
+        <v>0.232</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6460,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>127.65</v>
+        <v>127.08</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0.021</v>
+        <v>0.013</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.097</v>
+        <v>0.078</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.14</v>
+        <v>0.121</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.386</v>
+        <v>0.483</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.351</v>
+        <v>0.338</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.804</v>
+        <v>1.715</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.537</v>
+        <v>1.526</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.877</v>
+        <v>6.842</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.252</v>
+        <v>0.247</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6540,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.5</v>
+        <v>36.67</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.005</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0.019</v>
+        <v>0.026</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.212</v>
+        <v>0.225</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.287</v>
+        <v>0.309</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.944</v>
+        <v>0.891</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.966</v>
+        <v>0.975</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.277</v>
+        <v>1.287</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.387</v>
+        <v>0.393</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6579,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>47.01</v>
+        <v>46.85</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.003</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.116</v>
+        <v>0.111</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.155</v>
+        <v>0.134</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.459</v>
+        <v>0.564</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.393</v>
+        <v>0.385</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>1.006</v>
+        <v>0.952</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.508</v>
+        <v>0.503</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.268</v>
+        <v>0.264</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6616,28 +6618,28 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.68</v>
+        <v>26.67</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.011</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.024</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.011</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.088</v>
+        <v>0.087</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.458</v>
+        <v>0.454</v>
       </c>
       <c r="AM48" s="1" t="n">
         <v>0.993</v>
@@ -6657,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>47.91</v>
+        <v>48.16</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>0.04</v>
+        <v>0.047</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.202</v>
+        <v>0.234</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.233</v>
+        <v>0.25</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.923</v>
+        <v>0.884</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.627</v>
+        <v>0.636</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.493</v>
+        <v>1.506</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.296</v>
+        <v>0.303</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6696,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>34.93</v>
+        <v>34.53</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.011</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0.031</v>
+        <v>0.023</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.226</v>
+        <v>0.192</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.553</v>
+        <v>0.66</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.29</v>
+        <v>0.275</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6727,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.67</v>
+        <v>17.61</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.003</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.03</v>
       </c>
       <c r="AJ49" s="1" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="AK49" s="1" t="n">
         <v>-0.055</v>
       </c>
-      <c r="AK49" s="1" t="n">
-        <v>-0.059</v>
-      </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.347</v>
+        <v>-0.351</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.346</v>
+        <v>0.341</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.249</v>
+        <v>-0.252</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.059</v>
+        <v>-0.062</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6783,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>32.56</v>
+        <v>32.7</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.106</v>
+        <v>0.102</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.193</v>
+        <v>0.248</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.302</v>
+        <v>0.316</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.673</v>
+        <v>0.614</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.347</v>
+        <v>0.353</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.542</v>
+        <v>0.549</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.234</v>
+        <v>0.24</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6822,37 +6824,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.16</v>
+        <v>4.15</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.01</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.005</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.103</v>
+        <v>-0.104</v>
       </c>
       <c r="AJ50" s="1" t="n">
         <v>-0.115</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.242</v>
+        <v>-0.234</v>
       </c>
       <c r="AL50" s="1" t="n">
         <v>-0.545</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.268</v>
+        <v>-0.269</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.586</v>
+        <v>-0.587</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.137</v>
+        <v>-0.139</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6878,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>64.05</v>
+        <v>63.94</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.01</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.008</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.062</v>
+        <v>0.051</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.278</v>
+        <v>0.345</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.331</v>
+        <v>0.321</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.089</v>
+        <v>1.025</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.794</v>
+        <v>0.805</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.793</v>
+        <v>1.74</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.252</v>
+        <v>0.249</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6917,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.88</v>
+        <v>21.79</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.01</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.021</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.048</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.162</v>
+        <v>-0.169</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.382</v>
+        <v>0.377</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.233</v>
+        <v>0.228</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6958,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>68.77</v>
+        <v>69.81</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.107</v>
+        <v>0.127</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>0.092</v>
+        <v>0.095</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.102</v>
+        <v>0.123</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.392</v>
+        <v>0.499</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>1.008</v>
+        <v>1.011</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.296</v>
+        <v>0.316</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6991,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>60.59</v>
+        <v>60.56</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>0.065</v>
+        <v>0.057</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.144</v>
+        <v>0.138</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.362</v>
+        <v>0.406</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.338</v>
+        <v>0.37</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.208</v>
+        <v>1.176</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.488</v>
+        <v>2.486</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7069,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>34.05</v>
+        <v>34.26</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.038</v>
+        <v>0.006</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.151</v>
+        <v>0.125</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>0.054</v>
+        <v>0.012</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.724</v>
+        <v>0.758</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.353</v>
+        <v>1.536</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.894</v>
+        <v>0.921</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.346</v>
+        <v>0.355</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7102,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>121.65</v>
+        <v>121.07</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0.026</v>
+        <v>0.007</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>0.069</v>
+        <v>0.061</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.142</v>
+        <v>0.14</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.369</v>
+        <v>0.409</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.602</v>
+        <v>0.61</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>2.066</v>
+        <v>1.998</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>1.116</v>
+        <v>1.106</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.459</v>
+        <v>0.452</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7139,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.49</v>
+        <v>10.51</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>0.013</v>
+        <v>0.002</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.024</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.046</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.173</v>
+        <v>-0.15</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.202</v>
+        <v>-0.215</v>
       </c>
       <c r="AL53" s="1" t="n">
         <v>0.209</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.717</v>
+        <v>0.72</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.16</v>
+        <v>0.163</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.082</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7180,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>69.1</v>
+        <v>69.75</v>
       </c>
       <c r="D54" s="1" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F54" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="E54" s="1" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="F54" s="1" t="n">
-        <v>-0.008</v>
-      </c>
       <c r="G54" s="1" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.089</v>
+        <v>0.175</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.084</v>
+        <v>0.099</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.937</v>
+        <v>0.903</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.669</v>
+        <v>0.685</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.345</v>
+        <v>1.367</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.073</v>
+        <v>0.083</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7219,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>111.31</v>
+        <v>112.54</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.011</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.043</v>
+        <v>0.057</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.078</v>
+        <v>0.081</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.101</v>
+        <v>0.119</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.109</v>
+        <v>0.121</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.478</v>
+        <v>0.452</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.694</v>
+        <v>0.713</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.722</v>
+        <v>1.752</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.176</v>
+        <v>0.189</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7299,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.2</v>
+        <v>38.36</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.081</v>
+        <v>0.083</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.115</v>
+        <v>0.128</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.122</v>
+        <v>0.134</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.268</v>
+        <v>0.278</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.446</v>
+        <v>0.452</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.277</v>
+        <v>0.283</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.094</v>
+        <v>0.098</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7338,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>87.89</v>
+        <v>88.91</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.012</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.053</v>
+        <v>0.068</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.089</v>
+        <v>0.094</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.122</v>
+        <v>0.142</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.11</v>
+        <v>0.124</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.472</v>
+        <v>0.447</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.688</v>
+        <v>0.708</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.796</v>
+        <v>1.829</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.185</v>
+        <v>0.199</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7416,35 +7418,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>33.44</v>
+        <v>33.25</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.006</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.012</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>-0.106</v>
+        <v>-0.088</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.302</v>
+        <v>-0.301</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.332</v>
+        <v>-0.468</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.366</v>
+        <v>-0.396</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.901</v>
+        <v>-0.897</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>-0.98</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.27</v>
+        <v>-0.274</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7453,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>72.66</v>
+        <v>73.1</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.032</v>
+        <v>0.025</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.114</v>
+        <v>0.166</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.044</v>
+        <v>0.057</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.617</v>
+        <v>0.569</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.858</v>
+        <v>0.869</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.617</v>
+        <v>2.639</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.109</v>
+        <v>0.116</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7541,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>96.62</v>
+        <v>97.04</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.004</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.016</v>
+        <v>0.053</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.006</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.285</v>
+        <v>0.267</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.328</v>
+        <v>0.334</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.83</v>
+        <v>0.838</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.054</v>
+        <v>0.059</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7605,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>84.21</v>
+        <v>84.32</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.001</v>
       </c>
       <c r="S58" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="T58" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="T58" s="1" t="n">
-        <v>0.016</v>
-      </c>
       <c r="U58" s="1" t="n">
-        <v>0.027</v>
+        <v>0.022</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.008</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.006</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.271</v>
+        <v>0.257</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.493</v>
+        <v>0.495</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.937</v>
+        <v>0.939</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7673,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>91.08</v>
+        <v>91.42</v>
       </c>
       <c r="R59" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="W59" s="1" t="n">
         <v>-0.005</v>
       </c>
-      <c r="S59" s="1" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="T59" s="1" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="U59" s="1" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="V59" s="1" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="W59" s="1" t="n">
-        <v>-0.018</v>
-      </c>
       <c r="X59" s="1" t="n">
-        <v>0.288</v>
+        <v>0.27</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.348</v>
+        <v>0.353</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.781</v>
+        <v>0.787</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.053</v>
+        <v>0.057</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7739,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>22.28</v>
+        <v>22.36</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.044</v>
+        <v>0.074</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.406</v>
+        <v>0.392</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.283</v>
+        <v>0.287</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.391</v>
+        <v>0.396</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.097</v>
+        <v>0.101</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7805,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>87.2</v>
+        <v>87.05</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.067</v>
+        <v>0.07</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.056</v>
+        <v>0.051</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.167</v>
+        <v>0.22</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.121</v>
+        <v>0.13</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.392</v>
+        <v>0.348</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.932</v>
+        <v>0.929</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.56</v>
+        <v>1.555</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/03/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/06/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>333.98</v>
+        <v>335.5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.009</v>
+        <v>0.012</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.045</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.087</v>
+        <v>0.092</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.292</v>
+        <v>0.38</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.232</v>
+        <v>0.225</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.083</v>
+        <v>1.054</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.299</v>
+        <v>1.304</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.542</v>
+        <v>3.492</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.164</v>
+        <v>0.169</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.33</v>
+        <v>47.55</v>
       </c>
       <c r="R5" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.01</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>0.013</v>
+        <v>0.03</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.048</v>
+        <v>0.157</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.246</v>
+        <v>0.165</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.537</v>
+        <v>2.5</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.874</v>
+        <v>0.786</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.061</v>
+        <v>0.066</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,16 +1747,16 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.79</v>
+        <v>82.77</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0.014</v>
@@ -1765,16 +1765,16 @@
         <v>0.02</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.04</v>
+        <v>0.043</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="AM5" s="1" t="n">
         <v>0.074</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.165</v>
+        <v>0.166</v>
       </c>
       <c r="AO5" s="1" t="n">
         <v>0.039</v>
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>672.42</v>
+        <v>674.89</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.074</v>
+        <v>0.078</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.253</v>
+        <v>0.338</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.194</v>
+        <v>0.187</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.907</v>
+        <v>0.88</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.157</v>
+        <v>1.159</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>3.064</v>
+        <v>3.022</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.153</v>
+        <v>0.157</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.54</v>
+        <v>93.26</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.002</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>0.016</v>
+        <v>0.032</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>0.023</v>
+        <v>0.031</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.088</v>
+        <v>0.217</v>
       </c>
       <c r="W6" s="1" t="n">
         <v>-0.026</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.142</v>
+        <v>0.068</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>3.115</v>
+        <v>3.087</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>1.001</v>
+        <v>0.89</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.052</v>
+        <v>0.06</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,28 +1866,28 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.35</v>
+        <v>119.19</v>
       </c>
       <c r="AF6" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.003</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.132</v>
+        <v>0.138</v>
       </c>
       <c r="AM6" s="1" t="n">
         <v>-0.008</v>
@@ -1896,7 +1896,7 @@
         <v>0.149</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.77</v>
+        <v>65.88</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.018</v>
+        <v>0.001</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.191</v>
+        <v>0.254</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.08</v>
+        <v>0.072</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.521</v>
+        <v>0.485</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.861</v>
+        <v>0.831</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.767</v>
+        <v>1.729</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.31</v>
+        <v>19.46</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.011</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.043</v>
+        <v>0.031</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.094</v>
+        <v>0.103</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.101</v>
+        <v>0.264</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.068</v>
+        <v>-0.073</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.31</v>
+        <v>0.194</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.886</v>
+        <v>1.848</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.39</v>
+        <v>-0.438</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.002</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.4</v>
+        <v>96.12</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.021</v>
+        <v>0.015</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.028</v>
+        <v>0.035</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.098</v>
+        <v>0.11</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.105</v>
+        <v>-0.104</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.103</v>
+        <v>0.104</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.073</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>245.83</v>
+        <v>246.81</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.055</v>
+        <v>0.041</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.304</v>
+        <v>0.37</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.15</v>
+        <v>0.138</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.51</v>
+        <v>0.477</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.71</v>
+        <v>0.675</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.532</v>
+        <v>1.5</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.121</v>
+        <v>0.126</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.98</v>
+        <v>16.08</v>
       </c>
       <c r="R8" s="1" t="n">
         <v>0.006</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.051</v>
+        <v>0.043</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.125</v>
+        <v>0.095</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.155</v>
+        <v>0.163</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.382</v>
+        <v>0.465</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.148</v>
+        <v>0.159</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.152</v>
+        <v>-0.115</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.108</v>
+        <v>-0.147</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>1.015</v>
+        <v>0.966</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.419</v>
+        <v>0.428</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>102.98</v>
+        <v>102.37</v>
       </c>
       <c r="AF8" s="1" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AK8" s="1" t="n">
         <v>-0.002</v>
       </c>
-      <c r="AG8" s="1" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="AH8" s="1" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="AI8" s="1" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="AJ8" s="1" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AK8" s="1" t="n">
-        <v>-0.007</v>
-      </c>
       <c r="AL8" s="1" t="n">
-        <v>0.053</v>
+        <v>0.063</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.268</v>
+        <v>-0.265</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.03</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.067</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.12</v>
+        <v>25.38</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.027</v>
+        <v>0.002</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0.01</v>
+        <v>0.034</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.033</v>
+        <v>0.044</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.091</v>
+        <v>0.201</v>
       </c>
       <c r="W9" s="1" t="n">
         <v>0.01</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.283</v>
+        <v>0.218</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>2.015</v>
+        <v>1.991</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>1.109</v>
+        <v>1.043</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.119</v>
+        <v>0.131</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>89.38</v>
+        <v>88.67</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.008</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.007</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.036</v>
+        <v>0.005</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.039</v>
+        <v>0.031</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.024</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.031</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.025</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.363</v>
+        <v>-0.359</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.064</v>
+        <v>-0.063</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.057</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.71</v>
+        <v>150.51</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.039</v>
+        <v>0.044</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.165</v>
+        <v>0.253</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.404</v>
+        <v>0.391</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.658</v>
+        <v>0.656</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.663</v>
+        <v>1.558</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.165</v>
+        <v>0.171</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.05</v>
+        <v>110.86</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.038</v>
+        <v>0.043</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.135</v>
+        <v>0.141</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.063</v>
+        <v>0.064</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.31</v>
+        <v>0.308</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.069</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>204.96</v>
+        <v>205.22</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.01</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.14</v>
+        <v>0.215</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.109</v>
+        <v>0.102</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.557</v>
+        <v>0.534</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.901</v>
+        <v>0.89</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.697</v>
+        <v>1.644</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.44</v>
+        <v>45.48</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0.009</v>
+        <v>0.001</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.04</v>
+        <v>0.022</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.1</v>
+        <v>0.088</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.161</v>
+        <v>0.162</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.36</v>
+        <v>0.485</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.102</v>
+        <v>0.09</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.443</v>
+        <v>0.419</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.126</v>
+        <v>1.127</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.49</v>
+        <v>2.291</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.323</v>
+        <v>0.325</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,34 +2413,34 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.15</v>
+        <v>103.17</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AI11" s="1" t="n">
         <v>0.017</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.165</v>
+        <v>0.164</v>
       </c>
       <c r="AM11" s="1" t="n">
         <v>0.203</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="AO11" s="1" t="n">
         <v>0.057</v>
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>469.94</v>
+        <v>472.9</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>0.054</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.098</v>
+        <v>0.105</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.359</v>
+        <v>0.455</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.273</v>
+        <v>0.267</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.222</v>
+        <v>1.185</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.252</v>
+        <v>1.259</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.43</v>
+        <v>4.427</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.174</v>
+        <v>0.181</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.62</v>
+        <v>66.83</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0.003</v>
+        <v>0.018</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.029</v>
+        <v>0.037</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.175</v>
+        <v>0.174</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.472</v>
+        <v>0.499</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.725</v>
+        <v>0.932</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1.016</v>
+        <v>1.055</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.541</v>
+        <v>2.528</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.221</v>
+        <v>1.323</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5.645</v>
+        <v>5.288</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.347</v>
+        <v>1.39</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,34 +2532,34 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.38</v>
+        <v>106.46</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AH12" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
         <v>0.023</v>
       </c>
-      <c r="AI12" s="1" t="n">
-        <v>0.028</v>
-      </c>
-      <c r="AJ12" s="1" t="n">
-        <v>0.022</v>
-      </c>
       <c r="AK12" s="1" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>0.128</v>
+        <v>0.123</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.234</v>
+        <v>0.236</v>
       </c>
       <c r="AO12" s="1" t="n">
         <v>0.023</v>
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>196.47</v>
+        <v>196.81</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.199</v>
+        <v>0.272</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.112</v>
+        <v>0.109</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.904</v>
+        <v>0.87</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>1.022</v>
+        <v>1.016</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.73</v>
+        <v>2.691</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.3</v>
+        <v>27.77</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0.003</v>
+        <v>0.017</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.173</v>
+        <v>0.191</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.515</v>
+        <v>0.541</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.867</v>
+        <v>1.146</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.048</v>
+        <v>1.063</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>1.918</v>
+        <v>1.849</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.849</v>
+        <v>0.9</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>4.094</v>
+        <v>3.72</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.372</v>
+        <v>1.412</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.33</v>
+        <v>22.3</v>
       </c>
       <c r="AF13" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AG13" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AG13" s="1" t="n">
-        <v>0.001</v>
-      </c>
       <c r="AH13" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1" t="n">
         <v>0.023</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
       <c r="AL13" s="1" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="AM13" s="1" t="n">
         <v>0.087</v>
       </c>
-      <c r="AM13" s="1" t="n">
-        <v>0.091</v>
-      </c>
       <c r="AN13" s="1" t="n">
-        <v>0.222</v>
+        <v>0.218</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,13 +2692,13 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>95.15</v>
+        <v>95.08</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>0.016</v>
@@ -2707,19 +2707,19 @@
         <v>0.014</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.034</v>
+        <v>0.098</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.066</v>
+        <v>0.06</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.479</v>
+        <v>0.476</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.62</v>
+        <v>0.614</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.853</v>
+        <v>1.832</v>
       </c>
       <c r="M14" s="1" t="n">
         <v>0.083</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.24</v>
+        <v>38.08</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.004</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.058</v>
+        <v>0.019</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.158</v>
+        <v>0.151</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.241</v>
+        <v>0.236</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.565</v>
+        <v>0.739</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.249</v>
+        <v>0.222</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.514</v>
+        <v>0.508</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>76.22</v>
+        <v>75.98</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.06</v>
+        <v>0.064</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.068</v>
+        <v>0.072</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.208</v>
+        <v>0.212</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.031</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>0.018</v>
+        <v>0.011</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.131</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,34 +2805,34 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>254.27</v>
+        <v>254.21</v>
       </c>
       <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
         <v>-0.006</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>-0.002</v>
-      </c>
       <c r="F15" s="1" t="n">
-        <v>0.05</v>
+        <v>0.043</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>0.065</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.31</v>
+        <v>0.409</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.273</v>
+        <v>0.261</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.954</v>
+        <v>0.917</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.843</v>
+        <v>0.831</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.108</v>
+        <v>3.117</v>
       </c>
       <c r="M15" s="1" t="n">
         <v>0.237</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.17</v>
+        <v>13.34</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.039</v>
+        <v>0.013</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.116</v>
+        <v>0.112</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.312</v>
+        <v>0.256</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.579</v>
+        <v>0.599</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.734</v>
+        <v>0.889</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.215</v>
+        <v>0.203</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.499</v>
+        <v>0.518</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.21</v>
+        <v>95.09</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AH15" s="1" t="n">
-        <v>0.02</v>
+        <v>0.008</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="AJ15" s="1" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="AK15" s="1" t="n">
         <v>0.087</v>
       </c>
-      <c r="AK15" s="1" t="n">
-        <v>0.084</v>
-      </c>
       <c r="AL15" s="1" t="n">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.097</v>
+        <v>0.09</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.437</v>
+        <v>0.424</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>122.36</v>
+        <v>121.78</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.05</v>
+        <v>0.112</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.07</v>
+        <v>0.061</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.448</v>
+        <v>0.409</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.829</v>
+        <v>0.809</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.495</v>
+        <v>1.432</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.114</v>
+        <v>0.109</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.28</v>
+        <v>41.18</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AH16" s="1" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AI16" s="1" t="n">
         <v>0.015</v>
       </c>
-      <c r="AI16" s="1" t="n">
-        <v>0.018</v>
-      </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.091</v>
+        <v>0.108</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.084</v>
+        <v>0.088</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.286</v>
+        <v>0.287</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.218</v>
+        <v>0.2</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.144</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>146.46</v>
+        <v>146.93</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>0.012</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.075</v>
+        <v>0.079</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.256</v>
+        <v>0.34</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.187</v>
+        <v>0.18</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.869</v>
+        <v>0.842</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1.058</v>
+        <v>1.056</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.146</v>
+        <v>0.149</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.02</v>
+        <v>94.72</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.049</v>
+        <v>0.027</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.148</v>
+        <v>0.144</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.452</v>
+        <v>0.503</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.213</v>
+        <v>0.204</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.488</v>
+        <v>1.396</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.601</v>
+        <v>1.545</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.271</v>
+        <v>3.181</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.256</v>
+        <v>0.252</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.59</v>
+        <v>42.38</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.006</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.153</v>
+        <v>0.163</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.187</v>
+        <v>-0.191</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.049</v>
+        <v>-0.056</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.109</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.04</v>
+        <v>147.38</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0.023</v>
+        <v>0.018</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.184</v>
+        <v>0.266</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.116</v>
+        <v>0.112</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.76</v>
+        <v>0.723</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.841</v>
+        <v>0.834</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.388</v>
+        <v>2.308</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.109</v>
+        <v>0.111</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.52</v>
+        <v>29.63</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.054</v>
+        <v>0.039</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.083</v>
+        <v>0.087</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.345</v>
+        <v>0.424</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.21</v>
+        <v>0.205</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.202</v>
+        <v>0.206</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>51.24</v>
+        <v>51.3</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.024</v>
+        <v>0.017</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.048</v>
+        <v>0.043</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.098</v>
+        <v>0.099</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.27</v>
+        <v>0.345</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.262</v>
+        <v>0.256</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.717</v>
+        <v>0.727</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1.068</v>
+        <v>1.063</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.72</v>
+        <v>1.636</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.23</v>
+        <v>73.3</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0.007</v>
+        <v>0.015</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.027</v>
+        <v>0.045</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.025</v>
+        <v>0.041</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.223</v>
+        <v>0.299</v>
       </c>
       <c r="W20" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X20" s="1" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="AA20" s="1" t="n">
         <v>0.094</v>
-      </c>
-      <c r="X20" s="1" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="Y20" s="1" t="n">
-        <v>0.529</v>
-      </c>
-      <c r="Z20" s="1" t="n">
-        <v>1.296</v>
-      </c>
-      <c r="AA20" s="1" t="n">
-        <v>0.079</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.18</v>
+        <v>99.96</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.013</v>
+        <v>0.002</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.028</v>
+        <v>0.025</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.148</v>
+        <v>0.153</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.019</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.197</v>
+        <v>0.196</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.065</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>28.37</v>
+        <v>28.21</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.021</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.051</v>
+        <v>0.031</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.065</v>
+        <v>0.059</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.207</v>
+        <v>0.287</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.172</v>
+        <v>0.154</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.375</v>
+        <v>0.351</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.921</v>
+        <v>0.872</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.949</v>
+        <v>0.879</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.389</v>
+        <v>0.381</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.55</v>
+        <v>212.55</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0.001</v>
+        <v>0.014</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0.019</v>
+        <v>0.035</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.068</v>
+        <v>0.077</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.126</v>
+        <v>0.142</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.425</v>
+        <v>0.578</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.407</v>
+        <v>0.413</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.295</v>
+        <v>1.285</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.727</v>
+        <v>1.795</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.254</v>
+        <v>3.225</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.451</v>
+        <v>0.472</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,35 +3487,35 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.35</v>
+        <v>51.28</v>
       </c>
       <c r="AF21" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AG21" s="1" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AH21" s="1" t="n">
-        <v>0.006</v>
-      </c>
       <c r="AI21" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.162</v>
+        <v>0.168</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.75</v>
+        <v>104.21</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.004</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.218</v>
+        <v>0.282</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.796</v>
+        <v>0.758</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.699</v>
+        <v>0.716</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.195</v>
+        <v>2.191</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.084</v>
+        <v>0.089</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.11</v>
+        <v>48.98</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AG22" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.036</v>
+        <v>0.03</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.047</v>
+        <v>0.051</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.178</v>
+        <v>0.183</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.251</v>
+        <v>0.246</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.068</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>30.33</v>
+        <v>30.31</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.022</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.046</v>
+        <v>0.023</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.173</v>
+        <v>0.26</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.106</v>
+        <v>0.098</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.17</v>
+        <v>0.158</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.614</v>
+        <v>0.567</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1.149</v>
+        <v>1.073</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.373</v>
+        <v>0.372</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.24</v>
+        <v>107</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.021</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0.022</v>
+        <v>-0.005</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.082</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.135</v>
+        <v>0.112</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.214</v>
+        <v>0.166</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.119</v>
+        <v>-0.121</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>1.074</v>
+        <v>0.955</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.958</v>
+        <v>0.955</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.385</v>
+        <v>3.237</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.073</v>
+        <v>0.051</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.09</v>
+        <v>94.9</v>
       </c>
       <c r="AF23" s="1" t="n">
         <v>-0.002</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="1" t="n">
-        <v>0.016</v>
+        <v>0.004</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.041</v>
+        <v>0.047</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.154</v>
+        <v>0.16</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.008</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.071</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>63.11</v>
+        <v>62.74</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.067</v>
+        <v>0.052</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.059</v>
+        <v>0.053</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.22</v>
+        <v>0.293</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.278</v>
+        <v>0.261</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.087</v>
+        <v>1.042</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.904</v>
+        <v>0.876</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.354</v>
+        <v>1.275</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.365</v>
+        <v>0.357</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.52</v>
+        <v>37.7</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.081</v>
+        <v>0.075</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.178</v>
+        <v>0.184</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.341</v>
+        <v>0.425</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.227</v>
+        <v>0.217</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.176</v>
+        <v>0.144</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.229</v>
+        <v>0.217</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.297</v>
+        <v>0.303</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.55</v>
+        <v>111.19</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="1" t="n">
-        <v>0.021</v>
+        <v>0.004</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.219</v>
+        <v>0.222</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.99</v>
+        <v>85.35</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.019</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.017</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>0.027</v>
+        <v>-0.022</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.176</v>
+        <v>0.126</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.576</v>
+        <v>0.5</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.834</v>
+        <v>0.783</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.255</v>
+        <v>1.202</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.1</v>
+        <v>0.079</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,7 +3959,7 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.27</v>
+        <v>93.33</v>
       </c>
       <c r="AF25" s="1" t="n">
         <v>0.001</v>
@@ -3968,28 +3968,28 @@
         <v>0.003</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.058</v>
+        <v>0.066</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.074</v>
+        <v>0.071</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.319</v>
+        <v>0.317</v>
       </c>
       <c r="AN25" s="1" t="n">
         <v>0.527</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.64</v>
+        <v>42.58</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.001</v>
       </c>
       <c r="E26" s="1" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="F26" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="F26" s="1" t="n">
-        <v>0.035</v>
-      </c>
       <c r="G26" s="1" t="n">
-        <v>0.071</v>
+        <v>0.069</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.167</v>
+        <v>0.255</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.206</v>
+        <v>0.2</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.784</v>
+        <v>0.787</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>1.003</v>
+        <v>1.005</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.867</v>
+        <v>0.832</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.284</v>
+        <v>0.282</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.93</v>
+        <v>59.8</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.032</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.306</v>
+        <v>0.377</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.276</v>
+        <v>0.252</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.713</v>
+        <v>0.671</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.898</v>
+        <v>0.915</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.754</v>
+        <v>0.753</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.15</v>
+        <v>0.147</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>44.91</v>
+        <v>44.19</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.016</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.03</v>
+        <v>0.009</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.056</v>
+        <v>0.038</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.042</v>
+        <v>0.026</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.163</v>
+        <v>0.215</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.184</v>
+        <v>0.153</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.784</v>
+        <v>0.725</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.868</v>
+        <v>0.822</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.395</v>
+        <v>1.287</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.31</v>
+        <v>26.16</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0.034</v>
+        <v>0.017</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.044</v>
+        <v>0.038</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.196</v>
+        <v>0.244</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.093</v>
+        <v>0.073</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.112</v>
+        <v>0.105</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>52.92</v>
+        <v>52.88</v>
       </c>
       <c r="AF27" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>0.055</v>
+        <v>0.058</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.199</v>
+        <v>0.2</v>
       </c>
       <c r="AM27" s="1" t="n">
         <v>0.121</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.304</v>
+        <v>0.303</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>42.43</v>
+        <v>42.42</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.174</v>
+        <v>0.257</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.312</v>
+        <v>0.304</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.246</v>
+        <v>1.219</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.666</v>
+        <v>0.649</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.176</v>
+        <v>1.121</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.92</v>
+        <v>67.37</v>
       </c>
       <c r="R28" s="1" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="W28" s="1" t="n">
         <v>-0.002</v>
       </c>
-      <c r="S28" s="1" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="T28" s="1" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <v>-0.039</v>
-      </c>
-      <c r="V28" s="1" t="n">
-        <v>-0.051</v>
-      </c>
-      <c r="W28" s="1" t="n">
-        <v>0.007</v>
-      </c>
       <c r="X28" s="1" t="n">
-        <v>0.201</v>
+        <v>0.197</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.523</v>
+        <v>0.513</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.457</v>
+        <v>1.407</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.053</v>
+        <v>0.044</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.06</v>
+        <v>53.94</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="AH28" s="1" t="n">
-        <v>0.014</v>
+        <v>0.003</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="AJ28" s="1" t="n">
         <v>0.051</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.257</v>
+        <v>0.262</v>
       </c>
       <c r="AM28" s="1" t="n">
         <v>0.062</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.376</v>
+        <v>0.372</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.087</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.42</v>
+        <v>39.36</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.016</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.046</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.092</v>
+        <v>0.148</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.069</v>
+        <v>0.062</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.052</v>
+        <v>0.026</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.505</v>
+        <v>0.481</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.219</v>
+        <v>1.12</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.124</v>
+        <v>0.122</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>93.58</v>
+        <v>94.1</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.035</v>
+        <v>0.029</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.089</v>
+        <v>0.086</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.123</v>
+        <v>0.13</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.292</v>
+        <v>0.375</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.188</v>
+        <v>0.179</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.708</v>
+        <v>0.669</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.367</v>
+        <v>0.356</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.191</v>
+        <v>1.171</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.309</v>
+        <v>0.316</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>46</v>
+        <v>45.66</v>
       </c>
       <c r="R30" s="1" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="S30" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="S30" s="1" t="n">
-        <v>0.008</v>
-      </c>
       <c r="T30" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.033</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.046</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.008</v>
+        <v>0.047</v>
       </c>
       <c r="W30" s="1" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="AA30" s="1" t="n">
         <v>-0.003</v>
-      </c>
-      <c r="X30" s="1" t="n">
-        <v>0.138</v>
-      </c>
-      <c r="Y30" s="1" t="n">
-        <v>0.498</v>
-      </c>
-      <c r="Z30" s="1" t="n">
-        <v>0.651</v>
-      </c>
-      <c r="AA30" s="1" t="n">
-        <v>0.005</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,7 +4546,7 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.56</v>
+        <v>24.58</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>0.001</v>
@@ -4555,28 +4555,28 @@
         <v>0.003</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.073</v>
+        <v>0.086</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.084</v>
+        <v>0.08</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.603</v>
+        <v>0.588</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.4</v>
+        <v>17.38</v>
       </c>
       <c r="D31" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="E31" s="1" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>0.013</v>
-      </c>
       <c r="G31" s="1" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.148</v>
+        <v>0.212</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.051</v>
+        <v>0.06</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.413</v>
+        <v>0.401</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.746</v>
+        <v>0.721</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.984</v>
+        <v>0.899</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.115</v>
+        <v>0.113</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.16</v>
+        <v>60.87</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.005</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0.071</v>
+        <v>0.062</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.063</v>
+        <v>0.049</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.079</v>
+        <v>0.074</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.033</v>
+        <v>0.088</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.036</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.229</v>
+        <v>0.206</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.442</v>
+        <v>0.423</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.427</v>
+        <v>1.474</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.059</v>
+        <v>0.054</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,34 +4665,34 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.84</v>
+        <v>80.86</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="AI31" s="1" t="n">
         <v>0.021</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.069</v>
+        <v>0.084</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.34</v>
+        <v>0.321</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.259</v>
+        <v>0.252</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.663</v>
+        <v>0.635</v>
       </c>
       <c r="AO31" s="1" t="n">
         <v>0.073</v>
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.49</v>
+        <v>40.77</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.091</v>
+        <v>0.096</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.041</v>
+        <v>0.048</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.014</v>
+        <v>0.064</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.015</v>
+        <v>0.021</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.043</v>
+        <v>0.031</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.551</v>
+        <v>0.527</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>1.016</v>
+        <v>1.01</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.009</v>
+        <v>0.016</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.65</v>
+        <v>50.46</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.004</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0.032</v>
+        <v>0.027</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.073</v>
+        <v>0.059</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.093</v>
+        <v>0.089</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.053</v>
+        <v>-0.016</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.077</v>
+        <v>-0.081</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.017</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.305</v>
+        <v>0.281</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.234</v>
+        <v>1.256</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.64</v>
+        <v>29.6</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>0.017</v>
+        <v>0.01</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.076</v>
+        <v>0.103</v>
       </c>
       <c r="AK32" s="1" t="n">
         <v>0.081</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.337</v>
+        <v>0.327</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.298</v>
+        <v>0.286</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.992</v>
+        <v>0.977</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.45</v>
+        <v>52.76</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-0.06</v>
+        <v>-0.054</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0.025</v>
+        <v>0.073</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.079</v>
+        <v>-0.069</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.292</v>
+        <v>0.296</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.655</v>
+        <v>0.631</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>1.055</v>
+        <v>1.039</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.002</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4903,35 +4903,35 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.08</v>
+        <v>47.97</v>
       </c>
       <c r="AF33" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AG33" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AG33" s="1" t="n">
-        <v>0.004</v>
-      </c>
       <c r="AH33" s="1" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.179</v>
+        <v>0.183</v>
       </c>
       <c r="AM33" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
-        <v>0.065</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>81.78</v>
+        <v>83.27</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0.017</v>
+        <v>0.034</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0.049</v>
+        <v>0.052</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.096</v>
+        <v>0.116</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.26</v>
+        <v>0.365</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.18</v>
+        <v>0.186</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.736</v>
+        <v>0.747</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.519</v>
+        <v>0.537</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>1.084</v>
+        <v>1.088</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.229</v>
+        <v>0.251</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>151</v>
+        <v>150.52</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.003</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.071</v>
+        <v>0.057</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.076</v>
+        <v>0.052</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.162</v>
+        <v>0.159</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.221</v>
+        <v>0.285</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.061</v>
+        <v>0.048</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.276</v>
+        <v>0.241</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.142</v>
+        <v>0.106</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.472</v>
+        <v>0.534</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.144</v>
+        <v>0.14</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>66.55</v>
+        <v>66.64</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.001</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.035</v>
+        <v>0.017</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0.085</v>
+        <v>0.086</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.216</v>
+        <v>0.218</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.252</v>
+        <v>0.346</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.246</v>
+        <v>0.203</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.687</v>
+        <v>0.633</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.014</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.63</v>
+        <v>60.31</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.033</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.031</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.034</v>
+        <v>0.099</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.054</v>
+        <v>0.044</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.267</v>
+        <v>0.23</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.258</v>
+        <v>0.234</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.327</v>
+        <v>2.379</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.042</v>
+        <v>0.036</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.56</v>
+        <v>21.54</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.021</v>
+        <v>0.002</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.069</v>
+        <v>0.068</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.26</v>
+        <v>0.344</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.154</v>
+        <v>0.121</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.31</v>
+        <v>0.274</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.156</v>
+        <v>0.143</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.511</v>
+        <v>0.51</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.322</v>
+        <v>0.321</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.64</v>
+        <v>24.54</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0.084</v>
+        <v>0.065</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.089</v>
+        <v>0.067</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.169</v>
+        <v>0.165</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.247</v>
+        <v>0.313</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.033</v>
+        <v>0.011</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.054</v>
+        <v>-0.085</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.33</v>
+        <v>-0.355</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.097</v>
+        <v>0.092</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>64.64</v>
+        <v>65.03</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.101</v>
+        <v>0.08</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.087</v>
+        <v>0.094</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.404</v>
+        <v>0.484</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.244</v>
+        <v>0.249</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.032</v>
+        <v>0.982</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>1.062</v>
+        <v>1.053</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.917</v>
+        <v>2.895</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.249</v>
+        <v>0.256</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,34 +5288,34 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.67</v>
+        <v>125.63</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.012</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>0.011</v>
+        <v>0.017</v>
       </c>
       <c r="U37" s="1" t="n">
         <v>0.025</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.176</v>
+        <v>0.266</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.241</v>
+        <v>0.217</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.9</v>
+        <v>0.865</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.356</v>
+        <v>1.344</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.53</v>
+        <v>2.47</v>
       </c>
       <c r="AA37" s="1" t="n">
         <v>0.147</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>73.22</v>
+        <v>74.62</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.09</v>
+        <v>0.101</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.165</v>
+        <v>0.187</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.249</v>
+        <v>0.303</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.459</v>
+        <v>0.49</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.268</v>
+        <v>1.292</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.019</v>
+        <v>1.073</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.328</v>
+        <v>2.367</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.479</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.28</v>
+        <v>59.63</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.004</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.019</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.235</v>
+        <v>0.297</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.184</v>
+        <v>0.169</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.425</v>
+        <v>0.397</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.228</v>
+        <v>1.166</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.293</v>
+        <v>1.258</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.09</v>
+        <v>0.097</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>43.52</v>
+        <v>44.06</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.166</v>
+        <v>0.184</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.299</v>
+        <v>0.315</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.506</v>
+        <v>0.627</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.489</v>
+        <v>0.501</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.279</v>
+        <v>1.314</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>0.967</v>
+        <v>1.028</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>1.991</v>
+        <v>1.924</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.653</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.61</v>
+        <v>24.76</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.095</v>
+        <v>0.096</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.191</v>
+        <v>0.198</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.473</v>
+        <v>0.603</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.465</v>
+        <v>0.468</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.69</v>
+        <v>0.699</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.633</v>
+        <v>0.613</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.615</v>
+        <v>0.599</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.591</v>
+        <v>0.601</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.45</v>
+        <v>64.09</v>
       </c>
       <c r="R39" s="1" t="n">
         <v>0.01</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.008</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.253</v>
+        <v>0.318</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.191</v>
+        <v>0.179</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.154</v>
+        <v>0.137</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.97</v>
+        <v>0.913</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>1.006</v>
+        <v>0.982</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.072</v>
+        <v>0.083</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>146.39</v>
+        <v>148.17</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>0.025</v>
+        <v>0.012</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.129</v>
+        <v>0.178</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.17</v>
+        <v>0.184</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.692</v>
+        <v>0.766</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.607</v>
+        <v>0.629</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.746</v>
+        <v>0.724</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.772</v>
+        <v>0.835</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.665</v>
+        <v>0.643</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.763</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>65.06</v>
+        <v>65.32</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>0.128</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.187</v>
+        <v>0.192</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.467</v>
+        <v>0.601</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.392</v>
+        <v>0.396</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>0.985</v>
+        <v>0.95</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.129</v>
+        <v>1.16</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.816</v>
+        <v>0.785</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.571</v>
+        <v>0.577</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.02</v>
+        <v>134.57</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.003</v>
       </c>
       <c r="S40" s="1" t="n">
         <v>0.012</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.081</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.07</v>
+        <v>0.047</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.743</v>
+        <v>0.699</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.618</v>
+        <v>1.584</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.365</v>
+        <v>2.308</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.081</v>
+        <v>0.077</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>31.32</v>
+        <v>31.13</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>0.025</v>
+        <v>-0.006</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>0.066</v>
+        <v>0.028</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.104</v>
+        <v>0.114</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.024</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.042</v>
+        <v>0.131</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.101</v>
+        <v>0.089</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.525</v>
+        <v>0.505</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.711</v>
+        <v>0.715</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>1.003</v>
+        <v>0.975</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.245</v>
+        <v>0.237</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>27.43</v>
+        <v>27.36</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.003</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.028</v>
+        <v>0.014</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.031</v>
+        <v>0.016</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.036</v>
+        <v>0.033</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.198</v>
+        <v>0.313</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.063</v>
+        <v>0.068</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.515</v>
+        <v>0.49</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.683</v>
+        <v>0.666</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.295</v>
+        <v>1.213</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.167</v>
+        <v>0.164</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.89</v>
+        <v>175.47</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.013</v>
       </c>
       <c r="T41" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U41" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="U41" s="1" t="n">
-        <v>0.027</v>
-      </c>
       <c r="V41" s="1" t="n">
-        <v>0.321</v>
+        <v>0.423</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.389</v>
+        <v>0.369</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.112</v>
+        <v>1.041</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>2.049</v>
+        <v>2.033</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.441</v>
+        <v>4.369</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.231</v>
+        <v>0.228</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>66.17</v>
+        <v>66.37</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.028</v>
+        <v>0.025</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.06</v>
+        <v>0.052</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.08</v>
+        <v>0.084</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.228</v>
+        <v>0.314</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.202</v>
+        <v>0.197</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.758</v>
+        <v>0.74</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.641</v>
+        <v>0.634</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.161</v>
+        <v>1.12</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.287</v>
+        <v>0.291</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>95.08</v>
+        <v>95.3</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.048</v>
+        <v>0.038</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.062</v>
+        <v>0.065</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.204</v>
+        <v>0.292</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.808</v>
+        <v>0.792</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.724</v>
+        <v>0.72</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.173</v>
+        <v>1.133</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.279</v>
+        <v>0.282</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>197.46</v>
+        <v>199.43</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.01</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.086</v>
+        <v>0.091</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.125</v>
+        <v>0.137</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.486</v>
+        <v>0.603</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.321</v>
+        <v>0.317</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.639</v>
+        <v>1.583</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.703</v>
+        <v>1.707</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.394</v>
+        <v>7.302</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.24</v>
+        <v>0.252</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.29</v>
+        <v>40.67</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.006</v>
+        <v>0.009</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.021</v>
+        <v>0.03</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.074</v>
+        <v>0.084</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.171</v>
+        <v>0.253</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.179</v>
+        <v>0.176</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.738</v>
+        <v>0.727</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.042</v>
+        <v>1.054</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.708</v>
+        <v>1.689</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.179</v>
+        <v>0.19</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.83</v>
+        <v>115.62</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.007</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.07</v>
+        <v>0.069</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.032</v>
+        <v>0.039</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.326</v>
+        <v>0.422</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.3</v>
+        <v>0.286</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.231</v>
+        <v>1.163</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.847</v>
+        <v>0.846</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>5.033</v>
+        <v>4.993</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.147</v>
+        <v>0.155</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>71.71</v>
+        <v>72.87</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>0.002</v>
+        <v>0.016</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.069</v>
+        <v>-0.023</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-0.042</v>
+        <v>0.003</v>
       </c>
       <c r="AI44" s="1" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="AJ44" s="1" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="AK44" s="1" t="n">
         <v>-0.046</v>
       </c>
-      <c r="AJ44" s="1" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="AK44" s="1" t="n">
-        <v>-0.053</v>
-      </c>
       <c r="AL44" s="1" t="n">
-        <v>0.056</v>
+        <v>-0.002</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.721</v>
+        <v>1.567</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.393</v>
+        <v>-0.421</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>54.23</v>
+        <v>54.48</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.084</v>
+        <v>0.08</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.112</v>
+        <v>0.117</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.274</v>
+        <v>0.356</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.196</v>
+        <v>0.191</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.649</v>
+        <v>0.613</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.38</v>
+        <v>0.366</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>1.003</v>
+        <v>0.973</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.309</v>
+        <v>0.315</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.42</v>
+        <v>88.12</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.008</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.051</v>
+        <v>0.037</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.265</v>
+        <v>0.362</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.297</v>
+        <v>0.286</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>0.973</v>
+        <v>0.936</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.886</v>
+        <v>0.871</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.524</v>
+        <v>2.545</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.174</v>
+        <v>0.183</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>29.28</v>
+        <v>29.79</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>0.003</v>
+        <v>0.017</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.018</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>-0.036</v>
+        <v>0.008</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.01</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>0.005</v>
+        <v>0.079</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.034</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>0.031</v>
+        <v>-0.02</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.955</v>
+        <v>1.795</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.776</v>
+        <v>0.675</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.63</v>
+        <v>30.69</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.041</v>
+        <v>0.026</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.078</v>
+        <v>0.081</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.271</v>
+        <v>0.349</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>279.96</v>
+        <v>288.36</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.03</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0.041</v>
+        <v>0.072</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.161</v>
+        <v>0.17</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.153</v>
+        <v>0.188</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.65</v>
+        <v>0.837</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.237</v>
+        <v>0.257</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.609</v>
+        <v>1.556</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.903</v>
+        <v>1.914</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10.333</v>
+        <v>10.414</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.306</v>
+        <v>0.346</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>13.05</v>
+        <v>13.3</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>-0.03</v>
+        <v>0.019</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>0.047</v>
+        <v>0.037</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.028</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.144</v>
+        <v>-0.128</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.395</v>
+        <v>-0.336</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.218</v>
+        <v>-0.166</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.855</v>
+        <v>-0.861</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.705</v>
+        <v>-0.707</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.928</v>
+        <v>-0.927</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.224</v>
+        <v>-0.209</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>127.08</v>
+        <v>128.5</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.011</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0.013</v>
+        <v>0.022</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.121</v>
+        <v>0.133</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.483</v>
+        <v>0.596</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.715</v>
+        <v>1.66</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.526</v>
+        <v>1.537</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.842</v>
+        <v>6.765</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.247</v>
+        <v>0.261</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.67</v>
+        <v>36.57</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0.026</v>
+        <v>0.016</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.062</v>
+        <v>0.059</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.225</v>
+        <v>0.305</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.309</v>
+        <v>0.301</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.891</v>
+        <v>0.896</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.975</v>
+        <v>0.95</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.287</v>
+        <v>1.215</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.393</v>
+        <v>0.389</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6618,37 +6618,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.67</v>
+        <v>26.74</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.006</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.015</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.023</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.087</v>
+        <v>0.096</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.454</v>
+        <v>0.451</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.993</v>
+        <v>0.988</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.431</v>
+        <v>0.41</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>48.16</v>
+        <v>48.11</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>0.047</v>
+        <v>0.034</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.234</v>
+        <v>0.324</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.25</v>
+        <v>0.245</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.884</v>
+        <v>0.871</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.636</v>
+        <v>0.642</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.506</v>
+        <v>1.427</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.303</v>
+        <v>0.302</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>34.53</v>
+        <v>35.23</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.02</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0.023</v>
+        <v>0.034</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.105</v>
+        <v>0.093</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.192</v>
+        <v>0.217</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.66</v>
+        <v>0.81</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.275</v>
+        <v>0.301</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,34 +6729,34 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.61</v>
+        <v>17.6</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.031</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.061</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.047</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.35</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.341</v>
+        <v>0.324</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.252</v>
+        <v>-0.266</v>
       </c>
       <c r="AO49" s="1" t="n">
         <v>-0.062</v>
@@ -6785,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>32.7</v>
+        <v>32.62</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.048</v>
+        <v>0.027</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.102</v>
+        <v>0.099</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.248</v>
+        <v>0.325</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.316</v>
+        <v>0.311</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.614</v>
+        <v>0.603</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.353</v>
+        <v>0.341</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.549</v>
+        <v>0.495</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6824,37 +6824,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.15</v>
+        <v>4.14</v>
       </c>
       <c r="AF50" s="1" t="n">
         <v>-0.002</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.012</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="AI50" s="1" t="n">
+        <v>-0.106</v>
+      </c>
+      <c r="AJ50" s="1" t="n">
         <v>-0.104</v>
       </c>
-      <c r="AJ50" s="1" t="n">
-        <v>-0.115</v>
-      </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.234</v>
+        <v>-0.222</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.545</v>
+        <v>-0.535</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.269</v>
+        <v>-0.287</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.587</v>
+        <v>-0.6</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.139</v>
+        <v>-0.141</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6880,7 +6880,7 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>63.94</v>
+        <v>63.92</v>
       </c>
       <c r="R51" s="1" t="n">
         <v>-0.01</v>
@@ -6895,19 +6895,19 @@
         <v>0.051</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="W51" s="1" t="n">
         <v>0.321</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.025</v>
+        <v>1.024</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.74</v>
+        <v>1.739</v>
       </c>
       <c r="AA51" s="1" t="n">
         <v>0.249</v>
@@ -6919,34 +6919,34 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.79</v>
+        <v>21.78</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.006</v>
       </c>
       <c r="AI51" s="1" t="n">
         <v>-0.021</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>0.02</v>
+        <v>0.051</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.04</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.169</v>
+        <v>-0.168</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.377</v>
+        <v>0.36</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.228</v>
+        <v>0.211</v>
       </c>
       <c r="AO51" s="1" t="n">
         <v>0.014</v>
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>69.81</v>
+        <v>71.29</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.015</v>
+        <v>0.021</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.127</v>
+        <v>0.097</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>0.095</v>
+        <v>0.124</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.123</v>
+        <v>0.146</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.499</v>
+        <v>0.494</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>1.011</v>
+        <v>1.007</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.316</v>
+        <v>0.344</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>60.56</v>
+        <v>60.77</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>0.057</v>
+        <v>0.036</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.138</v>
+        <v>0.142</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.406</v>
+        <v>0.513</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.37</v>
+        <v>0.353</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.176</v>
+        <v>1.099</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.25</v>
+        <v>0.242</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.486</v>
+        <v>2.42</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.434</v>
+        <v>0.439</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>34.26</v>
+        <v>35.79</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.006</v>
+        <v>0.045</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.125</v>
+        <v>0.128</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>0.012</v>
+        <v>0.092</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.758</v>
+        <v>0.836</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.536</v>
+        <v>1.612</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.921</v>
+        <v>0.942</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.355</v>
+        <v>0.415</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>121.07</v>
+        <v>120.98</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.008</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>0.061</v>
+        <v>0.051</v>
       </c>
       <c r="U53" s="1" t="n">
         <v>0.14</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.409</v>
+        <v>0.501</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.61</v>
+        <v>0.584</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>1.998</v>
+        <v>1.909</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>1.106</v>
+        <v>1.084</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.51</v>
+        <v>10.7</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>0.002</v>
+        <v>0.018</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>0.005</v>
+        <v>0.022</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.024</v>
+        <v>0.022</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.029</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.15</v>
+        <v>-0.126</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.215</v>
+        <v>-0.192</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.209</v>
+        <v>0.186</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.72</v>
+        <v>0.715</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.163</v>
+        <v>0.176</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.08</v>
+        <v>-0.064</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>69.75</v>
+        <v>69.66</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.001</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.175</v>
+        <v>0.265</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.099</v>
+        <v>0.079</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.903</v>
+        <v>0.858</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.685</v>
+        <v>0.669</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.367</v>
+        <v>1.323</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>112.54</v>
+        <v>113.47</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.057</v>
+        <v>0.071</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.081</v>
+        <v>0.089</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.119</v>
+        <v>0.194</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.121</v>
+        <v>0.133</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.452</v>
+        <v>0.515</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.713</v>
+        <v>0.687</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.752</v>
+        <v>1.76</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.189</v>
+        <v>0.199</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.36</v>
+        <v>38.53</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.083</v>
+        <v>0.088</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.128</v>
+        <v>0.146</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.134</v>
+        <v>0.139</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.278</v>
+        <v>0.274</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.452</v>
+        <v>0.446</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.283</v>
+        <v>0.296</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.098</v>
+        <v>0.103</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>88.91</v>
+        <v>89.77</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.024</v>
+        <v>0.031</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.068</v>
+        <v>0.083</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.094</v>
+        <v>0.104</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.142</v>
+        <v>0.221</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.124</v>
+        <v>0.136</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.447</v>
+        <v>0.513</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.708</v>
+        <v>0.689</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.829</v>
+        <v>1.839</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.199</v>
+        <v>0.211</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,25 +7418,25 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>33.25</v>
+        <v>33.05</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>-0.006</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.007</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>-0.088</v>
+        <v>-0.068</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.301</v>
+        <v>-0.305</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.468</v>
+        <v>-0.558</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.396</v>
+        <v>-0.376</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>-0.897</v>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.274</v>
+        <v>-0.278</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7455,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>73.1</v>
+        <v>73.31</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.001</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.166</v>
+        <v>0.221</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.057</v>
+        <v>0.059</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.569</v>
+        <v>0.554</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.869</v>
+        <v>0.847</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.639</v>
+        <v>2.547</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.116</v>
+        <v>0.119</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>97.04</v>
+        <v>96</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.011</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.012</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.019</v>
+        <v>0.008</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.053</v>
+        <v>0.09</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.011</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.267</v>
+        <v>0.291</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.334</v>
+        <v>0.321</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.838</v>
+        <v>0.791</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.059</v>
+        <v>0.047</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>84.32</v>
+        <v>83.4</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.011</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.009</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.008</v>
+        <v>0.051</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.009</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.257</v>
+        <v>0.298</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.495</v>
+        <v>0.486</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.939</v>
+        <v>0.906</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.058</v>
+        <v>0.046</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>91.42</v>
+        <v>90.56</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.009</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.011</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.059</v>
+        <v>0.096</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.01</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.27</v>
+        <v>0.294</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.353</v>
+        <v>0.341</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.787</v>
+        <v>0.745</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.057</v>
+        <v>0.047</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>22.36</v>
+        <v>21.93</v>
       </c>
       <c r="R60" s="1" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="S60" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="S60" s="1" t="n">
-        <v>0.017</v>
-      </c>
       <c r="T60" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.051</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.038</v>
+        <v>0.018</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.074</v>
+        <v>0.108</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.057</v>
+        <v>0.039</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.392</v>
+        <v>0.37</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.287</v>
+        <v>0.267</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.396</v>
+        <v>0.339</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.101</v>
+        <v>0.08</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>87.05</v>
+        <v>87.37</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.004</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.07</v>
+        <v>0.047</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.22</v>
+        <v>0.298</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.13</v>
+        <v>0.133</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.348</v>
+        <v>0.295</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.929</v>
+        <v>0.902</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.555</v>
+        <v>1.509</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.089</v>
+        <v>0.093</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/06/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/07/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>335.5</v>
+        <v>334.53</v>
       </c>
       <c r="D5" s="1" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0.012</v>
-      </c>
       <c r="F5" s="1" t="n">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.092</v>
+        <v>0.098</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.38</v>
+        <v>0.377</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.225</v>
+        <v>0.234</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.054</v>
+        <v>1.111</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.304</v>
+        <v>1.257</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.492</v>
+        <v>3.443</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.169</v>
+        <v>0.166</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.55</v>
+        <v>47.62</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.002</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.034</v>
+        <v>0.046</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.157</v>
+        <v>0.168</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.165</v>
+        <v>0.176</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.5</v>
+        <v>2.455</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.786</v>
+        <v>0.765</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,7 +1747,7 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.77</v>
+        <v>82.81</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>0</v>
@@ -1756,28 +1756,28 @@
         <v>0.001</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.132</v>
+        <v>0.134</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.166</v>
+        <v>0.167</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>674.89</v>
+        <v>672.42</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.041</v>
+        <v>0.037</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.078</v>
+        <v>0.081</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.187</v>
+        <v>0.194</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.88</v>
+        <v>0.927</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.159</v>
+        <v>1.114</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>3.022</v>
+        <v>2.974</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.157</v>
+        <v>0.153</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.26</v>
+        <v>93.12</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.006</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>0.031</v>
+        <v>0.041</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.217</v>
+        <v>0.216</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.032</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.068</v>
+        <v>0.073</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>3.087</v>
+        <v>2.991</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,37 +1866,37 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.19</v>
+        <v>119.38</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.018</v>
+        <v>0.027</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.138</v>
+        <v>0.144</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="AN6" s="1" t="n">
-        <v>0.149</v>
+        <v>0.153</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.88</v>
+        <v>65.15</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.011</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.002</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0.254</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.072</v>
+        <v>0.067</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.485</v>
+        <v>0.506</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.831</v>
+        <v>0.78</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.729</v>
+        <v>1.665</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.067</v>
+        <v>0.055</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.46</v>
+        <v>19.38</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.005</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.031</v>
+        <v>0.027</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.103</v>
+        <v>0.117</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.264</v>
+        <v>0.273</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.073</v>
+        <v>-0.078</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.194</v>
+        <v>0.193</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.848</v>
+        <v>1.814</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.438</v>
+        <v>-0.447</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.12</v>
+        <v>96.36</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AG7" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH7" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="AH7" s="1" t="n">
-        <v>-0.004</v>
-      </c>
       <c r="AI7" s="1" t="n">
-        <v>0.024</v>
+        <v>0.03</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.015</v>
+        <v>0.03</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.035</v>
+        <v>0.041</v>
       </c>
       <c r="AL7" s="1" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>-0.099</v>
+      </c>
+      <c r="AN7" s="1" t="n">
         <v>0.11</v>
       </c>
-      <c r="AM7" s="1" t="n">
-        <v>-0.104</v>
-      </c>
-      <c r="AN7" s="1" t="n">
-        <v>0.104</v>
-      </c>
       <c r="AO7" s="1" t="n">
-        <v>0.07</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>246.81</v>
+        <v>244.16</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.011</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.021</v>
+        <v>0.009</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.041</v>
+        <v>0.03</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.138</v>
+        <v>0.135</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.477</v>
+        <v>0.506</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.675</v>
+        <v>0.622</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.126</v>
+        <v>0.114</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.08</v>
+        <v>15.89</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.012</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.043</v>
+        <v>0.026</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.095</v>
+        <v>0.082</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.163</v>
+        <v>0.17</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.465</v>
+        <v>0.494</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.159</v>
+        <v>0.146</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.115</v>
+        <v>-0.1</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.147</v>
+        <v>-0.198</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.966</v>
+        <v>0.906</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.428</v>
+        <v>0.411</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>102.37</v>
+        <v>102.84</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.002</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.032</v>
+        <v>0.044</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.021</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.009</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.063</v>
+        <v>0.077</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.265</v>
+        <v>-0.257</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.022</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.061</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.38</v>
+        <v>25.37</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.044</v>
+        <v>0.058</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.201</v>
+        <v>0.223</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.218</v>
+        <v>0.227</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.991</v>
+        <v>1.964</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>1.043</v>
+        <v>1.005</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>88.67</v>
+        <v>89.18</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.006</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.001</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.031</v>
+        <v>0.047</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>-0.024</v>
+        <v>0.013</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.018</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.01</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.359</v>
+        <v>-0.35</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.054</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.049</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.51</v>
+        <v>150.02</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.016</v>
+        <v>0.013</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.044</v>
+        <v>0.051</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.253</v>
+        <v>0.261</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.391</v>
+        <v>0.423</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.656</v>
+        <v>0.609</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.558</v>
+        <v>1.518</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.171</v>
+        <v>0.167</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>110.86</v>
+        <v>111.17</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.022</v>
+        <v>0.026</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.021</v>
+        <v>0.037</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.043</v>
+        <v>0.048</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.141</v>
+        <v>0.144</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.064</v>
+        <v>0.067</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.308</v>
+        <v>0.312</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.067</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>205.22</v>
+        <v>204.54</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.023</v>
+        <v>0.019</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.102</v>
+        <v>0.106</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.534</v>
+        <v>0.564</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.89</v>
+        <v>0.854</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.644</v>
+        <v>1.609</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.123</v>
+        <v>0.119</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.48</v>
+        <v>45.06</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.009</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.022</v>
+        <v>0.013</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.088</v>
+        <v>0.078</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.162</v>
+        <v>0.173</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.485</v>
+        <v>0.476</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.09</v>
+        <v>0.082</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.419</v>
+        <v>0.432</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.127</v>
+        <v>1.063</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.291</v>
+        <v>2.133</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.325</v>
+        <v>0.312</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,37 +2413,37 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.17</v>
+        <v>103.27</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG11" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="1" t="n">
         <v>0.017</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.024</v>
+        <v>0.028</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>0.059</v>
+        <v>0.061</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.164</v>
+        <v>0.166</v>
       </c>
       <c r="AM11" s="1" t="n">
         <v>0.203</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>472.9</v>
+        <v>470.26</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.006</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.054</v>
+        <v>0.048</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.105</v>
+        <v>0.107</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.455</v>
+        <v>0.445</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.267</v>
+        <v>0.274</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.185</v>
+        <v>1.25</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.259</v>
+        <v>1.205</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.427</v>
+        <v>4.356</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.181</v>
+        <v>0.175</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.83</v>
+        <v>65.5</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.037</v>
+        <v>0.012</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.174</v>
+        <v>0.15</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.499</v>
+        <v>0.455</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.932</v>
+        <v>0.896</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1.055</v>
+        <v>1.045</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.528</v>
+        <v>2.604</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.323</v>
+        <v>1.259</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5.288</v>
+        <v>5.133</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.39</v>
+        <v>1.342</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,7 +2532,7 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.46</v>
+        <v>106.54</v>
       </c>
       <c r="AF12" s="1" t="n">
         <v>0.001</v>
@@ -2541,28 +2541,28 @@
         <v>0.003</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.023</v>
+        <v>0.043</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="AL12" s="1" t="n">
         <v>0.123</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.044</v>
+        <v>0.047</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.236</v>
+        <v>0.239</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>196.81</v>
+        <v>195.81</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.018</v>
+        <v>0.007</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.043</v>
+        <v>0.037</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.067</v>
+        <v>0.069</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.272</v>
+        <v>0.273</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.109</v>
+        <v>0.114</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.87</v>
+        <v>0.914</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>1.016</v>
+        <v>0.975</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.691</v>
+        <v>2.643</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.113</v>
+        <v>0.107</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.77</v>
+        <v>27.21</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.02</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.025</v>
+        <v>-0.006</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.191</v>
+        <v>0.167</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.541</v>
+        <v>0.489</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>1.146</v>
+        <v>1.111</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.063</v>
+        <v>1.066</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>1.849</v>
+        <v>1.955</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.9</v>
+        <v>0.854</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.72</v>
+        <v>3.611</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.412</v>
+        <v>1.364</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.3</v>
+        <v>22.34</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="AG13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AH13" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.023</v>
+        <v>0.032</v>
       </c>
       <c r="AK13" s="1" t="n">
         <v>0.013</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.082</v>
+        <v>0.088</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.087</v>
+        <v>0.091</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.218</v>
+        <v>0.221</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>95.08</v>
+        <v>95.24</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.014</v>
+        <v>0.019</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.098</v>
+        <v>0.113</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.06</v>
+        <v>0.073</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.476</v>
+        <v>0.512</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.614</v>
+        <v>0.598</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.832</v>
+        <v>1.817</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.083</v>
+        <v>0.084</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.08</v>
+        <v>37.71</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.01</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.019</v>
+        <v>0.002</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.151</v>
+        <v>0.14</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.236</v>
+        <v>0.25</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.739</v>
+        <v>0.725</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.222</v>
+        <v>0.214</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.508</v>
+        <v>0.493</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.98</v>
+        <v>75.61</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.007</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.008</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.064</v>
+        <v>0.065</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.072</v>
+        <v>0.068</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.212</v>
+        <v>0.213</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.038</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.128</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>254.21</v>
+        <v>254.5</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.065</v>
+        <v>0.069</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.409</v>
+        <v>0.399</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.261</v>
+        <v>0.271</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.917</v>
+        <v>0.951</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.831</v>
+        <v>0.8</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.117</v>
+        <v>3.109</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.237</v>
+        <v>0.239</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.34</v>
+        <v>13.29</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.004</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.112</v>
+        <v>0.097</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.256</v>
+        <v>0.251</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.599</v>
+        <v>0.647</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.889</v>
+        <v>0.969</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.203</v>
+        <v>0.116</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.518</v>
+        <v>0.513</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.09</v>
+        <v>95.05</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AH15" s="1" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.102</v>
+        <v>0.119</v>
       </c>
       <c r="AK15" s="1" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="AM15" s="1" t="n">
         <v>0.087</v>
       </c>
-      <c r="AL15" s="1" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="AM15" s="1" t="n">
-        <v>0.09</v>
-      </c>
       <c r="AN15" s="1" t="n">
-        <v>0.424</v>
+        <v>0.419</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>121.78</v>
+        <v>122.24</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.004</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.112</v>
+        <v>0.129</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.061</v>
+        <v>0.071</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.409</v>
+        <v>0.438</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.809</v>
+        <v>0.796</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.432</v>
+        <v>1.416</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.109</v>
+        <v>0.113</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.15</v>
+        <v>71.38</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.014</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.028</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.061</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.033</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>0.026</v>
+        <v>0.054</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-0.114</v>
+        <v>-0.148</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.155</v>
+        <v>0.131</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.224</v>
+        <v>0.151</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.962</v>
+        <v>0.797</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.055</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.18</v>
+        <v>41.14</v>
       </c>
       <c r="AF16" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG16" s="1" t="n">
         <v>-0.002</v>
       </c>
-      <c r="AG16" s="1" t="n">
-        <v>0.001</v>
-      </c>
       <c r="AH16" s="1" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.015</v>
+        <v>0.021</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.108</v>
+        <v>0.125</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.088</v>
+        <v>0.089</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.287</v>
+        <v>0.295</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.044</v>
+        <v>0.041</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.2</v>
+        <v>0.188</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.141</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>146.93</v>
+        <v>146.27</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.042</v>
+        <v>0.037</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.079</v>
+        <v>0.082</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.842</v>
+        <v>0.888</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1.056</v>
+        <v>1.011</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.149</v>
+        <v>0.144</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.72</v>
+        <v>93.71</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.011</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.02</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.144</v>
+        <v>0.141</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.503</v>
+        <v>0.502</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.204</v>
+        <v>0.193</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.396</v>
+        <v>1.433</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.545</v>
+        <v>1.473</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.181</v>
+        <v>3.053</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.252</v>
+        <v>0.239</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.38</v>
+        <v>42.2</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.009</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.013</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.053</v>
+        <v>0.059</v>
       </c>
       <c r="AK17" s="1" t="n">
         <v>0.038</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.163</v>
+        <v>0.17</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.191</v>
+        <v>-0.193</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.058</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.103</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.38</v>
+        <v>146.88</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.266</v>
+        <v>0.269</v>
       </c>
       <c r="W18" s="1" t="n">
         <v>0.112</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.723</v>
+        <v>0.755</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.834</v>
+        <v>0.791</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.308</v>
+        <v>2.254</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.111</v>
+        <v>0.108</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.63</v>
+        <v>29.28</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.012</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.039</v>
+        <v>0.027</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.087</v>
+        <v>0.085</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.424</v>
+        <v>0.412</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.205</v>
+        <v>0.191</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.206</v>
+        <v>0.192</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>51.3</v>
+        <v>50.94</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.007</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.017</v>
+        <v>0.008</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.043</v>
+        <v>0.036</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.099</v>
+        <v>0.103</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.345</v>
+        <v>0.357</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.256</v>
+        <v>0.254</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.727</v>
+        <v>0.748</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1.063</v>
+        <v>1.018</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.636</v>
+        <v>1.578</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.281</v>
+        <v>0.273</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>73.3</v>
+        <v>72.05</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.017</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.041</v>
+        <v>0.028</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.299</v>
+        <v>0.283</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.1</v>
+        <v>0.084</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.478</v>
+        <v>0.496</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.539</v>
+        <v>0.474</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.302</v>
+        <v>1.231</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.094</v>
+        <v>0.076</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>99.96</v>
+        <v>100.13</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.025</v>
+        <v>0.031</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.153</v>
+        <v>0.161</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.017</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.196</v>
+        <v>0.199</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.062</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>28.21</v>
+        <v>27.82</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.014</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.037</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.031</v>
+        <v>0.017</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.059</v>
+        <v>0.061</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.287</v>
+        <v>0.305</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.154</v>
+        <v>0.145</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.872</v>
+        <v>0.837</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.879</v>
+        <v>0.826</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.381</v>
+        <v>0.362</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.55</v>
+        <v>212.96</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0.035</v>
+        <v>0.018</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.077</v>
+        <v>0.079</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.142</v>
+        <v>0.137</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.578</v>
+        <v>0.576</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.413</v>
+        <v>0.42</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.285</v>
+        <v>1.299</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.795</v>
+        <v>1.741</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.225</v>
+        <v>3.173</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,31 +3487,31 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.28</v>
+        <v>51.29</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.168</v>
+        <v>0.174</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>66.81</v>
+        <v>65.04</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.046</v>
       </c>
       <c r="F22" s="1" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>0.064</v>
       </c>
-      <c r="G22" s="1" t="n">
-        <v>0.083</v>
-      </c>
       <c r="H22" s="1" t="n">
-        <v>0.254</v>
+        <v>0.365</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.301</v>
+        <v>0.252</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.631</v>
+        <v>0.582</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.33</v>
+        <v>1.199</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.657</v>
+        <v>0.56</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.453</v>
+        <v>0.414</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>104.21</v>
+        <v>103.07</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.011</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.017</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.013</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.282</v>
+        <v>0.278</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.758</v>
+        <v>0.795</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.716</v>
+        <v>0.663</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.191</v>
+        <v>2.142</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.089</v>
+        <v>0.077</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>48.98</v>
+        <v>49.07</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AG22" s="1" t="n">
         <v>0.003</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.183</v>
+        <v>0.189</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.026</v>
+        <v>0.031</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.246</v>
+        <v>0.251</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>30.31</v>
+        <v>29.68</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.021</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.043</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.023</v>
+        <v>0.002</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.26</v>
+        <v>0.262</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.098</v>
+        <v>0.083</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.158</v>
+        <v>0.148</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.567</v>
+        <v>0.537</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1.073</v>
+        <v>0.991</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.372</v>
+        <v>0.343</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>107</v>
+        <v>103.74</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.03</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.033</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.082</v>
+        <v>-0.11</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.112</v>
+        <v>0.092</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.166</v>
+        <v>0.179</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.121</v>
+        <v>-0.146</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>0.955</v>
+        <v>0.946</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.955</v>
+        <v>0.875</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.237</v>
+        <v>3.013</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.051</v>
+        <v>0.019</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>94.9</v>
+        <v>95.1</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AH23" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.03</v>
+        <v>0.036</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.029</v>
+        <v>0.043</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.047</v>
+        <v>0.052</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.16</v>
+        <v>0.166</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.135</v>
+        <v>0.139</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.069</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>62.74</v>
+        <v>62.12</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.052</v>
+        <v>0.041</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.053</v>
+        <v>0.048</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.293</v>
+        <v>0.319</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.261</v>
+        <v>0.257</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.042</v>
+        <v>1.069</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.876</v>
+        <v>0.839</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.275</v>
+        <v>1.23</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.357</v>
+        <v>0.344</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.7</v>
+        <v>37.03</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.018</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.075</v>
+        <v>0.056</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.184</v>
+        <v>0.189</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.425</v>
+        <v>0.448</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.217</v>
+        <v>0.171</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.144</v>
+        <v>0.164</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.217</v>
+        <v>0.17</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.303</v>
+        <v>0.28</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.19</v>
+        <v>111.4</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AH24" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.031</v>
+        <v>0.039</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.046</v>
+        <v>0.068</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.042</v>
+        <v>0.05</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.222</v>
+        <v>0.237</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.008</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.35</v>
+        <v>0.348</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.077</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.92</v>
+        <v>42.6</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.004</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.026</v>
+        <v>0.01</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.061</v>
+        <v>0.05</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.065</v>
+        <v>0.059</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.156</v>
+        <v>0.254</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.222</v>
+        <v>0.205</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.868</v>
+        <v>0.852</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.103</v>
+        <v>1.056</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.742</v>
+        <v>1.627</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.223</v>
+        <v>0.214</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.35</v>
+        <v>84.12</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.014</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.024</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.036</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.06</v>
+        <v>0.054</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.32</v>
+        <v>0.309</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.126</v>
+        <v>0.132</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.783</v>
+        <v>0.71</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.202</v>
+        <v>1.149</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.079</v>
+        <v>0.064</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,7 +3959,7 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.33</v>
+        <v>93.38</v>
       </c>
       <c r="AF25" s="1" t="n">
         <v>0.001</v>
@@ -3968,25 +3968,25 @@
         <v>0.003</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.066</v>
+        <v>0.077</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.071</v>
+        <v>0.073</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.297</v>
+        <v>0.306</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.317</v>
+        <v>0.319</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.527</v>
+        <v>0.528</v>
       </c>
       <c r="AO25" s="1" t="n">
         <v>0.055</v>
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.58</v>
+        <v>42.45</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.023</v>
+        <v>0.011</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.025</v>
+        <v>0.022</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.069</v>
+        <v>0.077</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.255</v>
+        <v>0.301</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.2</v>
+        <v>0.202</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.787</v>
+        <v>0.791</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>1.005</v>
+        <v>0.985</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.832</v>
+        <v>0.796</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.282</v>
+        <v>0.278</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.8</v>
+        <v>58.93</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.015</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.027</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.009</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.035</v>
+        <v>0.027</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.377</v>
+        <v>0.361</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.252</v>
+        <v>0.246</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.671</v>
+        <v>0.678</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.915</v>
+        <v>0.86</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.753</v>
+        <v>0.71</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.147</v>
+        <v>0.13</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.87</v>
+        <v>26.84</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>0.016</v>
+        <v>0.003</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.056</v>
+        <v>0.077</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.054</v>
+        <v>0.061</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.247</v>
+        <v>0.255</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.162</v>
+        <v>0.168</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.092</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>44.19</v>
+        <v>43.79</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.009</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.003</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.038</v>
+        <v>0.029</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>0.026</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.215</v>
+        <v>0.245</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.153</v>
+        <v>0.148</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.725</v>
+        <v>0.742</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.822</v>
+        <v>0.789</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.287</v>
+        <v>1.246</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.26</v>
+        <v>0.248</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.16</v>
+        <v>26.19</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.001</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.038</v>
+        <v>0.049</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.244</v>
+        <v>0.283</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.105</v>
+        <v>0.107</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>52.88</v>
+        <v>52.94</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.035</v>
+        <v>0.043</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.2</v>
+        <v>0.206</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.303</v>
+        <v>0.304</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.057</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>42.42</v>
+        <v>42.07</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0</v>
+        <v>-0.008</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.027</v>
+        <v>0.011</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.026</v>
+        <v>0.018</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.257</v>
+        <v>0.275</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.304</v>
+        <v>0.306</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.219</v>
+        <v>1.253</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.649</v>
+        <v>0.621</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.121</v>
+        <v>1.078</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.355</v>
+        <v>0.344</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.37</v>
+        <v>68.09</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.011</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.004</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.022</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.037</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.014</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.016</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.197</v>
+        <v>0.229</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.513</v>
+        <v>0.501</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.407</v>
+        <v>1.413</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.044</v>
+        <v>0.055</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>53.94</v>
+        <v>54.02</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AH28" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.051</v>
+        <v>0.069</v>
       </c>
       <c r="AK28" s="1" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="AL28" s="1" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="AM28" s="1" t="n">
         <v>0.063</v>
       </c>
-      <c r="AL28" s="1" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="AM28" s="1" t="n">
-        <v>0.062</v>
-      </c>
       <c r="AN28" s="1" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.084</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>56.66</v>
+        <v>56.55</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.044</v>
+        <v>0.024</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.029</v>
+        <v>0.005</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.123</v>
+        <v>0.225</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.133</v>
+        <v>0.137</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.603</v>
+        <v>0.601</v>
       </c>
       <c r="K29" s="1" t="n">
         <v>0.509</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.253</v>
+        <v>1.214</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.256</v>
+        <v>0.254</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.36</v>
+        <v>39.5</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.004</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.007</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.012</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.031</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.148</v>
+        <v>0.175</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.062</v>
+        <v>0.071</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.026</v>
+        <v>0.039</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.481</v>
+        <v>0.469</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.12</v>
+        <v>1.098</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.122</v>
+        <v>0.126</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.59</v>
+        <v>51.44</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>0.009</v>
+        <v>0.002</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.033</v>
+        <v>0.01</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.046</v>
+        <v>0.054</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.054</v>
+        <v>0.081</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.024</v>
+        <v>0.035</v>
       </c>
       <c r="AL29" s="1" t="n">
-        <v>0.22</v>
+        <v>0.242</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.089</v>
+        <v>-0.084</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.366</v>
+        <v>0.355</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.086</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>94.1</v>
+        <v>93.35</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.029</v>
+        <v>0.017</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.086</v>
+        <v>0.078</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.13</v>
+        <v>0.139</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.375</v>
+        <v>0.426</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.179</v>
+        <v>0.156</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.669</v>
+        <v>0.698</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.356</v>
+        <v>0.326</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.171</v>
+        <v>1.069</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.316</v>
+        <v>0.306</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.66</v>
+        <v>45.84</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.004</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.029</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.044</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.047</v>
+        <v>0.059</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.011</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.133</v>
+        <v>0.15</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.479</v>
+        <v>0.472</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.622</v>
+        <v>0.615</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,34 +4546,34 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.58</v>
+        <v>24.6</v>
       </c>
       <c r="AF30" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.086</v>
+        <v>0.097</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.34</v>
+        <v>0.352</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.588</v>
+        <v>0.589</v>
       </c>
       <c r="AO30" s="1" t="n">
         <v>0.062</v>
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.38</v>
+        <v>17.44</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.06</v>
+        <v>0.073</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.212</v>
+        <v>0.237</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.06</v>
+        <v>0.074</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.401</v>
+        <v>0.429</v>
       </c>
       <c r="K31" s="1" t="n">
         <v>0.721</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.899</v>
+        <v>0.829</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.113</v>
+        <v>0.117</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.87</v>
+        <v>60.91</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.001</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0.062</v>
+        <v>0.037</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.074</v>
+        <v>0.086</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.088</v>
+        <v>0.095</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.031</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.206</v>
+        <v>0.231</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.423</v>
+        <v>0.395</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.474</v>
+        <v>1.441</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.86</v>
+        <v>80.77</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.084</v>
+        <v>0.093</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.321</v>
+        <v>0.336</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.252</v>
+        <v>0.246</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.635</v>
+        <v>0.616</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.073</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.77</v>
+        <v>40.59</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.096</v>
+        <v>0.091</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.048</v>
+        <v>0.039</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.064</v>
+        <v>0.066</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.527</v>
+        <v>0.522</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>1.01</v>
+        <v>0.974</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.016</v>
+        <v>0.011</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.46</v>
+        <v>51.07</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.012</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0.027</v>
+        <v>0.034</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.059</v>
+        <v>0.072</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.089</v>
+        <v>0.114</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.003</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.081</v>
+        <v>-0.061</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.032</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.281</v>
+        <v>0.27</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.256</v>
+        <v>1.264</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.057</v>
+        <v>0.07</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.6</v>
+        <v>29.59</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.103</v>
+        <v>0.111</v>
       </c>
       <c r="AK32" s="1" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="AL32" s="1" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="AM32" s="1" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="AN32" s="1" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="AO32" s="1" t="n">
         <v>0.081</v>
-      </c>
-      <c r="AL32" s="1" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="AM32" s="1" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="AN32" s="1" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="AO32" s="1" t="n">
-        <v>0.082</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.76</v>
+        <v>52.88</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="F33" s="1" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="M33" s="1" t="n">
         <v>0.005</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>-0.054</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>-0.069</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>0.296</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>1.039</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0.002</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.61</v>
+        <v>75.2</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.002</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0.077</v>
+        <v>0.036</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.066</v>
+        <v>0.059</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.141</v>
+        <v>0.146</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.139</v>
+        <v>0.214</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.398</v>
+        <v>0.403</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.526</v>
+        <v>0.461</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.725</v>
+        <v>0.754</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.166</v>
+        <v>0.159</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,35 +4903,35 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>47.97</v>
+        <v>48.03</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG33" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AH33" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.047</v>
+        <v>0.051</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.183</v>
+        <v>0.192</v>
       </c>
       <c r="AM33" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
-        <v>0.062</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>83.27</v>
+        <v>81.96</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.018</v>
+        <v>-0.016</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0.034</v>
+        <v>0.022</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0.052</v>
+        <v>0.035</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.116</v>
+        <v>0.126</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.365</v>
+        <v>0.347</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.186</v>
+        <v>0.181</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.747</v>
+        <v>0.737</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.537</v>
+        <v>0.505</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>1.088</v>
+        <v>1.023</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.251</v>
+        <v>0.231</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,34 +4981,34 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.52</v>
+        <v>150.48</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.057</v>
+        <v>0.042</v>
       </c>
       <c r="T34" s="1" t="n">
         <v>0.052</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.159</v>
+        <v>0.175</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.285</v>
+        <v>0.296</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.048</v>
+        <v>0.06</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.241</v>
+        <v>0.276</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.106</v>
+        <v>0.081</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.534</v>
+        <v>0.504</v>
       </c>
       <c r="AA34" s="1" t="n">
         <v>0.14</v>
@@ -5020,34 +5020,34 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>101.79</v>
+        <v>101.78</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.032</v>
+        <v>0.019</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.083</v>
+        <v>0.072</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.132</v>
+        <v>0.134</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.255</v>
+        <v>0.294</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.251</v>
+        <v>0.246</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.556</v>
+        <v>0.539</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.501</v>
+        <v>0.466</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="AO34" s="1" t="n">
         <v>0.215</v>
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>66.64</v>
+        <v>65.81</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.012</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.001</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0.086</v>
+        <v>0.073</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.218</v>
+        <v>0.205</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.346</v>
+        <v>0.445</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.203</v>
+        <v>0.135</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.633</v>
+        <v>0.657</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.037</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.75</v>
+        <v>0.667</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.436</v>
+        <v>0.418</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.31</v>
+        <v>59.96</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.002</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.039</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.025</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.099</v>
+        <v>0.085</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.23</v>
+        <v>0.252</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.234</v>
+        <v>0.203</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.379</v>
+        <v>2.317</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.036</v>
+        <v>0.03</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.54</v>
+        <v>21.41</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.068</v>
+        <v>0.08</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.344</v>
+        <v>0.395</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.121</v>
+        <v>0.097</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.274</v>
+        <v>0.28</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.143</v>
+        <v>0.126</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.321</v>
+        <v>0.313</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.54</v>
+        <v>24.48</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0.065</v>
+        <v>0.037</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.313</v>
+        <v>0.333</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.011</v>
+        <v>0.023</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.085</v>
+        <v>-0.046</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.355</v>
+        <v>-0.371</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.092</v>
+        <v>0.09</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>65.03</v>
+        <v>64.81</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.031</v>
+        <v>0.019</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.094</v>
+        <v>0.125</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.484</v>
+        <v>0.542</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.249</v>
+        <v>0.246</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>0.982</v>
+        <v>1.04</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>1.053</v>
+        <v>1.014</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.895</v>
+        <v>2.791</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.256</v>
+        <v>0.252</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,34 +5288,34 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.63</v>
+        <v>125.58</v>
       </c>
       <c r="R37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.008</v>
       </c>
       <c r="T37" s="1" t="n">
         <v>0.017</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.025</v>
+        <v>0.034</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.266</v>
+        <v>0.269</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.217</v>
+        <v>0.233</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.865</v>
+        <v>0.91</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.344</v>
+        <v>1.314</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.47</v>
+        <v>2.437</v>
       </c>
       <c r="AA37" s="1" t="n">
         <v>0.147</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>74.62</v>
+        <v>75.01</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.019</v>
+        <v>0.005</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.101</v>
+        <v>0.107</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.187</v>
+        <v>0.192</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.303</v>
+        <v>0.337</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.49</v>
+        <v>0.503</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.292</v>
+        <v>1.33</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.073</v>
+        <v>1.085</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.367</v>
+        <v>2.391</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.507</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>83.85</v>
+        <v>83.35</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.017</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.063</v>
+        <v>0.041</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.15</v>
+        <v>0.132</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.153</v>
+        <v>0.19</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.578</v>
+        <v>0.641</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.369</v>
+        <v>0.354</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.841</v>
+        <v>0.796</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.408</v>
+        <v>0.354</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>1.026</v>
+        <v>0.921</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.648</v>
+        <v>0.638</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.63</v>
+        <v>59.3</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.006</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.025</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0.02</v>
+        <v>0.028</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.297</v>
+        <v>0.295</v>
       </c>
       <c r="W38" s="1" t="n">
         <v>0.169</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.397</v>
+        <v>0.422</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.166</v>
+        <v>1.097</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.258</v>
+        <v>1.215</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.097</v>
+        <v>0.091</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>44.06</v>
+        <v>43.39</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.015</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.037</v>
+        <v>0.024</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.184</v>
+        <v>0.166</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.315</v>
+        <v>0.298</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.627</v>
+        <v>0.599</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.501</v>
+        <v>0.5</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.314</v>
+        <v>1.345</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>1.028</v>
+        <v>0.964</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>1.924</v>
+        <v>1.838</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.673</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.76</v>
+        <v>24.73</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.096</v>
+        <v>0.094</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>0.198</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.603</v>
+        <v>0.608</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.468</v>
+        <v>0.484</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.699</v>
+        <v>0.712</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.613</v>
+        <v>0.598</v>
       </c>
       <c r="L39" s="1" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="M39" s="1" t="n">
         <v>0.599</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>0.601</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.09</v>
+        <v>63.63</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.007</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.022</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.318</v>
+        <v>0.308</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.179</v>
+        <v>0.175</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.137</v>
+        <v>0.155</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.913</v>
+        <v>0.847</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.982</v>
+        <v>0.932</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.083</v>
+        <v>0.075</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>148.17</v>
+        <v>147.79</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.003</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.016</v>
+        <v>0.034</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.178</v>
+        <v>0.175</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.184</v>
+        <v>0.181</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.766</v>
+        <v>0.772</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.629</v>
+        <v>0.653</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.724</v>
+        <v>0.747</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.835</v>
+        <v>0.817</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.643</v>
+        <v>0.618</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.784</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>65.32</v>
+        <v>64.79</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.03</v>
+        <v>0.011</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.128</v>
+        <v>0.119</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.192</v>
+        <v>0.203</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.601</v>
+        <v>0.608</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.396</v>
+        <v>0.388</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>0.95</v>
+        <v>0.958</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.16</v>
+        <v>1.119</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.785</v>
+        <v>0.735</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.577</v>
+        <v>0.564</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.57</v>
+        <v>135.46</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.007</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>0.018</v>
+        <v>0.04</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>0.081</v>
+        <v>0.114</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.047</v>
+        <v>0.093</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.699</v>
+        <v>0.738</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.584</v>
+        <v>1.562</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.308</v>
+        <v>2.3</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.077</v>
+        <v>0.084</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>31.13</v>
+        <v>31.3</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>0.028</v>
+        <v>0.043</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.114</v>
+        <v>0.12</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.024</v>
+        <v>0.005</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.131</v>
+        <v>0.173</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.089</v>
+        <v>0.097</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.505</v>
+        <v>0.539</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.715</v>
+        <v>0.676</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.975</v>
+        <v>0.987</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.237</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>27.36</v>
+        <v>27.14</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.008</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.016</v>
+        <v>0.008</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.033</v>
+        <v>0.045</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.313</v>
+        <v>0.322</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.068</v>
+        <v>0.063</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.49</v>
+        <v>0.502</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.666</v>
+        <v>0.621</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.213</v>
+        <v>1.161</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.164</v>
+        <v>0.155</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.47</v>
+        <v>175.05</v>
       </c>
       <c r="R41" s="1" t="n">
         <v>-0.002</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.01</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.423</v>
+        <v>0.432</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.369</v>
+        <v>0.377</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.041</v>
+        <v>1.084</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>2.033</v>
+        <v>1.989</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.369</v>
+        <v>4.292</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.228</v>
+        <v>0.225</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>66.37</v>
+        <v>65.85</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.008</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.025</v>
+        <v>0.013</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.052</v>
+        <v>0.043</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.084</v>
+        <v>0.087</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.314</v>
+        <v>0.338</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.197</v>
+        <v>0.189</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.74</v>
+        <v>0.757</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.634</v>
+        <v>0.606</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.12</v>
+        <v>1.073</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.291</v>
+        <v>0.28</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.3</v>
+        <v>34.77</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0.026</v>
+        <v>0.037</v>
       </c>
       <c r="T42" s="1" t="n">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.01</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.287</v>
+        <v>0.408</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.255</v>
+        <v>0.26</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.67</v>
+        <v>0.688</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.057</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.099</v>
+        <v>0.114</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>95.3</v>
+        <v>94.47</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.009</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.025</v>
+        <v>0.012</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.038</v>
+        <v>0.029</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.292</v>
+        <v>0.313</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.19</v>
+        <v>0.187</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.792</v>
+        <v>0.806</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.72</v>
+        <v>0.691</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.133</v>
+        <v>1.088</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.282</v>
+        <v>0.271</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>199.43</v>
+        <v>197.79</v>
       </c>
       <c r="R43" s="1" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="S43" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="S43" s="1" t="n">
-        <v>0.023</v>
-      </c>
       <c r="T43" s="1" t="n">
-        <v>0.091</v>
+        <v>0.082</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.603</v>
+        <v>0.583</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.583</v>
+        <v>1.677</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.707</v>
+        <v>1.638</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.302</v>
+        <v>7.203</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.252</v>
+        <v>0.242</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>49.6</v>
+        <v>51.21</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>-0.012</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.025</v>
+        <v>0.074</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.2</v>
+        <v>0.257</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.309</v>
+        <v>0.348</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.208</v>
+        <v>1.497</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.718</v>
+        <v>0.762</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>1.63</v>
+        <v>1.748</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>4.348</v>
+        <v>4.451</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.74</v>
+        <v>3.443</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>0.852</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.67</v>
+        <v>40.47</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.005</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.03</v>
+        <v>0.022</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.047</v>
+        <v>0.042</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.084</v>
+        <v>0.086</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.253</v>
+        <v>0.271</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.176</v>
+        <v>0.178</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.727</v>
+        <v>0.74</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.054</v>
+        <v>1.026</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.689</v>
+        <v>1.644</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.62</v>
+        <v>114.37</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.011</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.069</v>
+        <v>0.058</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.039</v>
+        <v>0.033</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.422</v>
+        <v>0.408</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.163</v>
+        <v>1.228</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.846</v>
+        <v>0.786</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>4.993</v>
+        <v>4.926</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.155</v>
+        <v>0.142</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>72.87</v>
+        <v>73.2</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.007</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="AI44" s="1" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="AJ44" s="1" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="AK44" s="1" t="n">
+        <v>-0.076</v>
+      </c>
+      <c r="AL44" s="1" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="AM44" s="1" t="n">
+        <v>1.578</v>
+      </c>
+      <c r="AN44" s="1" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="AO44" s="1" t="n">
         <v>-0.031</v>
-      </c>
-      <c r="AJ44" s="1" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="AK44" s="1" t="n">
-        <v>-0.046</v>
-      </c>
-      <c r="AL44" s="1" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="AM44" s="1" t="n">
-        <v>1.567</v>
-      </c>
-      <c r="AN44" s="1" t="n">
-        <v>-0.421</v>
-      </c>
-      <c r="AO44" s="1" t="n">
-        <v>-0.035</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>54.48</v>
+        <v>54.06</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.008</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.024</v>
+        <v>0.012</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.08</v>
+        <v>0.072</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.117</v>
+        <v>0.125</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.356</v>
+        <v>0.397</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.191</v>
+        <v>0.172</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.613</v>
+        <v>0.634</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.366</v>
+        <v>0.34</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.973</v>
+        <v>0.907</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.315</v>
+        <v>0.305</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.12</v>
+        <v>86.88</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.014</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.037</v>
+        <v>0.023</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.016</v>
+        <v>0.006</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.362</v>
+        <v>0.338</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.286</v>
+        <v>0.282</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>0.936</v>
+        <v>0.978</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.871</v>
+        <v>0.818</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.545</v>
+        <v>2.438</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.183</v>
+        <v>0.166</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>29.79</v>
+        <v>29.9</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>0.017</v>
+        <v>0.004</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.005</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>0.079</v>
+        <v>0.114</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.066</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.045</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.795</v>
+        <v>1.808</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.675</v>
+        <v>0.698</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.69</v>
+        <v>30.39</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.01</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0.018</v>
+        <v>0.005</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.026</v>
+        <v>0.016</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.081</v>
+        <v>0.083</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>288.36</v>
+        <v>281.91</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0.03</v>
+        <v>-0.022</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0.072</v>
+        <v>0.04</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.17</v>
+        <v>0.144</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.188</v>
+        <v>0.183</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.837</v>
+        <v>0.756</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.257</v>
+        <v>0.232</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.556</v>
+        <v>1.659</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.914</v>
+        <v>1.795</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10.414</v>
+        <v>10.013</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.346</v>
+        <v>0.316</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>13.3</v>
+        <v>13.78</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>0.019</v>
+        <v>0.036</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>0.037</v>
+        <v>0.054</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>0.028</v>
+        <v>0.065</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.128</v>
+        <v>-0.088</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.336</v>
+        <v>-0.277</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.166</v>
+        <v>-0.104</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.861</v>
+        <v>-0.85</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.707</v>
+        <v>-0.706</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.927</v>
+        <v>-0.924</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.209</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6423,37 +6423,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>45.08</v>
+        <v>44.83</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.009</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.033</v>
+        <v>0.014</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.051</v>
+        <v>0.032</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.044</v>
+        <v>0.047</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.162</v>
+        <v>0.264</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.134</v>
+        <v>0.129</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.71</v>
+        <v>0.705</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.617</v>
+        <v>0.594</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.323</v>
+        <v>1.229</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.232</v>
+        <v>0.225</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>128.5</v>
+        <v>127.47</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.008</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0.022</v>
+        <v>0.012</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.076</v>
+        <v>0.067</v>
       </c>
       <c r="U47" s="1" t="n">
         <v>0.133</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.596</v>
+        <v>0.572</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.335</v>
+        <v>0.338</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.66</v>
+        <v>1.749</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.537</v>
+        <v>1.475</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.765</v>
+        <v>6.655</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.261</v>
+        <v>0.25</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.57</v>
+        <v>36.32</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.007</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0.016</v>
+        <v>0.009</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.059</v>
+        <v>0.062</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.305</v>
+        <v>0.335</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.301</v>
+        <v>0.293</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.896</v>
+        <v>0.907</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.95</v>
+        <v>0.919</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.215</v>
+        <v>1.161</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.389</v>
+        <v>0.38</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6581,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>46.85</v>
+        <v>47.93</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.01</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0.04</v>
+        <v>0.047</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.111</v>
+        <v>0.122</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.134</v>
+        <v>0.171</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.564</v>
+        <v>0.695</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>0.952</v>
+        <v>1</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.503</v>
+        <v>0.485</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.264</v>
+        <v>0.293</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6618,37 +6618,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.74</v>
+        <v>26.6</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="AG48" s="1" t="n">
         <v>-0.006</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.021</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>0.023</v>
+        <v>0.044</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.096</v>
+        <v>0.099</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.451</v>
+        <v>0.442</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.988</v>
+        <v>0.95</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.41</v>
+        <v>0.405</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>48.11</v>
+        <v>47.75</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.007</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.003</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.062</v>
+        <v>0.059</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.324</v>
+        <v>0.342</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.245</v>
+        <v>0.246</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.871</v>
+        <v>0.877</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.642</v>
+        <v>0.618</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.427</v>
+        <v>1.409</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.302</v>
+        <v>0.292</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>35.23</v>
+        <v>34.76</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0.02</v>
+        <v>-0.013</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0.034</v>
+        <v>0.018</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.093</v>
+        <v>0.078</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.217</v>
+        <v>0.207</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.81</v>
+        <v>0.772</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.301</v>
+        <v>0.284</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.6</v>
+        <v>17.51</v>
       </c>
       <c r="AF49" s="1" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="AG49" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AH49" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="AG49" s="1" t="n">
+      <c r="AI49" s="1" t="n">
         <v>-0.002</v>
       </c>
-      <c r="AH49" s="1" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AI49" s="1" t="n">
-        <v>-0.031</v>
-      </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.065</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.056</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.36</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.324</v>
+        <v>0.309</v>
       </c>
       <c r="AN49" s="1" t="n">
         <v>-0.266</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.062</v>
+        <v>-0.067</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6785,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>32.62</v>
+        <v>32.52</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.018</v>
+        <v>0.008</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.099</v>
+        <v>0.103</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.325</v>
+        <v>0.319</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.311</v>
+        <v>0.317</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.603</v>
+        <v>0.651</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.341</v>
+        <v>0.323</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.495</v>
+        <v>0.468</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.237</v>
+        <v>0.233</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6824,37 +6824,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.14</v>
+        <v>4.1</v>
       </c>
       <c r="AF50" s="1" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AG50" s="1" t="n">
         <v>-0.002</v>
       </c>
-      <c r="AG50" s="1" t="n">
-        <v>-0.012</v>
-      </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.017</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.106</v>
+        <v>-0.097</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.104</v>
+        <v>-0.12</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.222</v>
+        <v>-0.236</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.535</v>
+        <v>-0.54</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.287</v>
+        <v>-0.31</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.6</v>
+        <v>-0.596</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.141</v>
+        <v>-0.149</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6880,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>63.92</v>
+        <v>64.5</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.004</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.002</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>0.017</v>
+        <v>0.022</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.051</v>
+        <v>0.067</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.344</v>
+        <v>0.468</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.321</v>
+        <v>0.323</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.024</v>
+        <v>1.053</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.804</v>
+        <v>0.801</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.739</v>
+        <v>1.692</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.249</v>
+        <v>0.26</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6919,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.78</v>
+        <v>21.84</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>0.005</v>
+        <v>0.018</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.009</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.035</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.168</v>
+        <v>-0.169</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.36</v>
+        <v>0.364</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.211</v>
+        <v>0.209</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>71.29</v>
+        <v>69.13</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.021</v>
+        <v>-0.03</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.097</v>
+        <v>0.064</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>0.124</v>
+        <v>0.09</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.146</v>
+        <v>0.126</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.494</v>
+        <v>0.562</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>1.007</v>
+        <v>0.917</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.344</v>
+        <v>0.303</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>60.77</v>
+        <v>59.77</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.016</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.016</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>0.036</v>
+        <v>0.019</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.142</v>
+        <v>0.117</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.513</v>
+        <v>0.536</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.353</v>
+        <v>0.33</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.099</v>
+        <v>1.145</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.242</v>
+        <v>0.217</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.42</v>
+        <v>2.333</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.439</v>
+        <v>0.415</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>35.79</v>
+        <v>33.9</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.045</v>
+        <v>-0.053</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.128</v>
+        <v>0.076</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>0.092</v>
+        <v>0.034</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.836</v>
+        <v>0.76</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.612</v>
+        <v>1.915</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.942</v>
+        <v>0.828</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.415</v>
+        <v>0.34</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>120.98</v>
+        <v>119.61</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.011</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.013</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>0.051</v>
+        <v>0.04</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.501</v>
+        <v>0.492</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.584</v>
+        <v>0.556</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>1.909</v>
+        <v>1.983</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>1.084</v>
+        <v>1.043</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.451</v>
+        <v>0.435</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.7</v>
+        <v>10.61</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>0.018</v>
+        <v>-0.008</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>0.022</v>
+        <v>0.001</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>0.022</v>
+        <v>0.013</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.03</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.126</v>
+        <v>-0.123</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.192</v>
+        <v>-0.186</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.186</v>
+        <v>0.169</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.715</v>
+        <v>0.684</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.176</v>
+        <v>0.153</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.064</v>
+        <v>-0.072</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>69.66</v>
+        <v>68.85</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.012</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.014</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.265</v>
+        <v>0.284</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.079</v>
+        <v>0.081</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.858</v>
+        <v>0.903</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.669</v>
+        <v>0.636</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.323</v>
+        <v>1.261</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.082</v>
+        <v>0.069</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.47</v>
+        <v>113.96</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.071</v>
+        <v>0.076</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.089</v>
+        <v>0.093</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.194</v>
+        <v>0.217</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.133</v>
+        <v>0.162</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.515</v>
+        <v>0.556</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.687</v>
+        <v>0.689</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.76</v>
+        <v>1.778</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.199</v>
+        <v>0.204</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.53</v>
+        <v>38.47</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>0.088</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.146</v>
+        <v>0.169</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.274</v>
+        <v>0.272</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.446</v>
+        <v>0.436</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.296</v>
+        <v>0.297</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.103</v>
+        <v>0.101</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>89.77</v>
+        <v>90.18</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.083</v>
+        <v>0.088</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.104</v>
+        <v>0.107</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.221</v>
+        <v>0.246</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.136</v>
+        <v>0.169</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.513</v>
+        <v>0.552</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.689</v>
+        <v>0.686</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.839</v>
+        <v>1.862</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.211</v>
+        <v>0.216</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,35 +7418,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>33.05</v>
+        <v>33.77</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.022</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.018</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>-0.068</v>
+        <v>-0.048</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.305</v>
+        <v>-0.299</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.558</v>
+        <v>-0.546</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.376</v>
+        <v>-0.415</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.897</v>
+        <v>-0.899</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-0.98</v>
+        <v>-0.978</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.278</v>
+        <v>-0.263</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7455,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>73.31</v>
+        <v>72.8</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.007</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.027</v>
+        <v>0.01</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.008</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.221</v>
+        <v>0.234</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.554</v>
+        <v>0.587</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.847</v>
+        <v>0.805</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.547</v>
+        <v>2.454</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.119</v>
+        <v>0.111</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>96</v>
+        <v>95.73</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.003</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.014</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.015</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.09</v>
+        <v>0.117</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.291</v>
+        <v>0.318</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.321</v>
+        <v>0.315</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.791</v>
+        <v>0.769</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>83.4</v>
+        <v>83.29</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.02</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.016</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.051</v>
+        <v>0.085</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.003</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.298</v>
+        <v>0.335</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.486</v>
+        <v>0.487</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.906</v>
+        <v>0.888</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>90.56</v>
+        <v>90.23</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.004</v>
       </c>
       <c r="S59" s="1" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="T59" s="1" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="U59" s="1" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="V59" s="1" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="W59" s="1" t="n">
         <v>-0.005</v>
       </c>
-      <c r="T59" s="1" t="n">
-        <v>-0.011</v>
-      </c>
-      <c r="U59" s="1" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="V59" s="1" t="n">
-        <v>0.096</v>
-      </c>
-      <c r="W59" s="1" t="n">
-        <v>-0.01</v>
-      </c>
       <c r="X59" s="1" t="n">
-        <v>0.294</v>
+        <v>0.321</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.341</v>
+        <v>0.334</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.745</v>
+        <v>0.719</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>21.93</v>
+        <v>22</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.003</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.048</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.018</v>
+        <v>0.033</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.108</v>
+        <v>0.163</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.039</v>
+        <v>0.058</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.37</v>
+        <v>0.407</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.267</v>
+        <v>0.264</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.339</v>
+        <v>0.327</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.08</v>
+        <v>0.084</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>87.37</v>
+        <v>86.3</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.012</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.005</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.047</v>
+        <v>0.034</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.298</v>
+        <v>0.289</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.133</v>
+        <v>0.118</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.295</v>
+        <v>0.321</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.902</v>
+        <v>0.846</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.509</v>
+        <v>1.461</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.093</v>
+        <v>0.079</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/07/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/08/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>334.53</v>
+        <v>336.63</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.006</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.042</v>
+        <v>0.047</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.098</v>
+        <v>0.106</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.377</v>
+        <v>0.407</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.234</v>
+        <v>0.226</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.111</v>
+        <v>1.124</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.257</v>
+        <v>1.256</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.443</v>
+        <v>3.436</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.166</v>
+        <v>0.173</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.62</v>
+        <v>47.4</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.046</v>
+        <v>0.016</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.168</v>
+        <v>0.192</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.017</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.176</v>
+        <v>0.17</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.455</v>
+        <v>2.315</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.765</v>
+        <v>0.724</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.068</v>
+        <v>0.063</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,25 +1747,25 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.81</v>
+        <v>82.8</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AH5" s="1" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AI5" s="1" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="AJ5" s="1" t="n">
         <v>0.021</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="AL5" s="1" t="n">
         <v>0.134</v>
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>672.42</v>
+        <v>676.42</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.081</v>
+        <v>0.088</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.336</v>
+        <v>0.364</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.194</v>
+        <v>0.19</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.927</v>
+        <v>0.938</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.114</v>
+        <v>1.108</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.974</v>
+        <v>2.961</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.153</v>
+        <v>0.16</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.12</v>
+        <v>92.69</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.009</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>0.041</v>
+        <v>0.007</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.216</v>
+        <v>0.254</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.004</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.073</v>
+        <v>0.068</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>2.991</v>
+        <v>2.825</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.87</v>
+        <v>0.812</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.058</v>
+        <v>0.053</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,34 +1866,34 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.38</v>
+        <v>119.33</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AI6" s="1" t="n">
         <v>0.021</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.144</v>
+        <v>0.143</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="AN6" s="1" t="n">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="AO6" s="1" t="n">
         <v>0.06</v>
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.15</v>
+        <v>65.81</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.005</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.035</v>
+        <v>0.041</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.254</v>
+        <v>0.295</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.506</v>
+        <v>0.521</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.665</v>
+        <v>1.664</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.055</v>
+        <v>0.066</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.38</v>
+        <v>19.25</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.015</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.027</v>
+        <v>0.022</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.117</v>
+        <v>0.063</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.273</v>
+        <v>0.319</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.078</v>
+        <v>-0.058</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.193</v>
+        <v>0.185</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.814</v>
+        <v>1.661</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.447</v>
+        <v>-0.462</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.012</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,22 +1985,22 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.36</v>
+        <v>96.38</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.03</v>
+        <v>0.035</v>
       </c>
       <c r="AK7" s="1" t="n">
         <v>0.041</v>
@@ -2009,10 +2009,10 @@
         <v>0.118</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.099</v>
+        <v>-0.101</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="AO7" s="1" t="n">
         <v>0.073</v>
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>244.16</v>
+        <v>246.72</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.009</v>
+        <v>0.017</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.114</v>
+        <v>0.118</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.367</v>
+        <v>0.419</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.135</v>
+        <v>0.146</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.506</v>
+        <v>0.521</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.622</v>
+        <v>0.621</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.43</v>
+        <v>1.434</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.114</v>
+        <v>0.125</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.89</v>
+        <v>16.01</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.008</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.026</v>
+        <v>0.008</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.082</v>
+        <v>0.099</v>
       </c>
       <c r="U8" s="1" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="W8" s="1" t="n">
         <v>0.17</v>
       </c>
-      <c r="V8" s="1" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="W8" s="1" t="n">
-        <v>0.146</v>
-      </c>
       <c r="X8" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.093</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.198</v>
+        <v>-0.191</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.906</v>
+        <v>0.901</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.411</v>
+        <v>0.422</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>102.84</v>
+        <v>102.9</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.021</v>
+        <v>0.039</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="AL8" s="1" t="n">
         <v>0.077</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.257</v>
+        <v>-0.259</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.018</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.37</v>
+        <v>25.28</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0.033</v>
+        <v>0.028</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.058</v>
+        <v>0.03</v>
       </c>
       <c r="V9" s="1" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="X9" s="1" t="n">
         <v>0.223</v>
       </c>
-      <c r="W9" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="X9" s="1" t="n">
-        <v>0.227</v>
-      </c>
       <c r="Y9" s="1" t="n">
-        <v>1.964</v>
+        <v>1.88</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>1.005</v>
+        <v>0.969</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.13</v>
+        <v>0.126</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>89.18</v>
+        <v>89.25</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.002</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.013</v>
+        <v>0.033</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.019</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.353</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.054</v>
+        <v>-0.046</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.02</v>
+        <v>151.57</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.012</v>
+        <v>0.027</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.051</v>
+        <v>0.059</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.261</v>
+        <v>0.315</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.022</v>
+        <v>0.041</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.423</v>
+        <v>0.438</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.609</v>
+        <v>0.613</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.518</v>
+        <v>1.503</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.167</v>
+        <v>0.18</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.17</v>
+        <v>111.25</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.07</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>204.54</v>
+        <v>204.95</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.049</v>
+        <v>0.052</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.106</v>
+        <v>0.107</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.564</v>
+        <v>0.567</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.854</v>
+        <v>0.834</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.609</v>
+        <v>1.586</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.119</v>
+        <v>0.122</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.06</v>
+        <v>46.2</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.025</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.013</v>
+        <v>0.028</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.078</v>
+        <v>0.102</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.173</v>
+        <v>0.19</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.476</v>
+        <v>0.557</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.082</v>
+        <v>0.15</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.432</v>
+        <v>0.468</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.063</v>
+        <v>1.091</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.133</v>
+        <v>2.117</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.312</v>
+        <v>0.346</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,31 +2413,31 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.27</v>
+        <v>103.26</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AI11" s="1" t="n">
         <v>0.017</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.166</v>
+        <v>0.165</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>0.203</v>
+        <v>0.202</v>
       </c>
       <c r="AN11" s="1" t="n">
         <v>0.354</v>
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>470.26</v>
+        <v>474.96</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.01</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.107</v>
+        <v>0.119</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.445</v>
+        <v>0.485</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.274</v>
+        <v>0.266</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.25</v>
+        <v>1.273</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.205</v>
+        <v>1.219</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.356</v>
+        <v>4.374</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.175</v>
+        <v>0.186</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.5</v>
+        <v>67.16</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.02</v>
+        <v>0.025</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.012</v>
+        <v>0.024</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.455</v>
+        <v>0.563</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.896</v>
+        <v>0.943</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1.045</v>
+        <v>1.105</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.604</v>
+        <v>2.696</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.259</v>
+        <v>1.28</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5.133</v>
+        <v>5.361</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.342</v>
+        <v>1.402</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,22 +2532,22 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.54</v>
+        <v>106.57</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.043</v>
+        <v>0.058</v>
       </c>
       <c r="AK12" s="1" t="n">
         <v>0.019</v>
@@ -2556,10 +2556,10 @@
         <v>0.123</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.239</v>
+        <v>0.24</v>
       </c>
       <c r="AO12" s="1" t="n">
         <v>0.024</v>
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>195.81</v>
+        <v>196.69</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.004</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.069</v>
+        <v>0.073</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.273</v>
+        <v>0.296</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.114</v>
+        <v>0.107</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.914</v>
+        <v>0.922</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0.975</v>
+        <v>0.966</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.643</v>
+        <v>2.624</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.107</v>
+        <v>0.112</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.21</v>
+        <v>28.59</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.02</v>
+        <v>0.051</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.037</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.167</v>
+        <v>0.193</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.489</v>
+        <v>0.64</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>1.111</v>
+        <v>1.244</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.066</v>
+        <v>1.18</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>1.955</v>
+        <v>2.105</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.854</v>
+        <v>0.906</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.611</v>
+        <v>3.802</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.364</v>
+        <v>1.484</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.34</v>
+        <v>22.26</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.004</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="AH13" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.088</v>
+        <v>0.084</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.091</v>
+        <v>0.087</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.221</v>
+        <v>0.219</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>95.24</v>
+        <v>95.43</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.019</v>
+        <v>0.024</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.113</v>
+        <v>0.125</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.073</v>
+        <v>0.067</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.512</v>
+        <v>0.515</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.598</v>
+        <v>0.586</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.817</v>
+        <v>1.801</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.084</v>
+        <v>0.087</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.71</v>
+        <v>38.99</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.034</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.002</v>
+        <v>0.032</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.14</v>
+        <v>0.172</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.25</v>
+        <v>0.281</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.725</v>
+        <v>0.846</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.214</v>
+        <v>0.301</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.493</v>
+        <v>0.544</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.61</v>
+        <v>75.46</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.014</v>
       </c>
       <c r="AI14" s="1" t="n">
         <v>-0.007</v>
       </c>
       <c r="AJ14" s="1" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="AK14" s="1" t="n">
         <v>0.065</v>
       </c>
-      <c r="AK14" s="1" t="n">
-        <v>0.068</v>
-      </c>
       <c r="AL14" s="1" t="n">
-        <v>0.213</v>
+        <v>0.21</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.04</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.122</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>254.5</v>
+        <v>255.92</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>-0.008</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.044</v>
+        <v>0.041</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.069</v>
+        <v>0.085</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.399</v>
+        <v>0.421</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.271</v>
+        <v>0.266</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.951</v>
+        <v>0.962</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.8</v>
+        <v>0.803</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.109</v>
+        <v>3.104</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.239</v>
+        <v>0.246</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.29</v>
+        <v>13.47</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.013</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.097</v>
+        <v>0.073</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.251</v>
+        <v>0.24</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.647</v>
+        <v>0.599</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.969</v>
+        <v>1.1</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.116</v>
+        <v>0.178</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.513</v>
+        <v>0.533</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.05</v>
+        <v>95.1</v>
       </c>
       <c r="AF15" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AG15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AG15" s="1" t="n">
-        <v>0.003</v>
-      </c>
       <c r="AH15" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.119</v>
+        <v>0.128</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.402</v>
+        <v>0.403</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.087</v>
+        <v>0.078</v>
       </c>
       <c r="AN15" s="1" t="n">
         <v>0.419</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>122.24</v>
+        <v>121.76</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.008</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>0.01</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.038</v>
+        <v>0.028</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.129</v>
+        <v>0.141</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.071</v>
+        <v>0.072</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.438</v>
+        <v>0.432</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.796</v>
+        <v>0.764</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.416</v>
+        <v>1.382</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.113</v>
+        <v>0.109</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.38</v>
+        <v>71.3</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.001</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.034</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.065</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.041</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>0.054</v>
+        <v>0.082</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-0.148</v>
+        <v>-0.139</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.151</v>
+        <v>0.15</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.797</v>
+        <v>0.78</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.056</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.14</v>
+        <v>41.04</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.125</v>
+        <v>0.115</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.089</v>
+        <v>0.086</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.295</v>
+        <v>0.292</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.188</v>
+        <v>0.178</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>146.27</v>
+        <v>147.19</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.037</v>
+        <v>0.041</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.082</v>
+        <v>0.089</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.338</v>
+        <v>0.369</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.185</v>
+        <v>0.181</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.888</v>
+        <v>0.9</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1.011</v>
+        <v>1.006</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.144</v>
+        <v>0.151</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>93.71</v>
+        <v>95.68</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.021</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.02</v>
+        <v>0.005</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.016</v>
+        <v>0.038</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.141</v>
+        <v>0.17</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.502</v>
+        <v>0.544</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.193</v>
+        <v>0.212</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.433</v>
+        <v>1.485</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.473</v>
+        <v>1.459</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.053</v>
+        <v>3.079</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.239</v>
+        <v>0.265</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,34 +3113,34 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.2</v>
+        <v>42.18</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="AH17" s="1" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="AI17" s="1" t="n">
         <v>-0.009</v>
       </c>
-      <c r="AH17" s="1" t="n">
-        <v>-0.01</v>
-      </c>
-      <c r="AI17" s="1" t="n">
-        <v>-0.013</v>
-      </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="AL17" s="1" t="n">
         <v>0.17</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.193</v>
+        <v>-0.195</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.061</v>
       </c>
       <c r="AO17" s="1" t="n">
         <v>0.098</v>
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>146.88</v>
+        <v>147.75</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.006</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.023</v>
+        <v>0.03</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.269</v>
+        <v>0.29</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.755</v>
+        <v>0.766</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.791</v>
+        <v>0.786</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.254</v>
+        <v>2.225</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.108</v>
+        <v>0.114</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.28</v>
+        <v>29.5</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.008</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.027</v>
+        <v>0.036</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.085</v>
+        <v>0.092</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.412</v>
+        <v>0.451</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.191</v>
+        <v>0.198</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.192</v>
+        <v>0.201</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.94</v>
+        <v>51.14</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.004</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.103</v>
+        <v>0.112</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.357</v>
+        <v>0.385</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.254</v>
+        <v>0.268</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.748</v>
+        <v>0.755</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1.018</v>
+        <v>0.997</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.578</v>
+        <v>1.558</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.273</v>
+        <v>0.278</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.05</v>
+        <v>72.72</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.009</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0.005</v>
+        <v>0.021</v>
       </c>
       <c r="T20" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U20" s="1" t="n">
         <v>0.027</v>
       </c>
-      <c r="U20" s="1" t="n">
-        <v>0.028</v>
-      </c>
       <c r="V20" s="1" t="n">
-        <v>0.283</v>
+        <v>0.324</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.084</v>
+        <v>0.085</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.496</v>
+        <v>0.51</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.474</v>
+        <v>0.479</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.231</v>
+        <v>1.221</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.076</v>
+        <v>0.086</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,34 +3368,34 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.13</v>
+        <v>100.14</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="1" t="n">
         <v>0.031</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.161</v>
+        <v>0.162</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.018</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.199</v>
+        <v>0.201</v>
       </c>
       <c r="AO20" s="1" t="n">
         <v>0.064</v>
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>27.82</v>
+        <v>28.13</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.011</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.011</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.017</v>
+        <v>0.026</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.061</v>
+        <v>0.07</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.305</v>
+        <v>0.349</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.145</v>
+        <v>0.168</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.349</v>
+        <v>0.364</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.837</v>
+        <v>0.794</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.826</v>
+        <v>0.814</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.362</v>
+        <v>0.377</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.96</v>
+        <v>215.16</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0.018</v>
+        <v>0.028</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.079</v>
+        <v>0.093</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.137</v>
+        <v>0.156</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.576</v>
+        <v>0.573</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.42</v>
+        <v>0.435</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.299</v>
+        <v>1.323</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.741</v>
+        <v>1.723</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.173</v>
+        <v>3.166</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.474</v>
+        <v>0.49</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,35 +3487,35 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.29</v>
+        <v>51.38</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="AK21" s="1" t="n">
         <v>0.037</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.174</v>
+        <v>0.176</v>
       </c>
       <c r="AM21" s="1" t="n">
         <v>0.032</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>65.04</v>
+        <v>65.73</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.011</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.016</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.064</v>
+        <v>0.079</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.365</v>
+        <v>0.392</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.252</v>
+        <v>0.274</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.582</v>
+        <v>0.599</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.199</v>
+        <v>1.157</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.56</v>
+        <v>0.554</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.414</v>
+        <v>0.429</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.07</v>
+        <v>103.32</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.002</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.013</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.018</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.03</v>
+        <v>0.037</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.278</v>
+        <v>0.308</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.205</v>
+        <v>0.196</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.795</v>
+        <v>0.8</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.663</v>
+        <v>0.656</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.142</v>
+        <v>2.116</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.077</v>
+        <v>0.079</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.07</v>
+        <v>49</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AG22" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.189</v>
+        <v>0.188</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.251</v>
+        <v>0.249</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.067</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>29.68</v>
+        <v>29.87</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.006</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.023</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.262</v>
+        <v>0.298</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.083</v>
+        <v>0.099</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.148</v>
+        <v>0.155</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.537</v>
+        <v>0.504</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>0.991</v>
+        <v>0.952</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.343</v>
+        <v>0.352</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,34 +3684,34 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>103.74</v>
+        <v>103.79</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.04</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.11</v>
+        <v>-0.113</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.092</v>
+        <v>0.085</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.179</v>
+        <v>0.224</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.146</v>
+        <v>-0.152</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>0.946</v>
+        <v>0.947</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.875</v>
+        <v>0.829</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.013</v>
+        <v>2.973</v>
       </c>
       <c r="AA23" s="1" t="n">
         <v>0.019</v>
@@ -3723,34 +3723,34 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.1</v>
+        <v>95.13</v>
       </c>
       <c r="AF23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="AG23" s="1" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AH23" s="1" t="n">
-        <v>0.006</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>0.036</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.043</v>
+        <v>0.05</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="AL23" s="1" t="n">
         <v>0.166</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="AO23" s="1" t="n">
         <v>0.071</v>
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>62.12</v>
+        <v>62.52</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.319</v>
+        <v>0.34</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.257</v>
+        <v>0.264</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.069</v>
+        <v>1.083</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.839</v>
+        <v>0.834</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.23</v>
+        <v>1.231</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.344</v>
+        <v>0.352</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.03</v>
+        <v>37.4</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.01</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.056</v>
+        <v>0.05</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.189</v>
+        <v>0.176</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.448</v>
+        <v>0.53</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.171</v>
+        <v>0.216</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.164</v>
+        <v>0.175</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.28</v>
+        <v>0.293</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.4</v>
+        <v>111.26</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AH24" s="1" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.068</v>
+        <v>0.081</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.237</v>
+        <v>0.235</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.011</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.348</v>
+        <v>0.351</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.079</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.6</v>
+        <v>42.92</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.008</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.254</v>
+        <v>0.264</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.205</v>
+        <v>0.214</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.852</v>
+        <v>0.866</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.056</v>
+        <v>1.052</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.627</v>
+        <v>1.636</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.214</v>
+        <v>0.223</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.12</v>
+        <v>84.51</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.005</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.021</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.032</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.054</v>
+        <v>0.06</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.309</v>
+        <v>0.366</v>
       </c>
       <c r="W25" s="1" t="n">
         <v>0.132</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.513</v>
+        <v>0.52</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.71</v>
+        <v>0.692</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.149</v>
+        <v>1.126</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.064</v>
+        <v>0.069</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.38</v>
+        <v>93.3</v>
       </c>
       <c r="AF25" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG25" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="AG25" s="1" t="n">
-        <v>0.003</v>
       </c>
       <c r="AH25" s="1" t="n">
         <v>0.012</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.077</v>
+        <v>0.089</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.073</v>
+        <v>0.07</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.306</v>
+        <v>0.305</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.319</v>
+        <v>0.313</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.528</v>
+        <v>0.519</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.45</v>
+        <v>42.68</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.005</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.011</v>
+        <v>0.004</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.077</v>
+        <v>0.073</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.301</v>
+        <v>0.312</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.202</v>
+        <v>0.22</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.791</v>
+        <v>0.801</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.985</v>
+        <v>0.975</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.796</v>
+        <v>0.787</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.278</v>
+        <v>0.285</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.93</v>
+        <v>58.62</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.005</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.025</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.02</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.027</v>
+        <v>0.021</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.361</v>
+        <v>0.37</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.246</v>
+        <v>0.225</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.678</v>
+        <v>0.669</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.86</v>
+        <v>0.845</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.71</v>
+        <v>0.689</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.13</v>
+        <v>0.124</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,31 +4078,31 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.84</v>
+        <v>26.85</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.038</v>
+        <v>0.039</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.077</v>
+        <v>0.096</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.255</v>
+        <v>0.256</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.168</v>
+        <v>0.161</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>43.79</v>
+        <v>44.3</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.012</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.245</v>
+        <v>0.271</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.148</v>
+        <v>0.164</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.742</v>
+        <v>0.762</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.789</v>
+        <v>0.797</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.246</v>
+        <v>1.255</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.248</v>
+        <v>0.263</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.19</v>
+        <v>26.52</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.001</v>
+        <v>0.013</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0.019</v>
+        <v>0.026</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.028</v>
+        <v>0.041</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.283</v>
+        <v>0.321</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.074</v>
+        <v>0.099</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.107</v>
+        <v>0.121</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>52.94</v>
+        <v>52.9</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG27" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AH27" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="AH27" s="1" t="n">
-        <v>0.003</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>0.021</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>0.061</v>
+        <v>0.059</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.206</v>
+        <v>0.205</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.122</v>
+        <v>0.121</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.304</v>
+        <v>0.303</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>42.07</v>
+        <v>42.34</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.275</v>
+        <v>0.296</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.306</v>
+        <v>0.308</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.253</v>
+        <v>1.267</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.621</v>
+        <v>0.614</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.078</v>
+        <v>1.073</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.344</v>
+        <v>0.353</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.09</v>
+        <v>67.64</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.007</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.011</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.034</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>0.014</v>
+        <v>0.018</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.229</v>
+        <v>0.221</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.501</v>
+        <v>0.482</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.413</v>
+        <v>1.366</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.055</v>
+        <v>0.048</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.02</v>
+        <v>53.96</v>
       </c>
       <c r="AF28" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AH28" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AG28" s="1" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AH28" s="1" t="n">
-        <v>0.004</v>
-      </c>
       <c r="AI28" s="1" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.069</v>
+        <v>0.076</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>0.069</v>
+        <v>0.066</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.273</v>
+        <v>0.271</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
       <c r="AN28" s="1" t="n">
         <v>0.374</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.086</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>56.55</v>
+        <v>56.83</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.005</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.005</v>
+        <v>0.009</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>0.037</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.225</v>
+        <v>0.229</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.137</v>
+        <v>0.143</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.601</v>
+        <v>0.609</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.509</v>
+        <v>0.505</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.214</v>
+        <v>1.201</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.254</v>
+        <v>0.26</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.5</v>
+        <v>39.33</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.024</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.037</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.175</v>
+        <v>0.188</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.071</v>
+        <v>0.082</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.039</v>
+        <v>0.034</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.469</v>
+        <v>0.443</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.098</v>
+        <v>1.057</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.126</v>
+        <v>0.121</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.44</v>
+        <v>51.41</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.081</v>
+        <v>0.104</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="AL29" s="1" t="n">
         <v>0.242</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.084</v>
+        <v>-0.088</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>93.35</v>
+        <v>93.9</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.078</v>
+        <v>0.073</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.139</v>
+        <v>0.135</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.426</v>
+        <v>0.457</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.156</v>
+        <v>0.195</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.698</v>
+        <v>0.708</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.326</v>
+        <v>0.323</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.069</v>
+        <v>1.085</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.306</v>
+        <v>0.314</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4510,31 +4510,31 @@
         <v>45.84</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.028</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.044</v>
+        <v>-0.036</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.059</v>
+        <v>0.073</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.013</v>
       </c>
       <c r="X30" s="1" t="n">
         <v>0.15</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.472</v>
+        <v>0.467</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.615</v>
+        <v>0.599</v>
       </c>
       <c r="AA30" s="1" t="n">
         <v>0.001</v>
@@ -4549,7 +4549,7 @@
         <v>24.6</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="1" t="n">
         <v>0.004</v>
@@ -4558,19 +4558,19 @@
         <v>0.016</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.097</v>
+        <v>0.116</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.081</v>
+        <v>0.079</v>
       </c>
       <c r="AL30" s="1" t="n">
         <v>0.352</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="AN30" s="1" t="n">
         <v>0.589</v>
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.44</v>
+        <v>17.37</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.073</v>
+        <v>0.069</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.237</v>
+        <v>0.288</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.074</v>
+        <v>0.057</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.429</v>
+        <v>0.423</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.721</v>
+        <v>0.704</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.829</v>
+        <v>0.801</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.117</v>
+        <v>0.113</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.91</v>
+        <v>61.01</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0.037</v>
+        <v>0.009</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.086</v>
+        <v>0.082</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.095</v>
+        <v>0.11</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.034</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.231</v>
+        <v>0.233</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.395</v>
+        <v>0.391</v>
       </c>
       <c r="Z31" s="1" t="n">
         <v>1.441</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.77</v>
+        <v>80.65</v>
       </c>
       <c r="AF31" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AI31" s="1" t="n">
         <v>0.023</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.093</v>
+        <v>0.096</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.336</v>
+        <v>0.334</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.246</v>
+        <v>0.242</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.616</v>
+        <v>0.607</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.072</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.59</v>
+        <v>40.55</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.091</v>
+        <v>0.105</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.039</v>
+        <v>0.042</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.066</v>
+        <v>0.081</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.02</v>
+        <v>0.006</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.522</v>
+        <v>0.502</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.974</v>
+        <v>0.918</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.07</v>
+        <v>51.23</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.072</v>
+        <v>0.078</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.114</v>
+        <v>0.112</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.013</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.059</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.032</v>
+        <v>0.036</v>
       </c>
       <c r="Y32" s="1" t="n">
         <v>0.27</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.264</v>
+        <v>1.284</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.07</v>
+        <v>0.074</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.59</v>
+        <v>29.5</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>0.009</v>
+        <v>0.005</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.111</v>
+        <v>0.115</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.085</v>
+        <v>0.08</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.341</v>
+        <v>0.337</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.283</v>
+        <v>0.274</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.948</v>
+        <v>0.939</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.081</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.88</v>
+        <v>52.63</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.055</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0.076</v>
+        <v>0.071</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.071</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.321</v>
+        <v>0.315</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.618</v>
+        <v>0.607</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>1.022</v>
+        <v>1.009</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,34 +4864,34 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.2</v>
+        <v>75.18</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0.036</v>
+        <v>0.003</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.146</v>
+        <v>0.137</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.214</v>
+        <v>0.234</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.095</v>
+        <v>0.089</v>
       </c>
       <c r="X33" s="1" t="n">
         <v>0.403</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.461</v>
+        <v>0.437</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.754</v>
+        <v>0.747</v>
       </c>
       <c r="AA33" s="1" t="n">
         <v>0.159</v>
@@ -4906,28 +4906,28 @@
         <v>48.03</v>
       </c>
       <c r="AF33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AG33" s="1" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AH33" s="1" t="n">
-        <v>0.003</v>
-      </c>
       <c r="AI33" s="1" t="n">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.044</v>
+        <v>0.054</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
       <c r="AL33" s="1" t="n">
         <v>0.192</v>
       </c>
       <c r="AM33" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>81.96</v>
+        <v>81.75</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.003</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0.022</v>
+        <v>0.019</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0.035</v>
+        <v>0.01</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.126</v>
+        <v>0.117</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.347</v>
+        <v>0.337</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.181</v>
+        <v>0.175</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.737</v>
+        <v>0.732</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.505</v>
+        <v>0.501</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>1.023</v>
+        <v>1.011</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.231</v>
+        <v>0.228</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.48</v>
+        <v>151.99</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.042</v>
+        <v>0.023</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.052</v>
+        <v>0.069</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.175</v>
+        <v>0.176</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.296</v>
+        <v>0.358</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.276</v>
+        <v>0.289</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.081</v>
+        <v>0.089</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.504</v>
+        <v>0.522</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.14</v>
+        <v>0.151</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>101.78</v>
+        <v>102.26</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.019</v>
+        <v>0.014</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.072</v>
+        <v>0.073</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.134</v>
+        <v>0.138</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.294</v>
+        <v>0.307</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.246</v>
+        <v>0.251</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.539</v>
+        <v>0.547</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.466</v>
+        <v>0.469</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.06</v>
+        <v>2.086</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.215</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>65.81</v>
+        <v>66.13</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.005</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0.073</v>
+        <v>0.061</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.445</v>
+        <v>0.477</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.135</v>
+        <v>0.279</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.657</v>
+        <v>0.665</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.039</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.667</v>
+        <v>0.663</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.418</v>
+        <v>0.425</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.96</v>
+        <v>60.47</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.009</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.016</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.032</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.015</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.085</v>
+        <v>0.116</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.049</v>
+        <v>0.043</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.252</v>
+        <v>0.263</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.203</v>
+        <v>0.205</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.317</v>
+        <v>2.327</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.03</v>
+        <v>0.039</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.41</v>
+        <v>21.54</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.006</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>-0.006</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.08</v>
+        <v>0.082</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.395</v>
+        <v>0.448</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.097</v>
+        <v>0.197</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.28</v>
+        <v>0.288</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.126</v>
+        <v>0.131</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.48</v>
+        <v>0.469</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.313</v>
+        <v>0.321</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.48</v>
+        <v>24.82</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.014</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0.037</v>
+        <v>0.02</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.064</v>
+        <v>0.088</v>
       </c>
       <c r="U36" s="1" t="n">
         <v>0.185</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.333</v>
+        <v>0.395</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.023</v>
+        <v>0.036</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.033</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.371</v>
+        <v>-0.368</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>64.81</v>
+        <v>65.65</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.013</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.019</v>
+        <v>0.024</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.076</v>
+        <v>0.077</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.125</v>
+        <v>0.139</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.542</v>
+        <v>0.603</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.246</v>
+        <v>0.247</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.04</v>
+        <v>1.066</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>1.014</v>
+        <v>1.03</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.791</v>
+        <v>2.84</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.252</v>
+        <v>0.268</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.58</v>
+        <v>124.95</v>
       </c>
       <c r="R37" s="1" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="S37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="S37" s="1" t="n">
-        <v>-0.008</v>
-      </c>
       <c r="T37" s="1" t="n">
-        <v>0.017</v>
+        <v>0.008</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.034</v>
+        <v>0.037</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.269</v>
+        <v>0.267</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.233</v>
+        <v>0.219</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.91</v>
+        <v>0.901</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.314</v>
+        <v>1.272</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.437</v>
+        <v>2.399</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.147</v>
+        <v>0.141</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>75.01</v>
+        <v>76.22</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.005</v>
+        <v>0.016</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.031</v>
+        <v>0.046</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.107</v>
+        <v>0.112</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.192</v>
+        <v>0.224</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.337</v>
+        <v>0.354</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.503</v>
+        <v>0.539</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.33</v>
+        <v>1.368</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.085</v>
+        <v>1.108</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.391</v>
+        <v>2.461</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.515</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>83.35</v>
+        <v>84.19</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.01</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.041</v>
+        <v>0.028</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.19</v>
+        <v>0.168</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.641</v>
+        <v>0.721</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.354</v>
+        <v>0.36</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.796</v>
+        <v>0.814</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.354</v>
+        <v>0.361</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.921</v>
+        <v>0.925</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.638</v>
+        <v>0.654</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,7 +5407,7 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.3</v>
+        <v>58.97</v>
       </c>
       <c r="R38" s="1" t="n">
         <v>-0.006</v>
@@ -5416,28 +5416,28 @@
         <v>-0.002</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.03</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0.028</v>
+        <v>0.015</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.295</v>
+        <v>0.303</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.169</v>
+        <v>0.164</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.422</v>
+        <v>0.414</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.097</v>
+        <v>1.053</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.215</v>
+        <v>1.184</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.091</v>
+        <v>0.085</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>43.39</v>
+        <v>44.56</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.027</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.024</v>
+        <v>0.038</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.166</v>
+        <v>0.188</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.298</v>
+        <v>0.339</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.599</v>
+        <v>0.642</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.5</v>
+        <v>0.591</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.345</v>
+        <v>1.409</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>0.964</v>
+        <v>1.009</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>1.838</v>
+        <v>1.973</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.648</v>
+        <v>0.692</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.73</v>
+        <v>24.91</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.015</v>
+        <v>0.023</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.094</v>
+        <v>0.091</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.198</v>
+        <v>0.215</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.608</v>
+        <v>0.645</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.484</v>
+        <v>0.528</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.712</v>
+        <v>0.724</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.598</v>
+        <v>0.607</v>
       </c>
       <c r="L39" s="1" t="n">
         <v>0.572</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.599</v>
+        <v>0.61</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.63</v>
+        <v>63.24</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.029</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.023</v>
+        <v>0.008</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.308</v>
+        <v>0.313</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.175</v>
+        <v>0.172</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.155</v>
+        <v>0.148</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.847</v>
+        <v>0.808</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.932</v>
+        <v>0.904</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.075</v>
+        <v>0.069</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>147.79</v>
+        <v>152.2</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.03</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.034</v>
+        <v>0.071</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.175</v>
+        <v>0.206</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.181</v>
+        <v>0.22</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.772</v>
+        <v>0.814</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.653</v>
+        <v>0.731</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.747</v>
+        <v>0.799</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.817</v>
+        <v>0.873</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.618</v>
+        <v>0.658</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.78</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>64.79</v>
+        <v>66.8</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.031</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.011</v>
+        <v>0.032</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.119</v>
+        <v>0.126</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.203</v>
+        <v>0.241</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.608</v>
+        <v>0.667</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.388</v>
+        <v>0.451</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>0.958</v>
+        <v>1.018</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.119</v>
+        <v>1.174</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.735</v>
+        <v>0.755</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.564</v>
+        <v>0.613</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.46</v>
+        <v>134.94</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>0.114</v>
+        <v>0.105</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.093</v>
+        <v>0.077</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.738</v>
+        <v>0.732</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.562</v>
+        <v>1.521</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.3</v>
+        <v>2.252</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.084</v>
+        <v>0.08</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>31.3</v>
+        <v>31.38</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="AH40" s="1" t="n">
         <v>0.12</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.071</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.173</v>
+        <v>0.22</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.097</v>
+        <v>0.121</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.539</v>
+        <v>0.543</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.676</v>
+        <v>0.672</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.987</v>
+        <v>0.994</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.244</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>27.14</v>
+        <v>27.23</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.003</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.322</v>
+        <v>0.328</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.063</v>
+        <v>0.069</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.502</v>
+        <v>0.507</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.621</v>
+        <v>0.603</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.161</v>
+        <v>1.137</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.155</v>
+        <v>0.159</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.05</v>
+        <v>175.64</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>0.028</v>
+        <v>0.013</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0.024</v>
+        <v>0.042</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.432</v>
+        <v>0.446</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.377</v>
+        <v>0.365</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.084</v>
+        <v>1.091</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>1.989</v>
+        <v>1.962</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.292</v>
+        <v>4.29</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.225</v>
+        <v>0.229</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>65.85</v>
+        <v>66.16</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.005</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.013</v>
+        <v>0.009</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.043</v>
+        <v>0.038</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.087</v>
+        <v>0.086</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.338</v>
+        <v>0.356</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.189</v>
+        <v>0.206</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.757</v>
+        <v>0.766</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.606</v>
+        <v>0.601</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.073</v>
+        <v>1.066</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.28</v>
+        <v>0.286</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.77</v>
+        <v>35.12</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0.037</v>
+        <v>0.048</v>
       </c>
       <c r="T42" s="1" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>0.01</v>
+        <v>0.021</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.408</v>
+        <v>0.447</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.26</v>
+        <v>0.256</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.688</v>
+        <v>0.705</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.062</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.114</v>
+        <v>0.125</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>94.47</v>
+        <v>94.75</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.003</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.029</v>
+        <v>0.022</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.067</v>
+        <v>0.062</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.313</v>
+        <v>0.321</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.187</v>
+        <v>0.192</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.806</v>
+        <v>0.811</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.691</v>
+        <v>0.684</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.088</v>
+        <v>1.078</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.271</v>
+        <v>0.275</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>197.79</v>
+        <v>200.85</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.015</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0.01</v>
+        <v>0.018</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.082</v>
+        <v>0.091</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.136</v>
+        <v>0.149</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.583</v>
+        <v>0.64</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.318</v>
+        <v>0.314</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.677</v>
+        <v>1.719</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.638</v>
+        <v>1.663</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.203</v>
+        <v>7.298</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.242</v>
+        <v>0.261</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>51.21</v>
+        <v>51.02</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.074</v>
+        <v>0.057</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.257</v>
+        <v>0.229</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.348</v>
+        <v>0.378</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.497</v>
+        <v>1.518</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.762</v>
+        <v>0.747</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>1.748</v>
+        <v>1.737</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>4.451</v>
+        <v>4.446</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.443</v>
+        <v>3.305</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>0.912</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.47</v>
+        <v>40.74</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.007</v>
       </c>
       <c r="E44" s="1" t="n">
         <v>0.022</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>0.086</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.271</v>
+        <v>0.291</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.178</v>
+        <v>0.188</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.74</v>
+        <v>0.751</v>
       </c>
       <c r="K44" s="1" t="n">
         <v>1.026</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.644</v>
+        <v>1.649</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.185</v>
+        <v>0.193</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.37</v>
+        <v>115.69</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.012</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.005</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.058</v>
+        <v>0.052</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.033</v>
+        <v>0.042</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.408</v>
+        <v>0.443</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.29</v>
+        <v>0.277</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.228</v>
+        <v>1.254</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.786</v>
+        <v>0.805</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>4.926</v>
+        <v>4.969</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.142</v>
+        <v>0.156</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>73.2</v>
+        <v>73.53</v>
       </c>
       <c r="AF44" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.005</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.045</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>0.109</v>
+        <v>0.161</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>-0.076</v>
+        <v>-0.03</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.021</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.578</v>
+        <v>1.523</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.412</v>
+        <v>-0.427</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.027</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>54.06</v>
+        <v>54.49</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.008</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>0.012</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.072</v>
+        <v>0.07</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.125</v>
+        <v>0.127</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.397</v>
+        <v>0.428</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.172</v>
+        <v>0.211</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.634</v>
+        <v>0.647</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>0.34</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.907</v>
+        <v>0.902</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.305</v>
+        <v>0.316</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>86.88</v>
+        <v>89.17</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.026</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0.001</v>
+        <v>0.024</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.006</v>
+        <v>0.03</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.338</v>
+        <v>0.375</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.282</v>
+        <v>0.295</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>0.978</v>
+        <v>1.03</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.818</v>
+        <v>0.86</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.438</v>
+        <v>2.529</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.166</v>
+        <v>0.197</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>29.9</v>
+        <v>30.07</v>
       </c>
       <c r="AF45" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AG45" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AH45" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AI45" s="1" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="AJ45" s="1" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="AK45" s="1" t="n">
+        <v>-0.017</v>
+      </c>
+      <c r="AL45" s="1" t="n">
+        <v>-0.039</v>
+      </c>
+      <c r="AM45" s="1" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="AN45" s="1" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="AO45" s="1" t="n">
         <v>0.004</v>
-      </c>
-      <c r="AG45" s="1" t="n">
-        <v>-0.005</v>
-      </c>
-      <c r="AH45" s="1" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="AI45" s="1" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="AJ45" s="1" t="n">
-        <v>0.114</v>
-      </c>
-      <c r="AK45" s="1" t="n">
-        <v>-0.066</v>
-      </c>
-      <c r="AL45" s="1" t="n">
-        <v>-0.045</v>
-      </c>
-      <c r="AM45" s="1" t="n">
-        <v>1.808</v>
-      </c>
-      <c r="AN45" s="1" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="AO45" s="1" t="n">
-        <v>-0.002</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.39</v>
+        <v>30.59</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.007</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>0.083</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.352</v>
+        <v>0.38</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>281.91</v>
+        <v>291.54</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.034</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.144</v>
+        <v>0.174</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.183</v>
+        <v>0.201</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.756</v>
+        <v>0.891</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.232</v>
+        <v>0.262</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.659</v>
+        <v>1.749</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.795</v>
+        <v>1.855</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10.013</v>
+        <v>10.315</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.316</v>
+        <v>0.36</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>13.78</v>
+        <v>13.1</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>0.036</v>
+        <v>-0.049</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>0.054</v>
+        <v>-0.038</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>0.065</v>
+        <v>-0.005</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.088</v>
+        <v>-0.117</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.277</v>
+        <v>-0.283</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.104</v>
+        <v>-0.141</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.85</v>
+        <v>-0.857</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.706</v>
+        <v>-0.724</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.924</v>
+        <v>-0.928</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.18</v>
+        <v>-0.221</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6423,37 +6423,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>44.83</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.004</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.032</v>
+        <v>0.029</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.047</v>
+        <v>0.044</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.264</v>
+        <v>0.271</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.129</v>
+        <v>0.136</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.705</v>
+        <v>0.712</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.594</v>
+        <v>0.587</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.229</v>
+        <v>1.237</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.225</v>
+        <v>0.23</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>127.47</v>
+        <v>129.46</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.016</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0.012</v>
+        <v>0.021</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.133</v>
+        <v>0.149</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.572</v>
+        <v>0.624</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.338</v>
+        <v>0.336</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.749</v>
+        <v>1.792</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.475</v>
+        <v>1.496</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.655</v>
+        <v>6.73</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.32</v>
+        <v>36.41</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.002</v>
       </c>
       <c r="E48" s="1" t="n">
         <v>-0.006</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.062</v>
+        <v>0.057</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.335</v>
+        <v>0.355</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.293</v>
+        <v>0.306</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.907</v>
+        <v>0.912</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.919</v>
+        <v>0.909</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.161</v>
+        <v>1.143</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.38</v>
+        <v>0.383</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6581,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>47.93</v>
+        <v>49.28</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.028</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0.047</v>
+        <v>0.058</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.122</v>
+        <v>0.144</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.171</v>
+        <v>0.196</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.695</v>
+        <v>0.769</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.395</v>
+        <v>0.413</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>1</v>
+        <v>1.056</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.485</v>
+        <v>0.524</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.293</v>
+        <v>0.329</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6618,37 +6618,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.6</v>
+        <v>26.64</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.002</v>
       </c>
       <c r="AG48" s="1" t="n">
         <v>-0.006</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.023</v>
       </c>
       <c r="AI48" s="1" t="n">
         <v>0.035</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>0.044</v>
+        <v>0.054</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.099</v>
+        <v>0.094</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.95</v>
+        <v>0.954</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.405</v>
+        <v>0.408</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>47.75</v>
+        <v>48.06</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>0.026</v>
+        <v>0.021</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.059</v>
+        <v>0.063</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.342</v>
+        <v>0.35</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.246</v>
+        <v>0.239</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.877</v>
+        <v>0.889</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.618</v>
+        <v>0.617</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.409</v>
+        <v>1.422</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.292</v>
+        <v>0.301</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>34.76</v>
+        <v>35.73</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.028</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0.018</v>
+        <v>0.035</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.078</v>
+        <v>0.088</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.207</v>
+        <v>0.237</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.772</v>
+        <v>0.843</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.284</v>
+        <v>0.32</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.51</v>
+        <v>17.58</v>
       </c>
       <c r="AF49" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AG49" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH49" s="1" t="n">
         <v>-0.005</v>
       </c>
-      <c r="AG49" s="1" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AH49" s="1" t="n">
-        <v>-0.001</v>
-      </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.014</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.065</v>
+        <v>-0.062</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.044</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.36</v>
+        <v>-0.357</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.309</v>
+        <v>0.321</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.266</v>
+        <v>-0.257</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.067</v>
+        <v>-0.063</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6785,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>32.52</v>
+        <v>33.09</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.018</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.024</v>
+        <v>0.055</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.103</v>
+        <v>0.124</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.319</v>
+        <v>0.364</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.317</v>
+        <v>0.328</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.651</v>
+        <v>0.68</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.323</v>
+        <v>0.33</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.468</v>
+        <v>0.48</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.233</v>
+        <v>0.255</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6827,31 +6827,31 @@
         <v>4.1</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.007</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.024</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.097</v>
+        <v>-0.095</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.12</v>
+        <v>-0.122</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.236</v>
+        <v>-0.235</v>
       </c>
       <c r="AL50" s="1" t="n">
         <v>-0.54</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.31</v>
+        <v>-0.297</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.596</v>
+        <v>-0.592</v>
       </c>
       <c r="AO50" s="1" t="n">
         <v>-0.149</v>
@@ -6880,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>64.5</v>
+        <v>65.27</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.012</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0.002</v>
+        <v>0.019</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.067</v>
+        <v>0.076</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.468</v>
+        <v>0.509</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.323</v>
+        <v>0.326</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.053</v>
+        <v>1.078</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.801</v>
+        <v>0.815</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.692</v>
+        <v>1.691</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.26</v>
+        <v>0.275</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6919,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.84</v>
+        <v>21.92</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>0.018</v>
+        <v>0.009</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>0.009</v>
+        <v>0.016</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>0.053</v>
+        <v>0.065</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.017</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.169</v>
+        <v>-0.166</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.364</v>
+        <v>0.373</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.209</v>
+        <v>0.229</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>69.13</v>
+        <v>70.06</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-0.03</v>
+        <v>0.013</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.064</v>
+        <v>0.05</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.126</v>
+        <v>0.133</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.562</v>
+        <v>0.607</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.917</v>
+        <v>0.979</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.303</v>
+        <v>0.321</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>59.77</v>
+        <v>59.97</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.003</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.001</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.117</v>
+        <v>0.119</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.536</v>
+        <v>0.575</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.33</v>
+        <v>0.382</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.145</v>
+        <v>1.152</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.217</v>
+        <v>0.22</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.333</v>
+        <v>2.337</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.415</v>
+        <v>0.42</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>33.9</v>
+        <v>34.17</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-0.053</v>
+        <v>0.008</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.076</v>
+        <v>0.042</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>0.034</v>
+        <v>0.053</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.76</v>
+        <v>0.728</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.915</v>
+        <v>2.087</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.828</v>
+        <v>0.848</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.34</v>
+        <v>0.351</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>119.61</v>
+        <v>120.02</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.003</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.017</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>0.04</v>
+        <v>0.015</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.13</v>
+        <v>0.129</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.492</v>
+        <v>0.502</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.556</v>
+        <v>0.586</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>1.983</v>
+        <v>1.993</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>1.043</v>
+        <v>1.052</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.435</v>
+        <v>0.439</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.61</v>
+        <v>10.43</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.017</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.009</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.042</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.123</v>
+        <v>-0.119</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.186</v>
+        <v>-0.201</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.169</v>
+        <v>0.149</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.684</v>
+        <v>0.656</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.153</v>
+        <v>0.123</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.072</v>
+        <v>-0.087</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>68.85</v>
+        <v>68.91</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.001</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.005</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.018</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.284</v>
+        <v>0.296</v>
       </c>
       <c r="I54" s="1" t="n">
         <v>0.081</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.903</v>
+        <v>0.904</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.636</v>
+        <v>0.625</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.261</v>
+        <v>1.258</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.069</v>
+        <v>0.07</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.96</v>
+        <v>114.8</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="S54" s="1" t="n">
         <v>0.028</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.076</v>
+        <v>0.095</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.093</v>
+        <v>0.113</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.217</v>
+        <v>0.235</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.162</v>
+        <v>0.169</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.556</v>
+        <v>0.567</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.689</v>
+        <v>0.669</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.778</v>
+        <v>1.763</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.204</v>
+        <v>0.213</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.47</v>
+        <v>38.57</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.088</v>
+        <v>0.084</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.169</v>
+        <v>0.162</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.143</v>
+        <v>0.138</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.272</v>
+        <v>0.275</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.297</v>
+        <v>0.3</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.101</v>
+        <v>0.104</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>90.18</v>
+        <v>90.8</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.088</v>
+        <v>0.106</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.107</v>
+        <v>0.127</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.246</v>
+        <v>0.259</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.169</v>
+        <v>0.176</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.552</v>
+        <v>0.563</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.686</v>
+        <v>0.667</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.862</v>
+        <v>1.846</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.216</v>
+        <v>0.225</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,35 +7418,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>33.77</v>
+        <v>33.24</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.022</v>
+        <v>-0.016</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.018</v>
+        <v>0.008</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.045</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.299</v>
+        <v>-0.291</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.546</v>
+        <v>-0.611</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.415</v>
+        <v>-0.4</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.899</v>
+        <v>-0.901</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>-0.978</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.263</v>
+        <v>-0.274</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7455,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>72.8</v>
+        <v>73.6</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.011</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.01</v>
+        <v>0.021</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.003</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.028</v>
+        <v>0.036</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.234</v>
+        <v>0.27</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.056</v>
+        <v>0.063</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.587</v>
+        <v>0.605</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.805</v>
+        <v>0.811</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.454</v>
+        <v>2.416</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.111</v>
+        <v>0.124</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>95.73</v>
+        <v>95.31</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.019</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.013</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.117</v>
+        <v>0.141</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.012</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.318</v>
+        <v>0.313</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.315</v>
+        <v>0.289</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.769</v>
+        <v>0.746</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>83.29</v>
+        <v>82.55</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.009</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.029</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.024</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.085</v>
+        <v>0.097</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.01</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.335</v>
+        <v>0.323</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.487</v>
+        <v>0.45</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.888</v>
+        <v>0.858</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.045</v>
+        <v>0.036</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>90.23</v>
+        <v>89.76</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.02</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.122</v>
+        <v>0.147</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.012</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.321</v>
+        <v>0.314</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.334</v>
+        <v>0.306</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.719</v>
+        <v>0.696</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.043</v>
+        <v>0.038</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>22</v>
+        <v>22.23</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.036</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.163</v>
+        <v>0.199</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.407</v>
+        <v>0.421</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.264</v>
+        <v>0.244</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.327</v>
+        <v>0.339</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.084</v>
+        <v>0.095</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>86.3</v>
+        <v>88.13</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.021</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.011</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.034</v>
+        <v>0.053</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.054</v>
+        <v>0.072</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.289</v>
+        <v>0.344</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.118</v>
+        <v>0.138</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.321</v>
+        <v>0.349</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.846</v>
+        <v>0.849</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.461</v>
+        <v>1.49</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.079</v>
+        <v>0.102</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/08/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/09/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>336.63</v>
+        <v>336.23</v>
       </c>
       <c r="D5" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0.007</v>
-      </c>
       <c r="F5" s="1" t="n">
-        <v>0.047</v>
+        <v>0.041</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.106</v>
+        <v>0.098</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.407</v>
+        <v>0.275</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.226</v>
+        <v>0.217</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.124</v>
+        <v>1.122</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.256</v>
+        <v>1.229</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.436</v>
+        <v>3.425</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>47.4</v>
+        <v>46.76</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.014</v>
       </c>
       <c r="S5" s="1" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="U5" s="1" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="W5" s="1" t="n">
         <v>-0.003</v>
       </c>
-      <c r="T5" s="1" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="V5" s="1" t="n">
-        <v>0.192</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>0.017</v>
-      </c>
       <c r="X5" s="1" t="n">
-        <v>0.17</v>
+        <v>0.154</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.315</v>
+        <v>2.318</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.724</v>
+        <v>0.712</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.063</v>
+        <v>0.048</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,7 +1747,7 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.8</v>
+        <v>82.79</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>0</v>
@@ -1756,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="AL5" s="1" t="n">
         <v>0.134</v>
@@ -1774,10 +1774,10 @@
         <v>0.075</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.167</v>
+        <v>0.166</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>676.42</v>
+        <v>674.52</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.088</v>
+        <v>0.079</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.364</v>
+        <v>0.242</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.19</v>
+        <v>0.178</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.938</v>
+        <v>0.933</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.108</v>
+        <v>1.083</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.961</v>
+        <v>2.947</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.16</v>
+        <v>0.156</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.69</v>
+        <v>91.17</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.016</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>0.034</v>
+        <v>0.013</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.001</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.254</v>
+        <v>0.118</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.024</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.068</v>
+        <v>0.05</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>2.825</v>
+        <v>2.811</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.812</v>
+        <v>0.8</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.053</v>
+        <v>0.036</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,25 +1866,25 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.33</v>
+        <v>119.29</v>
       </c>
       <c r="AF6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.021</v>
+        <v>0.018</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="AL6" s="1" t="n">
         <v>0.143</v>
@@ -1896,7 +1896,7 @@
         <v>0.154</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.81</v>
+        <v>65.09</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.041</v>
+        <v>0.026</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.295</v>
+        <v>0.172</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.077</v>
+        <v>0.059</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.521</v>
+        <v>0.505</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.779</v>
+        <v>0.755</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.664</v>
+        <v>1.63</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.066</v>
+        <v>0.054</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.25</v>
+        <v>18.91</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.018</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>0.022</v>
+        <v>0.008</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.063</v>
+        <v>0.054</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.319</v>
+        <v>0.147</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.073</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.185</v>
+        <v>0.164</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.661</v>
+        <v>1.651</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.462</v>
+        <v>-0.473</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.03</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.38</v>
+        <v>96.31</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.118</v>
+        <v>0.117</v>
       </c>
       <c r="AM7" s="1" t="n">
         <v>-0.101</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.113</v>
+        <v>0.111</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.073</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>246.72</v>
+        <v>245.13</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.006</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.017</v>
+        <v>0.005</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>0.038</v>
       </c>
       <c r="G8" s="1" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>0.118</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>0.146</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>1.434</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>0.125</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.01</v>
+        <v>16.14</v>
       </c>
       <c r="R8" s="1" t="n">
         <v>0.008</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.099</v>
+        <v>0.122</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.189</v>
+        <v>0.187</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.532</v>
+        <v>0.471</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.17</v>
+        <v>0.183</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.093</v>
+        <v>-0.086</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.191</v>
+        <v>-0.197</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.901</v>
+        <v>0.905</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.422</v>
+        <v>0.433</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>102.9</v>
+        <v>102.83</v>
       </c>
       <c r="AF8" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="AH8" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AG8" s="1" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="AH8" s="1" t="n">
-        <v>-0.002</v>
-      </c>
       <c r="AI8" s="1" t="n">
-        <v>0.046</v>
+        <v>0.036</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.039</v>
+        <v>0.036</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="AM8" s="1" t="n">
         <v>-0.259</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.019</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.28</v>
+        <v>25.02</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.01</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0.028</v>
+        <v>0.012</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.03</v>
+        <v>0.019</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.252</v>
+        <v>0.152</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.026</v>
+        <v>0.017</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.223</v>
+        <v>0.21</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.88</v>
+        <v>1.845</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>0.969</v>
+        <v>0.937</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.126</v>
+        <v>0.115</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>89.25</v>
+        <v>89.18</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.049</v>
+        <v>0.037</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.033</v>
+        <v>0.026</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.014</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.353</v>
+        <v>-0.354</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.049</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.57</v>
+        <v>148.72</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.019</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.027</v>
+        <v>-0.003</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.021</v>
+        <v>0.016</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.059</v>
+        <v>0.034</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.315</v>
+        <v>0.181</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.041</v>
+        <v>0.013</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.438</v>
+        <v>0.411</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.613</v>
+        <v>0.567</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.503</v>
+        <v>1.463</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.18</v>
+        <v>0.157</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.25</v>
+        <v>111.12</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.028</v>
+        <v>0.023</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="AK10" s="1" t="n">
         <v>0.047</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.145</v>
+        <v>0.144</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.064</v>
+        <v>0.062</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.313</v>
+        <v>0.315</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.071</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>204.95</v>
+        <v>203.7</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.022</v>
+        <v>0.014</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.052</v>
+        <v>0.043</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.24</v>
+        <v>0.15</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.107</v>
+        <v>0.093</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.567</v>
+        <v>0.558</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.834</v>
+        <v>0.82</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.586</v>
+        <v>1.577</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.122</v>
+        <v>0.115</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.2</v>
+        <v>46.13</v>
       </c>
       <c r="R11" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="S11" s="1" t="n">
         <v>0.025</v>
       </c>
-      <c r="S11" s="1" t="n">
-        <v>0.028</v>
-      </c>
       <c r="T11" s="1" t="n">
-        <v>0.102</v>
+        <v>0.11</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.19</v>
+        <v>0.196</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.557</v>
+        <v>0.424</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.15</v>
+        <v>0.154</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.091</v>
+        <v>1.059</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.117</v>
+        <v>2.041</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.346</v>
+        <v>0.343</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,10 +2413,10 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.26</v>
+        <v>103.2</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG11" s="1" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>-0.001</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="AJ11" s="1" t="n">
         <v>0.026</v>
@@ -2437,13 +2437,13 @@
         <v>0.165</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>0.202</v>
+        <v>0.201</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>474.96</v>
+        <v>474.6</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.001</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.119</v>
+        <v>0.108</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.485</v>
+        <v>0.329</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.266</v>
+        <v>0.256</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.273</v>
+        <v>1.271</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.219</v>
+        <v>1.184</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.374</v>
+        <v>4.342</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.186</v>
+        <v>0.185</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>67.16</v>
+        <v>64.34</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0.025</v>
+        <v>-0.042</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.024</v>
+        <v>-0.017</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.165</v>
+        <v>0.122</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.563</v>
+        <v>0.478</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.943</v>
+        <v>0.715</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1.105</v>
+        <v>1.028</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.696</v>
+        <v>2.541</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.28</v>
+        <v>1.086</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5.361</v>
+        <v>4.805</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.402</v>
+        <v>1.301</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,7 +2532,7 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.57</v>
+        <v>106.56</v>
       </c>
       <c r="AF12" s="1" t="n">
         <v>0</v>
@@ -2541,22 +2541,22 @@
         <v>0.002</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.058</v>
+        <v>0.048</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="AL12" s="1" t="n">
         <v>0.123</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="AN12" s="1" t="n">
         <v>0.24</v>
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>196.69</v>
+        <v>195.77</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.039</v>
+        <v>0.033</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.073</v>
+        <v>0.061</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.296</v>
+        <v>0.187</v>
       </c>
       <c r="I13" s="1" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>2.604</v>
+      </c>
+      <c r="M13" s="1" t="n">
         <v>0.107</v>
-      </c>
-      <c r="J13" s="1" t="n">
-        <v>0.922</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>0.966</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>2.624</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>0.112</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.59</v>
+        <v>27.69</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0.051</v>
+        <v>-0.031</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.037</v>
+        <v>0.017</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.193</v>
+        <v>0.168</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.64</v>
+        <v>0.565</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>1.244</v>
+        <v>0.967</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.18</v>
+        <v>1.107</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.105</v>
+        <v>2.007</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.906</v>
+        <v>0.743</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.802</v>
+        <v>3.544</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.484</v>
+        <v>1.405</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.26</v>
+        <v>22.36</v>
       </c>
       <c r="AF13" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AG13" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AH13" s="1" t="n">
         <v>-0.004</v>
       </c>
-      <c r="AG13" s="1" t="n">
-        <v>-0.004</v>
-      </c>
-      <c r="AH13" s="1" t="n">
-        <v>-0.005</v>
-      </c>
       <c r="AI13" s="1" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.084</v>
+        <v>0.089</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.087</v>
+        <v>0.092</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.219</v>
+        <v>0.221</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.024</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>95.43</v>
+        <v>94.88</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.018</v>
+        <v>0.011</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.024</v>
+        <v>0.016</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.125</v>
+        <v>0.064</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.067</v>
+        <v>0.052</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.515</v>
+        <v>0.506</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.586</v>
+        <v>0.567</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.801</v>
+        <v>1.779</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.087</v>
+        <v>0.08</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.99</v>
+        <v>38.8</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0.034</v>
+        <v>-0.005</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.032</v>
+        <v>0.026</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.172</v>
+        <v>0.166</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.281</v>
+        <v>0.295</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.846</v>
+        <v>0.651</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.301</v>
+        <v>0.299</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.544</v>
+        <v>0.536</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.46</v>
+        <v>75.08</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.014</v>
       </c>
       <c r="AH14" s="1" t="n">
         <v>-0.014</v>
       </c>
       <c r="AI14" s="1" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="AK14" s="1" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>0.204</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>-0.051</v>
+      </c>
+      <c r="AN14" s="1" t="n">
         <v>-0.007</v>
       </c>
-      <c r="AJ14" s="1" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="AK14" s="1" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="AL14" s="1" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AM14" s="1" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="AN14" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AO14" s="1" t="n">
-        <v>0.12</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,34 +2805,34 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>255.92</v>
+        <v>256.04</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.041</v>
+        <v>0.033</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.085</v>
+        <v>0.079</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.421</v>
+        <v>0.287</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.266</v>
+        <v>0.256</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.962</v>
+        <v>0.963</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.803</v>
+        <v>0.782</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.104</v>
+        <v>3.084</v>
       </c>
       <c r="M15" s="1" t="n">
         <v>0.246</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.47</v>
+        <v>13.44</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.002</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.073</v>
+        <v>0.06</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.24</v>
+        <v>0.276</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.599</v>
+        <v>0.614</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>1.1</v>
+        <v>0.863</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.178</v>
+        <v>0.189</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.533</v>
+        <v>0.53</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.1</v>
+        <v>95.05</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>0.008</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.128</v>
+        <v>0.099</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.403</v>
+        <v>0.402</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.078</v>
+        <v>0.074</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.419</v>
+        <v>0.412</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>121.76</v>
+        <v>121.41</v>
       </c>
       <c r="D16" s="1" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="E16" s="1" t="n">
         <v>-0.004</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>-0.008</v>
-      </c>
       <c r="F16" s="1" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.028</v>
+        <v>0.025</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.141</v>
+        <v>0.094</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.072</v>
+        <v>0.062</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.432</v>
+        <v>0.428</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.382</v>
+        <v>1.38</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.109</v>
+        <v>0.106</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.3</v>
+        <v>70.54</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.011</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.044</v>
       </c>
       <c r="T16" s="1" t="n">
         <v>-0.065</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.057</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>0.082</v>
+        <v>-0.003</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-0.139</v>
+        <v>-0.148</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.13</v>
+        <v>0.118</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.15</v>
+        <v>0.136</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.78</v>
+        <v>0.729</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.066</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.04</v>
+        <v>41.11</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AI16" s="1" t="n">
         <v>0.018</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.115</v>
+        <v>0.104</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.086</v>
+        <v>0.09</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.292</v>
+        <v>0.294</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.178</v>
+        <v>0.172</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>147.19</v>
+        <v>146.78</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.041</v>
+        <v>0.035</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.089</v>
+        <v>0.079</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.369</v>
+        <v>0.245</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.181</v>
+        <v>0.169</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.9</v>
+        <v>0.894</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>1.006</v>
+        <v>0.982</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.68</v>
+        <v>94.14</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0.021</v>
+        <v>-0.016</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.014</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.17</v>
+        <v>0.137</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.544</v>
+        <v>0.383</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.212</v>
+        <v>0.186</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.485</v>
+        <v>1.445</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.459</v>
+        <v>1.406</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.079</v>
+        <v>3.002</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.265</v>
+        <v>0.245</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.18</v>
+        <v>41.97</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.015</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.016</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.056</v>
+        <v>0.051</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.17</v>
+        <v>0.164</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.195</v>
+        <v>-0.205</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.068</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.098</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>147.75</v>
+        <v>145.83</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.013</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.005</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.29</v>
+        <v>0.171</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.116</v>
+        <v>0.093</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.766</v>
+        <v>0.743</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.786</v>
+        <v>0.751</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.225</v>
+        <v>2.18</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.114</v>
+        <v>0.1</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.5</v>
+        <v>29.14</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.012</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.011</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.036</v>
+        <v>0.029</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.092</v>
+        <v>0.069</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.451</v>
+        <v>0.304</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.198</v>
+        <v>0.172</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.201</v>
+        <v>0.186</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>51.14</v>
+        <v>50.53</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.012</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.037</v>
+        <v>0.026</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.112</v>
+        <v>0.095</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.385</v>
+        <v>0.287</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.268</v>
+        <v>0.246</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.755</v>
+        <v>0.734</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0.997</v>
+        <v>0.964</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.558</v>
+        <v>1.513</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.278</v>
+        <v>0.262</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>72.72</v>
+        <v>71.72</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.014</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.027</v>
+        <v>0.016</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.324</v>
+        <v>0.174</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.085</v>
+        <v>0.061</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.51</v>
+        <v>0.489</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.479</v>
+        <v>0.447</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.221</v>
+        <v>1.174</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.086</v>
+        <v>0.071</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.14</v>
+        <v>100.02</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.031</v>
+        <v>0.026</v>
       </c>
       <c r="AJ20" s="1" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="AK20" s="1" t="n">
         <v>0.045</v>
       </c>
-      <c r="AK20" s="1" t="n">
-        <v>0.043</v>
-      </c>
       <c r="AL20" s="1" t="n">
-        <v>0.162</v>
+        <v>0.16</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.201</v>
+        <v>0.2</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>28.13</v>
+        <v>27.91</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.008</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.014</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.026</v>
+        <v>0.018</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.07</v>
+        <v>0.076</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.349</v>
+        <v>0.255</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.168</v>
+        <v>0.174</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.364</v>
+        <v>0.353</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.794</v>
+        <v>0.762</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.814</v>
+        <v>0.786</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.377</v>
+        <v>0.366</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>215.16</v>
+        <v>211.24</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.018</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0.028</v>
+        <v>0.009</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.093</v>
+        <v>0.081</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.156</v>
+        <v>0.122</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.573</v>
+        <v>0.416</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.435</v>
+        <v>0.404</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.323</v>
+        <v>1.28</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.723</v>
+        <v>1.693</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.166</v>
+        <v>3.069</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.49</v>
+        <v>0.463</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,31 +3487,31 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.38</v>
+        <v>51.35</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AH21" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="AJ21" s="1" t="n">
         <v>0.024</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.176</v>
+        <v>0.175</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>65.73</v>
+        <v>65.42</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.022</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.025</v>
+        <v>0.018</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.079</v>
+        <v>0.085</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.392</v>
+        <v>0.284</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.274</v>
+        <v>0.273</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.599</v>
+        <v>0.592</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.157</v>
+        <v>1.118</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.554</v>
+        <v>0.537</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.429</v>
+        <v>0.422</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.32</v>
+        <v>103</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="S22" s="1" t="n">
         <v>-0.013</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.019</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.037</v>
+        <v>0.03</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.308</v>
+        <v>0.185</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.196</v>
+        <v>0.182</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.8</v>
+        <v>0.794</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.656</v>
+        <v>0.643</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.116</v>
+        <v>2.093</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.079</v>
+        <v>0.076</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49</v>
+        <v>49.05</v>
       </c>
       <c r="AF22" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AG22" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="AG22" s="1" t="n">
-        <v>0.001</v>
-      </c>
       <c r="AH22" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.065</v>
+        <v>0.057</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.188</v>
+        <v>0.189</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.249</v>
+        <v>0.253</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>29.87</v>
+        <v>29.67</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.019</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.04</v>
+        <v>0.054</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.298</v>
+        <v>0.223</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.099</v>
+        <v>0.115</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.155</v>
+        <v>0.147</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.504</v>
+        <v>0.481</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>0.952</v>
+        <v>0.917</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.352</v>
+        <v>0.343</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>103.79</v>
+        <v>101.09</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-0.026</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.066</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.113</v>
+        <v>-0.108</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.085</v>
+        <v>0.02</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.224</v>
+        <v>0.12</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.152</v>
+        <v>-0.176</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>0.947</v>
+        <v>0.897</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.829</v>
+        <v>0.767</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>2.973</v>
+        <v>2.874</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.019</v>
+        <v>-0.007</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.13</v>
+        <v>94.92</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AH23" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.036</v>
+        <v>0.028</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="AK23" s="1" t="n">
         <v>0.05</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.166</v>
+        <v>0.164</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.071</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>62.52</v>
+        <v>61.92</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.017</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.038</v>
+        <v>0.028</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.044</v>
+        <v>0.021</v>
       </c>
       <c r="H24" s="1" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>1.063</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="M24" s="1" t="n">
         <v>0.34</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>1.083</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>0.834</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>1.231</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>0.352</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>37.4</v>
+        <v>36.88</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.014</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.018</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.176</v>
+        <v>0.154</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.53</v>
+        <v>0.371</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.216</v>
+        <v>0.184</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.175</v>
+        <v>0.159</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.175</v>
+        <v>0.148</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.293</v>
+        <v>0.275</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.26</v>
+        <v>111.04</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.041</v>
+        <v>0.033</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.081</v>
+        <v>0.061</v>
       </c>
       <c r="AK24" s="1" t="n">
         <v>0.046</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.235</v>
+        <v>0.233</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.016</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.077</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.92</v>
+        <v>42.81</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.051</v>
+        <v>0.044</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.057</v>
+        <v>0.041</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.264</v>
+        <v>0.17</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.214</v>
+        <v>0.204</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.866</v>
+        <v>0.861</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.052</v>
+        <v>1.04</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.636</v>
+        <v>1.635</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.223</v>
+        <v>0.22</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.51</v>
+        <v>83.54</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.011</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.037</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.035</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.06</v>
+        <v>0.043</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.366</v>
+        <v>0.234</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.132</v>
+        <v>0.122</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.52</v>
+        <v>0.502</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.692</v>
+        <v>0.672</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.126</v>
+        <v>1.105</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.069</v>
+        <v>0.056</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.3</v>
+        <v>93.16</v>
       </c>
       <c r="AF25" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG25" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.089</v>
+        <v>0.067</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.07</v>
+        <v>0.067</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.305</v>
+        <v>0.303</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.313</v>
+        <v>0.308</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.519</v>
+        <v>0.521</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.68</v>
+        <v>42.07</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.014</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.023</v>
+        <v>0.008</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.073</v>
+        <v>0.051</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.312</v>
+        <v>0.223</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.22</v>
+        <v>0.197</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.801</v>
+        <v>0.775</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.975</v>
+        <v>0.929</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.787</v>
+        <v>0.77</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.285</v>
+        <v>0.266</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.62</v>
+        <v>58.21</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="S26" s="1" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="T26" s="1" t="n">
         <v>-0.025</v>
       </c>
-      <c r="T26" s="1" t="n">
-        <v>-0.02</v>
-      </c>
       <c r="U26" s="1" t="n">
-        <v>0.021</v>
+        <v>0.013</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.37</v>
+        <v>0.215</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.225</v>
+        <v>0.208</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.669</v>
+        <v>0.658</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.845</v>
+        <v>0.83</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.689</v>
+        <v>0.652</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.124</v>
+        <v>0.117</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.85</v>
+        <v>26.81</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG26" s="1" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="AH26" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="AH26" s="1" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AI26" s="1" t="n">
-        <v>0.039</v>
+        <v>0.035</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.096</v>
+        <v>0.083</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.256</v>
+        <v>0.254</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.161</v>
+        <v>0.153</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.091</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>44.3</v>
+        <v>43.89</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.009</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.02</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.03</v>
+        <v>0.019</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.024</v>
+        <v>0.001</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.271</v>
+        <v>0.163</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.164</v>
+        <v>0.154</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.762</v>
+        <v>0.746</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.797</v>
+        <v>0.763</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.255</v>
+        <v>1.23</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.263</v>
+        <v>0.251</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.52</v>
+        <v>25.81</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.027</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.015</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.041</v>
+        <v>0.018</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.051</v>
+        <v>0.016</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.321</v>
+        <v>0.17</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.099</v>
+        <v>0.073</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.121</v>
+        <v>0.091</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,10 +4189,10 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>52.9</v>
+        <v>52.88</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="1" t="n">
         <v>-0.001</v>
@@ -4201,25 +4201,25 @@
         <v>0.002</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.044</v>
+        <v>0.038</v>
       </c>
       <c r="AK27" s="1" t="n">
         <v>0.059</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.205</v>
+        <v>0.204</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.121</v>
+        <v>0.12</v>
       </c>
       <c r="AN27" s="1" t="n">
         <v>0.303</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>42.34</v>
+        <v>42.09</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.006</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.027</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.296</v>
+        <v>0.181</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.308</v>
+        <v>0.293</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.267</v>
+        <v>1.254</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.614</v>
+        <v>0.596</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.073</v>
+        <v>1.043</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.353</v>
+        <v>0.345</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.64</v>
+        <v>67.95</v>
       </c>
       <c r="R28" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>-0.024</v>
+      </c>
+      <c r="V28" s="1" t="n">
         <v>-0.007</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>-0.011</v>
-      </c>
-      <c r="T28" s="1" t="n">
-        <v>-0.021</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="V28" s="1" t="n">
-        <v>0.018</v>
       </c>
       <c r="W28" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.221</v>
+        <v>0.227</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.482</v>
+        <v>0.476</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.366</v>
+        <v>1.373</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.048</v>
+        <v>0.053</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>53.96</v>
+        <v>53.87</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>0.036</v>
+        <v>0.03</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.076</v>
+        <v>0.066</v>
       </c>
       <c r="AK28" s="1" t="n">
         <v>0.066</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.271</v>
+        <v>0.269</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.374</v>
+        <v>0.371</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.085</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>56.83</v>
+        <v>56.36</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.008</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.016</v>
+        <v>0.002</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.009</v>
+        <v>0.006</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.037</v>
+        <v>0.02</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.229</v>
+        <v>0.155</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.143</v>
+        <v>0.125</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.609</v>
+        <v>0.596</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.505</v>
+        <v>0.474</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.201</v>
+        <v>1.178</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.26</v>
+        <v>0.249</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>39.33</v>
+        <v>39</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.006</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.025</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.047</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.188</v>
+        <v>0.102</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.082</v>
+        <v>0.071</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.034</v>
+        <v>0.026</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.443</v>
+        <v>0.425</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.057</v>
+        <v>1.039</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.121</v>
+        <v>0.112</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.41</v>
+        <v>51.27</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.007</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.056</v>
+        <v>0.045</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.104</v>
+        <v>0.072</v>
       </c>
       <c r="AK29" s="1" t="n">
         <v>0.031</v>
       </c>
       <c r="AL29" s="1" t="n">
-        <v>0.242</v>
+        <v>0.238</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.088</v>
+        <v>-0.095</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.36</v>
+        <v>0.353</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.082</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>93.9</v>
+        <v>92.99</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.004</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.073</v>
+        <v>0.055</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.135</v>
+        <v>0.125</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.457</v>
+        <v>0.341</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.195</v>
+        <v>0.194</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.708</v>
+        <v>0.692</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.323</v>
+        <v>0.306</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.085</v>
+        <v>1.049</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.314</v>
+        <v>0.301</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.84</v>
+        <v>45.43</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0</v>
+        <v>-0.009</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.009</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.031</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.043</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.073</v>
+        <v>0.009</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.02</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.467</v>
+        <v>0.43</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.599</v>
+        <v>0.572</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.008</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,37 +4546,37 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.6</v>
+        <v>24.55</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.116</v>
+        <v>0.081</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.079</v>
+        <v>0.074</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.352</v>
+        <v>0.349</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.368</v>
+        <v>0.359</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.589</v>
+        <v>0.586</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.37</v>
+        <v>17.36</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.069</v>
+        <v>0.065</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.288</v>
+        <v>0.19</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.057</v>
+        <v>0.054</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.704</v>
+        <v>0.688</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.801</v>
+        <v>0.765</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.01</v>
+        <v>60.89</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.052</v>
+        <v>0.043</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.082</v>
+        <v>0.075</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.045</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.233</v>
+        <v>0.231</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.391</v>
+        <v>0.379</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.441</v>
+        <v>1.422</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.056</v>
+        <v>0.054</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.65</v>
+        <v>80.42</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.023</v>
+        <v>0.017</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.096</v>
+        <v>0.064</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.076</v>
+        <v>0.073</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.334</v>
+        <v>0.33</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.242</v>
+        <v>0.235</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.607</v>
+        <v>0.603</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.071</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.55</v>
+        <v>40.68</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.105</v>
+        <v>0.107</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.081</v>
+        <v>0.029</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>0.502</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.918</v>
+        <v>0.936</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.23</v>
+        <v>50.77</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.009</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0.038</v>
+        <v>0.017</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.078</v>
+        <v>0.049</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.112</v>
+        <v>0.106</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.058</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.059</v>
+        <v>-0.077</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.036</v>
+        <v>0.026</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.27</v>
+        <v>0.254</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.284</v>
+        <v>1.236</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.074</v>
+        <v>0.064</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.5</v>
+        <v>29.44</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="AH32" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.033</v>
+        <v>0.029</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.115</v>
+        <v>0.081</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.08</v>
+        <v>0.078</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.337</v>
+        <v>0.334</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.274</v>
+        <v>0.268</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.939</v>
+        <v>0.934</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.63</v>
+        <v>52.81</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.003</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.051</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0.071</v>
+        <v>0.031</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.071</v>
+        <v>-0.072</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.315</v>
+        <v>0.319</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.607</v>
+        <v>0.596</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>1.009</v>
+        <v>1.018</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.18</v>
+        <v>75.58</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0.003</v>
+        <v>0.013</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.056</v>
+        <v>0.061</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.137</v>
+        <v>0.129</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.234</v>
+        <v>0.197</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.089</v>
+        <v>0.088</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.403</v>
+        <v>0.41</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.437</v>
+        <v>0.434</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.747</v>
+        <v>0.736</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.159</v>
+        <v>0.165</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,35 +4903,35 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.03</v>
+        <v>47.99</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AG33" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.027</v>
+        <v>0.023</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.054</v>
+        <v>0.045</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="AM33" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.004</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
-        <v>0.064</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>81.75</v>
+        <v>81.55</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="E34" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F34" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="F34" s="1" t="n">
-        <v>0.01</v>
-      </c>
       <c r="G34" s="1" t="n">
-        <v>0.117</v>
+        <v>0.113</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.337</v>
+        <v>0.239</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.175</v>
+        <v>0.178</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.732</v>
+        <v>0.728</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.501</v>
+        <v>0.498</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>1.011</v>
+        <v>1.001</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.228</v>
+        <v>0.225</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.99</v>
+        <v>152.05</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.023</v>
+        <v>0.016</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.069</v>
+        <v>0.064</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.176</v>
+        <v>0.15</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.358</v>
+        <v>0.282</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.065</v>
+        <v>0.064</v>
       </c>
       <c r="X34" s="1" t="n">
         <v>0.289</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.089</v>
+        <v>0.08</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.522</v>
+        <v>0.516</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.151</v>
+        <v>0.152</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>102.26</v>
+        <v>102.25</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.073</v>
+        <v>0.066</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.138</v>
+        <v>0.133</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.307</v>
+        <v>0.262</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.547</v>
+        <v>0.546</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.469</v>
+        <v>0.455</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.086</v>
+        <v>2.085</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>66.13</v>
+        <v>65.12</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.015</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.028</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0.061</v>
+        <v>0.034</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.2</v>
+        <v>0.193</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.477</v>
+        <v>0.368</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.279</v>
+        <v>0.29</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.665</v>
+        <v>0.639</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.058</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.663</v>
+        <v>0.649</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.425</v>
+        <v>0.403</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.47</v>
+        <v>60.05</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.007</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0.016</v>
+        <v>0.002</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.038</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.026</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.116</v>
+        <v>0.035</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.043</v>
+        <v>0.028</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.263</v>
+        <v>0.254</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.205</v>
+        <v>0.181</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.327</v>
+        <v>2.278</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.039</v>
+        <v>0.032</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.54</v>
+        <v>21.56</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>0.082</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.448</v>
+        <v>0.395</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.197</v>
+        <v>0.202</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.288</v>
+        <v>0.289</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.131</v>
+        <v>0.137</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.469</v>
+        <v>0.481</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.321</v>
+        <v>0.322</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.82</v>
+        <v>24.56</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.01</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.088</v>
+        <v>0.08</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.185</v>
+        <v>0.141</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.395</v>
+        <v>0.304</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.036</v>
+        <v>0.024</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.043</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.368</v>
+        <v>-0.382</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.105</v>
+        <v>0.093</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>65.65</v>
+        <v>64.83</v>
       </c>
       <c r="D37" s="1" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="E37" s="1" t="n">
         <v>0.013</v>
       </c>
-      <c r="E37" s="1" t="n">
-        <v>0.024</v>
-      </c>
       <c r="F37" s="1" t="n">
-        <v>0.077</v>
+        <v>0.052</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.139</v>
+        <v>0.117</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.603</v>
+        <v>0.447</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.247</v>
+        <v>0.232</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.066</v>
+        <v>1.04</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>1.03</v>
+        <v>0.988</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.84</v>
+        <v>2.768</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.268</v>
+        <v>0.253</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.95</v>
+        <v>124.73</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.002</v>
       </c>
       <c r="S37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.037</v>
+        <v>0.032</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.267</v>
+        <v>0.176</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.219</v>
+        <v>0.205</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.901</v>
+        <v>0.897</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.272</v>
+        <v>1.265</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.399</v>
+        <v>2.41</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.141</v>
+        <v>0.139</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>76.22</v>
+        <v>74.83</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.018</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.046</v>
+        <v>0.03</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.112</v>
+        <v>0.094</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.224</v>
+        <v>0.197</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.354</v>
+        <v>0.282</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.539</v>
+        <v>0.519</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.368</v>
+        <v>1.325</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.108</v>
+        <v>1.032</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.461</v>
+        <v>2.347</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.539</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>84.19</v>
+        <v>83.43</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.028</v>
+        <v>-0.001</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.135</v>
+        <v>0.114</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.168</v>
+        <v>0.157</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.721</v>
+        <v>0.566</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.36</v>
+        <v>0.344</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.814</v>
+        <v>0.797</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.361</v>
+        <v>0.336</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.925</v>
+        <v>0.89</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.654</v>
+        <v>0.639</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.97</v>
+        <v>58.74</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="S38" s="1" t="n">
         <v>-0.002</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.026</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.303</v>
+        <v>0.209</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.164</v>
+        <v>0.147</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.414</v>
+        <v>0.409</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.053</v>
+        <v>1.059</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.184</v>
+        <v>1.202</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.085</v>
+        <v>0.08</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>44.56</v>
+        <v>44.71</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>0.027</v>
+        <v>0.003</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.188</v>
+        <v>0.203</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.339</v>
+        <v>0.355</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.642</v>
+        <v>0.593</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.591</v>
+        <v>0.605</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.409</v>
+        <v>1.417</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>1.009</v>
+        <v>0.91</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>1.973</v>
+        <v>1.957</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.692</v>
+        <v>0.698</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.91</v>
+        <v>24.5</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.016</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.023</v>
+        <v>0.006</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.091</v>
+        <v>0.072</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.215</v>
+        <v>0.198</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.645</v>
+        <v>0.488</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.528</v>
+        <v>0.481</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.724</v>
+        <v>0.696</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.607</v>
+        <v>0.569</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.572</v>
+        <v>0.53</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.61</v>
+        <v>0.584</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.24</v>
+        <v>62.95</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.005</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.023</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.313</v>
+        <v>0.212</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.172</v>
+        <v>0.151</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.148</v>
+        <v>0.143</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.808</v>
+        <v>0.82</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.904</v>
+        <v>0.919</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.069</v>
+        <v>0.064</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>152.2</v>
+        <v>147.67</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.071</v>
+        <v>0.034</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.206</v>
+        <v>0.181</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.22</v>
+        <v>0.202</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.814</v>
+        <v>0.736</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.731</v>
+        <v>0.691</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.799</v>
+        <v>0.746</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.873</v>
+        <v>0.765</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.658</v>
+        <v>0.559</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.833</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>66.8</v>
+        <v>65.06</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.031</v>
+        <v>-0.026</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.032</v>
+        <v>0.013</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.126</v>
+        <v>0.102</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.241</v>
+        <v>0.205</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.667</v>
+        <v>0.487</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.451</v>
+        <v>0.422</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>1.018</v>
+        <v>0.966</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.174</v>
+        <v>1.083</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.755</v>
+        <v>0.724</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.613</v>
+        <v>0.571</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.94</v>
+        <v>133.46</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.011</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0.012</v>
+        <v>0.001</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>0.024</v>
+        <v>0.017</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>0.038</v>
+        <v>0.033</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>0.105</v>
+        <v>0.032</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.077</v>
+        <v>0.056</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.732</v>
+        <v>0.713</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.521</v>
+        <v>1.492</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.252</v>
+        <v>2.226</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.08</v>
+        <v>0.068</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>31.38</v>
+        <v>31.67</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>0.003</v>
+        <v>0.009</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>0.041</v>
+        <v>0.036</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.12</v>
+        <v>0.126</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.071</v>
+        <v>-0.077</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.22</v>
+        <v>0.142</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.121</v>
+        <v>0.146</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.543</v>
+        <v>0.557</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.672</v>
+        <v>0.662</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.994</v>
+        <v>1.012</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.247</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>27.23</v>
+        <v>26.92</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.011</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.01</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.009</v>
+        <v>0.001</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.042</v>
+        <v>0.026</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.328</v>
+        <v>0.198</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.069</v>
+        <v>0.06</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.507</v>
+        <v>0.49</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.603</v>
+        <v>0.575</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.137</v>
+        <v>1.093</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.159</v>
+        <v>0.146</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>175.64</v>
+        <v>176.18</v>
       </c>
       <c r="R41" s="1" t="n">
         <v>0.003</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>0.013</v>
+        <v>0.006</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0.042</v>
+        <v>0.035</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.446</v>
+        <v>0.325</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.365</v>
+        <v>0.358</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.091</v>
+        <v>1.097</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>1.962</v>
+        <v>1.968</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.29</v>
+        <v>4.359</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.229</v>
+        <v>0.233</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>66.16</v>
+        <v>65.57</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.002</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.038</v>
+        <v>0.03</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.086</v>
+        <v>0.072</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.356</v>
+        <v>0.255</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.206</v>
+        <v>0.196</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.766</v>
+        <v>0.75</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.601</v>
+        <v>0.576</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.066</v>
+        <v>1.043</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.286</v>
+        <v>0.275</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5884,28 +5884,28 @@
         <v>35.12</v>
       </c>
       <c r="R42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="U42" s="1" t="n">
         <v>0.01</v>
       </c>
-      <c r="S42" s="1" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="T42" s="1" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="U42" s="1" t="n">
-        <v>0.021</v>
-      </c>
       <c r="V42" s="1" t="n">
-        <v>0.447</v>
+        <v>0.293</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.256</v>
+        <v>0.25</v>
       </c>
       <c r="X42" s="1" t="n">
         <v>0.705</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.062</v>
+        <v>-0.076</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>94.75</v>
+        <v>93.97</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.008</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.062</v>
+        <v>0.046</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.321</v>
+        <v>0.216</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.192</v>
+        <v>0.182</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.811</v>
+        <v>0.796</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.684</v>
+        <v>0.657</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.078</v>
+        <v>1.057</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.275</v>
+        <v>0.264</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>200.85</v>
+        <v>200.61</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0.018</v>
+        <v>0.011</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.091</v>
+        <v>0.085</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.149</v>
+        <v>0.138</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.64</v>
+        <v>0.442</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.314</v>
+        <v>0.301</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.719</v>
+        <v>1.716</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.663</v>
+        <v>1.621</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.298</v>
+        <v>7.234</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.261</v>
+        <v>0.259</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>51.02</v>
+        <v>51.49</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.009</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.057</v>
+        <v>0.026</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.229</v>
+        <v>0.227</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.378</v>
+        <v>0.402</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.518</v>
+        <v>1.328</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.747</v>
+        <v>0.795</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>1.737</v>
+        <v>1.763</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>4.446</v>
+        <v>4.466</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.305</v>
+        <v>3.329</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>0.905</v>
+        <v>0.923</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.74</v>
+        <v>40.63</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.086</v>
+        <v>0.074</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.291</v>
+        <v>0.199</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.188</v>
+        <v>0.178</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.751</v>
+        <v>0.746</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.026</v>
+        <v>1.016</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.649</v>
+        <v>1.643</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.193</v>
+        <v>0.189</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.69</v>
+        <v>115.67</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.042</v>
+        <v>0.038</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.443</v>
+        <v>0.293</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.277</v>
+        <v>0.261</v>
       </c>
       <c r="X44" s="1" t="n">
         <v>1.254</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.805</v>
+        <v>0.772</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>4.969</v>
+        <v>4.898</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.156</v>
+        <v>0.155</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>73.53</v>
+        <v>72.51</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.014</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>0.005</v>
+        <v>0.014</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.012</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.057</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>0.161</v>
+        <v>0.073</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.036</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.034</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.523</v>
+        <v>1.527</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.427</v>
+        <v>-0.433</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>54.49</v>
+        <v>53.93</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.01</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.003</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.07</v>
+        <v>0.054</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.127</v>
+        <v>0.117</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.428</v>
+        <v>0.322</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.211</v>
+        <v>0.205</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.647</v>
+        <v>0.63</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.34</v>
+        <v>0.317</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.902</v>
+        <v>0.876</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.316</v>
+        <v>0.302</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.17</v>
+        <v>89.09</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.001</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0.024</v>
+        <v>0.013</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.03</v>
+        <v>0.016</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.375</v>
+        <v>0.233</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.295</v>
+        <v>0.267</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.03</v>
+        <v>1.028</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.529</v>
+        <v>2.5</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.197</v>
+        <v>0.196</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>30.07</v>
+        <v>29.61</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.015</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.009</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.036</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>0.166</v>
+        <v>0.084</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.023</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.054</v>
       </c>
       <c r="AM45" s="1" t="n">
         <v>1.739</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.663</v>
+        <v>0.662</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.59</v>
+        <v>30.38</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.007</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.083</v>
+        <v>0.068</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.38</v>
+        <v>0.266</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>291.54</v>
+        <v>290.19</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0.034</v>
+        <v>-0.005</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0.055</v>
+        <v>0.03</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.174</v>
+        <v>0.168</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.201</v>
+        <v>0.191</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.891</v>
+        <v>0.587</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.262</v>
+        <v>0.243</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.749</v>
+        <v>1.737</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.855</v>
+        <v>1.793</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10.315</v>
+        <v>10.332</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.36</v>
+        <v>0.354</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>13.1</v>
+        <v>12.74</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>-0.049</v>
+        <v>-0.027</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.053</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.039</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.117</v>
+        <v>-0.103</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.283</v>
+        <v>-0.351</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.141</v>
+        <v>-0.143</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.857</v>
+        <v>-0.861</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.724</v>
+        <v>-0.743</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.928</v>
+        <v>-0.931</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.221</v>
+        <v>-0.242</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6423,37 +6423,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>45</v>
+        <v>44.53</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.01</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.006</v>
       </c>
       <c r="F47" s="1" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G47" s="1" t="n">
         <v>0.029</v>
       </c>
-      <c r="G47" s="1" t="n">
-        <v>0.044</v>
-      </c>
       <c r="H47" s="1" t="n">
-        <v>0.271</v>
+        <v>0.169</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.136</v>
+        <v>0.122</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.712</v>
+        <v>0.694</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.587</v>
+        <v>0.556</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.237</v>
+        <v>1.213</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.23</v>
+        <v>0.217</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>129.46</v>
+        <v>129.36</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.001</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0.021</v>
+        <v>0.013</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.077</v>
+        <v>0.071</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.149</v>
+        <v>0.139</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.624</v>
+        <v>0.434</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.336</v>
+        <v>0.324</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.792</v>
+        <v>1.79</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.496</v>
+        <v>1.457</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.73</v>
+        <v>6.691</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.27</v>
+        <v>0.269</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.41</v>
+        <v>36.22</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.057</v>
+        <v>0.041</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.355</v>
+        <v>0.275</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.306</v>
+        <v>0.299</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.912</v>
+        <v>0.902</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.909</v>
+        <v>0.892</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.143</v>
+        <v>1.124</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.383</v>
+        <v>0.376</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6581,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>49.28</v>
+        <v>49.57</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0.028</v>
+        <v>0.006</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.144</v>
+        <v>0.138</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.196</v>
+        <v>0.19</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.769</v>
+        <v>0.573</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.413</v>
+        <v>0.399</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>1.056</v>
+        <v>1.068</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.524</v>
+        <v>0.511</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.329</v>
+        <v>0.337</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6618,37 +6618,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.64</v>
+        <v>26.49</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="AH48" s="1" t="n">
         <v>-0.023</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.035</v>
+        <v>0.022</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>0.054</v>
+        <v>0.018</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.094</v>
+        <v>0.078</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.444</v>
+        <v>0.436</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.954</v>
+        <v>0.937</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.408</v>
+        <v>0.398</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.004</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>48.06</v>
+        <v>47.56</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.007</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>0.021</v>
+        <v>0.011</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.063</v>
+        <v>0.044</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.35</v>
+        <v>0.245</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.239</v>
+        <v>0.232</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.889</v>
+        <v>0.87</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.617</v>
+        <v>0.581</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.422</v>
+        <v>1.404</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.301</v>
+        <v>0.287</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>35.73</v>
+        <v>35.91</v>
       </c>
       <c r="R49" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="S49" s="1" t="n">
         <v>0.028</v>
       </c>
-      <c r="S49" s="1" t="n">
-        <v>0.035</v>
-      </c>
       <c r="T49" s="1" t="n">
-        <v>0.088</v>
+        <v>0.09</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.237</v>
+        <v>0.229</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.843</v>
+        <v>0.631</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.32</v>
+        <v>0.326</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.58</v>
+        <v>17.45</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.012</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>0.014</v>
+        <v>0.003</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.062</v>
+        <v>-0.084</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.044</v>
+        <v>-0.05</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.357</v>
+        <v>-0.362</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.321</v>
+        <v>0.293</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.257</v>
+        <v>-0.248</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6785,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>33.09</v>
+        <v>33</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0.018</v>
+        <v>-0.003</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.055</v>
+        <v>0.049</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.364</v>
+        <v>0.281</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.328</v>
+        <v>0.312</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.68</v>
+        <v>0.675</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.33</v>
+        <v>0.319</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.255</v>
+        <v>0.251</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6824,37 +6824,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.1</v>
+        <v>4.09</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.017</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.017</v>
       </c>
       <c r="AI50" s="1" t="n">
         <v>-0.095</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.122</v>
+        <v>-0.135</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.235</v>
+        <v>-0.243</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.54</v>
+        <v>-0.541</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.297</v>
+        <v>-0.298</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.592</v>
+        <v>-0.593</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.149</v>
+        <v>-0.151</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6880,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>65.27</v>
+        <v>65.21</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.001</v>
       </c>
       <c r="S51" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T51" s="1" t="n">
         <v>0.019</v>
       </c>
-      <c r="T51" s="1" t="n">
-        <v>0.023</v>
-      </c>
       <c r="U51" s="1" t="n">
-        <v>0.076</v>
+        <v>0.074</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.509</v>
+        <v>0.341</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.326</v>
+        <v>0.321</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.078</v>
+        <v>1.076</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.815</v>
+        <v>0.812</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.691</v>
+        <v>1.684</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.275</v>
+        <v>0.274</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6919,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.92</v>
+        <v>21.84</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.002</v>
       </c>
       <c r="AH51" s="1" t="n">
         <v>-0.008</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>0.065</v>
+        <v>0.036</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.022</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.166</v>
+        <v>-0.169</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.373</v>
+        <v>0.342</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.229</v>
+        <v>0.217</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>70.06</v>
+        <v>68.74</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.019</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>0.1</v>
+        <v>0.087</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.133</v>
+        <v>0.081</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.607</v>
+        <v>0.468</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.979</v>
+        <v>0.982</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.321</v>
+        <v>0.296</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>59.97</v>
+        <v>59.92</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.011</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>0.022</v>
+        <v>0.007</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.119</v>
+        <v>0.121</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.575</v>
+        <v>0.44</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.152</v>
+        <v>1.15</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.22</v>
+        <v>0.211</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.337</v>
+        <v>2.311</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>34.17</v>
+        <v>32.81</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.04</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>0.042</v>
+        <v>-0.036</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>0.053</v>
+        <v>0.01</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.728</v>
+        <v>0.565</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>2.087</v>
+        <v>1.642</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.848</v>
+        <v>0.791</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.351</v>
+        <v>0.297</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>120.02</v>
+        <v>118.68</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.011</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.024</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>0.015</v>
+        <v>0.004</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.129</v>
+        <v>0.116</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.502</v>
+        <v>0.391</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.586</v>
+        <v>0.58</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>1.993</v>
+        <v>1.96</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>1.052</v>
+        <v>1.019</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.439</v>
+        <v>0.423</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.43</v>
+        <v>10.37</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.006</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.011</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.023</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.063</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.119</v>
+        <v>-0.114</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.201</v>
+        <v>-0.191</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.149</v>
+        <v>0.142</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.656</v>
+        <v>0.638</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.123</v>
+        <v>0.107</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.087</v>
+        <v>-0.093</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>68.91</v>
+        <v>68.46</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.007</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.014</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.296</v>
+        <v>0.164</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.081</v>
+        <v>0.074</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.904</v>
+        <v>0.892</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.625</v>
+        <v>0.601</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.258</v>
+        <v>1.254</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.07</v>
+        <v>0.063</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>114.8</v>
+        <v>114.41</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="S54" s="1" t="n">
         <v>0.028</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.095</v>
+        <v>0.084</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.113</v>
+        <v>0.1</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.235</v>
+        <v>0.183</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.169</v>
+        <v>0.172</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.567</v>
+        <v>0.562</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.669</v>
+        <v>0.665</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.763</v>
+        <v>1.764</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.213</v>
+        <v>0.209</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.57</v>
+        <v>38.48</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.014</v>
+        <v>0.007</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.084</v>
+        <v>0.079</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.162</v>
+        <v>0.139</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.138</v>
+        <v>0.131</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.275</v>
+        <v>0.272</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.435</v>
+        <v>0.43</v>
       </c>
       <c r="L55" s="1" t="n">
         <v>0.3</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.104</v>
+        <v>0.102</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>90.8</v>
+        <v>90.57</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.106</v>
+        <v>0.096</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.127</v>
+        <v>0.113</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.259</v>
+        <v>0.209</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.176</v>
+        <v>0.183</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.563</v>
+        <v>0.559</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.667</v>
+        <v>0.663</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.846</v>
+        <v>1.853</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.225</v>
+        <v>0.222</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,31 +7418,31 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>33.24</v>
+        <v>33.23</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>-0.016</v>
+        <v>0</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.006</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.041</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.291</v>
+        <v>-0.266</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.611</v>
+        <v>-0.51</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.4</v>
+        <v>-0.385</v>
       </c>
       <c r="J56" s="1" t="n">
         <v>-0.901</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-0.978</v>
+        <v>-0.977</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
@@ -7455,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>73.6</v>
+        <v>72.7</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.021</v>
+        <v>0.001</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>0.003</v>
+        <v>0.024</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.036</v>
+        <v>0.02</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.27</v>
+        <v>0.171</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.063</v>
+        <v>0.043</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.605</v>
+        <v>0.585</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.811</v>
+        <v>0.769</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.416</v>
+        <v>2.383</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.124</v>
+        <v>0.11</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>95.31</v>
+        <v>94.81</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="S57" s="1" t="n">
         <v>-0.019</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.016</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.141</v>
+        <v>0.073</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.018</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.313</v>
+        <v>0.306</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.289</v>
+        <v>0.288</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.746</v>
+        <v>0.739</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>82.55</v>
+        <v>81.95</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.007</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.027</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.028</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.097</v>
+        <v>0.035</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.017</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.323</v>
+        <v>0.313</v>
       </c>
       <c r="Y58" s="1" t="n">
         <v>0.45</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.858</v>
+        <v>0.85</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.036</v>
+        <v>0.028</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,7 +7675,7 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>89.76</v>
+        <v>89.27</v>
       </c>
       <c r="R59" s="1" t="n">
         <v>-0.005</v>
@@ -7684,28 +7684,28 @@
         <v>-0.02</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.017</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0.017</v>
+        <v>0.01</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.147</v>
+        <v>0.076</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.018</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.314</v>
+        <v>0.307</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.306</v>
+        <v>0.304</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.696</v>
+        <v>0.689</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.038</v>
+        <v>0.032</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>22.23</v>
+        <v>21.91</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.014</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0</v>
+        <v>-0.017</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.047</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.036</v>
+        <v>0.013</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.199</v>
+        <v>0.119</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.061</v>
+        <v>0.047</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.421</v>
+        <v>0.401</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.244</v>
+        <v>0.245</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.339</v>
+        <v>0.322</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.095</v>
+        <v>0.079</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>88.13</v>
+        <v>87.97</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.021</v>
+        <v>-0.002</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.053</v>
+        <v>0.04</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.072</v>
+        <v>0.067</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.344</v>
+        <v>0.248</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.138</v>
+        <v>0.129</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.849</v>
+        <v>0.825</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.49</v>
+        <v>1.492</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/09/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/10/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>336.23</v>
+        <v>326.65</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.028</v>
       </c>
       <c r="E5" s="1" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <v>0.041</v>
-      </c>
       <c r="G5" s="1" t="n">
-        <v>0.098</v>
+        <v>0.063</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.275</v>
+        <v>0.287</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.217</v>
+        <v>0.184</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.122</v>
+        <v>1.076</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.229</v>
+        <v>1.165</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.425</v>
+        <v>3.299</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.172</v>
+        <v>0.138</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.76</v>
+        <v>45.39</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.029</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.041</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.036</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.028</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.089</v>
+        <v>0.13</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.037</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.154</v>
+        <v>0.144</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.318</v>
+        <v>2.221</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.712</v>
+        <v>0.662</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.048</v>
+        <v>0.018</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,37 +1747,37 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.79</v>
+        <v>82.93</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.134</v>
+        <v>0.136</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.166</v>
+        <v>0.168</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>674.52</v>
+        <v>656.2</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.027</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.024</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.035</v>
+        <v>0.004</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.079</v>
+        <v>0.047</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.242</v>
+        <v>0.253</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.178</v>
+        <v>0.148</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.933</v>
+        <v>0.894</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.083</v>
+        <v>1.027</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.947</v>
+        <v>2.84</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.156</v>
+        <v>0.125</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>91.17</v>
+        <v>87.09</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.045</v>
       </c>
       <c r="S6" s="1" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>-0.055</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>-0.077</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>2.641</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>0.719</v>
+      </c>
+      <c r="AA6" s="1" t="n">
         <v>-0.01</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="V6" s="1" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y6" s="1" t="n">
-        <v>2.811</v>
-      </c>
-      <c r="Z6" s="1" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AA6" s="1" t="n">
-        <v>0.036</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,37 +1866,37 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.29</v>
+        <v>119.78</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AG6" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AM6" s="1" t="n">
         <v>-0.002</v>
       </c>
-      <c r="AH6" s="1" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="AI6" s="1" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="AJ6" s="1" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="AK6" s="1" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="AL6" s="1" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="AM6" s="1" t="n">
-        <v>-0.006</v>
-      </c>
       <c r="AN6" s="1" t="n">
-        <v>0.154</v>
+        <v>0.159</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.059</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.09</v>
+        <v>63.25</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.028</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.038</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.03</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.008</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.172</v>
+        <v>0.186</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.059</v>
+        <v>0.034</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.505</v>
+        <v>0.465</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.755</v>
+        <v>0.705</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.63</v>
+        <v>1.555</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.054</v>
+        <v>0.024</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.91</v>
+        <v>17.86</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.056</v>
       </c>
       <c r="S7" s="1" t="n">
+        <v>-0.075</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>-0.014</v>
       </c>
-      <c r="T7" s="1" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="U7" s="1" t="n">
-        <v>0.054</v>
-      </c>
       <c r="V7" s="1" t="n">
-        <v>0.147</v>
+        <v>0.183</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.073</v>
+        <v>-0.13</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.164</v>
+        <v>0.125</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.651</v>
+        <v>1.504</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.473</v>
+        <v>-0.502</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.084</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.31</v>
+        <v>96.91</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.006</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.026</v>
+        <v>0.033</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.038</v>
+        <v>0.051</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.044</v>
+        <v>0.05</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.117</v>
+        <v>0.131</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.101</v>
+        <v>-0.095</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.111</v>
+        <v>0.118</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.072</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>245.13</v>
+        <v>237.79</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.03</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.033</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.038</v>
+        <v>0.009</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.099</v>
+        <v>0.061</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.3</v>
+        <v>0.316</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.136</v>
+        <v>0.108</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.512</v>
+        <v>0.474</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.602</v>
+        <v>0.554</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.413</v>
+        <v>1.341</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.118</v>
+        <v>0.085</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.14</v>
+        <v>15.78</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.022</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.013</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.122</v>
+        <v>0.084</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.187</v>
+        <v>0.165</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.471</v>
+        <v>0.462</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.183</v>
+        <v>0.186</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.086</v>
+        <v>-0.102</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.197</v>
+        <v>-0.215</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.905</v>
+        <v>0.863</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.433</v>
+        <v>0.401</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>102.83</v>
+        <v>104.05</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.012</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.01</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.001</v>
+        <v>0.009</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.036</v>
+        <v>0.048</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.036</v>
+        <v>0.068</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>0.013</v>
+        <v>0.028</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.076</v>
+        <v>0.102</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.259</v>
+        <v>-0.251</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.008</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.065</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.02</v>
+        <v>24.4</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.025</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.029</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.025</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.019</v>
+        <v>-0.012</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.152</v>
+        <v>0.196</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.017</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.21</v>
+        <v>0.204</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.845</v>
+        <v>1.774</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>0.937</v>
+        <v>0.889</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.115</v>
+        <v>0.087</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>89.18</v>
+        <v>90.62</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.016</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.014</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.003</v>
+        <v>0.013</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.037</v>
+        <v>0.053</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.026</v>
+        <v>0.072</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.006</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.022</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.354</v>
+        <v>-0.343</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.049</v>
+        <v>-0.034</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.055</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.72</v>
+        <v>145.38</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.022</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.029</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.014</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.034</v>
+        <v>0.002</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.181</v>
+        <v>0.195</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.411</v>
+        <v>0.37</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.567</v>
+        <v>0.532</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.463</v>
+        <v>1.408</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.157</v>
+        <v>0.131</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.12</v>
+        <v>111.51</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.037</v>
+        <v>0.053</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.144</v>
+        <v>0.154</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.062</v>
+        <v>0.066</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.069</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>203.7</v>
+        <v>199.44</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.021</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.027</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.004</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.043</v>
+        <v>0.015</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.093</v>
+        <v>0.073</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.558</v>
+        <v>0.535</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.82</v>
+        <v>0.782</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.577</v>
+        <v>1.523</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.115</v>
+        <v>0.092</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.13</v>
+        <v>44.3</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.04</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.025</v>
+        <v>-0.025</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.11</v>
+        <v>0.063</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.196</v>
+        <v>0.122</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.424</v>
+        <v>0.403</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.154</v>
+        <v>0.099</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.466</v>
+        <v>0.407</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.059</v>
+        <v>0.977</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.041</v>
+        <v>1.921</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.343</v>
+        <v>0.29</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,37 +2413,37 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.2</v>
+        <v>103.32</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AG11" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH11" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AH11" s="1" t="n">
-        <v>-0.001</v>
-      </c>
       <c r="AI11" s="1" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.026</v>
+        <v>0.031</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.165</v>
+        <v>0.168</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>0.201</v>
+        <v>0.202</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.355</v>
+        <v>0.356</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>474.6</v>
+        <v>459.47</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.032</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.022</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.048</v>
+        <v>0.008</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.108</v>
+        <v>0.073</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.329</v>
+        <v>0.339</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.256</v>
+        <v>0.216</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.271</v>
+        <v>1.22</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.184</v>
+        <v>1.114</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.342</v>
+        <v>4.171</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.185</v>
+        <v>0.148</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.34</v>
+        <v>64.11</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.004</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.023</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.122</v>
+        <v>0.089</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.478</v>
+        <v>0.464</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.715</v>
+        <v>0.634</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1.028</v>
+        <v>0.963</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.541</v>
+        <v>2.592</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.086</v>
+        <v>1.079</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>4.805</v>
+        <v>4.784</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.301</v>
+        <v>1.293</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,37 +2532,37 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.56</v>
+        <v>106.85</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.048</v>
+        <v>0.055</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>0.123</v>
+        <v>0.128</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.24</v>
+        <v>0.243</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>195.77</v>
+        <v>191.01</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.024</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.028</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.033</v>
+        <v>0.01</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.061</v>
+        <v>0.035</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.187</v>
+        <v>0.194</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.095</v>
+        <v>0.07</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.913</v>
+        <v>0.878</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0.938</v>
+        <v>0.891</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.604</v>
+        <v>2.516</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.107</v>
+        <v>0.08</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.69</v>
+        <v>27.39</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.011</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.017</v>
+        <v>0.003</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.168</v>
+        <v>0.118</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.565</v>
+        <v>0.523</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.967</v>
+        <v>0.877</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.107</v>
+        <v>1.008</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.007</v>
+        <v>2.01</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.743</v>
+        <v>0.724</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.544</v>
+        <v>3.495</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.405</v>
+        <v>1.379</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.36</v>
+        <v>22.34</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.036</v>
+        <v>0.027</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.089</v>
+        <v>0.092</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.092</v>
+        <v>0.091</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>94.88</v>
+        <v>93.99</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.009</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.012</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.016</v>
+        <v>0.01</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.064</v>
+        <v>0.068</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.052</v>
+        <v>0.045</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.506</v>
+        <v>0.494</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.567</v>
+        <v>0.552</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.779</v>
+        <v>1.753</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.8</v>
+        <v>37.49</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.034</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.02</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.166</v>
+        <v>0.118</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.295</v>
+        <v>0.23</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.651</v>
+        <v>0.646</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.299</v>
+        <v>0.241</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.536</v>
+        <v>0.484</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.08</v>
+        <v>75.33</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.012</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.01</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.055</v>
+        <v>0.035</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.064</v>
+        <v>0.067</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.204</v>
+        <v>0.213</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.048</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.004</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.114</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>256.04</v>
+        <v>249.97</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>-0.024</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.017</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.033</v>
+        <v>-0.015</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.079</v>
+        <v>0.055</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.287</v>
+        <v>0.299</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.256</v>
+        <v>0.232</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.963</v>
+        <v>0.927</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.782</v>
+        <v>0.74</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.084</v>
+        <v>2.988</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.246</v>
+        <v>0.217</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.44</v>
+        <v>12.24</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.089</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.06</v>
+        <v>-0.071</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.276</v>
+        <v>0.217</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.614</v>
+        <v>0.409</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.863</v>
+        <v>0.734</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.189</v>
+        <v>0.085</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.53</v>
+        <v>0.393</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.05</v>
+        <v>94.63</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.006</v>
       </c>
       <c r="AH15" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.042</v>
+        <v>0.039</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.099</v>
+        <v>0.116</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.091</v>
+        <v>0.088</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.402</v>
+        <v>0.4</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.074</v>
+        <v>0.07</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.412</v>
+        <v>0.406</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.11</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>121.41</v>
+        <v>120.69</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.014</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.025</v>
+        <v>0.01</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.094</v>
+        <v>0.111</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.062</v>
+        <v>0.057</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.428</v>
+        <v>0.432</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.761</v>
+        <v>0.75</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.38</v>
+        <v>1.366</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.106</v>
+        <v>0.099</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.54</v>
+        <v>69.01</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.022</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.044</v>
+        <v>-0.069</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-0.065</v>
+        <v>-0.078</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.084</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.008</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-0.148</v>
+        <v>-0.157</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.118</v>
+        <v>0.075</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.136</v>
+        <v>0.112</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.729</v>
+        <v>0.692</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.066</v>
+        <v>-0.087</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.11</v>
+        <v>40.97</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.008</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.104</v>
+        <v>0.097</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.09</v>
+        <v>0.085</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.294</v>
+        <v>0.292</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.172</v>
+        <v>0.168</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.139</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>146.78</v>
+        <v>142.82</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.027</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.025</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.035</v>
+        <v>0.005</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.079</v>
+        <v>0.048</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.245</v>
+        <v>0.257</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.169</v>
+        <v>0.14</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.894</v>
+        <v>0.859</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.982</v>
+        <v>0.929</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.148</v>
+        <v>0.117</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.14</v>
+        <v>92.24</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.02</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.029</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.037</v>
+        <v>0.002</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.137</v>
+        <v>0.107</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.383</v>
+        <v>0.408</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.186</v>
+        <v>0.174</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.445</v>
+        <v>1.398</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.406</v>
+        <v>1.357</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.002</v>
+        <v>2.921</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.245</v>
+        <v>0.22</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>41.97</v>
+        <v>42.26</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.007</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.008</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.009</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.008</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.051</v>
+        <v>0.039</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.164</v>
+        <v>0.177</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.205</v>
+        <v>-0.2</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.068</v>
+        <v>-0.062</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.092</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.83</v>
+        <v>142.48</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.023</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.031</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.01</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.016</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.171</v>
+        <v>0.18</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.093</v>
+        <v>0.073</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.743</v>
+        <v>0.707</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.751</v>
+        <v>0.711</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.18</v>
+        <v>2.107</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.1</v>
+        <v>0.074</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.14</v>
+        <v>28.41</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.025</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.038</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.029</v>
+        <v>-0.006</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.069</v>
+        <v>0.037</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.304</v>
+        <v>0.319</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.172</v>
+        <v>0.153</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.186</v>
+        <v>0.157</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.53</v>
+        <v>49.86</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.027</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.026</v>
+        <v>0.009</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.095</v>
+        <v>0.074</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.287</v>
+        <v>0.296</v>
       </c>
       <c r="I20" s="1" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M20" s="1" t="n">
         <v>0.246</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>0.734</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>1.513</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>0.262</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.72</v>
+        <v>69.44</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.032</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0</v>
+        <v>-0.039</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.02</v>
+        <v>-0.008</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.04</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.174</v>
+        <v>0.188</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.061</v>
+        <v>0.026</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.489</v>
+        <v>0.443</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.447</v>
+        <v>0.401</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.174</v>
+        <v>1.105</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.071</v>
+        <v>0.037</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.02</v>
+        <v>100.43</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.026</v>
+        <v>0.03</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.042</v>
+        <v>0.054</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.016</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.2</v>
+        <v>0.205</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>27.91</v>
+        <v>27.22</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.025</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.041</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>0.018</v>
+        <v>-0.015</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.076</v>
+        <v>0.061</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.255</v>
+        <v>0.262</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.174</v>
+        <v>0.134</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.353</v>
+        <v>0.323</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.762</v>
+        <v>0.718</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.786</v>
+        <v>0.742</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.366</v>
+        <v>0.332</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>211.24</v>
+        <v>206.04</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.025</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.017</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.081</v>
+        <v>0.04</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.122</v>
+        <v>0.096</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.416</v>
+        <v>0.407</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.404</v>
+        <v>0.383</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.28</v>
+        <v>1.205</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.693</v>
+        <v>1.626</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.069</v>
+        <v>2.969</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.463</v>
+        <v>0.427</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,35 +3487,35 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.35</v>
+        <v>51.5</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.175</v>
+        <v>0.181</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.029</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>65.42</v>
+        <v>64.39</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.016</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.036</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.018</v>
+        <v>0.002</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.085</v>
+        <v>0.068</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.284</v>
+        <v>0.303</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.273</v>
+        <v>0.241</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.592</v>
+        <v>0.567</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.118</v>
+        <v>1.085</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.537</v>
+        <v>0.512</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.422</v>
+        <v>0.4</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>103</v>
+        <v>100.79</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.021</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.029</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.028</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.03</v>
+        <v>0.001</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.185</v>
+        <v>0.197</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.182</v>
+        <v>0.162</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.794</v>
+        <v>0.765</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.643</v>
+        <v>0.607</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.093</v>
+        <v>2.026</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.076</v>
+        <v>0.053</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.05</v>
+        <v>49.19</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG22" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.057</v>
+        <v>0.063</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.189</v>
+        <v>0.19</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.253</v>
+        <v>0.257</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.066</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>29.67</v>
+        <v>28.79</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.03</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.051</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.034</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.054</v>
+        <v>0.039</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.223</v>
+        <v>0.212</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.115</v>
+        <v>0.076</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.147</v>
+        <v>0.114</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.481</v>
+        <v>0.437</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>0.917</v>
+        <v>0.86</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.343</v>
+        <v>0.303</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.09</v>
+        <v>99.84</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.012</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.066</v>
+        <v>-0.086</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.108</v>
+        <v>-0.114</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.02</v>
+        <v>-0.003</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.176</v>
+        <v>-0.174</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>0.897</v>
+        <v>0.874</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.767</v>
+        <v>0.745</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>2.874</v>
+        <v>2.826</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.019</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>94.92</v>
+        <v>95.28</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AH23" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.028</v>
+        <v>0.033</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.047</v>
+        <v>0.058</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.164</v>
+        <v>0.173</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.137</v>
+        <v>0.142</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.069</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>61.92</v>
+        <v>61.02</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.033</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.028</v>
+        <v>0.018</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.021</v>
+        <v>0.013</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.219</v>
+        <v>0.223</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.248</v>
+        <v>0.234</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.063</v>
+        <v>1.04</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.802</v>
+        <v>0.775</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.199</v>
+        <v>1.167</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.88</v>
+        <v>35.13</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.047</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.064</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.046</v>
+        <v>0.017</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.154</v>
+        <v>0.082</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.371</v>
+        <v>0.339</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.184</v>
+        <v>0.135</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.159</v>
+        <v>0.124</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.148</v>
+        <v>0.093</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.275</v>
+        <v>0.214</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.04</v>
+        <v>111.35</v>
       </c>
       <c r="AF24" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AG24" s="1" t="n">
         <v>-0.002</v>
-      </c>
-      <c r="AG24" s="1" t="n">
-        <v>-0.006</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.061</v>
+        <v>0.082</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.046</v>
+        <v>0.05</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.233</v>
+        <v>0.247</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.013</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.348</v>
+        <v>0.352</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.075</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.81</v>
+        <v>41.97</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.02</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.022</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.044</v>
+        <v>0.027</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.041</v>
+        <v>0.024</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.17</v>
+        <v>0.195</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.204</v>
+        <v>0.184</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.861</v>
+        <v>0.823</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.635</v>
+        <v>1.583</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.22</v>
+        <v>0.196</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.54</v>
+        <v>80.93</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.031</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.07</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.063</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.043</v>
+        <v>0.001</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.234</v>
+        <v>0.23</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.122</v>
+        <v>0.095</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.502</v>
+        <v>0.462</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.672</v>
+        <v>0.619</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.105</v>
+        <v>1.039</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.056</v>
+        <v>0.023</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.16</v>
+        <v>92.73</v>
       </c>
       <c r="AF25" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="AG25" s="1" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.027</v>
+        <v>0.02</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.067</v>
+        <v>0.062</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.308</v>
+        <v>0.302</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.521</v>
+        <v>0.514</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.053</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.07</v>
+        <v>41.73</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.008</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.021</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.051</v>
+        <v>0.036</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.223</v>
+        <v>0.228</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.197</v>
+        <v>0.188</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.929</v>
+        <v>0.913</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.77</v>
+        <v>0.756</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.266</v>
+        <v>0.256</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.21</v>
+        <v>56.96</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.021</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.05</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.046</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.024</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.215</v>
+        <v>0.254</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.208</v>
+        <v>0.189</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.658</v>
+        <v>0.633</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.83</v>
+        <v>0.791</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.652</v>
+        <v>0.617</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.117</v>
+        <v>0.093</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,13 +4078,13 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.81</v>
+        <v>26.83</v>
       </c>
       <c r="AF26" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AG26" s="1" t="n">
         <v>-0.001</v>
-      </c>
-      <c r="AG26" s="1" t="n">
-        <v>-0.003</v>
       </c>
       <c r="AH26" s="1" t="n">
         <v>-0.001</v>
@@ -4093,20 +4093,20 @@
         <v>0.035</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.083</v>
+        <v>0.096</v>
       </c>
       <c r="AK26" s="1" t="n">
         <v>0.057</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.254</v>
+        <v>0.264</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>43.89</v>
+        <v>43.29</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.014</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.036</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.019</v>
+        <v>0.009</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.011</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.163</v>
+        <v>0.165</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.154</v>
+        <v>0.139</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.746</v>
+        <v>0.729</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.763</v>
+        <v>0.739</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.23</v>
+        <v>1.199</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.251</v>
+        <v>0.234</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.81</v>
+        <v>25.17</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.025</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.043</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.022</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.17</v>
+        <v>0.186</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.073</v>
+        <v>0.045</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.091</v>
+        <v>0.064</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>52.88</v>
+        <v>52.93</v>
       </c>
       <c r="AF27" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AG27" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="AG27" s="1" t="n">
-        <v>-0.001</v>
       </c>
       <c r="AH27" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.038</v>
+        <v>0.045</v>
       </c>
       <c r="AK27" s="1" t="n">
         <v>0.059</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.204</v>
+        <v>0.207</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.12</v>
+        <v>0.121</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.303</v>
+        <v>0.304</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>42.09</v>
+        <v>41.52</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.014</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.021</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.031</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.181</v>
+        <v>0.179</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.293</v>
+        <v>0.28</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.254</v>
+        <v>1.219</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.596</v>
+        <v>0.575</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.043</v>
+        <v>1.016</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.345</v>
+        <v>0.327</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.95</v>
+        <v>68.38</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.007</v>
       </c>
       <c r="T28" s="1" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="U28" s="1" t="n">
         <v>-0.022</v>
       </c>
-      <c r="U28" s="1" t="n">
-        <v>-0.024</v>
-      </c>
       <c r="V28" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.227</v>
+        <v>0.23</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.476</v>
+        <v>0.485</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.373</v>
+        <v>1.388</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.053</v>
+        <v>0.06</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>53.87</v>
+        <v>53.98</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="AH28" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.066</v>
+        <v>0.079</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.269</v>
+        <v>0.278</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.057</v>
+        <v>0.059</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.083</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>56.36</v>
+        <v>56.1</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.01</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.006</v>
+        <v>0.009</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.596</v>
+        <v>0.603</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.474</v>
+        <v>0.468</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.178</v>
+        <v>1.168</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.249</v>
+        <v>0.244</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>39</v>
+        <v>38.26</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.019</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.029</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.041</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.065</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.102</v>
+        <v>0.098</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.071</v>
+        <v>0.047</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.002</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.425</v>
+        <v>0.398</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.039</v>
+        <v>1.001</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.112</v>
+        <v>0.091</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.27</v>
+        <v>51.52</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.001</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.072</v>
+        <v>0.108</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.031</v>
+        <v>0.039</v>
       </c>
       <c r="AL29" s="1" t="n">
-        <v>0.238</v>
+        <v>0.262</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.095</v>
+        <v>-0.09</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.353</v>
+        <v>0.36</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.079</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>92.99</v>
+        <v>89.16</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.041</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.047</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.055</v>
+        <v>0.003</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.125</v>
+        <v>0.073</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.341</v>
+        <v>0.316</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.194</v>
+        <v>0.143</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.692</v>
+        <v>0.65</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.306</v>
+        <v>0.252</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.049</v>
+        <v>0.965</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.301</v>
+        <v>0.247</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.43</v>
+        <v>45.16</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.006</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.018</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.03</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.052</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.009</v>
+        <v>0.012</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.022</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.14</v>
+        <v>0.116</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.43</v>
+        <v>0.422</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.572</v>
+        <v>0.562</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.013</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,37 +4546,37 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.55</v>
+        <v>24.38</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.007</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.007</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.037</v>
+        <v>0.03</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.081</v>
+        <v>0.089</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.074</v>
+        <v>0.067</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.359</v>
+        <v>0.35</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.586</v>
+        <v>0.575</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>0.06</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.36</v>
+        <v>16.86</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.029</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.031</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.032</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.065</v>
+        <v>0.028</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.19</v>
+        <v>0.178</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.054</v>
+        <v>0.03</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.422</v>
+        <v>0.388</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.688</v>
+        <v>0.639</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.765</v>
+        <v>0.714</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.112</v>
+        <v>0.08</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.89</v>
+        <v>59.87</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.017</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.021</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.043</v>
+        <v>0.037</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.075</v>
+        <v>0.049</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.06</v>
+        <v>0.074</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.058</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.231</v>
+        <v>0.219</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.379</v>
+        <v>0.356</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.422</v>
+        <v>1.381</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.054</v>
+        <v>0.037</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.42</v>
+        <v>79.95</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="AG31" s="1" t="n">
+        <v>-0.011</v>
+      </c>
+      <c r="AH31" s="1" t="n">
         <v>-0.006</v>
       </c>
-      <c r="AH31" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AI31" s="1" t="n">
-        <v>0.017</v>
+        <v>0.012</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.064</v>
+        <v>0.076</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.073</v>
+        <v>0.067</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.33</v>
+        <v>0.339</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.235</v>
+        <v>0.228</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.603</v>
+        <v>0.593</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.068</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.68</v>
+        <v>39.81</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.021</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.017</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.107</v>
+        <v>0.082</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.046</v>
+        <v>0.021</v>
       </c>
       <c r="H32" s="1" t="n">
         <v>0.029</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.008</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.502</v>
+        <v>0.47</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.936</v>
+        <v>0.894</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.008</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.77</v>
+        <v>49.63</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.022</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.02</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.049</v>
+        <v>0.034</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.106</v>
+        <v>0.091</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.08</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.077</v>
+        <v>-0.101</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.026</v>
+        <v>0.009</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.254</v>
+        <v>0.226</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.236</v>
+        <v>1.186</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.064</v>
+        <v>0.04</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.44</v>
+        <v>29.23</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.007</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.014</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.029</v>
+        <v>0.022</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.081</v>
+        <v>0.094</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.078</v>
+        <v>0.071</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.334</v>
+        <v>0.344</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.268</v>
+        <v>0.259</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.934</v>
+        <v>0.92</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.076</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.81</v>
+        <v>52.77</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="F33" s="1" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>-0.069</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="M33" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>-0.051</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>-0.072</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>0.319</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>0.596</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>1.018</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0.003</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.58</v>
+        <v>74.04</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.02</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.021</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.061</v>
+        <v>0.046</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.129</v>
+        <v>0.099</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.197</v>
+        <v>0.225</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.088</v>
+        <v>0.071</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.41</v>
+        <v>0.392</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.434</v>
+        <v>0.405</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.736</v>
+        <v>0.701</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.165</v>
+        <v>0.142</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,35 +4903,35 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>47.99</v>
+        <v>48.08</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AI33" s="1" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AJ33" s="1" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="AK33" s="1" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AL33" s="1" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="AM33" s="1" t="n">
         <v>-0.002</v>
-      </c>
-      <c r="AH33" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="AI33" s="1" t="n">
-        <v>0.023</v>
-      </c>
-      <c r="AJ33" s="1" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="AK33" s="1" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="AL33" s="1" t="n">
-        <v>0.191</v>
-      </c>
-      <c r="AM33" s="1" t="n">
-        <v>-0.004</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>81.55</v>
+        <v>78.36</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.039</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.042</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0.019</v>
+        <v>-0.025</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.113</v>
+        <v>0.074</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.239</v>
+        <v>0.23</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.178</v>
+        <v>0.132</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.728</v>
+        <v>0.667</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.498</v>
+        <v>0.439</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>1.001</v>
+        <v>0.923</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.225</v>
+        <v>0.177</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.05</v>
+        <v>149.95</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>-0.014</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.007</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.064</v>
+        <v>0.067</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.15</v>
+        <v>0.123</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.282</v>
+        <v>0.326</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.064</v>
+        <v>0.05</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.289</v>
+        <v>0.281</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.08</v>
+        <v>0.066</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.516</v>
+        <v>0.495</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.152</v>
+        <v>0.136</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>102.25</v>
+        <v>100.38</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>0</v>
+        <v>-0.018</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.014</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.066</v>
+        <v>0.044</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.133</v>
+        <v>0.108</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.262</v>
+        <v>0.256</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.25</v>
+        <v>0.226</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.546</v>
+        <v>0.529</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.455</v>
+        <v>0.428</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.085</v>
+        <v>2.029</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.22</v>
+        <v>0.198</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>65.12</v>
+        <v>61.39</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.057</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.078</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>0.034</v>
+        <v>-0.018</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.193</v>
+        <v>0.116</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.368</v>
+        <v>0.292</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.29</v>
+        <v>0.207</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.639</v>
+        <v>0.6</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.112</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.649</v>
+        <v>0.554</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.403</v>
+        <v>0.323</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.05</v>
+        <v>58.83</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.02</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.03</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.033</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.051</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.028</v>
+        <v>0.012</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.254</v>
+        <v>0.249</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.181</v>
+        <v>0.157</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.278</v>
+        <v>2.211</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.032</v>
+        <v>0.011</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.56</v>
+        <v>20.66</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.042</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.042</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>0</v>
+        <v>-0.046</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.082</v>
+        <v>0.036</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.395</v>
+        <v>0.338</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.202</v>
+        <v>0.153</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.289</v>
+        <v>0.255</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.137</v>
+        <v>0.089</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.481</v>
+        <v>0.419</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.322</v>
+        <v>0.267</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.56</v>
+        <v>24.02</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.022</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.025</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.08</v>
+        <v>0.067</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.141</v>
+        <v>0.11</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.304</v>
+        <v>0.333</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.024</v>
+        <v>0.007</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.048</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.382</v>
+        <v>-0.396</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.093</v>
+        <v>0.069</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>64.83</v>
+        <v>61.62</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.05</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.047</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.052</v>
+        <v>-0.015</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.117</v>
+        <v>0.055</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.447</v>
+        <v>0.422</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.232</v>
+        <v>0.169</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.04</v>
+        <v>0.977</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>0.988</v>
+        <v>0.89</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.768</v>
+        <v>2.582</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.253</v>
+        <v>0.19</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.73</v>
+        <v>121.83</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.023</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>0</v>
+        <v>-0.031</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.021</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.032</v>
+        <v>0.001</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.176</v>
+        <v>0.183</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.205</v>
+        <v>0.181</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.897</v>
+        <v>0.861</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.265</v>
+        <v>1.212</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.41</v>
+        <v>2.331</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.139</v>
+        <v>0.112</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>74.83</v>
+        <v>75.58</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.01</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.094</v>
+        <v>0.101</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.197</v>
+        <v>0.206</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.282</v>
+        <v>0.264</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.519</v>
+        <v>0.522</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.325</v>
+        <v>1.385</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.032</v>
+        <v>1.053</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.347</v>
+        <v>2.38</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.511</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>83.43</v>
+        <v>80.72</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.032</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.037</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.114</v>
+        <v>0.053</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.157</v>
+        <v>0.104</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.566</v>
+        <v>0.558</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.344</v>
+        <v>0.305</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.797</v>
+        <v>0.763</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.336</v>
+        <v>0.293</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.89</v>
+        <v>0.829</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.639</v>
+        <v>0.586</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.74</v>
+        <v>56.48</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.038</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.047</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.065</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.033</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.209</v>
+        <v>0.235</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.147</v>
+        <v>0.105</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.409</v>
+        <v>0.361</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.059</v>
+        <v>0.98</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.202</v>
+        <v>1.117</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.08</v>
+        <v>0.039</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>44.71</v>
+        <v>45.43</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>0.003</v>
+        <v>0.016</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.051</v>
+        <v>0.044</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.203</v>
+        <v>0.214</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.355</v>
+        <v>0.346</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.593</v>
+        <v>0.606</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.605</v>
+        <v>0.601</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.417</v>
+        <v>1.511</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>0.91</v>
+        <v>0.941</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>1.957</v>
+        <v>2.005</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.698</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.5</v>
+        <v>23.7</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.033</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.037</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.072</v>
+        <v>0.027</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.198</v>
+        <v>0.143</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.488</v>
+        <v>0.465</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.481</v>
+        <v>0.419</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.696</v>
+        <v>0.65</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.569</v>
+        <v>0.518</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.584</v>
+        <v>0.532</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>62.95</v>
+        <v>60.19</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.044</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.051</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.067</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.047</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.212</v>
+        <v>0.234</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.151</v>
+        <v>0.102</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.143</v>
+        <v>0.095</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.919</v>
+        <v>0.835</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.064</v>
+        <v>0.017</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>147.67</v>
+        <v>145.79</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.013</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.034</v>
+        <v>-0.004</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.181</v>
+        <v>0.152</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.202</v>
+        <v>0.175</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.736</v>
+        <v>0.71</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.691</v>
+        <v>0.637</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.765</v>
+        <v>0.743</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.559</v>
+        <v>0.539</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.778</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>65.06</v>
+        <v>63.32</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.027</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.027</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.102</v>
+        <v>0.06</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.205</v>
+        <v>0.174</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.487</v>
+        <v>0.458</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.422</v>
+        <v>0.367</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>0.966</v>
+        <v>0.919</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.083</v>
+        <v>1.028</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.724</v>
+        <v>0.678</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.571</v>
+        <v>0.529</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.46</v>
+        <v>131.83</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.024</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>0.017</v>
+        <v>0.004</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>0.033</v>
+        <v>0.022</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.056</v>
+        <v>0.042</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.713</v>
+        <v>0.683</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.492</v>
+        <v>1.462</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.226</v>
+        <v>2.187</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.068</v>
+        <v>0.055</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>31.67</v>
+        <v>30.27</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.044</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>0.036</v>
+        <v>-0.034</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.126</v>
+        <v>0.068</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.077</v>
+        <v>-0.13</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.142</v>
+        <v>0.101</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.146</v>
+        <v>0.087</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.557</v>
+        <v>0.459</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.662</v>
+        <v>0.589</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>1.012</v>
+        <v>0.923</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.259</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>26.92</v>
+        <v>26.44</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.018</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.036</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.025</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.005</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.198</v>
+        <v>0.201</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.06</v>
+        <v>0.037</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.49</v>
+        <v>0.481</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.575</v>
+        <v>0.547</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.093</v>
+        <v>1.056</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.146</v>
+        <v>0.125</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.18</v>
+        <v>171.6</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.026</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.024</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.02</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0.035</v>
+        <v>-0.004</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.325</v>
+        <v>0.339</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.358</v>
+        <v>0.331</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.097</v>
+        <v>1.046</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>1.968</v>
+        <v>1.891</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.359</v>
+        <v>4.22</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.233</v>
+        <v>0.201</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>65.57</v>
+        <v>63.98</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.024</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.033</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.03</v>
+        <v>0.003</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.072</v>
+        <v>0.045</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.255</v>
+        <v>0.244</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.196</v>
+        <v>0.167</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.75</v>
+        <v>0.721</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.576</v>
+        <v>0.538</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.043</v>
+        <v>0.993</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.275</v>
+        <v>0.244</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.12</v>
+        <v>33.45</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0</v>
+        <v>-0.048</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>0.02</v>
+        <v>-0.025</v>
       </c>
       <c r="T42" s="1" t="n">
-        <v>0.031</v>
+        <v>-0.001</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.035</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.293</v>
+        <v>0.286</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.25</v>
+        <v>0.195</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.705</v>
+        <v>0.658</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.076</v>
+        <v>-0.12</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.125</v>
+        <v>0.071</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>93.97</v>
+        <v>92.24</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.018</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.03</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.002</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.046</v>
+        <v>0.027</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.216</v>
+        <v>0.218</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.182</v>
+        <v>0.162</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.796</v>
+        <v>0.773</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.657</v>
+        <v>0.627</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.057</v>
+        <v>1.019</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.264</v>
+        <v>0.241</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>200.61</v>
+        <v>192.8</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.039</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.024</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.085</v>
+        <v>0.029</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.138</v>
+        <v>0.098</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.442</v>
+        <v>0.452</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.301</v>
+        <v>0.249</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.716</v>
+        <v>1.661</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.621</v>
+        <v>1.519</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.234</v>
+        <v>6.914</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.259</v>
+        <v>0.21</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>51.49</v>
+        <v>51.87</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.026</v>
+        <v>0.046</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.227</v>
+        <v>0.229</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.402</v>
+        <v>0.401</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.328</v>
+        <v>1.403</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.795</v>
+        <v>0.802</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>1.763</v>
+        <v>1.924</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>4.466</v>
+        <v>4.506</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.329</v>
+        <v>3.361</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>0.923</v>
+        <v>0.937</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.63</v>
+        <v>39.63</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.025</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.016</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.039</v>
+        <v>0.013</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.074</v>
+        <v>0.049</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.199</v>
+        <v>0.215</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.178</v>
+        <v>0.153</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.746</v>
+        <v>0.706</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.016</v>
+        <v>0.966</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.643</v>
+        <v>1.578</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.189</v>
+        <v>0.16</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>115.67</v>
+        <v>112.09</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0</v>
+        <v>-0.031</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>0</v>
+        <v>-0.024</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.047</v>
+        <v>-0.001</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.038</v>
+        <v>0.027</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.293</v>
+        <v>0.296</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.261</v>
+        <v>0.214</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.254</v>
+        <v>1.248</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.772</v>
+        <v>0.717</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>4.898</v>
+        <v>4.716</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.155</v>
+        <v>0.12</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>72.51</v>
+        <v>69.39</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.043</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.032</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.071</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.08</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>0.073</v>
+        <v>0.062</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.108</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.06</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.527</v>
+        <v>1.419</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.433</v>
+        <v>-0.458</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.082</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>53.93</v>
+        <v>51.94</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.037</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.042</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.054</v>
+        <v>0.008</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.117</v>
+        <v>0.073</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.322</v>
+        <v>0.296</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.205</v>
+        <v>0.159</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.63</v>
+        <v>0.593</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.317</v>
+        <v>0.269</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.876</v>
+        <v>0.806</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.302</v>
+        <v>0.254</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.09</v>
+        <v>86.17</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.033</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.037</v>
+        <v>0.003</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.233</v>
+        <v>0.232</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.267</v>
+        <v>0.207</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.028</v>
+        <v>1.012</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.5</v>
+        <v>2.386</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.196</v>
+        <v>0.157</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>29.61</v>
+        <v>28.49</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.038</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.027</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.064</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.057</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>0.084</v>
+        <v>0.074</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.091</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>-0.054</v>
+        <v>-0.071</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.739</v>
+        <v>1.636</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.662</v>
+        <v>0.599</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.049</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.38</v>
+        <v>29.63</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.025</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.033</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.009</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.068</v>
+        <v>0.038</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.266</v>
+        <v>0.272</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>290.19</v>
+        <v>271.99</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.063</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>0.03</v>
+        <v>-0.028</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.168</v>
+        <v>0.075</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.191</v>
+        <v>0.106</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.587</v>
+        <v>0.62</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.243</v>
+        <v>0.173</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.737</v>
+        <v>1.655</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.793</v>
+        <v>1.618</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10.332</v>
+        <v>9.622</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.354</v>
+        <v>0.269</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>12.74</v>
+        <v>12.33</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.032</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>-0.053</v>
+        <v>-0.055</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.043</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.103</v>
+        <v>-0.164</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.351</v>
+        <v>-0.332</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.143</v>
+        <v>-0.185</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.861</v>
+        <v>-0.863</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.743</v>
+        <v>-0.751</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.931</v>
+        <v>-0.933</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.242</v>
+        <v>-0.267</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6423,37 +6423,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>44.53</v>
+        <v>43.84</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.028</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.022</v>
+        <v>0.007</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.029</v>
+        <v>0.011</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.169</v>
+        <v>0.171</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.122</v>
+        <v>0.104</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.694</v>
+        <v>0.677</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.556</v>
+        <v>0.532</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.213</v>
+        <v>1.179</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.217</v>
+        <v>0.198</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>129.36</v>
+        <v>124.25</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.04</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.022</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.071</v>
+        <v>0.018</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.139</v>
+        <v>0.1</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.434</v>
+        <v>0.447</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.324</v>
+        <v>0.273</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.79</v>
+        <v>1.727</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.457</v>
+        <v>1.36</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.691</v>
+        <v>6.387</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.269</v>
+        <v>0.219</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.22</v>
+        <v>35.91</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.021</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.011</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.041</v>
+        <v>0.032</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.275</v>
+        <v>0.272</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.299</v>
+        <v>0.283</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.902</v>
+        <v>0.89</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.892</v>
+        <v>0.875</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.124</v>
+        <v>1.106</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.376</v>
+        <v>0.364</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6581,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>49.57</v>
+        <v>47.2</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.048</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0.054</v>
+        <v>0.007</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.19</v>
+        <v>0.141</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.573</v>
+        <v>0.576</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.399</v>
+        <v>0.322</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>1.068</v>
+        <v>1.016</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.511</v>
+        <v>0.439</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.337</v>
+        <v>0.273</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6618,37 +6618,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.49</v>
+        <v>26.32</v>
       </c>
       <c r="AF48" s="1" t="n">
         <v>-0.006</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.013</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.033</v>
       </c>
       <c r="AI48" s="1" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AJ48" s="1" t="n">
         <v>0.022</v>
       </c>
-      <c r="AJ48" s="1" t="n">
-        <v>0.018</v>
-      </c>
       <c r="AK48" s="1" t="n">
-        <v>0.078</v>
+        <v>0.064</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.436</v>
+        <v>0.41</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.937</v>
+        <v>0.924</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.398</v>
+        <v>0.389</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>47.56</v>
+        <v>46.88</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.014</v>
       </c>
       <c r="E49" s="1" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="F49" s="1" t="n">
         <v>-0.007</v>
       </c>
-      <c r="F49" s="1" t="n">
-        <v>0.011</v>
-      </c>
       <c r="G49" s="1" t="n">
-        <v>0.044</v>
+        <v>0.034</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.245</v>
+        <v>0.249</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.232</v>
+        <v>0.215</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.87</v>
+        <v>0.856</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.581</v>
+        <v>0.558</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.404</v>
+        <v>1.37</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.287</v>
+        <v>0.269</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>35.91</v>
+        <v>34.18</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.048</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0.028</v>
+        <v>-0.01</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.09</v>
+        <v>-0.001</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.229</v>
+        <v>0.179</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.631</v>
+        <v>0.635</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.326</v>
+        <v>0.262</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.45</v>
+        <v>17.3</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.009</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.018</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.084</v>
+        <v>-0.098</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.055</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.362</v>
+        <v>-0.377</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.293</v>
+        <v>0.281</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.248</v>
+        <v>-0.255</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.07</v>
+        <v>-0.078</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6785,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>33</v>
+        <v>32.21</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.024</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.049</v>
+        <v>0.012</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.125</v>
+        <v>0.099</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.281</v>
+        <v>0.273</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.312</v>
+        <v>0.289</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.675</v>
+        <v>0.651</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.319</v>
+        <v>0.287</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.49</v>
+        <v>0.454</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.251</v>
+        <v>0.221</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6824,37 +6824,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.09</v>
+        <v>4.04</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.012</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.027</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.024</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.095</v>
+        <v>-0.118</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.135</v>
+        <v>-0.139</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.243</v>
+        <v>-0.256</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.541</v>
+        <v>-0.568</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.298</v>
+        <v>-0.307</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.593</v>
+        <v>-0.598</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.151</v>
+        <v>-0.162</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6880,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>65.21</v>
+        <v>62.85</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.036</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.017</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>0.019</v>
+        <v>-0.014</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.074</v>
+        <v>0.042</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.341</v>
+        <v>0.349</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.321</v>
+        <v>0.273</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.076</v>
+        <v>0.999</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.812</v>
+        <v>0.747</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.684</v>
+        <v>1.587</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.274</v>
+        <v>0.228</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6919,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.84</v>
+        <v>21.56</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.013</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.011</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.016</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>0.036</v>
+        <v>0.011</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.03</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.169</v>
+        <v>-0.181</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.342</v>
+        <v>0.325</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.217</v>
+        <v>0.202</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.017</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>68.74</v>
+        <v>66.2</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.037</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>0</v>
+        <v>-0.052</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>0.087</v>
+        <v>0.026</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.081</v>
+        <v>0.026</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.468</v>
+        <v>0.466</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.982</v>
+        <v>0.95</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.296</v>
+        <v>0.248</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>59.92</v>
+        <v>57.4</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.042</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.052</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.035</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.121</v>
+        <v>0.079</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.44</v>
+        <v>0.432</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.381</v>
+        <v>0.338</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.15</v>
+        <v>1.091</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.211</v>
+        <v>0.16</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.311</v>
+        <v>2.171</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.419</v>
+        <v>0.359</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>32.81</v>
+        <v>30.2</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.119</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.076</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.565</v>
+        <v>0.415</v>
       </c>
       <c r="H53" s="1" t="n">
         <v>1.642</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.791</v>
+        <v>0.686</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.297</v>
+        <v>0.194</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>118.68</v>
+        <v>114.76</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.033</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.052</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.031</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.116</v>
+        <v>0.091</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.391</v>
+        <v>0.351</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.58</v>
+        <v>0.545</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>1.96</v>
+        <v>1.884</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>1.019</v>
+        <v>0.952</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.423</v>
+        <v>0.376</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.37</v>
+        <v>10.27</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.023</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.032</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.059</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.114</v>
+        <v>-0.121</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.191</v>
+        <v>-0.202</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.142</v>
+        <v>0.122</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.638</v>
+        <v>0.622</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.107</v>
+        <v>0.096</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.093</v>
+        <v>-0.101</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>68.46</v>
+        <v>66.67</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.026</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.044</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.05</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.052</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.164</v>
+        <v>0.181</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.074</v>
+        <v>0.049</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.892</v>
+        <v>0.849</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.601</v>
+        <v>0.56</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.254</v>
+        <v>1.195</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.063</v>
+        <v>0.036</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>114.41</v>
+        <v>113.93</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.028</v>
+        <v>0.012</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.084</v>
+        <v>0.064</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.1</v>
+        <v>0.087</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.183</v>
+        <v>0.185</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.172</v>
+        <v>0.17</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.562</v>
+        <v>0.554</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.665</v>
+        <v>0.658</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.764</v>
+        <v>1.752</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.209</v>
+        <v>0.204</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.48</v>
+        <v>38</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.012</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.009</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.039</v>
+        <v>0.026</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.079</v>
+        <v>0.062</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.131</v>
+        <v>0.12</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.272</v>
+        <v>0.259</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.43</v>
+        <v>0.412</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.3</v>
+        <v>0.283</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.102</v>
+        <v>0.088</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>90.57</v>
+        <v>90.2</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.096</v>
+        <v>0.073</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.113</v>
+        <v>0.1</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.209</v>
+        <v>0.213</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.559</v>
+        <v>0.55</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.663</v>
+        <v>0.656</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.853</v>
+        <v>1.841</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.222</v>
+        <v>0.217</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,35 +7418,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>33.23</v>
+        <v>37.47</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.127</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>-0.041</v>
+        <v>0.088</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.266</v>
+        <v>-0.166</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.51</v>
+        <v>-0.527</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.385</v>
+        <v>-0.315</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.901</v>
+        <v>-0.891</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-0.977</v>
+        <v>-0.974</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.274</v>
+        <v>-0.182</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7455,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>72.7</v>
+        <v>71.76</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.013</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.018</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>0.024</v>
+        <v>0.013</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.171</v>
+        <v>0.182</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.043</v>
+        <v>0.037</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.585</v>
+        <v>0.569</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.769</v>
+        <v>0.747</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.383</v>
+        <v>2.34</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.11</v>
+        <v>0.096</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>94.81</v>
+        <v>93.69</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.012</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.035</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.027</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.013</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.073</v>
+        <v>0.085</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.021</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.306</v>
+        <v>0.305</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.288</v>
+        <v>0.273</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.739</v>
+        <v>0.719</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.034</v>
+        <v>0.022</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>81.95</v>
+        <v>81.47</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="S58" s="1" t="n">
+        <v>-0.034</v>
+      </c>
+      <c r="T58" s="1" t="n">
         <v>-0.027</v>
       </c>
-      <c r="T58" s="1" t="n">
-        <v>-0.028</v>
-      </c>
       <c r="U58" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.008</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.035</v>
+        <v>0.048</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.015</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.313</v>
+        <v>0.311</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.45</v>
+        <v>0.442</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.85</v>
+        <v>0.839</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>89.27</v>
+        <v>88.13</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.013</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.036</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.028</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.009</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.076</v>
+        <v>0.087</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.022</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.307</v>
+        <v>0.303</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.304</v>
+        <v>0.287</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.689</v>
+        <v>0.668</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.032</v>
+        <v>0.019</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>21.91</v>
+        <v>21.69</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.01</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.03</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.052</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.119</v>
+        <v>0.187</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.047</v>
+        <v>0.035</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.401</v>
+        <v>0.436</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.245</v>
+        <v>0.233</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.322</v>
+        <v>0.309</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.079</v>
+        <v>0.068</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>87.97</v>
+        <v>85.74</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.025</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.015</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.04</v>
+        <v>-0.003</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.067</v>
+        <v>0.043</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.248</v>
+        <v>0.257</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.129</v>
+        <v>0.109</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.347</v>
+        <v>0.336</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.825</v>
+        <v>0.778</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.492</v>
+        <v>1.429</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.1</v>
+        <v>0.072</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/10/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/13/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>326.65</v>
+        <v>332.35</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-0.028</v>
+        <v>0.017</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.009</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.063</v>
+        <v>0.085</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.287</v>
+        <v>0.283</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.184</v>
+        <v>0.2</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>1.076</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.165</v>
+        <v>1.172</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.299</v>
+        <v>3.393</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.138</v>
+        <v>0.158</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.39</v>
+        <v>46.02</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.029</v>
+        <v>0.014</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.032</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.016</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.019</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.13</v>
+        <v>0.118</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.03</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.144</v>
+        <v>0.116</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.221</v>
+        <v>2.306</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.662</v>
+        <v>0.724</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.018</v>
+        <v>0.032</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,37 +1747,37 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.93</v>
+        <v>83.09</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.136</v>
+        <v>0.14</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.076</v>
+        <v>0.078</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.168</v>
+        <v>0.171</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>656.2</v>
+        <v>666.23</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-0.027</v>
+        <v>0.015</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.013</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.047</v>
+        <v>0.067</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.253</v>
+        <v>0.248</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.148</v>
+        <v>0.159</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.894</v>
+        <v>0.892</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.027</v>
+        <v>1.038</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.84</v>
+        <v>2.921</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.125</v>
+        <v>0.142</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.09</v>
+        <v>88.73</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.045</v>
+        <v>0.019</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.059</v>
+        <v>-0.049</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>-0.049</v>
+        <v>-0.018</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.039</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.156</v>
+        <v>0.144</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.077</v>
+        <v>-0.064</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>2.641</v>
+        <v>2.757</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.719</v>
+        <v>0.813</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.008</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,37 +1866,37 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.78</v>
+        <v>119.89</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.037</v>
+        <v>0.043</v>
       </c>
       <c r="AK6" s="1" t="n">
         <v>0.053</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.15</v>
+        <v>0.152</v>
       </c>
       <c r="AM6" s="1" t="n">
         <v>-0.002</v>
       </c>
       <c r="AN6" s="1" t="n">
-        <v>0.159</v>
+        <v>0.157</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.064</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>63.25</v>
+        <v>64.49</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-0.028</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.021</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.016</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.02</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.186</v>
+        <v>0.194</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.034</v>
+        <v>0.037</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.465</v>
+        <v>0.468</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.705</v>
+        <v>0.741</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.555</v>
+        <v>1.632</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.024</v>
+        <v>0.044</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.86</v>
+        <v>18.29</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.056</v>
+        <v>0.024</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.075</v>
+        <v>-0.06</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>-0.07</v>
+        <v>-0.035</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.001</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.183</v>
+        <v>0.167</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.13</v>
+        <v>-0.116</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.125</v>
+        <v>0.103</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.504</v>
+        <v>1.63</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.502</v>
+        <v>-0.466</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.084</v>
+        <v>-0.062</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,34 +1985,34 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.91</v>
+        <v>96.96</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>0.005</v>
+        <v>0.009</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
       <c r="AJ7" s="1" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="AK7" s="1" t="n">
         <v>0.051</v>
       </c>
-      <c r="AK7" s="1" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AL7" s="1" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.095</v>
+        <v>-0.098</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.118</v>
+        <v>0.114</v>
       </c>
       <c r="AO7" s="1" t="n">
         <v>0.079</v>
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>237.79</v>
+        <v>244.41</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-0.03</v>
+        <v>0.028</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.01</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.009</v>
+        <v>0.028</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.061</v>
+        <v>0.106</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.316</v>
+        <v>0.333</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.108</v>
+        <v>0.117</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.474</v>
+        <v>0.483</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.554</v>
+        <v>0.597</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.341</v>
+        <v>1.443</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.085</v>
+        <v>0.115</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.78</v>
+        <v>16.37</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.037</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.018</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.084</v>
+        <v>0.119</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.165</v>
+        <v>0.224</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.462</v>
+        <v>0.465</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.186</v>
+        <v>0.218</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.102</v>
+        <v>-0.045</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.215</v>
+        <v>-0.165</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.863</v>
+        <v>0.977</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.401</v>
+        <v>0.454</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>104.05</v>
+        <v>104</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.01</v>
+        <v>0.016</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.048</v>
+        <v>0.059</v>
       </c>
       <c r="AJ8" s="1" t="n">
         <v>0.068</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>0.028</v>
+        <v>0.029</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.102</v>
+        <v>0.101</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.251</v>
+        <v>-0.257</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.014</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.078</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.4</v>
+        <v>24.79</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.016</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.023</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.003</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.001</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.196</v>
+        <v>0.181</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.004</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.204</v>
+        <v>0.191</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.774</v>
+        <v>1.853</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>0.889</v>
+        <v>0.953</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.087</v>
+        <v>0.104</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>90.62</v>
+        <v>90.57</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.001</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.014</v>
+        <v>0.021</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.053</v>
+        <v>0.067</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.072</v>
+        <v>0.066</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>0.006</v>
+        <v>0.009</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.343</v>
+        <v>-0.35</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.043</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.072</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>145.38</v>
+        <v>148.35</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.014</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.005</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.002</v>
+        <v>0.027</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.195</v>
+        <v>0.184</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.003</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.37</v>
+        <v>0.377</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.532</v>
+        <v>0.582</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.408</v>
+        <v>1.485</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.131</v>
+        <v>0.154</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.51</v>
+        <v>111.79</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.026</v>
+        <v>0.031</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.053</v>
+        <v>0.055</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.154</v>
+        <v>0.149</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.073</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>199.44</v>
+        <v>201.57</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.011</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.018</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.015</v>
+        <v>0.031</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.16</v>
+        <v>0.155</v>
       </c>
       <c r="I11" s="1" t="n">
         <v>0.073</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.535</v>
+        <v>0.522</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.782</v>
+        <v>0.805</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.523</v>
+        <v>1.569</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.092</v>
+        <v>0.103</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.3</v>
+        <v>46.22</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.04</v>
+        <v>0.043</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.016</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.063</v>
+        <v>0.091</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.122</v>
+        <v>0.167</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.403</v>
+        <v>0.408</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.099</v>
+        <v>0.137</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.407</v>
+        <v>0.466</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>0.977</v>
+        <v>1.093</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>1.921</v>
+        <v>2.179</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.29</v>
+        <v>0.346</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,37 +2413,37 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.32</v>
+        <v>103.47</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AG11" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AH11" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="AH11" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AI11" s="1" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.031</v>
+        <v>0.034</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.168</v>
+        <v>0.169</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>0.202</v>
+        <v>0.205</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>459.47</v>
+        <v>468.58</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>-0.032</v>
+        <v>0.02</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.009</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.073</v>
+        <v>0.097</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.216</v>
+        <v>0.238</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.22</v>
+        <v>1.241</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.114</v>
+        <v>1.11</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.171</v>
+        <v>4.301</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.148</v>
+        <v>0.17</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.11</v>
+        <v>67.41</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.051</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.023</v>
+        <v>0.009</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.089</v>
+        <v>0.135</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.464</v>
+        <v>0.527</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.634</v>
+        <v>0.622</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>0.963</v>
+        <v>1.048</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.592</v>
+        <v>2.869</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.079</v>
+        <v>1.207</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>4.784</v>
+        <v>5.21</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.293</v>
+        <v>1.411</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,37 +2532,37 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.85</v>
+        <v>107.01</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.055</v>
+        <v>0.063</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>0.128</v>
+        <v>0.131</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.243</v>
+        <v>0.244</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>191.01</v>
+        <v>192.88</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-0.024</v>
+        <v>0.01</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.02</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.035</v>
+        <v>0.052</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.194</v>
+        <v>0.186</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.07</v>
+        <v>0.074</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.878</v>
+        <v>0.876</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0.891</v>
+        <v>0.898</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.516</v>
+        <v>2.581</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.08</v>
+        <v>0.091</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.39</v>
+        <v>29.1</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.062</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.003</v>
+        <v>0.048</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.118</v>
+        <v>0.157</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.523</v>
+        <v>0.557</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.877</v>
+        <v>0.903</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.008</v>
+        <v>1.121</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.01</v>
+        <v>2.201</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.724</v>
+        <v>0.85</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.495</v>
+        <v>3.968</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.379</v>
+        <v>1.528</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,34 +2651,34 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.34</v>
+        <v>22.33</v>
       </c>
       <c r="AF13" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.027</v>
+        <v>0.022</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.092</v>
+        <v>0.101</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.091</v>
+        <v>0.098</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.22</v>
+        <v>0.218</v>
       </c>
       <c r="AO13" s="1" t="n">
         <v>0.027</v>
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99</v>
+        <v>94.28</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.003</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.008</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.01</v>
+        <v>0.021</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.068</v>
+        <v>0.056</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.494</v>
+        <v>0.479</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.552</v>
+        <v>0.553</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.753</v>
+        <v>1.765</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.07</v>
+        <v>0.073</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.49</v>
+        <v>39.38</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.034</v>
+        <v>0.05</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.02</v>
+        <v>0.034</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.118</v>
+        <v>0.144</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.23</v>
+        <v>0.303</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.646</v>
+        <v>0.645</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.241</v>
+        <v>0.285</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.484</v>
+        <v>0.559</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.33</v>
+        <v>75.24</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.01</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.015</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.008</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.035</v>
+        <v>0.021</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.213</v>
+        <v>0.205</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.044</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.118</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>249.97</v>
+        <v>254.74</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>-0.024</v>
+        <v>0.019</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.002</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.007</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.055</v>
+        <v>0.081</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.299</v>
+        <v>0.305</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.232</v>
+        <v>0.241</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.927</v>
+        <v>0.914</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.74</v>
+        <v>0.738</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>2.988</v>
+        <v>3.071</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.217</v>
+        <v>0.24</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.24</v>
+        <v>13.96</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.089</v>
+        <v>0.141</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.071</v>
+        <v>0.047</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.217</v>
+        <v>0.369</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.409</v>
+        <v>0.623</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.734</v>
+        <v>0.916</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.085</v>
+        <v>0.246</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.393</v>
+        <v>0.589</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>94.63</v>
+        <v>95.28</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.007</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.002</v>
       </c>
       <c r="AH15" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.039</v>
+        <v>0.052</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.116</v>
+        <v>0.119</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.088</v>
+        <v>0.094</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.07</v>
+        <v>0.077</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.406</v>
+        <v>0.424</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.106</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>120.69</v>
+        <v>120.89</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.002</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.007</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.01</v>
+        <v>0.017</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.111</v>
+        <v>0.098</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.057</v>
+        <v>0.052</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.432</v>
+        <v>0.398</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.75</v>
+        <v>0.761</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.366</v>
+        <v>1.38</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.01</v>
+        <v>69.78</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.011</v>
       </c>
       <c r="S16" s="1" t="n">
+        <v>-0.036</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>-0.068</v>
+      </c>
+      <c r="U16" s="1" t="n">
         <v>-0.069</v>
       </c>
-      <c r="T16" s="1" t="n">
-        <v>-0.078</v>
-      </c>
-      <c r="U16" s="1" t="n">
-        <v>-0.084</v>
-      </c>
       <c r="V16" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="W16" s="1" t="n">
         <v>-0.157</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.075</v>
+        <v>0.065</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.112</v>
+        <v>0.13</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.692</v>
+        <v>0.722</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.087</v>
+        <v>-0.076</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>40.97</v>
+        <v>41.3</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.008</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.003</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.097</v>
+        <v>0.099</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.085</v>
+        <v>0.092</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.292</v>
+        <v>0.309</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.031</v>
+        <v>0.043</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.168</v>
+        <v>0.187</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.135</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>142.82</v>
+        <v>144.92</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>-0.027</v>
+        <v>0.015</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.014</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.048</v>
+        <v>0.068</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.257</v>
+        <v>0.254</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.859</v>
+        <v>0.857</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.929</v>
+        <v>0.938</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.117</v>
+        <v>0.134</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>92.24</v>
+        <v>94.23</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.02</v>
+        <v>0.022</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.005</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.002</v>
+        <v>0.013</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.107</v>
+        <v>0.136</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.408</v>
+        <v>0.409</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.174</v>
+        <v>0.181</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.398</v>
+        <v>1.464</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.357</v>
+        <v>1.429</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>2.921</v>
+        <v>3.1</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.22</v>
+        <v>0.246</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.26</v>
+        <v>42.18</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.011</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.039</v>
+        <v>0.023</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.177</v>
+        <v>0.173</v>
       </c>
       <c r="AM17" s="1" t="n">
         <v>-0.2</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.062</v>
+        <v>-0.068</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.1</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.48</v>
+        <v>144</v>
       </c>
       <c r="R18" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="S18" s="1" t="n">
         <v>-0.023</v>
       </c>
-      <c r="S18" s="1" t="n">
-        <v>-0.031</v>
-      </c>
       <c r="T18" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.001</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.004</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.18</v>
+        <v>0.172</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.073</v>
+        <v>0.072</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.707</v>
+        <v>0.709</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.711</v>
+        <v>0.73</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.107</v>
+        <v>2.176</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.074</v>
+        <v>0.086</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.41</v>
+        <v>28.9</v>
       </c>
       <c r="R19" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>-0.025</v>
       </c>
-      <c r="S19" s="1" t="n">
-        <v>-0.038</v>
-      </c>
       <c r="T19" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.007</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.037</v>
+        <v>0.06</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.319</v>
+        <v>0.321</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.157</v>
+        <v>0.177</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>49.86</v>
+        <v>50.59</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.015</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.014</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.009</v>
+        <v>0.02</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.074</v>
+        <v>0.097</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.296</v>
+        <v>0.277</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.229</v>
+        <v>0.241</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.728</v>
+        <v>0.734</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0.938</v>
+        <v>0.978</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.48</v>
+        <v>1.561</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.246</v>
+        <v>0.264</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>69.44</v>
+        <v>70.04</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.032</v>
+        <v>0.009</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.044</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.188</v>
+        <v>0.191</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.003</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.443</v>
+        <v>0.436</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.401</v>
+        <v>0.422</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.105</v>
+        <v>1.168</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.037</v>
+        <v>0.046</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.43</v>
+        <v>100.62</v>
       </c>
       <c r="AF20" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AH20" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="AG20" s="1" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AH20" s="1" t="n">
-        <v>0.003</v>
-      </c>
       <c r="AI20" s="1" t="n">
-        <v>0.03</v>
+        <v>0.036</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.17</v>
+        <v>0.174</v>
       </c>
       <c r="AM20" s="1" t="n">
         <v>-0.016</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.205</v>
+        <v>0.204</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.067</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>27.22</v>
+        <v>27.68</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.017</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.019</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.009</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.061</v>
+        <v>0.087</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.262</v>
+        <v>0.259</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.134</v>
+        <v>0.154</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.323</v>
+        <v>0.367</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.718</v>
+        <v>0.761</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.742</v>
+        <v>0.853</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.332</v>
+        <v>0.355</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>206.04</v>
+        <v>209.12</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.015</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.016</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.04</v>
+        <v>0.053</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.096</v>
+        <v>0.106</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.407</v>
+        <v>0.409</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.383</v>
+        <v>0.381</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.205</v>
+        <v>1.246</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.626</v>
+        <v>1.691</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>2.969</v>
+        <v>3.069</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.427</v>
+        <v>0.448</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,28 +3487,28 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.5</v>
+        <v>51.53</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.181</v>
+        <v>0.182</v>
       </c>
       <c r="AM21" s="1" t="n">
         <v>0.033</v>
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>64.39</v>
+        <v>65.47</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.017</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-0.036</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.01</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.068</v>
+        <v>0.089</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.303</v>
+        <v>0.315</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.241</v>
+        <v>0.249</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.567</v>
+        <v>0.581</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.085</v>
+        <v>1.164</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.512</v>
+        <v>0.561</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.4</v>
+        <v>0.424</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.79</v>
+        <v>102.48</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.017</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.017</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.025</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.001</v>
+        <v>0.021</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.197</v>
+        <v>0.207</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.162</v>
+        <v>0.178</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.765</v>
+        <v>0.782</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.607</v>
+        <v>0.612</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.026</v>
+        <v>2.079</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.053</v>
+        <v>0.071</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.19</v>
+        <v>49.22</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AG22" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AH22" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="AH22" s="1" t="n">
-        <v>0.005</v>
       </c>
       <c r="AI22" s="1" t="n">
         <v>0.027</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.05</v>
+        <v>0.053</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.257</v>
+        <v>0.251</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.069</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>28.79</v>
+        <v>29.18</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-0.03</v>
+        <v>0.014</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.037</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.028</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.039</v>
+        <v>0.06</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.212</v>
+        <v>0.204</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.076</v>
+        <v>0.098</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.114</v>
+        <v>0.16</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.437</v>
+        <v>0.452</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>0.86</v>
+        <v>1.033</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.303</v>
+        <v>0.32</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.84</v>
+        <v>100.24</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.004</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.086</v>
+        <v>-0.063</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.114</v>
+        <v>-0.117</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.016</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.14</v>
+        <v>0.133</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.174</v>
+        <v>-0.176</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>0.874</v>
+        <v>0.917</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.745</v>
+        <v>0.758</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>2.826</v>
+        <v>2.883</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.016</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.28</v>
+        <v>95.46</v>
       </c>
       <c r="AF23" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AG23" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AH23" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="AG23" s="1" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AH23" s="1" t="n">
-        <v>0.003</v>
-      </c>
       <c r="AI23" s="1" t="n">
-        <v>0.033</v>
+        <v>0.039</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.173</v>
+        <v>0.182</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="AN23" s="1" t="n">
         <v>0.142</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.073</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>61.02</v>
+        <v>61.48</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.008</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.02</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.018</v>
+        <v>0.015</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.013</v>
+        <v>0.03</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.223</v>
+        <v>0.204</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.234</v>
+        <v>0.236</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.04</v>
+        <v>1.029</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.775</v>
+        <v>0.802</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.167</v>
+        <v>1.21</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.13</v>
+        <v>36.52</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.047</v>
+        <v>0.039</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-0.064</v>
+        <v>-0.031</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.017</v>
+        <v>0.037</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.082</v>
+        <v>0.131</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.339</v>
+        <v>0.35</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.135</v>
+        <v>0.177</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.124</v>
+        <v>0.159</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.093</v>
+        <v>0.133</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.214</v>
+        <v>0.262</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.35</v>
+        <v>111.73</v>
       </c>
       <c r="AF24" s="1" t="n">
         <v>0.003</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.036</v>
+        <v>0.045</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.082</v>
+        <v>0.086</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.247</v>
+        <v>0.253</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="AN24" s="1" t="n">
         <v>0.352</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.078</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>41.97</v>
+        <v>42.46</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>-0.02</v>
+        <v>0.012</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.007</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.024</v>
+        <v>0.047</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.195</v>
+        <v>0.194</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.184</v>
+        <v>0.191</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.823</v>
+        <v>0.834</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1</v>
+        <v>1.027</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.583</v>
+        <v>1.655</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.196</v>
+        <v>0.21</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.93</v>
+        <v>83.63</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.031</v>
+        <v>0.033</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.07</v>
+        <v>-0.02</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.03</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.001</v>
+        <v>0.043</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.23</v>
+        <v>0.266</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.095</v>
+        <v>0.115</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.462</v>
+        <v>0.479</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.619</v>
+        <v>0.659</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.039</v>
+        <v>1.14</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.023</v>
+        <v>0.058</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>92.73</v>
+        <v>92.83</v>
       </c>
       <c r="AF25" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AG25" s="1" t="n">
         <v>-0.005</v>
       </c>
-      <c r="AG25" s="1" t="n">
-        <v>-0.006</v>
-      </c>
       <c r="AH25" s="1" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.068</v>
+        <v>0.064</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.301</v>
+        <v>0.302</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.514</v>
+        <v>0.51</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>41.73</v>
+        <v>41.99</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.014</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.036</v>
+        <v>0.052</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.228</v>
+        <v>0.205</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.188</v>
+        <v>0.197</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.773</v>
+        <v>0.757</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.913</v>
+        <v>0.953</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.756</v>
+        <v>0.806</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.256</v>
+        <v>0.264</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.96</v>
+        <v>57.71</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.013</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.035</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.067</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>-0.024</v>
+        <v>0.001</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.254</v>
+        <v>0.255</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.189</v>
+        <v>0.193</v>
       </c>
       <c r="X26" s="1" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <v>0.817</v>
+      </c>
+      <c r="Z26" s="1" t="n">
         <v>0.633</v>
       </c>
-      <c r="Y26" s="1" t="n">
-        <v>0.791</v>
-      </c>
-      <c r="Z26" s="1" t="n">
-        <v>0.617</v>
-      </c>
       <c r="AA26" s="1" t="n">
-        <v>0.093</v>
+        <v>0.107</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.83</v>
+        <v>27.05</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.009</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.006</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.035</v>
+        <v>0.047</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.096</v>
+        <v>0.104</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.057</v>
+        <v>0.064</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.264</v>
+        <v>0.271</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.091</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>43.29</v>
+        <v>43.35</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.001</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.019</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.003</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.002</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.165</v>
+        <v>0.138</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.139</v>
+        <v>0.135</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.729</v>
+        <v>0.696</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.739</v>
+        <v>0.758</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.199</v>
+        <v>1.23</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.234</v>
+        <v>0.236</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.17</v>
+        <v>25.45</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.011</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.027</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.009</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.186</v>
+        <v>0.153</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.045</v>
+        <v>0.052</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.064</v>
+        <v>0.076</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>52.93</v>
+        <v>53.02</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.207</v>
+        <v>0.213</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.304</v>
+        <v>0.305</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>41.52</v>
+        <v>41.78</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.006</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.015</v>
       </c>
       <c r="F28" s="1" t="n">
         <v>0.011</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.016</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.179</v>
+        <v>0.168</v>
       </c>
       <c r="I28" s="1" t="n">
         <v>0.28</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.219</v>
+        <v>1.198</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.575</v>
+        <v>0.601</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.016</v>
+        <v>1.048</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.327</v>
+        <v>0.335</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.38</v>
+        <v>67.99</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.006</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0.007</v>
+        <v>0.009</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.023</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.021</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>0.012</v>
+        <v>0.001</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.23</v>
+        <v>0.182</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.485</v>
+        <v>0.461</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.388</v>
+        <v>1.387</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.06</v>
+        <v>0.054</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>53.98</v>
+        <v>54.13</v>
       </c>
       <c r="AF28" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AH28" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="AG28" s="1" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="AH28" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="AI28" s="1" t="n">
-        <v>0.032</v>
+        <v>0.039</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.079</v>
+        <v>0.084</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>0.068</v>
+        <v>0.071</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.278</v>
+        <v>0.284</v>
       </c>
       <c r="AM28" s="1" t="n">
         <v>0.059</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.085</v>
+        <v>0.088</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>56.1</v>
+        <v>56.08</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.012</v>
+        <v>0.025</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.15</v>
+        <v>0.119</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.603</v>
+        <v>0.597</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.468</v>
+        <v>0.474</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.168</v>
+        <v>1.184</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.244</v>
+        <v>0.243</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.26</v>
+        <v>38.4</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.004</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.024</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.045</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.065</v>
+        <v>-0.057</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.098</v>
+        <v>0.069</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.047</v>
+        <v>0.044</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.014</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.398</v>
+        <v>0.404</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.001</v>
+        <v>1.05</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.091</v>
+        <v>0.095</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.52</v>
+        <v>51.74</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.008</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.049</v>
+        <v>0.064</v>
       </c>
       <c r="AJ29" s="1" t="n">
         <v>0.108</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.039</v>
+        <v>0.045</v>
       </c>
       <c r="AL29" s="1" t="n">
-        <v>0.262</v>
+        <v>0.267</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.09</v>
+        <v>-0.093</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.084</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>89.16</v>
+        <v>92.25</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>-0.041</v>
+        <v>0.035</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.02</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.003</v>
+        <v>0.023</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.073</v>
+        <v>0.113</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.316</v>
+        <v>0.31</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.143</v>
+        <v>0.175</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.65</v>
+        <v>0.724</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.252</v>
+        <v>0.292</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>0.965</v>
+        <v>1.066</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.247</v>
+        <v>0.29</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.16</v>
+        <v>45.1</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.012</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.042</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.051</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.001</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.031</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.116</v>
+        <v>0.075</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.422</v>
+        <v>0.394</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.562</v>
+        <v>0.567</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.015</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,37 +4546,37 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.38</v>
+        <v>24.58</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.008</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>-0.007</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="AJ30" s="1" t="n">
         <v>0.089</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.067</v>
+        <v>0.075</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.347</v>
+        <v>0.356</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.35</v>
+        <v>0.355</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.575</v>
+        <v>0.588</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>0.053</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>16.86</v>
+        <v>17.14</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-0.029</v>
+        <v>0.017</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.014</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.022</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.028</v>
+        <v>0.037</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.178</v>
+        <v>0.175</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.03</v>
+        <v>0.043</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.388</v>
+        <v>0.415</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.639</v>
+        <v>0.676</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.714</v>
+        <v>0.789</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.08</v>
+        <v>0.098</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.87</v>
+        <v>59.84</v>
       </c>
       <c r="R31" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="S31" s="1" t="n">
         <v>-0.017</v>
       </c>
-      <c r="S31" s="1" t="n">
-        <v>-0.021</v>
-      </c>
       <c r="T31" s="1" t="n">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.049</v>
+        <v>0.059</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.074</v>
+        <v>0.058</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.066</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.219</v>
+        <v>0.191</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.356</v>
+        <v>0.352</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.381</v>
+        <v>1.41</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>79.95</v>
+        <v>80.45</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.006</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.012</v>
+        <v>0.02</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.076</v>
+        <v>0.079</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.067</v>
+        <v>0.071</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.228</v>
+        <v>0.235</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.593</v>
+        <v>0.61</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.061</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>39.81</v>
+        <v>40.69</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.022</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.002</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.082</v>
+        <v>0.108</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.021</v>
+        <v>0.046</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.029</v>
+        <v>0.046</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.008</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.03</v>
+        <v>0.055</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.47</v>
+        <v>0.476</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.894</v>
+        <v>0.917</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.014</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.63</v>
+        <v>49.72</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.002</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.015</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.034</v>
+        <v>0.019</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.091</v>
+        <v>0.102</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.08</v>
+        <v>-0.086</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.101</v>
+        <v>-0.107</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.005</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.226</v>
+        <v>0.218</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.186</v>
+        <v>1.166</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.23</v>
+        <v>29.39</v>
       </c>
       <c r="AF32" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AG32" s="1" t="n">
         <v>-0.007</v>
       </c>
-      <c r="AG32" s="1" t="n">
-        <v>-0.014</v>
-      </c>
       <c r="AH32" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.094</v>
+        <v>0.098</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.071</v>
+        <v>0.076</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.344</v>
+        <v>0.34</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.259</v>
+        <v>0.263</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.92</v>
+        <v>0.932</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.068</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.77</v>
+        <v>52.97</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E33" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="M33" s="1" t="n">
         <v>0.006</v>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="G33" s="1" t="n">
-        <v>-0.045</v>
-      </c>
-      <c r="H33" s="1" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="I33" s="1" t="n">
-        <v>-0.069</v>
-      </c>
-      <c r="J33" s="1" t="n">
-        <v>0.304</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>1.016</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>0.002</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.04</v>
+        <v>73.69</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.005</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.022</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.099</v>
+        <v>0.102</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.225</v>
+        <v>0.199</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.071</v>
+        <v>0.055</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.392</v>
+        <v>0.352</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.405</v>
+        <v>0.41</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.701</v>
+        <v>0.748</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.142</v>
+        <v>0.136</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,35 +4903,35 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.08</v>
+        <v>48.16</v>
       </c>
       <c r="AF33" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="AG33" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AH33" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.025</v>
+        <v>0.029</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.057</v>
+        <v>0.059</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.198</v>
+        <v>0.201</v>
       </c>
       <c r="AM33" s="1" t="n">
         <v>-0.002</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>78.36</v>
+        <v>79.29</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>-0.039</v>
+        <v>0.012</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.048</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.018</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.074</v>
+        <v>0.096</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.23</v>
+        <v>0.214</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.132</v>
+        <v>0.143</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.667</v>
+        <v>0.702</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.439</v>
+        <v>0.457</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>0.923</v>
+        <v>0.964</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.177</v>
+        <v>0.191</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.95</v>
+        <v>150.94</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.007</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.003</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.067</v>
+        <v>0.071</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.123</v>
+        <v>0.148</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.326</v>
+        <v>0.291</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.05</v>
+        <v>0.039</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.281</v>
+        <v>0.253</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.066</v>
+        <v>0.059</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.495</v>
+        <v>0.554</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.136</v>
+        <v>0.143</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>100.38</v>
+        <v>102.41</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.02</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>-0.014</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.044</v>
+        <v>0.054</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.108</v>
+        <v>0.132</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.256</v>
+        <v>0.28</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.226</v>
+        <v>0.239</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.529</v>
+        <v>0.575</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.428</v>
+        <v>0.448</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.029</v>
+        <v>2.076</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.198</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>61.39</v>
+        <v>63.3</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-0.057</v>
+        <v>0.031</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-0.078</v>
+        <v>-0.05</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.01</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.116</v>
+        <v>0.152</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.292</v>
+        <v>0.287</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.207</v>
+        <v>0.238</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.6</v>
+        <v>0.698</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.112</v>
+        <v>-0.103</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.554</v>
+        <v>0.62</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.323</v>
+        <v>0.364</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,34 +5100,34 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.83</v>
+        <v>58.86</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.02</v>
+        <v>0.001</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.024</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.038</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.034</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.055</v>
+        <v>0.044</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.012</v>
+        <v>0.009</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.249</v>
+        <v>0.23</v>
       </c>
       <c r="Y35" s="1" t="n">
         <v>0.157</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.211</v>
+        <v>2.24</v>
       </c>
       <c r="AA35" s="1" t="n">
         <v>0.011</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>20.66</v>
+        <v>21.1</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-0.042</v>
+        <v>0.021</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.02</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.037</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.036</v>
+        <v>0.05</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.338</v>
+        <v>0.35</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.153</v>
+        <v>0.168</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.255</v>
+        <v>0.303</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.089</v>
+        <v>0.113</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.419</v>
+        <v>0.461</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.267</v>
+        <v>0.294</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.02</v>
+        <v>24.32</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.012</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.009</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.067</v>
+        <v>0.074</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.11</v>
+        <v>0.148</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.333</v>
+        <v>0.288</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.064</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.396</v>
+        <v>-0.399</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.069</v>
+        <v>0.083</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>61.62</v>
+        <v>64.56</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>-0.05</v>
+        <v>0.048</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.007</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.028</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.055</v>
+        <v>0.107</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.422</v>
+        <v>0.415</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.169</v>
+        <v>0.21</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>0.977</v>
+        <v>1.069</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>0.89</v>
+        <v>0.996</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.582</v>
+        <v>2.806</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.19</v>
+        <v>0.247</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>121.83</v>
+        <v>123.2</v>
       </c>
       <c r="R37" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="T37" s="1" t="n">
         <v>-0.023</v>
       </c>
-      <c r="S37" s="1" t="n">
-        <v>-0.031</v>
-      </c>
-      <c r="T37" s="1" t="n">
-        <v>-0.021</v>
-      </c>
       <c r="U37" s="1" t="n">
-        <v>0.001</v>
+        <v>0.019</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.183</v>
+        <v>0.179</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.181</v>
+        <v>0.168</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.861</v>
+        <v>0.841</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.212</v>
+        <v>1.256</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.331</v>
+        <v>2.382</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.112</v>
+        <v>0.125</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>75.58</v>
+        <v>77.43</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.01</v>
+        <v>0.024</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.101</v>
+        <v>0.127</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.264</v>
+        <v>0.27</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.522</v>
+        <v>0.544</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.385</v>
+        <v>1.453</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.053</v>
+        <v>1.145</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.38</v>
+        <v>2.432</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.527</v>
+        <v>0.564</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>80.72</v>
+        <v>83.62</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>-0.032</v>
+        <v>0.036</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.014</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.053</v>
+        <v>0.063</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.104</v>
+        <v>0.152</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.558</v>
+        <v>0.54</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.305</v>
+        <v>0.351</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.763</v>
+        <v>0.811</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.293</v>
+        <v>0.357</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.829</v>
+        <v>0.925</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.586</v>
+        <v>0.643</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.48</v>
+        <v>57.59</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.038</v>
+        <v>0.02</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.034</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.065</v>
+        <v>-0.05</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.004</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.235</v>
+        <v>0.256</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.105</v>
+        <v>0.094</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.361</v>
+        <v>0.343</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.117</v>
+        <v>1.16</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.039</v>
+        <v>0.059</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>45.43</v>
+        <v>47.26</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>0.016</v>
+        <v>0.04</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.044</v>
+        <v>0.073</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.214</v>
+        <v>0.233</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.606</v>
+        <v>0.619</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.601</v>
+        <v>0.641</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.511</v>
+        <v>1.718</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>0.941</v>
+        <v>1.101</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>2.005</v>
+        <v>2.117</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.725</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>23.7</v>
+        <v>24.52</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>-0.033</v>
+        <v>0.035</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.01</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.027</v>
+        <v>0.047</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.143</v>
+        <v>0.189</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.465</v>
+        <v>0.453</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.419</v>
+        <v>0.466</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.65</v>
+        <v>0.702</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.518</v>
+        <v>0.575</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.48</v>
+        <v>0.555</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.532</v>
+        <v>0.585</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.19</v>
+        <v>61.51</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.044</v>
+        <v>0.022</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.04</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.067</v>
+        <v>-0.048</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.016</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.234</v>
+        <v>0.265</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.102</v>
+        <v>0.088</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.095</v>
+        <v>0.079</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.74</v>
+        <v>0.81</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.835</v>
+        <v>0.875</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.017</v>
+        <v>0.039</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>145.79</v>
+        <v>148.31</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.017</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.152</v>
+        <v>0.163</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.175</v>
+        <v>0.157</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.71</v>
+        <v>0.717</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.637</v>
+        <v>0.643</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.748</v>
+        <v>0.769</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.743</v>
+        <v>0.819</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.539</v>
+        <v>0.554</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.755</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>63.32</v>
+        <v>66.01</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-0.027</v>
+        <v>0.042</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>-0.027</v>
+        <v>0.011</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.174</v>
+        <v>0.246</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.458</v>
+        <v>0.464</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.367</v>
+        <v>0.404</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>0.919</v>
+        <v>1.012</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.028</v>
+        <v>1.125</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.678</v>
+        <v>0.807</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.529</v>
+        <v>0.594</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,34 +5645,34 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.83</v>
+        <v>131.81</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.012</v>
+        <v>0</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.021</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.01</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>0.022</v>
+        <v>0.031</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>0.035</v>
+        <v>0.028</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.042</v>
+        <v>0.03</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.683</v>
+        <v>0.636</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.462</v>
+        <v>1.488</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.187</v>
+        <v>2.191</v>
       </c>
       <c r="AA40" s="1" t="n">
         <v>0.055</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>30.27</v>
+        <v>31.59</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>-0.044</v>
+        <v>0.044</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>-0.034</v>
+        <v>0.015</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.068</v>
+        <v>0.105</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.13</v>
+        <v>-0.085</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.101</v>
+        <v>0.108</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.087</v>
+        <v>0.121</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.459</v>
+        <v>0.513</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.589</v>
+        <v>0.678</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.923</v>
+        <v>0.974</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.203</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>26.44</v>
+        <v>26.66</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.008</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.026</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.021</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.011</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.201</v>
+        <v>0.189</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.481</v>
+        <v>0.479</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.547</v>
+        <v>0.561</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.056</v>
+        <v>1.126</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.125</v>
+        <v>0.134</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>171.6</v>
+        <v>173.4</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.026</v>
+        <v>0.01</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.012</v>
       </c>
       <c r="T41" s="1" t="n">
         <v>-0.02</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.015</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.339</v>
+        <v>0.324</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.331</v>
+        <v>0.32</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.046</v>
+        <v>1.036</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>1.891</v>
+        <v>1.89</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.22</v>
+        <v>4.29</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.201</v>
+        <v>0.213</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>63.98</v>
+        <v>64.97</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>-0.024</v>
+        <v>0.015</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.021</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.045</v>
+        <v>0.069</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.244</v>
+        <v>0.231</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.167</v>
+        <v>0.179</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.721</v>
+        <v>0.745</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.538</v>
+        <v>0.566</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>0.993</v>
+        <v>1.055</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.244</v>
+        <v>0.263</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.45</v>
+        <v>34.09</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-0.048</v>
+        <v>0.019</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.019</v>
       </c>
       <c r="T42" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.011</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>-0.035</v>
+        <v>0.007</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.286</v>
+        <v>0.279</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.195</v>
+        <v>0.194</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.658</v>
+        <v>0.699</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.071</v>
+        <v>0.092</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>92.24</v>
+        <v>92.98</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.008</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.024</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.027</v>
+        <v>0.045</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.218</v>
+        <v>0.198</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.162</v>
+        <v>0.165</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.773</v>
+        <v>0.776</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.627</v>
+        <v>0.649</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.019</v>
+        <v>1.066</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.241</v>
+        <v>0.251</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>192.8</v>
+        <v>197.38</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.039</v>
+        <v>0.024</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.01</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.029</v>
+        <v>0.046</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.098</v>
+        <v>0.128</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.452</v>
+        <v>0.456</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.249</v>
+        <v>0.276</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.661</v>
+        <v>1.707</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.519</v>
+        <v>1.511</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>6.914</v>
+        <v>7.138</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.21</v>
+        <v>0.239</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>51.87</v>
+        <v>55.49</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>0.007</v>
+        <v>0.07</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.046</v>
+        <v>0.084</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.229</v>
+        <v>0.32</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.401</v>
+        <v>0.479</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.403</v>
+        <v>1.45</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.802</v>
+        <v>0.9</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>1.924</v>
+        <v>2.094</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>4.506</v>
+        <v>4.977</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.361</v>
+        <v>3.772</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>0.937</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>39.63</v>
+        <v>40.2</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.014</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.012</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.013</v>
+        <v>0.023</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.049</v>
+        <v>0.07</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>0.215</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.153</v>
+        <v>0.162</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.706</v>
+        <v>0.726</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>0.966</v>
+        <v>0.997</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.578</v>
+        <v>1.654</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.16</v>
+        <v>0.177</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>112.09</v>
+        <v>114.64</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-0.031</v>
+        <v>0.023</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.008</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.027</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.027</v>
+        <v>0.067</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.296</v>
+        <v>0.315</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.214</v>
+        <v>0.235</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.248</v>
+        <v>1.306</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>4.716</v>
+        <v>4.877</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.12</v>
+        <v>0.145</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>69.39</v>
+        <v>70.28</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>-0.043</v>
+        <v>0.013</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.036</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-0.071</v>
+        <v>-0.041</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>-0.08</v>
+        <v>-0.091</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>0.062</v>
+        <v>0.057</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>-0.108</v>
+        <v>-0.093</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>-0.06</v>
+        <v>-0.031</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.419</v>
+        <v>1.469</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.458</v>
+        <v>-0.417</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.082</v>
+        <v>-0.07</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>51.94</v>
+        <v>53.45</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-0.037</v>
+        <v>0.029</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.019</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.008</v>
+        <v>0.023</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.073</v>
+        <v>0.108</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.296</v>
+        <v>0.293</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.159</v>
+        <v>0.184</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.593</v>
+        <v>0.659</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.269</v>
+        <v>0.3</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.806</v>
+        <v>0.904</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.254</v>
+        <v>0.29</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>86.17</v>
+        <v>87.77</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-0.033</v>
+        <v>0.019</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.004</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.003</v>
+        <v>0.027</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.017</v>
+        <v>0.058</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.232</v>
+        <v>0.234</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.207</v>
+        <v>0.226</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.012</v>
+        <v>1.073</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.77</v>
+        <v>0.762</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.386</v>
+        <v>2.534</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.157</v>
+        <v>0.178</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>28.49</v>
+        <v>28.87</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>-0.038</v>
+        <v>0.013</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.031</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>-0.064</v>
+        <v>-0.04</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.067</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>0.074</v>
+        <v>0.07</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>-0.091</v>
+        <v>-0.074</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>-0.071</v>
+        <v>-0.047</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.636</v>
+        <v>1.688</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.599</v>
+        <v>0.726</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>-0.049</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>29.63</v>
+        <v>30.17</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.018</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.017</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.002</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.038</v>
+        <v>0.067</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.272</v>
+        <v>0.269</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>271.99</v>
+        <v>284.87</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-0.063</v>
+        <v>0.047</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.012</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.075</v>
+        <v>0.117</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.106</v>
+        <v>0.16</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.62</v>
+        <v>0.661</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.173</v>
+        <v>0.219</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.655</v>
+        <v>1.809</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.618</v>
+        <v>1.706</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>9.622</v>
+        <v>10.263</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.269</v>
+        <v>0.329</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>12.33</v>
+        <v>12.18</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.012</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.084</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.026</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.164</v>
+        <v>-0.184</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.332</v>
+        <v>-0.346</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.185</v>
+        <v>-0.177</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.863</v>
+        <v>-0.868</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.751</v>
+        <v>-0.759</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.933</v>
+        <v>-0.934</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.267</v>
+        <v>-0.275</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6423,37 +6423,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>43.84</v>
+        <v>44.2</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.008</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.023</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.011</v>
+        <v>0.028</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.171</v>
+        <v>0.152</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.104</v>
+        <v>0.107</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.677</v>
+        <v>0.689</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.532</v>
+        <v>0.548</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.179</v>
+        <v>1.212</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.198</v>
+        <v>0.208</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>124.25</v>
+        <v>127.7</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-0.04</v>
+        <v>0.028</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.006</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.018</v>
+        <v>0.044</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.1</v>
+        <v>0.136</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.447</v>
+        <v>0.464</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.273</v>
+        <v>0.303</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.727</v>
+        <v>1.796</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.36</v>
+        <v>1.368</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.387</v>
+        <v>6.61</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.219</v>
+        <v>0.253</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>35.91</v>
+        <v>36.17</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.007</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.011</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.032</v>
+        <v>0.043</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.272</v>
+        <v>0.245</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.283</v>
+        <v>0.29</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.89</v>
+        <v>0.902</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.875</v>
+        <v>0.91</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.106</v>
+        <v>1.163</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.364</v>
+        <v>0.374</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6581,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>47.2</v>
+        <v>48.41</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.048</v>
+        <v>0.026</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.065</v>
+        <v>0.095</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.141</v>
+        <v>0.175</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.576</v>
+        <v>0.589</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.322</v>
+        <v>0.346</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>1.016</v>
+        <v>1.099</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.439</v>
+        <v>0.462</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.273</v>
+        <v>0.306</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6618,37 +6618,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.32</v>
+        <v>26.41</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.003</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.04</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>0.022</v>
+        <v>0.004</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.064</v>
+        <v>0.059</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.41</v>
+        <v>0.431</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.924</v>
+        <v>0.95</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.389</v>
+        <v>0.379</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>46.88</v>
+        <v>47.27</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.008</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.017</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.008</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.034</v>
+        <v>0.053</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.249</v>
+        <v>0.227</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.215</v>
+        <v>0.218</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.856</v>
+        <v>0.85</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.558</v>
+        <v>0.566</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.37</v>
+        <v>1.391</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.269</v>
+        <v>0.279</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>34.18</v>
+        <v>35.41</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-0.048</v>
+        <v>0.036</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.005</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.04</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.179</v>
+        <v>0.229</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.635</v>
+        <v>0.674</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.262</v>
+        <v>0.308</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.3</v>
+        <v>17.22</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.005</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.022</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.038</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.098</v>
+        <v>-0.121</v>
       </c>
       <c r="AK49" s="1" t="n">
         <v>-0.055</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.377</v>
+        <v>-0.381</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.281</v>
+        <v>0.287</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.255</v>
+        <v>-0.261</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.078</v>
+        <v>-0.083</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6785,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>32.21</v>
+        <v>32.51</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.024</v>
+        <v>0.009</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.003</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.012</v>
+        <v>0.027</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.099</v>
+        <v>0.118</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.273</v>
+        <v>0.274</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.289</v>
+        <v>0.293</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.651</v>
+        <v>0.664</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.287</v>
+        <v>0.304</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.454</v>
+        <v>0.47</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.221</v>
+        <v>0.233</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6824,37 +6824,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.002</v>
       </c>
       <c r="AG50" s="1" t="n">
         <v>-0.027</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.04</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.118</v>
+        <v>-0.104</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.139</v>
+        <v>-0.166</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.256</v>
+        <v>-0.251</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.568</v>
+        <v>-0.552</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.307</v>
+        <v>-0.308</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.598</v>
+        <v>-0.606</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.162</v>
+        <v>-0.164</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6880,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>62.85</v>
+        <v>63.84</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.036</v>
+        <v>0.016</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.015</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.001</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.042</v>
+        <v>0.068</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.349</v>
+        <v>0.34</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.273</v>
+        <v>0.297</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>0.999</v>
+        <v>1.007</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.747</v>
+        <v>0.751</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.587</v>
+        <v>1.615</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.228</v>
+        <v>0.247</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6919,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.56</v>
+        <v>21.58</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.001</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.009</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.033</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.021</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.181</v>
+        <v>-0.191</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.325</v>
+        <v>0.344</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.202</v>
+        <v>0.172</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>66.2</v>
+        <v>65.81</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.006</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.077</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.009</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.021</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.466</v>
+        <v>0.381</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.95</v>
+        <v>0.831</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.248</v>
+        <v>0.241</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>57.4</v>
+        <v>58.58</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.042</v>
+        <v>0.021</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.036</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.031</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.079</v>
+        <v>0.112</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.432</v>
+        <v>0.439</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.338</v>
+        <v>0.345</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.091</v>
+        <v>1.214</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.16</v>
+        <v>0.171</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.171</v>
+        <v>2.252</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.359</v>
+        <v>0.387</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>30.2</v>
+        <v>32.18</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-0.08</v>
+        <v>0.066</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-0.119</v>
+        <v>-0.101</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>-0.076</v>
+        <v>-0.09</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.415</v>
+        <v>0.411</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.642</v>
+        <v>1.716</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.686</v>
+        <v>0.725</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.194</v>
+        <v>0.272</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>114.76</v>
+        <v>116.59</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.033</v>
+        <v>0.016</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.036</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.028</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.091</v>
+        <v>0.116</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.351</v>
+        <v>0.344</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.545</v>
+        <v>0.551</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>1.884</v>
+        <v>1.994</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.376</v>
+        <v>0.398</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.27</v>
+        <v>9.98</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.028</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.067</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.058</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.059</v>
+        <v>-0.096</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.121</v>
+        <v>-0.143</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.202</v>
+        <v>-0.222</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.122</v>
+        <v>0.094</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.622</v>
+        <v>0.607</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.096</v>
+        <v>0.072</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.101</v>
+        <v>-0.127</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>66.67</v>
+        <v>67.76</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>-0.026</v>
+        <v>0.016</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-0.044</v>
+        <v>-0.027</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.047</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.029</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.181</v>
+        <v>0.176</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.049</v>
+        <v>0.052</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.849</v>
+        <v>0.877</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.56</v>
+        <v>0.595</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.195</v>
+        <v>1.263</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.036</v>
+        <v>0.053</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>113.93</v>
+        <v>114.69</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.007</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.087</v>
+        <v>0.095</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.185</v>
+        <v>0.178</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.17</v>
+        <v>0.169</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.554</v>
+        <v>0.58</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.658</v>
+        <v>0.671</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.752</v>
+        <v>1.754</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.204</v>
+        <v>0.212</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38</v>
+        <v>38.46</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.012</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.002</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.062</v>
+        <v>0.074</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.12</v>
+        <v>0.127</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.259</v>
+        <v>0.273</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.412</v>
+        <v>0.438</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.283</v>
+        <v>0.299</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.088</v>
+        <v>0.101</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>90.2</v>
+        <v>90.89</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.008</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.073</v>
+        <v>0.07</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.213</v>
+        <v>0.207</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.182</v>
+        <v>0.181</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.55</v>
+        <v>0.582</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.656</v>
+        <v>0.67</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.841</v>
+        <v>1.844</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.217</v>
+        <v>0.226</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,35 +7418,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>37.47</v>
+        <v>34.62</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.128</v>
+        <v>-0.076</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.127</v>
+        <v>0.048</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>0.088</v>
+        <v>0.028</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.166</v>
+        <v>-0.234</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.527</v>
+        <v>-0.551</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.315</v>
+        <v>-0.36</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.891</v>
+        <v>-0.897</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-0.974</v>
+        <v>-0.976</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.182</v>
+        <v>-0.244</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7455,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>71.76</v>
+        <v>72.3</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.008</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.014</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.004</v>
+        <v>0.019</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.182</v>
+        <v>0.168</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.569</v>
+        <v>0.577</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.34</v>
+        <v>2.421</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.096</v>
+        <v>0.104</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>93.69</v>
+        <v>94.26</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.006</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.018</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.032</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.007</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.085</v>
+        <v>0.076</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.026</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.305</v>
+        <v>0.292</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.273</v>
+        <v>0.294</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.719</v>
+        <v>0.732</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>81.47</v>
+        <v>81.93</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.006</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.018</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.03</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.02</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.311</v>
+        <v>0.294</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.442</v>
+        <v>0.466</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.839</v>
+        <v>0.856</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>88.13</v>
+        <v>88.69</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.006</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.021</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.035</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.002</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.087</v>
+        <v>0.081</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.027</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.303</v>
+        <v>0.288</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.287</v>
+        <v>0.312</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.668</v>
+        <v>0.68</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>21.69</v>
+        <v>21.95</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.012</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-0.03</v>
+        <v>0.001</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.032</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.187</v>
+        <v>0.193</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.035</v>
+        <v>0.052</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.436</v>
+        <v>0.352</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.233</v>
+        <v>0.25</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.309</v>
+        <v>0.332</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.068</v>
+        <v>0.081</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>85.74</v>
+        <v>86.14</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.005</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.043</v>
+        <v>0.058</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.257</v>
+        <v>0.243</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.109</v>
+        <v>0.104</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.336</v>
+        <v>0.349</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.778</v>
+        <v>0.805</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.429</v>
+        <v>1.475</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.072</v>
+        <v>0.077</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/13/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/14/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>332.35</v>
+        <v>331.02</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.004</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.016</v>
+        <v>0.012</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.085</v>
+        <v>0.08</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.283</v>
+        <v>0.269</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.2</v>
+        <v>0.186</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.076</v>
+        <v>1.113</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.172</v>
+        <v>1.181</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.393</v>
+        <v>3.397</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.158</v>
+        <v>0.153</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.02</v>
+        <v>45.95</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.002</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.035</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.018</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.011</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.118</v>
+        <v>0.112</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.029</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.116</v>
+        <v>0.158</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.306</v>
+        <v>2.289</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.724</v>
+        <v>0.705</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,25 +1747,25 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>83.09</v>
+        <v>83.03</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AG5" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AH5" s="1" t="n">
         <v>0.004</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>0.005</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0.017</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="AL5" s="1" t="n">
         <v>0.14</v>
@@ -1774,10 +1774,10 @@
         <v>0.078</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.171</v>
+        <v>0.168</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>666.23</v>
+        <v>665.48</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.01</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.067</v>
+        <v>0.063</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.248</v>
+        <v>0.236</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.159</v>
+        <v>0.148</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.892</v>
+        <v>0.935</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.038</v>
+        <v>1.048</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.921</v>
+        <v>2.936</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.142</v>
+        <v>0.141</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>88.73</v>
+        <v>88.2</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0.019</v>
+        <v>-0.006</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.049</v>
+        <v>-0.053</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.024</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.036</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.144</v>
+        <v>0.137</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.064</v>
+        <v>-0.059</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>2.757</v>
+        <v>2.707</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.813</v>
+        <v>0.788</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,7 +1866,7 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.89</v>
+        <v>120.06</v>
       </c>
       <c r="AF6" s="1" t="n">
         <v>0.001</v>
@@ -1875,28 +1875,28 @@
         <v>0.006</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.043</v>
+        <v>0.038</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.152</v>
+        <v>0.157</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AN6" s="1" t="n">
-        <v>0.157</v>
+        <v>0.154</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.065</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>64.49</v>
+        <v>65.08</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.02</v>
+        <v>0.009</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.001</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.007</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.194</v>
+        <v>0.189</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.468</v>
+        <v>0.518</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.741</v>
+        <v>0.765</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.632</v>
+        <v>1.676</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.044</v>
+        <v>0.054</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.29</v>
+        <v>18.23</v>
       </c>
       <c r="R7" s="1" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>-0.038</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>0.024</v>
       </c>
-      <c r="S7" s="1" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="T7" s="1" t="n">
-        <v>-0.035</v>
-      </c>
-      <c r="U7" s="1" t="n">
-        <v>-0.001</v>
-      </c>
       <c r="V7" s="1" t="n">
-        <v>0.167</v>
+        <v>0.161</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.116</v>
+        <v>-0.113</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.103</v>
+        <v>0.154</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.63</v>
+        <v>1.587</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.466</v>
+        <v>-0.474</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.062</v>
+        <v>-0.065</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>96.96</v>
+        <v>97.21</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG7" s="1" t="n">
         <v>0.009</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.057</v>
+        <v>0.051</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.13</v>
+        <v>0.139</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.098</v>
+        <v>-0.096</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.114</v>
+        <v>0.111</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.079</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>244.41</v>
+        <v>247.9</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.028</v>
+        <v>0.014</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.015</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.028</v>
+        <v>0.043</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.106</v>
+        <v>0.114</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.333</v>
+        <v>0.336</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.117</v>
+        <v>0.124</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.483</v>
+        <v>0.545</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.597</v>
+        <v>0.636</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.443</v>
+        <v>1.503</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.115</v>
+        <v>0.131</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.37</v>
+        <v>16.42</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.037</v>
+        <v>0.003</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.018</v>
+        <v>0.033</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.119</v>
+        <v>0.122</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.224</v>
+        <v>0.226</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.465</v>
+        <v>0.457</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.218</v>
+        <v>0.228</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.023</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.165</v>
+        <v>-0.173</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.977</v>
+        <v>0.954</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.454</v>
+        <v>0.458</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>104</v>
+        <v>104.36</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.059</v>
+        <v>0.064</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.068</v>
+        <v>0.062</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.101</v>
+        <v>0.112</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.257</v>
+        <v>-0.255</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.016</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.077</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.79</v>
+        <v>24.72</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.003</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.026</v>
       </c>
       <c r="T9" s="1" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="W9" s="1" t="n">
         <v>-0.003</v>
       </c>
-      <c r="U9" s="1" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="V9" s="1" t="n">
-        <v>0.181</v>
-      </c>
-      <c r="W9" s="1" t="n">
-        <v>-0.004</v>
-      </c>
       <c r="X9" s="1" t="n">
-        <v>0.191</v>
+        <v>0.227</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.853</v>
+        <v>1.858</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>0.953</v>
+        <v>0.917</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.104</v>
+        <v>0.101</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>90.57</v>
+        <v>90.86</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.021</v>
+        <v>0.019</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.067</v>
+        <v>0.073</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.066</v>
+        <v>0.062</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>0.009</v>
+        <v>0.012</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>0.021</v>
+        <v>0.033</v>
       </c>
       <c r="AM9" s="1" t="n">
         <v>-0.35</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.048</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.071</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.35</v>
+        <v>149.22</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.02</v>
+        <v>0.006</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.005</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.027</v>
+        <v>0.034</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.184</v>
+        <v>0.179</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.377</v>
+        <v>0.436</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.582</v>
+        <v>0.584</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.485</v>
+        <v>1.475</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.154</v>
+        <v>0.161</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.79</v>
+        <v>111.67</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.055</v>
+        <v>0.049</v>
       </c>
       <c r="AK10" s="1" t="n">
         <v>0.051</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.068</v>
+        <v>0.067</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.322</v>
+        <v>0.316</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>201.57</v>
+        <v>203.12</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.007</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.007</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.031</v>
+        <v>0.038</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.155</v>
+        <v>0.15</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.522</v>
+        <v>0.563</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.805</v>
+        <v>0.826</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.569</v>
+        <v>1.6</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.103</v>
+        <v>0.112</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.22</v>
+        <v>46.08</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0.043</v>
+        <v>-0.003</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.016</v>
+        <v>0.023</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.091</v>
+        <v>0.088</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.167</v>
+        <v>0.172</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.408</v>
+        <v>0.383</v>
       </c>
       <c r="W11" s="1" t="n">
         <v>0.137</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.466</v>
+        <v>0.514</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.093</v>
+        <v>1.086</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.179</v>
+        <v>2.166</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,34 +2413,34 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.47</v>
+        <v>103.43</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>0.018</v>
+        <v>0.017</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="AK11" s="1" t="n">
         <v>0.06</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.169</v>
+        <v>0.168</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>0.205</v>
+        <v>0.204</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.359</v>
+        <v>0.357</v>
       </c>
       <c r="AO11" s="1" t="n">
         <v>0.06</v>
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>468.58</v>
+        <v>465.07</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.02</v>
+        <v>-0.007</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.011</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.019</v>
+        <v>0.012</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.097</v>
+        <v>0.085</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.341</v>
+        <v>0.323</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.238</v>
+        <v>0.217</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.241</v>
+        <v>1.287</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.11</v>
+        <v>1.111</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.301</v>
+        <v>4.295</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.17</v>
+        <v>0.162</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>67.41</v>
+        <v>66.8</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0.051</v>
+        <v>-0.009</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.009</v>
+        <v>0.02</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.135</v>
+        <v>0.125</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.527</v>
+        <v>0.508</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.622</v>
+        <v>0.599</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1.048</v>
+        <v>1.025</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.869</v>
+        <v>2.984</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.207</v>
+        <v>1.155</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5.21</v>
+        <v>4.763</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.411</v>
+        <v>1.389</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,13 +2532,13 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>107.01</v>
+        <v>106.95</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>0.008</v>
@@ -2547,22 +2547,22 @@
         <v>0.038</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.063</v>
+        <v>0.053</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.244</v>
+        <v>0.241</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -2573,34 +2573,34 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>192.88</v>
+        <v>193.03</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.014</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0.052</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.186</v>
+        <v>0.176</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.074</v>
+        <v>0.064</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.876</v>
+        <v>0.925</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0.898</v>
+        <v>0.911</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.581</v>
+        <v>2.605</v>
       </c>
       <c r="M13" s="1" t="n">
         <v>0.091</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1</v>
+        <v>28.84</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0.062</v>
+        <v>-0.009</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.048</v>
+        <v>0.06</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.157</v>
+        <v>0.147</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.557</v>
+        <v>0.55</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.903</v>
+        <v>0.819</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.121</v>
+        <v>1.118</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.201</v>
+        <v>2.353</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.85</v>
+        <v>0.795</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.968</v>
+        <v>3.627</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.528</v>
+        <v>1.505</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2654,31 +2654,31 @@
         <v>22.33</v>
       </c>
       <c r="AF13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1" t="n">
         <v>-0.001</v>
-      </c>
-      <c r="AG13" s="1" t="n">
-        <v>0.001</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.022</v>
+        <v>0.031</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.101</v>
+        <v>0.104</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.098</v>
+        <v>0.092</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.218</v>
+        <v>0.219</v>
       </c>
       <c r="AO13" s="1" t="n">
         <v>0.027</v>
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>94.28</v>
+        <v>94.7</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.006</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.056</v>
+        <v>0.047</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.479</v>
+        <v>0.513</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.553</v>
+        <v>0.567</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.765</v>
+        <v>1.797</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.073</v>
+        <v>0.078</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>39.38</v>
+        <v>38.85</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0.05</v>
+        <v>-0.013</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.144</v>
+        <v>0.129</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.303</v>
+        <v>0.294</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.645</v>
+        <v>0.58</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.285</v>
+        <v>0.277</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.559</v>
+        <v>0.538</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.24</v>
+        <v>75.36</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.003</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.013</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.005</v>
       </c>
       <c r="AJ14" s="1" t="n">
         <v>0.021</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.064</v>
+        <v>0.069</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.205</v>
+        <v>0.215</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.044</v>
+        <v>-0.043</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.015</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.117</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>254.74</v>
+        <v>254.12</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.019</v>
+        <v>-0.002</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.081</v>
+        <v>0.065</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.305</v>
+        <v>0.29</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.241</v>
+        <v>0.229</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.914</v>
+        <v>0.948</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.738</v>
+        <v>0.745</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.071</v>
+        <v>3.094</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.24</v>
+        <v>0.237</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.96</v>
+        <v>14.28</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.141</v>
+        <v>0.023</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.047</v>
+        <v>0.074</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.369</v>
+        <v>0.4</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.623</v>
+        <v>0.625</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.916</v>
+        <v>0.928</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.246</v>
+        <v>0.303</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.589</v>
+        <v>0.625</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,10 +2877,10 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.28</v>
+        <v>95.24</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="1" t="n">
         <v>0.002</v>
@@ -2889,22 +2889,22 @@
         <v>0.004</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.119</v>
+        <v>0.107</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.094</v>
+        <v>0.092</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="AM15" s="1" t="n">
         <v>0.077</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.424</v>
+        <v>0.417</v>
       </c>
       <c r="AO15" s="1" t="n">
         <v>0.113</v>
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>120.89</v>
+        <v>121.62</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.001</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.017</v>
+        <v>0.025</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.098</v>
+        <v>0.09</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.398</v>
+        <v>0.431</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.761</v>
+        <v>0.776</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.38</v>
+        <v>1.387</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.101</v>
+        <v>0.108</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.78</v>
+        <v>69.71</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.023</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-0.068</v>
+        <v>-0.069</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-0.069</v>
+        <v>-0.066</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.01</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-0.157</v>
+        <v>-0.152</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.065</v>
+        <v>0.083</v>
       </c>
       <c r="Y16" s="1" t="n">
         <v>0.13</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.722</v>
+        <v>0.727</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.076</v>
+        <v>-0.077</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.3</v>
+        <v>41.01</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.003</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.024</v>
+        <v>0.02</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.099</v>
+        <v>0.087</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.092</v>
+        <v>0.086</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.309</v>
+        <v>0.307</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.043</v>
+        <v>0.036</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.187</v>
+        <v>0.171</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.144</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>144.92</v>
+        <v>144.68</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.002</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.068</v>
+        <v>0.064</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.254</v>
+        <v>0.24</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.15</v>
+        <v>0.138</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.857</v>
+        <v>0.898</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.938</v>
+        <v>0.945</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.134</v>
+        <v>0.132</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>94.23</v>
+        <v>95.9</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0.022</v>
+        <v>0.018</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.023</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.136</v>
+        <v>0.154</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.409</v>
+        <v>0.417</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.181</v>
+        <v>0.187</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.464</v>
+        <v>1.596</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.429</v>
+        <v>1.479</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.1</v>
+        <v>3.242</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.246</v>
+        <v>0.268</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.18</v>
+        <v>42.37</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.007</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.044</v>
+        <v>0.05</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.173</v>
+        <v>0.194</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.2</v>
+        <v>-0.198</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.068</v>
+        <v>-0.073</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.098</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>144</v>
+        <v>145.92</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.007</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.012</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.004</v>
+        <v>0.013</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.172</v>
+        <v>0.176</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.072</v>
+        <v>0.077</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.709</v>
+        <v>0.771</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.73</v>
+        <v>0.751</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.176</v>
+        <v>2.25</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.086</v>
+        <v>0.1</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.003</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.06</v>
+        <v>0.069</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.321</v>
+        <v>0.319</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.177</v>
+        <v>0.189</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.59</v>
+        <v>50.53</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.001</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.008</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.097</v>
+        <v>0.088</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.277</v>
+        <v>0.258</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.241</v>
+        <v>0.239</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.734</v>
+        <v>0.774</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0.978</v>
+        <v>0.981</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.561</v>
+        <v>1.528</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.264</v>
+        <v>0.262</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.04</v>
+        <v>71.04</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0.009</v>
+        <v>0.014</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.044</v>
+        <v>-0.014</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.007</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.001</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.191</v>
+        <v>0.194</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.008</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.436</v>
+        <v>0.473</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.422</v>
+        <v>0.429</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.168</v>
+        <v>1.197</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.046</v>
+        <v>0.061</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.62</v>
+        <v>100.78</v>
       </c>
       <c r="AF20" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.057</v>
+        <v>0.053</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.051</v>
+        <v>0.054</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.174</v>
+        <v>0.183</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.015</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.204</v>
+        <v>0.202</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.069</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>27.68</v>
+        <v>27.64</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.001</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.006</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.011</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.087</v>
+        <v>0.095</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.259</v>
+        <v>0.236</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.154</v>
+        <v>0.143</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.367</v>
+        <v>0.403</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.761</v>
+        <v>0.756</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.853</v>
+        <v>0.842</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.12</v>
+        <v>210.75</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0.015</v>
+        <v>0.008</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.01</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.053</v>
+        <v>0.061</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.106</v>
+        <v>0.092</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.409</v>
+        <v>0.403</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.246</v>
+        <v>1.327</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.691</v>
+        <v>1.697</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.069</v>
+        <v>3.186</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.448</v>
+        <v>0.459</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,35 +3487,35 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.53</v>
+        <v>51.6</v>
       </c>
       <c r="AF21" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.182</v>
+        <v>0.19</v>
       </c>
       <c r="AM21" s="1" t="n">
         <v>0.033</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>65.47</v>
+        <v>64.84</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.01</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.019</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.089</v>
+        <v>0.088</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.315</v>
+        <v>0.272</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.249</v>
+        <v>0.254</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.581</v>
+        <v>0.585</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.164</v>
+        <v>1.143</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.561</v>
+        <v>0.539</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.424</v>
+        <v>0.41</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.48</v>
+        <v>103.28</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0.017</v>
+        <v>0.008</v>
       </c>
       <c r="S22" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="T22" s="1" t="n">
         <v>-0.017</v>
       </c>
-      <c r="T22" s="1" t="n">
-        <v>-0.025</v>
-      </c>
       <c r="U22" s="1" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.207</v>
+        <v>0.209</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.178</v>
+        <v>0.184</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.782</v>
+        <v>0.847</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.612</v>
+        <v>0.643</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.079</v>
+        <v>2.15</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.071</v>
+        <v>0.079</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.22</v>
+        <v>49.29</v>
       </c>
       <c r="AF22" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AG22" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.027</v>
+        <v>0.032</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.06</v>
+        <v>0.066</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.193</v>
+        <v>0.199</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.251</v>
+        <v>0.247</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.07</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>29.18</v>
+        <v>29.1</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.003</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.02</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.031</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.06</v>
+        <v>0.066</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.204</v>
+        <v>0.185</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.098</v>
+        <v>0.071</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.16</v>
+        <v>0.193</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.452</v>
+        <v>0.444</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1.033</v>
+        <v>1.007</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.32</v>
+        <v>0.317</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>100.24</v>
+        <v>103.39</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0.004</v>
+        <v>0.031</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.003</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.117</v>
+        <v>-0.089</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.016</v>
+        <v>0.056</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.133</v>
+        <v>0.159</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.176</v>
+        <v>-0.168</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>0.917</v>
+        <v>1.047</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.758</v>
+        <v>0.816</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>2.883</v>
+        <v>3.108</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.015</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.46</v>
+        <v>95.54</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AH23" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.039</v>
+        <v>0.042</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.182</v>
+        <v>0.19</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AN23" s="1" t="n">
         <v>0.142</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>61.48</v>
+        <v>61.83</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.005</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.03</v>
+        <v>0.037</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.204</v>
+        <v>0.202</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.029</v>
+        <v>1.069</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.802</v>
+        <v>0.815</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.21</v>
+        <v>1.212</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.33</v>
+        <v>0.338</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.52</v>
+        <v>36.6</v>
       </c>
       <c r="R24" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="T24" s="1" t="n">
         <v>0.039</v>
       </c>
-      <c r="S24" s="1" t="n">
-        <v>-0.031</v>
-      </c>
-      <c r="T24" s="1" t="n">
-        <v>0.037</v>
-      </c>
       <c r="U24" s="1" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="V24" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W24" s="1" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <v>0.196</v>
+      </c>
+      <c r="Y24" s="1" t="n">
         <v>0.131</v>
-      </c>
-      <c r="V24" s="1" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="W24" s="1" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="X24" s="1" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="Y24" s="1" t="n">
-        <v>0.133</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.262</v>
+        <v>0.265</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>111.73</v>
+        <v>112.1</v>
       </c>
       <c r="AF24" s="1" t="n">
         <v>0.003</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AH24" s="1" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.086</v>
+        <v>0.083</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.253</v>
+        <v>0.27</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.012</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.082</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.46</v>
+        <v>42.58</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.001</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.194</v>
+        <v>0.195</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.191</v>
+        <v>0.185</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.834</v>
+        <v>0.855</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.027</v>
+        <v>1.036</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.655</v>
+        <v>1.671</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.21</v>
+        <v>0.214</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.63</v>
+        <v>84.95</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0.033</v>
+        <v>0.016</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.015</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.043</v>
+        <v>0.053</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.266</v>
+        <v>0.278</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.115</v>
+        <v>0.13</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.479</v>
+        <v>0.552</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.659</v>
+        <v>0.699</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.14</v>
+        <v>1.195</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.058</v>
+        <v>0.074</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>92.83</v>
+        <v>93.34</v>
       </c>
       <c r="AF25" s="1" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AG25" s="1" t="n">
-        <v>-0.005</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.064</v>
+        <v>0.067</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.063</v>
+        <v>0.066</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.302</v>
+        <v>0.32</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.303</v>
+        <v>0.307</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.51</v>
+        <v>0.518</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.049</v>
+        <v>0.055</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>41.99</v>
+        <v>42.06</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.009</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.205</v>
+        <v>0.187</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.197</v>
+        <v>0.19</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.757</v>
+        <v>0.8</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.953</v>
+        <v>0.966</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.806</v>
+        <v>0.793</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.264</v>
+        <v>0.266</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.71</v>
+        <v>58.74</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0.013</v>
+        <v>0.018</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.003</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>-0.067</v>
+        <v>-0.05</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.255</v>
+        <v>0.271</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.193</v>
+        <v>0.206</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.621</v>
+        <v>0.666</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.817</v>
+        <v>0.86</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.633</v>
+        <v>0.687</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.107</v>
+        <v>0.127</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>27.05</v>
+        <v>26.89</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.006</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>0.009</v>
+        <v>0.002</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.047</v>
+        <v>0.04</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.104</v>
+        <v>0.092</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.064</v>
+        <v>0.059</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.271</v>
+        <v>0.269</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.153</v>
+        <v>0.149</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.1</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>43.35</v>
+        <v>44.13</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.001</v>
+        <v>0.018</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.008</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.015</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.002</v>
+        <v>0.023</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.138</v>
+        <v>0.162</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.135</v>
+        <v>0.156</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.696</v>
+        <v>0.745</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.758</v>
+        <v>0.796</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.23</v>
+        <v>1.255</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.236</v>
+        <v>0.258</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.45</v>
+        <v>25.91</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.011</v>
+        <v>0.018</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.011</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.008</v>
+        <v>0.026</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.009</v>
+        <v>0.034</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.153</v>
+        <v>0.185</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.052</v>
+        <v>0.078</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.076</v>
+        <v>0.095</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>53.02</v>
+        <v>53.05</v>
       </c>
       <c r="AF27" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AG27" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="AG27" s="1" t="n">
-        <v>0.003</v>
-      </c>
       <c r="AH27" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.049</v>
+        <v>0.045</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.213</v>
+        <v>0.217</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.122</v>
+        <v>0.123</v>
       </c>
       <c r="AN27" s="1" t="n">
         <v>0.305</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.06</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>41.78</v>
+        <v>41.67</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.01</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>-0.016</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.168</v>
+        <v>0.151</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.28</v>
+        <v>0.269</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.198</v>
+        <v>1.219</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.601</v>
+        <v>0.597</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.048</v>
+        <v>1.039</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.335</v>
+        <v>0.331</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>67.99</v>
+        <v>68.72</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.011</v>
       </c>
       <c r="S28" s="1" t="n">
         <v>0.009</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.011</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.024</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.182</v>
+        <v>0.217</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.461</v>
+        <v>0.478</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.387</v>
+        <v>1.423</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.054</v>
+        <v>0.065</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.13</v>
+        <v>54.24</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AG28" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="AH28" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.084</v>
+        <v>0.08</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>0.071</v>
+        <v>0.073</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.284</v>
+        <v>0.297</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.059</v>
+        <v>0.061</v>
       </c>
       <c r="AN28" s="1" t="n">
         <v>0.376</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.088</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>56.08</v>
+        <v>56.33</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.004</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.119</v>
+        <v>0.121</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.597</v>
+        <v>0.616</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.474</v>
+        <v>0.491</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.184</v>
+        <v>1.185</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.243</v>
+        <v>0.249</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.4</v>
+        <v>38.52</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.025</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.042</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.048</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.069</v>
+        <v>0.053</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.044</v>
+        <v>0.05</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.033</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.404</v>
+        <v>0.406</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.05</v>
+        <v>1.039</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.095</v>
+        <v>0.098</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.74</v>
+        <v>51.96</v>
       </c>
       <c r="AF29" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.064</v>
+        <v>0.07</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="AL29" s="1" t="n">
-        <v>0.267</v>
+        <v>0.291</v>
       </c>
       <c r="AM29" s="1" t="n">
         <v>-0.093</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.089</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>92.25</v>
+        <v>91.28</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.035</v>
+        <v>-0.011</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.022</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.023</v>
+        <v>0.012</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.113</v>
+        <v>0.098</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.31</v>
+        <v>0.288</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.175</v>
+        <v>0.166</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.724</v>
+        <v>0.731</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.292</v>
+        <v>0.291</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.066</v>
+        <v>1.038</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.29</v>
+        <v>0.277</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.1</v>
+        <v>45.88</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.017</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.001</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.025</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.04</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.019</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.075</v>
+        <v>0.126</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.394</v>
+        <v>0.429</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.567</v>
+        <v>0.62</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.002</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,37 +4546,37 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.58</v>
+        <v>24.55</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.001</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.089</v>
+        <v>0.084</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.075</v>
+        <v>0.07</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.356</v>
+        <v>0.369</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.355</v>
+        <v>0.349</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.588</v>
+        <v>0.579</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.14</v>
+        <v>17.11</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.002</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.019</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.024</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.175</v>
+        <v>0.164</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.043</v>
+        <v>0.03</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.415</v>
+        <v>0.428</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.676</v>
+        <v>0.674</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.789</v>
+        <v>0.768</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.098</v>
+        <v>0.096</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.84</v>
+        <v>59.96</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.016</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.059</v>
+        <v>0.061</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.058</v>
+        <v>0.047</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.066</v>
+        <v>-0.07</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.191</v>
+        <v>0.204</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.352</v>
+        <v>0.363</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.41</v>
+        <v>1.418</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.45</v>
+        <v>80.54</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AI31" s="1" t="n">
         <v>0.02</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.079</v>
+        <v>0.075</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.071</v>
+        <v>0.072</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.338</v>
+        <v>0.343</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.235</v>
+        <v>0.24</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.068</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.69</v>
+        <v>40.75</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.022</v>
+        <v>0.001</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.004</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.108</v>
+        <v>0.11</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.046</v>
+        <v>0.054</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.046</v>
+        <v>0.036</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.055</v>
+        <v>0.069</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.476</v>
+        <v>0.482</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.917</v>
+        <v>0.928</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.72</v>
+        <v>50.19</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0.002</v>
+        <v>0.009</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.017</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.019</v>
+        <v>0.029</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.102</v>
+        <v>0.112</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.086</v>
+        <v>-0.077</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.107</v>
+        <v>-0.11</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.013</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.218</v>
+        <v>0.242</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.166</v>
+        <v>1.209</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.042</v>
+        <v>0.052</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.39</v>
+        <v>29.41</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.029</v>
+        <v>0.028</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.098</v>
+        <v>0.091</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.34</v>
+        <v>0.348</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.263</v>
+        <v>0.266</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.932</v>
+        <v>0.937</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.97</v>
+        <v>52.78</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.007</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.039</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0.044</v>
+        <v>0.034</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.067</v>
+        <v>-0.073</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.31</v>
+        <v>0.321</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.621</v>
+        <v>0.601</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>1.072</v>
+        <v>1.058</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.69</v>
+        <v>73.63</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.102</v>
+        <v>0.094</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.199</v>
+        <v>0.176</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.055</v>
+        <v>0.053</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.352</v>
+        <v>0.359</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.41</v>
+        <v>0.416</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.748</v>
+        <v>0.734</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.136</v>
+        <v>0.135</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,35 +4903,35 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.16</v>
+        <v>48.21</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG33" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="AH33" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.201</v>
+        <v>0.209</v>
       </c>
       <c r="AM33" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>79.29</v>
+        <v>80.04</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.012</v>
+        <v>0.009</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.023</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.009</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.096</v>
+        <v>0.105</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.214</v>
+        <v>0.206</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.143</v>
+        <v>0.151</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.702</v>
+        <v>0.743</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.457</v>
+        <v>0.468</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>0.964</v>
+        <v>1.006</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.191</v>
+        <v>0.203</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>150.94</v>
+        <v>151.32</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.071</v>
+        <v>0.074</v>
       </c>
       <c r="U34" s="1" t="n">
         <v>0.148</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.291</v>
+        <v>0.259</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.039</v>
+        <v>0.041</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.253</v>
+        <v>0.275</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.059</v>
+        <v>0.076</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.554</v>
+        <v>0.543</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.143</v>
+        <v>0.146</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>102.41</v>
+        <v>102.78</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.054</v>
+        <v>0.058</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.132</v>
+        <v>0.128</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.28</v>
+        <v>0.271</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.239</v>
+        <v>0.242</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.575</v>
+        <v>0.598</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.448</v>
+        <v>0.454</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.076</v>
+        <v>2.087</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.222</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>63.3</v>
+        <v>62.58</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.031</v>
+        <v>-0.011</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.049</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.021</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.152</v>
+        <v>0.127</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.287</v>
+        <v>0.25</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.238</v>
+        <v>0.249</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.698</v>
+        <v>0.699</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.103</v>
+        <v>-0.105</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.62</v>
+        <v>0.599</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.364</v>
+        <v>0.349</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>58.86</v>
+        <v>59.45</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.009</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.029</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.028</v>
       </c>
       <c r="V35" s="1" t="n">
         <v>0.044</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.23</v>
+        <v>0.268</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.157</v>
+        <v>0.169</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.24</v>
+        <v>2.297</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.011</v>
+        <v>0.021</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.1</v>
+        <v>21.06</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.021</v>
+        <v>-0.002</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.016</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.039</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.35</v>
+        <v>0.315</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.168</v>
+        <v>0.182</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.303</v>
+        <v>0.335</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.113</v>
+        <v>0.117</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.461</v>
+        <v>0.452</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.294</v>
+        <v>0.292</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.32</v>
+        <v>24.24</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.003</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.01</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.074</v>
+        <v>0.07</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.148</v>
+        <v>0.135</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.288</v>
+        <v>0.25</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.064</v>
+        <v>-0.046</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.399</v>
+        <v>-0.392</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.083</v>
+        <v>0.079</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>64.56</v>
+        <v>63.7</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.048</v>
+        <v>-0.013</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.017</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.028</v>
+        <v>0.014</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.107</v>
+        <v>0.102</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.415</v>
+        <v>0.392</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.21</v>
+        <v>0.188</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.069</v>
+        <v>1.096</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.806</v>
+        <v>2.729</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.247</v>
+        <v>0.231</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>123.2</v>
+        <v>124.55</v>
       </c>
       <c r="R37" s="1" t="n">
         <v>0.011</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.008</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.012</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.179</v>
+        <v>0.177</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.168</v>
+        <v>0.172</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.841</v>
+        <v>0.893</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.256</v>
+        <v>1.304</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.382</v>
+        <v>2.453</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.125</v>
+        <v>0.137</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>77.43</v>
+        <v>78.03</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.127</v>
+        <v>0.136</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.223</v>
+        <v>0.238</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.27</v>
+        <v>0.288</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.544</v>
+        <v>0.557</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.453</v>
+        <v>1.503</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.145</v>
+        <v>1.154</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.432</v>
+        <v>2.399</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.564</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>83.62</v>
+        <v>82.69</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.036</v>
+        <v>-0.011</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.008</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.063</v>
+        <v>0.051</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.152</v>
+        <v>0.13</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.54</v>
+        <v>0.521</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.351</v>
+        <v>0.332</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.811</v>
+        <v>0.809</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.925</v>
+        <v>0.884</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.643</v>
+        <v>0.625</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>57.59</v>
+        <v>59.33</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.034</v>
+        <v>0.001</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.021</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.016</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.256</v>
+        <v>0.272</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.094</v>
+        <v>0.116</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.343</v>
+        <v>0.403</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.05</v>
+        <v>1.142</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.16</v>
+        <v>1.283</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.059</v>
+        <v>0.091</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>47.26</v>
+        <v>46.8</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.073</v>
+        <v>0.079</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.233</v>
+        <v>0.221</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.619</v>
+        <v>0.593</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.641</v>
+        <v>0.64</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.718</v>
+        <v>1.784</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>1.101</v>
+        <v>1.076</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>2.117</v>
+        <v>2.035</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.795</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.52</v>
+        <v>24.56</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.035</v>
+        <v>0.002</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.007</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.047</v>
+        <v>0.048</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.189</v>
+        <v>0.185</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.453</v>
+        <v>0.447</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.466</v>
+        <v>0.485</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.702</v>
+        <v>0.747</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.575</v>
+        <v>0.577</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.555</v>
+        <v>0.545</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.585</v>
+        <v>0.588</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.51</v>
+        <v>63.41</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0.022</v>
+        <v>0.031</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.003</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.018</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.003</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.265</v>
+        <v>0.282</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.088</v>
+        <v>0.113</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.079</v>
+        <v>0.129</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.81</v>
+        <v>0.894</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.875</v>
+        <v>0.989</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.039</v>
+        <v>0.072</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>148.31</v>
+        <v>149.45</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>0.017</v>
+        <v>0.008</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.163</v>
+        <v>0.172</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.157</v>
+        <v>0.203</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.717</v>
+        <v>0.716</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.643</v>
+        <v>0.636</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.769</v>
+        <v>0.785</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.819</v>
+        <v>0.851</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.554</v>
+        <v>0.548</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.786</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>66.01</v>
+        <v>65.31</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.042</v>
+        <v>-0.011</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.09</v>
+        <v>0.078</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.246</v>
+        <v>0.232</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.464</v>
+        <v>0.4</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.404</v>
+        <v>0.402</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>1.012</v>
+        <v>1.054</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.125</v>
+        <v>1.11</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.807</v>
+        <v>0.738</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.594</v>
+        <v>0.577</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>131.81</v>
+        <v>133.9</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>0</v>
+        <v>0.016</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.012</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.006</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>0.031</v>
+        <v>0.036</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>0.03</v>
+        <v>0.042</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.636</v>
+        <v>0.698</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.488</v>
+        <v>1.543</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.191</v>
+        <v>2.281</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.055</v>
+        <v>0.072</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>31.59</v>
+        <v>30.85</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>0.044</v>
+        <v>-0.023</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.105</v>
+        <v>0.079</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.085</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.108</v>
+        <v>0.049</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.121</v>
+        <v>0.115</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.513</v>
+        <v>0.502</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.678</v>
+        <v>0.638</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.974</v>
+        <v>0.928</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.256</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>26.66</v>
+        <v>26.7</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.016</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.02</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.189</v>
+        <v>0.164</v>
       </c>
       <c r="I41" s="1" t="n">
         <v>0.039</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.479</v>
+        <v>0.52</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.561</v>
+        <v>0.565</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.126</v>
+        <v>1.117</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.134</v>
+        <v>0.136</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>173.4</v>
+        <v>172.52</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.005</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.025</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.324</v>
+        <v>0.3</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.32</v>
+        <v>0.294</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.036</v>
+        <v>1.104</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>1.89</v>
+        <v>1.882</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.29</v>
+        <v>4.312</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.213</v>
+        <v>0.207</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>64.97</v>
+        <v>65.04</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.015</v>
+        <v>0.001</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.012</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>0.069</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.231</v>
+        <v>0.22</v>
       </c>
       <c r="I42" s="1" t="n">
         <v>0.179</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.745</v>
+        <v>0.776</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.566</v>
+        <v>0.572</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.055</v>
+        <v>1.049</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.263</v>
+        <v>0.265</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.09</v>
+        <v>34.21</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0.019</v>
+        <v>0.004</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.016</v>
       </c>
       <c r="T42" s="1" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.279</v>
+        <v>0.269</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.194</v>
+        <v>0.178</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.699</v>
+        <v>0.759</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.11</v>
+        <v>-0.099</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.092</v>
+        <v>0.096</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>92.98</v>
+        <v>93.4</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.011</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.198</v>
+        <v>0.19</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.165</v>
+        <v>0.167</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.776</v>
+        <v>0.811</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.649</v>
+        <v>0.659</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.066</v>
+        <v>1.071</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.251</v>
+        <v>0.257</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>197.38</v>
+        <v>194.73</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0.024</v>
+        <v>-0.013</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.015</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.046</v>
+        <v>0.032</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.128</v>
+        <v>0.112</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.456</v>
+        <v>0.426</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.276</v>
+        <v>0.242</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.707</v>
+        <v>1.754</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.511</v>
+        <v>1.492</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.138</v>
+        <v>7.035</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.239</v>
+        <v>0.222</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>55.49</v>
+        <v>56.96</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>0.07</v>
+        <v>0.026</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.084</v>
+        <v>0.112</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.32</v>
+        <v>0.355</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.479</v>
+        <v>0.462</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.45</v>
+        <v>1.494</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.9</v>
+        <v>0.939</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>2.094</v>
+        <v>2.315</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>4.977</v>
+        <v>5.164</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.772</v>
+        <v>3.879</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>1.072</v>
+        <v>1.127</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.2</v>
+        <v>40.18</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.007</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.07</v>
+        <v>0.067</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.215</v>
+        <v>0.204</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.162</v>
+        <v>0.155</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.726</v>
+        <v>0.739</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>0.997</v>
+        <v>1.005</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.654</v>
+        <v>1.673</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.177</v>
+        <v>0.176</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>114.64</v>
+        <v>113.59</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>0.023</v>
+        <v>-0.009</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.027</v>
+        <v>0.017</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.067</v>
+        <v>0.042</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.315</v>
+        <v>0.291</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.235</v>
+        <v>0.217</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.306</v>
+        <v>1.347</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.716</v>
+        <v>0.713</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>4.877</v>
+        <v>4.859</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.145</v>
+        <v>0.135</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>70.28</v>
+        <v>69</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.018</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.057</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.059</v>
       </c>
       <c r="AI44" s="1" t="n">
+        <v>-0.088</v>
+      </c>
+      <c r="AJ44" s="1" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="AK44" s="1" t="n">
         <v>-0.091</v>
       </c>
-      <c r="AJ44" s="1" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="AK44" s="1" t="n">
-        <v>-0.093</v>
-      </c>
       <c r="AL44" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.017</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.469</v>
+        <v>1.381</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.417</v>
+        <v>-0.427</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.07</v>
+        <v>-0.087</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>53.45</v>
+        <v>52.97</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.029</v>
+        <v>-0.009</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.02</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.023</v>
+        <v>0.014</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.108</v>
+        <v>0.096</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.293</v>
+        <v>0.269</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.184</v>
+        <v>0.178</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.659</v>
+        <v>0.669</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.3</v>
+        <v>0.297</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.904</v>
+        <v>0.872</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.29</v>
+        <v>0.279</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.77</v>
+        <v>86.49</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0.019</v>
+        <v>-0.015</v>
       </c>
       <c r="S45" s="1" t="n">
         <v>-0.004</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.027</v>
+        <v>0.012</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.058</v>
+        <v>0.032</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.234</v>
+        <v>0.216</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.226</v>
+        <v>0.206</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.073</v>
+        <v>1.095</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.762</v>
+        <v>0.741</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.534</v>
+        <v>2.528</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.178</v>
+        <v>0.161</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>28.87</v>
+        <v>28.25</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.021</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.055</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.061</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.067</v>
+        <v>-0.069</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>0.07</v>
+        <v>0.042</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>-0.074</v>
+        <v>-0.078</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.038</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.688</v>
+        <v>1.578</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.726</v>
+        <v>0.683</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.057</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.17</v>
+        <v>30.47</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.018</v>
+        <v>0.01</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.002</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.067</v>
+        <v>0.074</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.269</v>
+        <v>0.271</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>284.87</v>
+        <v>279.03</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0.047</v>
+        <v>-0.021</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.01</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.117</v>
+        <v>0.094</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.16</v>
+        <v>0.147</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.661</v>
+        <v>0.616</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.219</v>
+        <v>0.172</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.809</v>
+        <v>1.871</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.706</v>
+        <v>1.661</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>10.263</v>
+        <v>9.645</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.329</v>
+        <v>0.302</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>12.18</v>
+        <v>11.95</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.019</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>-0.084</v>
+        <v>-0.133</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.045</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.184</v>
+        <v>-0.218</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.346</v>
+        <v>-0.318</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.177</v>
+        <v>-0.146</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.868</v>
+        <v>-0.866</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.759</v>
+        <v>-0.747</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.934</v>
+        <v>-0.936</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.275</v>
+        <v>-0.289</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6423,37 +6423,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>44.2</v>
+        <v>44.42</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.009</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.008</v>
+        <v>0.013</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.152</v>
+        <v>0.147</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.107</v>
+        <v>0.109</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.689</v>
+        <v>0.729</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.548</v>
+        <v>0.558</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.212</v>
+        <v>1.223</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.208</v>
+        <v>0.214</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>127.7</v>
+        <v>126.32</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0.028</v>
+        <v>-0.011</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.009</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.044</v>
+        <v>0.033</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.136</v>
+        <v>0.121</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.464</v>
+        <v>0.44</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.303</v>
+        <v>0.276</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.796</v>
+        <v>1.851</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.368</v>
+        <v>1.363</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.61</v>
+        <v>6.537</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.253</v>
+        <v>0.239</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.17</v>
+        <v>36.43</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.003</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.005</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.245</v>
+        <v>0.239</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.29</v>
+        <v>0.291</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.902</v>
+        <v>0.942</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.91</v>
+        <v>0.927</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.163</v>
+        <v>1.162</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.374</v>
+        <v>0.384</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6581,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>48.41</v>
+        <v>47.67</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0.026</v>
+        <v>-0.015</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>0</v>
+        <v>-0.005</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.095</v>
+        <v>0.078</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.175</v>
+        <v>0.155</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.589</v>
+        <v>0.553</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.346</v>
+        <v>0.321</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>1.099</v>
+        <v>1.127</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.462</v>
+        <v>0.449</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.306</v>
+        <v>0.286</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6618,37 +6618,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.41</v>
+        <v>26.59</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>-0.012</v>
+        <v>0</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.033</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.059</v>
+        <v>0.072</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.431</v>
+        <v>0.45</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.95</v>
+        <v>0.953</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.379</v>
+        <v>0.394</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>-0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>47.27</v>
+        <v>47.45</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.006</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>0.053</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.227</v>
+        <v>0.217</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.218</v>
+        <v>0.215</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.85</v>
+        <v>0.896</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.566</v>
+        <v>0.574</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.391</v>
+        <v>1.4</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.279</v>
+        <v>0.284</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>35.41</v>
+        <v>34.26</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0.036</v>
+        <v>-0.032</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.014</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.04</v>
+        <v>0.006</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.229</v>
+        <v>0.182</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.674</v>
+        <v>0.616</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.308</v>
+        <v>0.265</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.22</v>
+        <v>17.26</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.002</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.014</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.036</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.011</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.121</v>
+        <v>-0.111</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.032</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.381</v>
+        <v>-0.375</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.287</v>
+        <v>0.285</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.261</v>
+        <v>-0.251</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.083</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6785,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>32.51</v>
+        <v>33.01</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0.009</v>
+        <v>0.015</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.015</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.027</v>
+        <v>0.043</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.118</v>
+        <v>0.126</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.274</v>
+        <v>0.283</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.293</v>
+        <v>0.308</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.664</v>
+        <v>0.713</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.304</v>
+        <v>0.336</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.47</v>
+        <v>0.503</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.233</v>
+        <v>0.252</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6824,37 +6824,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.015</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.038</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.104</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.166</v>
+        <v>-0.155</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.251</v>
+        <v>-0.233</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.552</v>
+        <v>-0.538</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.308</v>
+        <v>-0.307</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.606</v>
+        <v>-0.597</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.164</v>
+        <v>-0.162</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6880,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>63.84</v>
+        <v>63.79</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.001</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.011</v>
       </c>
       <c r="T51" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.068</v>
+        <v>0.058</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.34</v>
+        <v>0.333</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.297</v>
+        <v>0.28</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.007</v>
+        <v>1.039</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.751</v>
+        <v>0.772</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.615</v>
+        <v>1.643</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.247</v>
+        <v>0.246</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6919,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.58</v>
+        <v>21.56</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.013</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.034</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AJ51" s="1" t="n">
         <v>-0.005</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.012</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.191</v>
+        <v>-0.185</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.344</v>
+        <v>0.335</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.172</v>
+        <v>0.176</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>65.81</v>
+        <v>63.91</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.029</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>-0.077</v>
+        <v>-0.076</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.037</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.063</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.381</v>
+        <v>0.324</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.831</v>
+        <v>0.701</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.241</v>
+        <v>0.205</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>58.58</v>
+        <v>57.56</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0.021</v>
+        <v>-0.017</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.037</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.048</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.112</v>
+        <v>0.077</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.439</v>
+        <v>0.395</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.345</v>
+        <v>0.338</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.214</v>
+        <v>1.224</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.171</v>
+        <v>0.16</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.252</v>
+        <v>2.225</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.387</v>
+        <v>0.363</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>32.18</v>
+        <v>31.08</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>0.066</v>
+        <v>-0.034</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-0.101</v>
+        <v>-0.083</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>-0.09</v>
+        <v>-0.121</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.411</v>
+        <v>0.366</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.716</v>
+        <v>1.506</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.725</v>
+        <v>0.563</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.272</v>
+        <v>0.229</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>116.59</v>
+        <v>115.59</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.009</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.034</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.037</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.116</v>
+        <v>0.099</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.344</v>
+        <v>0.321</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.551</v>
+        <v>0.552</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>1.994</v>
+        <v>2.081</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>0.951</v>
+        <v>0.954</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.398</v>
+        <v>0.386</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>9.98</v>
+        <v>10.1</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>-0.028</v>
+        <v>0.012</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>-0.067</v>
+        <v>-0.048</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.047</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.096</v>
+        <v>-0.078</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.143</v>
+        <v>-0.129</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.222</v>
+        <v>-0.216</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.094</v>
+        <v>0.111</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.607</v>
+        <v>0.601</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.072</v>
+        <v>0.074</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.127</v>
+        <v>-0.116</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>67.76</v>
+        <v>68.4</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.016</v>
+        <v>0.009</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.007</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.038</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.02</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.176</v>
+        <v>0.177</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.052</v>
+        <v>0.062</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.877</v>
+        <v>0.935</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.595</v>
+        <v>0.608</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.263</v>
+        <v>1.287</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.053</v>
+        <v>0.062</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>114.69</v>
+        <v>115.56</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.06</v>
+        <v>0.068</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.095</v>
+        <v>0.098</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.178</v>
+        <v>0.166</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.169</v>
+        <v>0.163</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.58</v>
+        <v>0.617</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.671</v>
+        <v>0.685</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.754</v>
+        <v>1.779</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.212</v>
+        <v>0.221</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.46</v>
+        <v>38.55</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.074</v>
+        <v>0.077</v>
       </c>
       <c r="H55" s="1" t="n">
         <v>0.15</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.127</v>
+        <v>0.122</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.273</v>
+        <v>0.271</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.438</v>
+        <v>0.433</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.299</v>
+        <v>0.301</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.101</v>
+        <v>0.104</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>90.89</v>
+        <v>91.7</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.11</v>
+        <v>0.115</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.207</v>
+        <v>0.197</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.181</v>
+        <v>0.176</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.582</v>
+        <v>0.619</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.67</v>
+        <v>0.687</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.844</v>
+        <v>1.87</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.226</v>
+        <v>0.237</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,35 +7418,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>34.62</v>
+        <v>36.15</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>-0.076</v>
+        <v>0.044</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.048</v>
+        <v>0.07</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>0.028</v>
+        <v>0.073</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.234</v>
+        <v>-0.212</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.551</v>
+        <v>-0.469</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.36</v>
+        <v>-0.307</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.897</v>
+        <v>-0.895</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-0.976</v>
+        <v>-0.974</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.244</v>
+        <v>-0.211</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7455,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>72.3</v>
+        <v>73.09</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.004</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>0.017</v>
+        <v>0.028</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.019</v>
+        <v>0.036</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.168</v>
+        <v>0.169</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.577</v>
+        <v>0.628</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.745</v>
+        <v>0.765</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.421</v>
+        <v>2.476</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.104</v>
+        <v>0.116</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>94.26</v>
+        <v>95.24</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.005</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.022</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.076</v>
+        <v>0.065</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.023</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.292</v>
+        <v>0.34</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.294</v>
+        <v>0.323</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.732</v>
+        <v>0.762</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.028</v>
+        <v>0.039</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>81.93</v>
+        <v>82.78</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.006</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.019</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.046</v>
+        <v>0.032</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.016</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.294</v>
+        <v>0.343</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.466</v>
+        <v>0.497</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.856</v>
+        <v>0.896</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.028</v>
+        <v>0.038</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>88.69</v>
+        <v>89.6</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.007</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.025</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.081</v>
+        <v>0.07</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.023</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.288</v>
+        <v>0.334</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.312</v>
+        <v>0.341</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.025</v>
+        <v>0.036</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>21.95</v>
+        <v>22.13</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.025</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.019</v>
+        <v>0.03</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.193</v>
+        <v>0.174</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="X60" s="1" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="Y60" s="1" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="Z60" s="1" t="n">
         <v>0.352</v>
       </c>
-      <c r="Y60" s="1" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Z60" s="1" t="n">
-        <v>0.332</v>
-      </c>
       <c r="AA60" s="1" t="n">
-        <v>0.081</v>
+        <v>0.09</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>86.14</v>
+        <v>86.21</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.001</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.058</v>
+        <v>0.053</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.243</v>
+        <v>0.229</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.104</v>
+        <v>0.1</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.349</v>
+        <v>0.387</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.805</v>
+        <v>0.804</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.475</v>
+        <v>1.486</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.077</v>
+        <v>0.078</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/14/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/15/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>331.02</v>
+        <v>332.92</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.011</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.08</v>
+        <v>0.085</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.269</v>
+        <v>0.281</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.186</v>
+        <v>0.202</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.113</v>
+        <v>1.125</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.181</v>
+        <v>1.198</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.397</v>
+        <v>3.352</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.153</v>
+        <v>0.16</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.95</v>
+        <v>46.01</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.029</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.013</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.005</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.112</v>
+        <v>0.115</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.029</v>
+        <v>0.003</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.158</v>
+        <v>0.159</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.289</v>
+        <v>2.253</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.705</v>
+        <v>0.678</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,16 +1747,16 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>83.03</v>
+        <v>82.99</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AH5" s="1" t="n">
         <v>0.003</v>
-      </c>
-      <c r="AH5" s="1" t="n">
-        <v>0.004</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0.017</v>
@@ -1765,13 +1765,13 @@
         <v>0.024</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.14</v>
+        <v>0.139</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.078</v>
+        <v>0.077</v>
       </c>
       <c r="AN5" s="1" t="n">
         <v>0.168</v>
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>665.48</v>
+        <v>668.28</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.012</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.063</v>
+        <v>0.072</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.236</v>
+        <v>0.245</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.148</v>
+        <v>0.162</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.935</v>
+        <v>0.943</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.048</v>
+        <v>1.06</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.936</v>
+        <v>2.893</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.141</v>
+        <v>0.146</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>88.2</v>
+        <v>88.36</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.002</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.053</v>
+        <v>-0.047</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.017</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.017</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.137</v>
+        <v>0.145</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.059</v>
+        <v>-0.023</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>2.707</v>
+        <v>2.645</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.788</v>
+        <v>0.752</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,37 +1866,37 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>120.06</v>
+        <v>119.96</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG6" s="1" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="AN6" s="1" t="n">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.066</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.08</v>
+        <v>65.14</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.009</v>
+        <v>0.001</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>-0.007</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.026</v>
+        <v>0.045</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.189</v>
+        <v>0.192</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.04</v>
+        <v>0.044</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.518</v>
+        <v>0.519</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.765</v>
+        <v>0.751</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.676</v>
+        <v>1.647</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.23</v>
+        <v>18.38</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.008</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.059</v>
+        <v>-0.045</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.021</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.024</v>
+        <v>0.064</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.161</v>
+        <v>0.171</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.113</v>
+        <v>-0.071</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.154</v>
+        <v>0.164</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.587</v>
+        <v>1.567</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.474</v>
+        <v>-0.477</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.065</v>
+        <v>-0.057</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>97.21</v>
+        <v>97.1</v>
       </c>
       <c r="AF7" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AH7" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="AG7" s="1" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="AH7" s="1" t="n">
-        <v>0.005</v>
-      </c>
       <c r="AI7" s="1" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.055</v>
+        <v>0.049</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="AM7" s="1" t="n">
         <v>-0.096</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.111</v>
+        <v>0.113</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>247.9</v>
+        <v>250.33</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.014</v>
+        <v>0.01</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>0.015</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.043</v>
+        <v>0.049</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.114</v>
+        <v>0.147</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.336</v>
+        <v>0.348</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.124</v>
+        <v>0.134</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.545</v>
+        <v>0.56</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.636</v>
+        <v>0.635</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.503</v>
+        <v>1.468</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.131</v>
+        <v>0.142</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.42</v>
+        <v>16.87</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.003</v>
+        <v>0.027</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.033</v>
+        <v>0.054</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.122</v>
+        <v>0.139</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.226</v>
+        <v>0.25</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.457</v>
+        <v>0.5</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.228</v>
+        <v>0.287</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.023</v>
+        <v>0.004</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.173</v>
+        <v>-0.144</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.954</v>
+        <v>0.966</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.458</v>
+        <v>0.498</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>104.36</v>
+        <v>104.08</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.003</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.064</v>
+        <v>0.068</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.062</v>
+        <v>0.056</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>0.034</v>
+        <v>0.021</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.112</v>
+        <v>0.109</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.255</v>
+        <v>-0.256</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.015</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.081</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.72</v>
+        <v>24.75</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.021</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.172</v>
+        <v>0.178</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.033</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.227</v>
+        <v>0.228</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.858</v>
+        <v>1.865</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>0.917</v>
+        <v>0.894</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.101</v>
+        <v>0.103</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>90.86</v>
+        <v>90.66</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.014</v>
+        <v>0.009</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.073</v>
+        <v>0.078</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.062</v>
+        <v>0.056</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.003</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="AM9" s="1" t="n">
         <v>-0.35</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.046</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.075</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.22</v>
+        <v>148.8</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.003</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.018</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.034</v>
+        <v>0.05</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="W10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.436</v>
+        <v>0.432</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.584</v>
+        <v>0.583</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.475</v>
+        <v>1.457</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.161</v>
+        <v>0.158</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,25 +2294,25 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.67</v>
+        <v>111.64</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>-0.001</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.029</v>
+        <v>0.031</v>
       </c>
       <c r="AJ10" s="1" t="n">
         <v>0.049</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>0.147</v>
@@ -2321,10 +2321,10 @@
         <v>0.067</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.316</v>
+        <v>0.318</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>203.12</v>
+        <v>203.87</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.007</v>
+        <v>0.011</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.038</v>
+        <v>0.055</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.15</v>
+        <v>0.157</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.074</v>
+        <v>0.082</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.563</v>
+        <v>0.569</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.826</v>
+        <v>0.827</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.112</v>
+        <v>0.116</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.08</v>
+        <v>46.38</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.007</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.023</v>
+        <v>0.004</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.088</v>
+        <v>0.078</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.172</v>
+        <v>0.2</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.383</v>
+        <v>0.397</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.137</v>
+        <v>0.166</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.514</v>
+        <v>0.524</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.086</v>
+        <v>1.101</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.166</v>
+        <v>2.129</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.342</v>
+        <v>0.351</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,16 +2413,16 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.43</v>
+        <v>103.38</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AI11" s="1" t="n">
         <v>0.017</v>
@@ -2440,10 +2440,10 @@
         <v>0.204</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="AO11" s="1" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>465.07</v>
+        <v>467.03</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.004</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.017</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.085</v>
+        <v>0.087</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.323</v>
+        <v>0.329</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.217</v>
+        <v>0.234</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.287</v>
+        <v>1.297</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.111</v>
+        <v>1.132</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.295</v>
+        <v>4.238</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.162</v>
+        <v>0.166</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.8</v>
+        <v>69.69</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.043</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.02</v>
+        <v>0.038</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.125</v>
+        <v>0.16</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.508</v>
+        <v>0.602</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.599</v>
+        <v>0.655</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1.025</v>
+        <v>1.086</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.984</v>
+        <v>3.156</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.155</v>
+        <v>1.279</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>4.763</v>
+        <v>5.003</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.389</v>
+        <v>1.492</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,37 +2532,37 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>106.95</v>
+        <v>107.1</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.038</v>
+        <v>0.042</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>0.13</v>
+        <v>0.132</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.241</v>
+        <v>0.245</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>193.03</v>
+        <v>193.71</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>0.014</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.052</v>
+        <v>0.063</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.176</v>
+        <v>0.183</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.064</v>
+        <v>0.081</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.925</v>
+        <v>0.932</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0.911</v>
+        <v>0.92</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.605</v>
+        <v>2.564</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.091</v>
+        <v>0.095</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.84</v>
+        <v>30.2</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.047</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.06</v>
+        <v>0.056</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.147</v>
+        <v>0.177</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.55</v>
+        <v>0.648</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.819</v>
+        <v>0.896</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.118</v>
+        <v>1.194</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.353</v>
+        <v>2.511</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.795</v>
+        <v>0.901</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.627</v>
+        <v>3.758</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.505</v>
+        <v>1.623</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.33</v>
+        <v>22.36</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AH13" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.013</v>
+        <v>0.02</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="AM13" s="1" t="n">
         <v>0.092</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.219</v>
+        <v>0.221</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>94.7</v>
+        <v>94.25</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.012</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="I14" s="1" t="n">
         <v>0.038</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.513</v>
+        <v>0.506</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.567</v>
+        <v>0.566</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.797</v>
+        <v>1.754</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.078</v>
+        <v>0.073</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.85</v>
+        <v>39.22</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.01</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.03</v>
+        <v>0.006</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.129</v>
+        <v>0.122</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.294</v>
+        <v>0.324</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.58</v>
+        <v>0.594</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.277</v>
+        <v>0.318</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.538</v>
+        <v>0.553</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.36</v>
+        <v>75.62</v>
       </c>
       <c r="AF14" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AG14" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="AG14" s="1" t="n">
-        <v>-0.003</v>
-      </c>
       <c r="AH14" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.012</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.005</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.021</v>
+        <v>0.029</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.069</v>
+        <v>0.074</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.04</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.006</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.119</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>254.12</v>
+        <v>254.86</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.065</v>
+        <v>0.077</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.29</v>
+        <v>0.287</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.229</v>
+        <v>0.245</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.948</v>
+        <v>0.953</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.745</v>
+        <v>0.762</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.094</v>
+        <v>3.049</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.237</v>
+        <v>0.24</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.28</v>
+        <v>13.95</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0.023</v>
+        <v>-0.023</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.074</v>
+        <v>0.036</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.4</v>
+        <v>0.304</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.625</v>
+        <v>0.624</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.928</v>
+        <v>0.904</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.303</v>
+        <v>0.312</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.625</v>
+        <v>0.588</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.24</v>
+        <v>95.57</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AH15" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.051</v>
+        <v>0.058</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.092</v>
+        <v>0.093</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.077</v>
+        <v>0.085</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.417</v>
+        <v>0.415</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.113</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>121.62</v>
+        <v>121.44</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.025</v>
+        <v>0.036</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.09</v>
+        <v>0.092</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.053</v>
+        <v>0.058</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.387</v>
+        <v>1.354</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.108</v>
+        <v>0.106</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.71</v>
+        <v>69.9</v>
       </c>
       <c r="R16" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>-0.067</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>-0.052</v>
+      </c>
+      <c r="V16" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="S16" s="1" t="n">
-        <v>-0.023</v>
-      </c>
-      <c r="T16" s="1" t="n">
-        <v>-0.069</v>
-      </c>
-      <c r="U16" s="1" t="n">
-        <v>-0.066</v>
-      </c>
-      <c r="V16" s="1" t="n">
-        <v>-0.01</v>
-      </c>
       <c r="W16" s="1" t="n">
-        <v>-0.152</v>
+        <v>-0.138</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.083</v>
+        <v>0.086</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.13</v>
+        <v>0.139</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.727</v>
+        <v>0.71</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.077</v>
+        <v>-0.075</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.01</v>
+        <v>41.25</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.006</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.02</v>
+        <v>0.028</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.087</v>
+        <v>0.096</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.086</v>
+        <v>0.095</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.307</v>
+        <v>0.315</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.036</v>
+        <v>0.048</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.171</v>
+        <v>0.165</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.136</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>144.68</v>
+        <v>145.34</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.005</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.013</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.064</v>
+        <v>0.073</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.24</v>
+        <v>0.247</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.138</v>
+        <v>0.153</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.898</v>
+        <v>0.906</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.945</v>
+        <v>0.956</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.132</v>
+        <v>0.137</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.9</v>
+        <v>96.43</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0.018</v>
+        <v>0.006</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.023</v>
+        <v>0.008</v>
       </c>
       <c r="T17" s="1" t="n">
         <v>0.031</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.154</v>
+        <v>0.181</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.417</v>
+        <v>0.433</v>
       </c>
       <c r="W17" s="1" t="n">
         <v>0.187</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.596</v>
+        <v>1.611</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.479</v>
+        <v>1.473</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.242</v>
+        <v>3.194</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.268</v>
+        <v>0.275</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.37</v>
+        <v>42.59</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.006</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>0.003</v>
+        <v>0.015</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.02</v>
+        <v>0.032</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.198</v>
+        <v>-0.191</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.073</v>
+        <v>-0.061</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.103</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.92</v>
+        <v>145.27</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.004</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.017</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.013</v>
+        <v>0.018</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.176</v>
+        <v>0.175</v>
       </c>
       <c r="W18" s="1" t="n">
         <v>0.077</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.771</v>
+        <v>0.763</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.751</v>
+        <v>0.739</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.25</v>
+        <v>2.205</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.2</v>
+        <v>29.38</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.069</v>
+        <v>0.083</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.319</v>
+        <v>0.337</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.156</v>
+        <v>0.18</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.189</v>
+        <v>0.196</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.53</v>
+        <v>50.96</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.009</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.088</v>
+        <v>0.107</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.258</v>
+        <v>0.266</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.239</v>
+        <v>0.253</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.774</v>
+        <v>0.789</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0.981</v>
+        <v>1.003</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.528</v>
+        <v>1.544</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.262</v>
+        <v>0.273</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.04</v>
+        <v>71.15</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.022</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.017</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.194</v>
+        <v>0.202</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.473</v>
+        <v>0.475</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.429</v>
+        <v>0.419</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.197</v>
+        <v>1.169</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,34 +3368,34 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.78</v>
+        <v>100.74</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="1" t="n">
         <v>0.006</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.054</v>
+        <v>0.049</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.183</v>
+        <v>0.182</v>
       </c>
       <c r="AM20" s="1" t="n">
         <v>-0.015</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.202</v>
+        <v>0.203</v>
       </c>
       <c r="AO20" s="1" t="n">
         <v>0.071</v>
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>27.64</v>
+        <v>27.97</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.012</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>-0.006</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.015</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.095</v>
+        <v>0.108</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.236</v>
+        <v>0.251</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.143</v>
+        <v>0.174</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.403</v>
+        <v>0.42</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.756</v>
+        <v>0.791</v>
       </c>
       <c r="L21" s="1" t="n">
         <v>0.842</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.353</v>
+        <v>0.369</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.75</v>
+        <v>207.68</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.015</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.035</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.061</v>
+        <v>0.033</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.092</v>
+        <v>0.079</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.403</v>
+        <v>0.388</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.383</v>
+        <v>0.37</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.327</v>
+        <v>1.293</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.697</v>
+        <v>1.646</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.186</v>
+        <v>3.083</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.459</v>
+        <v>0.438</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,35 +3487,35 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.6</v>
+        <v>51.65</v>
       </c>
       <c r="AF21" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AG21" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AH21" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="AH21" s="1" t="n">
-        <v>0.007</v>
-      </c>
       <c r="AI21" s="1" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.042</v>
+        <v>0.041</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.19</v>
+        <v>0.191</v>
       </c>
       <c r="AM21" s="1" t="n">
         <v>0.033</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>64.84</v>
+        <v>65.87</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.016</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.013</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.088</v>
+        <v>0.109</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.272</v>
+        <v>0.285</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.254</v>
+        <v>0.286</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.585</v>
+        <v>0.61</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.143</v>
+        <v>1.172</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.539</v>
+        <v>0.55</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.41</v>
+        <v>0.432</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.28</v>
+        <v>103.5</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="S22" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.021</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.024</v>
+        <v>0.039</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.209</v>
+        <v>0.215</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.184</v>
+        <v>0.185</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.847</v>
+        <v>0.851</v>
       </c>
       <c r="Y22" s="1" t="n">
         <v>0.643</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.15</v>
+        <v>2.113</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.079</v>
+        <v>0.081</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.29</v>
+        <v>49.22</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG22" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.032</v>
+        <v>0.029</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.054</v>
+        <v>0.052</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.066</v>
+        <v>0.061</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.199</v>
+        <v>0.197</v>
       </c>
       <c r="AM22" s="1" t="n">
         <v>0.033</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.247</v>
+        <v>0.246</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.072</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>29.1</v>
+        <v>29.32</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.008</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.018</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.039</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.185</v>
+        <v>0.201</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.071</v>
+        <v>0.1</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.193</v>
+        <v>0.202</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.444</v>
+        <v>0.466</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1.007</v>
+        <v>0.997</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.317</v>
+        <v>0.327</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,34 +3684,34 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>103.39</v>
+        <v>103.36</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.089</v>
+        <v>-0.077</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.056</v>
+        <v>0.099</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.159</v>
+        <v>0.169</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.168</v>
+        <v>-0.174</v>
       </c>
       <c r="X23" s="1" t="n">
         <v>1.047</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.816</v>
+        <v>0.794</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.108</v>
+        <v>3.053</v>
       </c>
       <c r="AA23" s="1" t="n">
         <v>0.015</v>
@@ -3723,34 +3723,34 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.54</v>
+        <v>95.53</v>
       </c>
       <c r="AF23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AH23" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AG23" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AH23" s="1" t="n">
-        <v>0.005</v>
-      </c>
       <c r="AI23" s="1" t="n">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="AJ23" s="1" t="n">
         <v>0.054</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.058</v>
+        <v>0.054</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.19</v>
+        <v>0.189</v>
       </c>
       <c r="AM23" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.142</v>
+        <v>0.143</v>
       </c>
       <c r="AO23" s="1" t="n">
         <v>0.076</v>
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>61.83</v>
+        <v>61.99</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.008</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.037</v>
+        <v>0.052</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.202</v>
+        <v>0.192</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.237</v>
+        <v>0.267</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.069</v>
+        <v>1.074</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.815</v>
+        <v>0.839</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.212</v>
+        <v>1.192</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.338</v>
+        <v>0.341</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.6</v>
+        <v>36.95</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="S24" s="1" t="n">
         <v>-0.012</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.039</v>
+        <v>0.027</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.118</v>
+        <v>0.134</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.33</v>
+        <v>0.356</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.205</v>
+        <v>0.253</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.196</v>
+        <v>0.208</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.131</v>
+        <v>0.15</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.265</v>
+        <v>0.277</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3843,31 +3843,31 @@
         <v>112.1</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="AH24" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.083</v>
+        <v>0.077</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.057</v>
+        <v>0.052</v>
       </c>
       <c r="AL24" s="1" t="n">
         <v>0.27</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.011</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="AO24" s="1" t="n">
         <v>0.085</v>
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.58</v>
+        <v>42.53</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.009</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.032</v>
+        <v>0.025</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.195</v>
+        <v>0.17</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.185</v>
+        <v>0.206</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.855</v>
+        <v>0.854</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.036</v>
+        <v>1.047</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.671</v>
+        <v>1.613</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.214</v>
+        <v>0.212</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.95</v>
+        <v>85.19</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0.016</v>
+        <v>0.003</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0.01</v>
+        <v>0.008</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.026</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.053</v>
+        <v>0.079</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.278</v>
+        <v>0.302</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.13</v>
+        <v>0.118</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.552</v>
+        <v>0.557</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.699</v>
+        <v>0.679</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.195</v>
+        <v>1.173</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.074</v>
+        <v>0.077</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,34 +3959,34 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.34</v>
+        <v>93.38</v>
       </c>
       <c r="AF25" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="AJ25" s="1" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="AK25" s="1" t="n">
         <v>0.067</v>
-      </c>
-      <c r="AK25" s="1" t="n">
-        <v>0.066</v>
       </c>
       <c r="AL25" s="1" t="n">
         <v>0.32</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.307</v>
+        <v>0.308</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.518</v>
+        <v>0.519</v>
       </c>
       <c r="AO25" s="1" t="n">
         <v>0.055</v>
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.06</v>
+        <v>42.02</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.015</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.051</v>
+        <v>0.061</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.187</v>
+        <v>0.17</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.19</v>
+        <v>0.199</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.8</v>
+        <v>0.798</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.966</v>
+        <v>0.999</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.793</v>
+        <v>0.758</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.266</v>
+        <v>0.265</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.74</v>
+        <v>59.06</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0.018</v>
+        <v>0.005</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.008</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.049</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.011</v>
+        <v>0.029</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.271</v>
+        <v>0.267</v>
       </c>
       <c r="W26" s="1" t="n">
         <v>0.206</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.666</v>
+        <v>0.675</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.687</v>
+        <v>0.664</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.127</v>
+        <v>0.133</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.89</v>
+        <v>26.95</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.002</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.04</v>
+        <v>0.047</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.092</v>
+        <v>0.086</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.269</v>
+        <v>0.272</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.149</v>
+        <v>0.155</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.093</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>44.13</v>
+        <v>44.42</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.018</v>
+        <v>0.007</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.023</v>
+        <v>0.044</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.162</v>
+        <v>0.165</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.156</v>
+        <v>0.187</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.745</v>
+        <v>0.757</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.796</v>
+        <v>0.822</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.255</v>
+        <v>1.247</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.258</v>
+        <v>0.266</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>25.91</v>
+        <v>26.26</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.01</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.026</v>
+        <v>0.022</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.034</v>
+        <v>0.064</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.185</v>
+        <v>0.218</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.078</v>
+        <v>0.124</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.095</v>
+        <v>0.11</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,22 +4189,22 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>53.05</v>
+        <v>53.06</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="AK27" s="1" t="n">
         <v>0.061</v>
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>41.67</v>
+        <v>41.53</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>-0.003</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.019</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.009</v>
+        <v>0.003</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.007</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.151</v>
+        <v>0.135</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.269</v>
+        <v>0.273</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.219</v>
+        <v>1.212</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.597</v>
+        <v>0.625</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.039</v>
+        <v>1.008</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.331</v>
+        <v>0.327</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.72</v>
+        <v>68.55</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.002</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0.009</v>
+        <v>0.013</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.005</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.02</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.217</v>
+        <v>0.214</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.423</v>
+        <v>1.394</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.065</v>
+        <v>0.062</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.24</v>
+        <v>54.26</v>
       </c>
       <c r="AF28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AH28" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="AG28" s="1" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AH28" s="1" t="n">
-        <v>0.004</v>
-      </c>
       <c r="AI28" s="1" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.08</v>
+        <v>0.075</v>
       </c>
       <c r="AK28" s="1" t="n">
-        <v>0.073</v>
+        <v>0.071</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.297</v>
+        <v>0.298</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.061</v>
+        <v>0.063</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>56.33</v>
+        <v>56.64</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.03</v>
+        <v>0.045</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.121</v>
+        <v>0.122</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.113</v>
+        <v>0.13</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.616</v>
+        <v>0.625</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.491</v>
+        <v>0.52</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.185</v>
+        <v>1.166</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.249</v>
+        <v>0.256</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.52</v>
+        <v>38.78</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.014</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.042</v>
+        <v>-0.027</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.032</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.053</v>
+        <v>0.069</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.05</v>
+        <v>0.069</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.033</v>
+        <v>0.04</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.406</v>
+        <v>0.42</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.039</v>
+        <v>1.047</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.098</v>
+        <v>0.106</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4430,31 +4430,31 @@
         <v>51.96</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.07</v>
+        <v>0.075</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.106</v>
+        <v>0.098</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.048</v>
+        <v>0.04</v>
       </c>
       <c r="AL29" s="1" t="n">
         <v>0.291</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.093</v>
+        <v>-0.092</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="AO29" s="1" t="n">
         <v>0.094</v>
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>91.28</v>
+        <v>92.98</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.019</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.01</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.012</v>
+        <v>0.025</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.098</v>
+        <v>0.108</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.288</v>
+        <v>0.315</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.166</v>
+        <v>0.219</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.731</v>
+        <v>0.763</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.291</v>
+        <v>0.324</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.038</v>
+        <v>1.028</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.277</v>
+        <v>0.301</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.88</v>
+        <v>45.94</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0.017</v>
+        <v>0.001</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="T30" s="1" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="U30" s="1" t="n">
         <v>-0.025</v>
       </c>
-      <c r="U30" s="1" t="n">
-        <v>-0.04</v>
-      </c>
       <c r="V30" s="1" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.021</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.126</v>
+        <v>0.127</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.429</v>
+        <v>0.427</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.62</v>
+        <v>0.609</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,37 +4546,37 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.55</v>
+        <v>24.61</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>0.009</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.084</v>
+        <v>0.082</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.07</v>
+        <v>0.074</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.579</v>
+        <v>0.586</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.11</v>
+        <v>17.13</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.014</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.026</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.164</v>
+        <v>0.159</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.03</v>
+        <v>0.037</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.674</v>
+        <v>0.693</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.768</v>
+        <v>0.748</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>59.96</v>
+        <v>60.08</v>
       </c>
       <c r="R31" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.015</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.033</v>
+        <v>0.043</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.061</v>
+        <v>0.083</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.047</v>
+        <v>0.057</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.07</v>
+        <v>-0.056</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.204</v>
+        <v>0.207</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.363</v>
+        <v>0.378</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.418</v>
+        <v>1.365</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.54</v>
+        <v>80.8</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AH31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.02</v>
+        <v>0.027</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.072</v>
+        <v>0.076</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.343</v>
+        <v>0.348</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.613</v>
+        <v>0.614</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.069</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.75</v>
+        <v>40.89</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.11</v>
+        <v>0.114</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.054</v>
+        <v>0.074</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.069</v>
+        <v>0.073</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.482</v>
+        <v>0.494</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.928</v>
+        <v>0.947</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.19</v>
+        <v>50.39</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0.009</v>
+        <v>0.004</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.016</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.029</v>
+        <v>0.045</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.112</v>
+        <v>0.141</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.077</v>
+        <v>-0.066</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.11</v>
+        <v>-0.076</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.242</v>
+        <v>0.239</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.209</v>
+        <v>1.206</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.41</v>
+        <v>29.5</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.028</v>
+        <v>0.035</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.091</v>
+        <v>0.092</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.075</v>
+        <v>0.078</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.348</v>
+        <v>0.352</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.266</v>
+        <v>0.274</v>
       </c>
       <c r="AN32" s="1" t="n">
         <v>0.937</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.075</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>52.78</v>
+        <v>53.76</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.019</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.021</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.006</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.02</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0.034</v>
+        <v>0.051</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.073</v>
+        <v>-0.05</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.321</v>
+        <v>0.346</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.601</v>
+        <v>0.663</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>1.058</v>
+        <v>1.079</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0.003</v>
+        <v>0.021</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.63</v>
+        <v>74.34</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.01</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.011</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.043</v>
+        <v>0.064</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.094</v>
+        <v>0.127</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.176</v>
+        <v>0.192</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.053</v>
+        <v>0.056</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.359</v>
+        <v>0.372</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.416</v>
+        <v>0.44</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.734</v>
+        <v>0.7</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.135</v>
+        <v>0.146</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,10 +4903,10 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.21</v>
+        <v>48.23</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1" t="n">
         <v>0.004</v>
@@ -4915,19 +4915,19 @@
         <v>0.003</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.057</v>
+        <v>0.054</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="AM33" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>80.04</v>
+        <v>81.29</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.009</v>
+        <v>0.016</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.006</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.001</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.105</v>
+        <v>0.134</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.206</v>
+        <v>0.215</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.151</v>
+        <v>0.194</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.743</v>
+        <v>0.77</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.468</v>
+        <v>0.504</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>1.006</v>
+        <v>0.987</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.203</v>
+        <v>0.221</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.32</v>
+        <v>153.39</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0.003</v>
+        <v>0.014</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.006</v>
+        <v>0.009</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.074</v>
+        <v>0.091</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.148</v>
+        <v>0.189</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.259</v>
+        <v>0.281</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.041</v>
+        <v>0.054</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.275</v>
+        <v>0.293</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.076</v>
+        <v>0.116</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.543</v>
+        <v>0.499</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.146</v>
+        <v>0.162</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>102.78</v>
+        <v>103.43</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.128</v>
+        <v>0.135</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.271</v>
+        <v>0.276</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.242</v>
+        <v>0.251</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.598</v>
+        <v>0.608</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.454</v>
+        <v>0.468</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.087</v>
+        <v>2.072</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.227</v>
+        <v>0.235</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>62.58</v>
+        <v>63.25</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.011</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-0.049</v>
+        <v>-0.044</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.018</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.127</v>
+        <v>0.116</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.25</v>
+        <v>0.273</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.249</v>
+        <v>0.327</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.699</v>
+        <v>0.718</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.105</v>
+        <v>-0.088</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.599</v>
+        <v>0.559</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.349</v>
+        <v>0.363</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.45</v>
+        <v>59.2</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.004</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.021</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.018</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.025</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.044</v>
+        <v>0.047</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.268</v>
+        <v>0.262</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.169</v>
+        <v>0.167</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.297</v>
+        <v>2.211</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.06</v>
+        <v>21.09</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.021</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.04</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.315</v>
+        <v>0.318</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.182</v>
+        <v>0.229</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.117</v>
+        <v>0.135</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.452</v>
+        <v>0.411</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.292</v>
+        <v>0.293</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.24</v>
+        <v>25.05</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.033</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.009</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.07</v>
+        <v>0.111</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.135</v>
+        <v>0.197</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.25</v>
+        <v>0.297</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.03</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.014</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.392</v>
+        <v>-0.366</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.079</v>
+        <v>0.115</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>63.7</v>
+        <v>64.99</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.02</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.01</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.014</v>
+        <v>0.031</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.102</v>
+        <v>0.115</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.392</v>
+        <v>0.411</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.188</v>
+        <v>0.229</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.096</v>
+        <v>1.138</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>0.984</v>
+        <v>1.033</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.729</v>
+        <v>2.725</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.231</v>
+        <v>0.256</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,34 +5288,34 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.55</v>
+        <v>124.48</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.009</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.023</v>
+        <v>0.041</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.177</v>
+        <v>0.174</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.172</v>
+        <v>0.169</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.893</v>
+        <v>0.892</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.304</v>
+        <v>1.292</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.453</v>
+        <v>2.383</v>
       </c>
       <c r="AA37" s="1" t="n">
         <v>0.137</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>78.03</v>
+        <v>79.32</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.008</v>
+        <v>0.017</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.136</v>
+        <v>0.143</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.238</v>
+        <v>0.263</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.288</v>
+        <v>0.302</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.557</v>
+        <v>0.578</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.503</v>
+        <v>1.545</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.154</v>
+        <v>1.182</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.399</v>
+        <v>2.47</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.576</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>82.69</v>
+        <v>85.17</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.03</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.012</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.051</v>
+        <v>0.076</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.13</v>
+        <v>0.166</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.521</v>
+        <v>0.566</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.332</v>
+        <v>0.404</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.809</v>
+        <v>0.863</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.353</v>
+        <v>0.4</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.884</v>
+        <v>0.887</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.625</v>
+        <v>0.674</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>59.33</v>
+        <v>58.25</v>
       </c>
       <c r="R38" s="1" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="T38" s="1" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="U38" s="1" t="n">
         <v>0.03</v>
       </c>
-      <c r="S38" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="T38" s="1" t="n">
-        <v>-0.021</v>
-      </c>
-      <c r="U38" s="1" t="n">
-        <v>0.016</v>
-      </c>
       <c r="V38" s="1" t="n">
-        <v>0.272</v>
+        <v>0.232</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.116</v>
+        <v>0.085</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.403</v>
+        <v>0.378</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.142</v>
+        <v>1.062</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.283</v>
+        <v>1.202</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.091</v>
+        <v>0.071</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>46.8</v>
+        <v>48.33</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.033</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.079</v>
+        <v>0.085</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.221</v>
+        <v>0.247</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.351</v>
+        <v>0.411</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.593</v>
+        <v>0.643</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.64</v>
+        <v>0.683</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.784</v>
+        <v>1.875</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>1.076</v>
+        <v>1.139</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>2.035</v>
+        <v>2.14</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.777</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.56</v>
+        <v>24.65</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.01</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.048</v>
+        <v>0.069</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.447</v>
+        <v>0.438</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.485</v>
+        <v>0.508</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.747</v>
+        <v>0.753</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.577</v>
+        <v>0.569</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.545</v>
+        <v>0.536</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.588</v>
+        <v>0.593</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.41</v>
+        <v>61.98</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>0.031</v>
+        <v>-0.023</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.02</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.031</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.003</v>
+        <v>0.016</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.282</v>
+        <v>0.232</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.113</v>
+        <v>0.076</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.129</v>
+        <v>0.104</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.894</v>
+        <v>0.808</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.989</v>
+        <v>0.909</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.072</v>
+        <v>0.047</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>149.45</v>
+        <v>151.25</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.006</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.172</v>
+        <v>0.18</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.203</v>
+        <v>0.217</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.716</v>
+        <v>0.72</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.636</v>
+        <v>0.672</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.785</v>
+        <v>0.807</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.851</v>
+        <v>0.859</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.548</v>
+        <v>0.56</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.8</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>65.31</v>
+        <v>66.03</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.011</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.012</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.078</v>
+        <v>0.084</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.232</v>
+        <v>0.249</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.4</v>
+        <v>0.419</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.402</v>
+        <v>0.432</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>1.054</v>
+        <v>1.077</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.11</v>
+        <v>1.139</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.738</v>
+        <v>0.713</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.577</v>
+        <v>0.594</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.9</v>
+        <v>130.42</v>
       </c>
       <c r="R40" s="1" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>-0.033</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V40" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="W40" s="1" t="n">
         <v>0.016</v>
       </c>
-      <c r="S40" s="1" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="T40" s="1" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="U40" s="1" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="V40" s="1" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="W40" s="1" t="n">
-        <v>0.042</v>
-      </c>
       <c r="X40" s="1" t="n">
-        <v>0.698</v>
+        <v>0.654</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.543</v>
+        <v>1.464</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.281</v>
+        <v>2.137</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.072</v>
+        <v>0.044</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>30.85</v>
+        <v>30.74</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.004</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.02</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.079</v>
+        <v>0.059</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.104</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.049</v>
+        <v>0.06</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.115</v>
+        <v>0.127</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.502</v>
+        <v>0.497</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.638</v>
+        <v>0.604</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.928</v>
+        <v>0.921</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.226</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>26.7</v>
+        <v>26.89</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.012</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.025</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.012</v>
+        <v>0.031</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.164</v>
+        <v>0.169</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.039</v>
+        <v>0.053</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.52</v>
+        <v>0.531</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.565</v>
+        <v>0.578</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.117</v>
+        <v>1.093</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.136</v>
+        <v>0.144</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>172.52</v>
+        <v>173.49</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.006</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.012</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.015</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.3</v>
+        <v>0.303</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.294</v>
+        <v>0.291</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.104</v>
+        <v>1.115</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>1.882</v>
+        <v>1.879</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.312</v>
+        <v>4.201</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.207</v>
+        <v>0.214</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>65.04</v>
+        <v>65.56</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.009</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>0.012</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.069</v>
+        <v>0.083</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.22</v>
+        <v>0.222</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.179</v>
+        <v>0.21</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.776</v>
+        <v>0.791</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.572</v>
+        <v>0.599</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.049</v>
+        <v>1.031</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.265</v>
+        <v>0.275</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.21</v>
+        <v>34.17</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.027</v>
       </c>
       <c r="T42" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.001</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.009</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.269</v>
+        <v>0.267</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.178</v>
+        <v>0.177</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.099</v>
+        <v>-0.093</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.096</v>
+        <v>0.094</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>93.4</v>
+        <v>93.85</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.009</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.05</v>
+        <v>0.066</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.167</v>
+        <v>0.192</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.811</v>
+        <v>0.82</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.659</v>
+        <v>0.687</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.071</v>
+        <v>1.046</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.257</v>
+        <v>0.263</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>194.73</v>
+        <v>196.6</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.01</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.021</v>
       </c>
       <c r="T43" s="1" t="n">
         <v>0.032</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.112</v>
+        <v>0.113</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.426</v>
+        <v>0.437</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.242</v>
+        <v>0.278</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.754</v>
+        <v>1.78</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.492</v>
+        <v>1.527</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.035</v>
+        <v>7.014</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.222</v>
+        <v>0.234</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>56.96</v>
+        <v>58.11</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>0.026</v>
+        <v>0.02</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.112</v>
+        <v>0.139</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.355</v>
+        <v>0.264</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.462</v>
+        <v>0.483</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.494</v>
+        <v>1.557</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.939</v>
+        <v>0.974</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>2.315</v>
+        <v>2.382</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>5.164</v>
+        <v>5.335</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.879</v>
+        <v>3.898</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>1.127</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.18</v>
+        <v>40.27</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.012</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.067</v>
+        <v>0.074</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.204</v>
+        <v>0.191</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.155</v>
+        <v>0.176</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.739</v>
+        <v>0.743</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.005</v>
+        <v>1.023</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.673</v>
+        <v>1.626</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.176</v>
+        <v>0.179</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.59</v>
+        <v>113.29</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.003</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.021</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.017</v>
+        <v>0.004</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.042</v>
+        <v>0.039</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.291</v>
+        <v>0.272</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.217</v>
+        <v>0.226</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.347</v>
+        <v>1.34</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.713</v>
+        <v>0.714</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>4.859</v>
+        <v>4.738</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,34 +6154,34 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>69</v>
+        <v>68.99</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>-0.018</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.062</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-0.059</v>
+        <v>-0.071</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>-0.088</v>
+        <v>-0.083</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>-0.091</v>
+        <v>-0.052</v>
       </c>
       <c r="AL44" s="1" t="n">
         <v>-0.017</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.381</v>
+        <v>1.384</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.427</v>
+        <v>-0.43</v>
       </c>
       <c r="AO44" s="1" t="n">
         <v>-0.087</v>
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>52.97</v>
+        <v>53.84</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.016</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.012</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.014</v>
+        <v>0.023</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.096</v>
+        <v>0.106</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.269</v>
+        <v>0.292</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.178</v>
+        <v>0.223</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.669</v>
+        <v>0.696</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.297</v>
+        <v>0.328</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.872</v>
+        <v>0.858</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.279</v>
+        <v>0.3</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>86.49</v>
+        <v>86.54</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.001</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.029</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.216</v>
+        <v>0.209</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.206</v>
+        <v>0.219</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.095</v>
+        <v>1.096</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.741</v>
+        <v>0.758</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.528</v>
+        <v>2.444</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.161</v>
+        <v>0.162</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6276,31 +6276,31 @@
         <v>28.25</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>-0.021</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.061</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.069</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.069</v>
+        <v>-0.065</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>-0.078</v>
+        <v>-0.041</v>
       </c>
       <c r="AL45" s="1" t="n">
         <v>-0.038</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.578</v>
+        <v>1.587</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.683</v>
+        <v>0.67</v>
       </c>
       <c r="AO45" s="1" t="n">
         <v>-0.057</v>
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.47</v>
+        <v>30.5</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.003</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.012</v>
+        <v>0.009</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.074</v>
+        <v>0.09</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.271</v>
+        <v>0.267</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>279.03</v>
+        <v>287.64</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.031</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.013</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.094</v>
+        <v>0.118</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.147</v>
+        <v>0.17</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.616</v>
+        <v>0.659</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.172</v>
+        <v>0.274</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.871</v>
+        <v>1.959</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.661</v>
+        <v>1.751</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>9.645</v>
+        <v>9.872</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.302</v>
+        <v>0.342</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.95</v>
+        <v>11.88</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.006</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>-0.133</v>
+        <v>-0.093</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.08</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.218</v>
+        <v>-0.236</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.318</v>
+        <v>-0.316</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.146</v>
+        <v>-0.152</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.866</v>
+        <v>-0.867</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.747</v>
+        <v>-0.76</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.936</v>
+        <v>-0.934</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.289</v>
+        <v>-0.293</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6423,37 +6423,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>44.42</v>
+        <v>44.64</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.008</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.013</v>
+        <v>0.01</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.034</v>
+        <v>0.049</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.147</v>
+        <v>0.145</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.109</v>
+        <v>0.137</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.729</v>
+        <v>0.737</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.558</v>
+        <v>0.586</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.223</v>
+        <v>1.234</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.214</v>
+        <v>0.22</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>126.32</v>
+        <v>127.84</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.012</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.013</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.121</v>
+        <v>0.129</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.44</v>
+        <v>0.453</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.276</v>
+        <v>0.314</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.851</v>
+        <v>1.885</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.363</v>
+        <v>1.406</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.537</v>
+        <v>6.536</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.239</v>
+        <v>0.254</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.43</v>
+        <v>36.56</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.045</v>
+        <v>0.061</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.239</v>
+        <v>0.233</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.291</v>
+        <v>0.308</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.942</v>
+        <v>0.949</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.927</v>
+        <v>0.957</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.162</v>
+        <v>1.137</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.384</v>
+        <v>0.389</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6581,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>47.67</v>
+        <v>48.68</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.021</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.012</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.078</v>
+        <v>0.087</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.155</v>
+        <v>0.167</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.553</v>
+        <v>0.581</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.321</v>
+        <v>0.376</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>1.127</v>
+        <v>1.172</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.449</v>
+        <v>0.491</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.286</v>
+        <v>0.313</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6618,34 +6618,34 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.59</v>
+        <v>26.58</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>0</v>
+        <v>-0.002</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.048</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.027</v>
+        <v>0.037</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>0.012</v>
+        <v>0.017</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.072</v>
+        <v>0.065</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.953</v>
+        <v>0.955</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.394</v>
+        <v>0.402</v>
       </c>
       <c r="AO48" s="1" t="n">
         <v>0</v>
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>47.45</v>
+        <v>47.4</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.014</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.013</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.053</v>
+        <v>0.063</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.217</v>
+        <v>0.201</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.215</v>
+        <v>0.222</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.896</v>
+        <v>0.894</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.574</v>
+        <v>0.594</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.4</v>
+        <v>1.397</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.284</v>
+        <v>0.283</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>34.26</v>
+        <v>34.94</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>-0.032</v>
+        <v>0.02</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.022</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.182</v>
+        <v>0.195</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.616</v>
+        <v>0.643</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.265</v>
+        <v>0.29</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.26</v>
+        <v>17.42</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>0.002</v>
+        <v>0.009</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.009</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.02</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.005</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.111</v>
+        <v>-0.107</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.009</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.375</v>
+        <v>-0.369</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.285</v>
+        <v>0.286</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.251</v>
+        <v>-0.238</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.08</v>
+        <v>-0.072</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6785,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>33.01</v>
+        <v>33.19</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.015</v>
+        <v>0.003</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.126</v>
+        <v>0.139</v>
       </c>
       <c r="V50" s="1" t="n">
         <v>0.283</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.308</v>
+        <v>0.316</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.713</v>
+        <v>0.722</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.336</v>
+        <v>0.341</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.503</v>
+        <v>0.474</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.252</v>
+        <v>0.258</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6824,37 +6824,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.017</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.045</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.1</v>
+        <v>-0.096</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.155</v>
+        <v>-0.148</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.233</v>
+        <v>-0.225</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.538</v>
+        <v>-0.539</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.307</v>
+        <v>-0.328</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.597</v>
+        <v>-0.593</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.162</v>
+        <v>-0.164</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6880,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>63.79</v>
+        <v>64.13</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.017</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.007</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.058</v>
+        <v>0.056</v>
       </c>
       <c r="V51" s="1" t="n">
         <v>0.333</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.28</v>
+        <v>0.308</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.039</v>
+        <v>1.05</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.772</v>
+        <v>0.786</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.643</v>
+        <v>1.61</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.246</v>
+        <v>0.253</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6919,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.56</v>
+        <v>21.59</v>
       </c>
       <c r="AF51" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AG51" s="1" t="n">
+        <v>-0.015</v>
+      </c>
+      <c r="AH51" s="1" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AI51" s="1" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AJ51" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="AG51" s="1" t="n">
-        <v>-0.013</v>
-      </c>
-      <c r="AH51" s="1" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="AI51" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AJ51" s="1" t="n">
-        <v>-0.005</v>
-      </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.001</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.185</v>
+        <v>-0.184</v>
       </c>
       <c r="AM51" s="1" t="n">
         <v>0.335</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.176</v>
+        <v>0.183</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>63.91</v>
+        <v>63.17</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.012</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>-0.076</v>
+        <v>-0.098</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.036</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.045</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.324</v>
+        <v>0.323</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.701</v>
+        <v>0.655</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.205</v>
+        <v>0.191</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>57.56</v>
+        <v>57.97</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.007</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.033</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.056</v>
       </c>
       <c r="U52" s="1" t="n">
         <v>0.077</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.395</v>
+        <v>0.404</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.338</v>
+        <v>0.375</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.224</v>
+        <v>1.24</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.16</v>
+        <v>0.176</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.225</v>
+        <v>2.179</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.363</v>
+        <v>0.373</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>31.08</v>
+        <v>30.15</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.03</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-0.083</v>
+        <v>-0.118</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>-0.121</v>
+        <v>-0.113</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.366</v>
+        <v>0.308</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.506</v>
+        <v>1.479</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.563</v>
+        <v>0.534</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.229</v>
+        <v>0.192</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>115.59</v>
+        <v>116.64</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.009</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.028</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.043</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.099</v>
+        <v>0.11</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.321</v>
+        <v>0.327</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.552</v>
+        <v>0.594</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>2.081</v>
+        <v>2.109</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>0.954</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.386</v>
+        <v>0.399</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.1</v>
+        <v>9.96</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.045</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.07</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.078</v>
+        <v>-0.097</v>
       </c>
       <c r="AJ53" s="1" t="n">
+        <v>-0.127</v>
+      </c>
+      <c r="AK53" s="1" t="n">
+        <v>-0.236</v>
+      </c>
+      <c r="AL53" s="1" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="AM53" s="1" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="AN53" s="1" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="AO53" s="1" t="n">
         <v>-0.129</v>
-      </c>
-      <c r="AK53" s="1" t="n">
-        <v>-0.216</v>
-      </c>
-      <c r="AL53" s="1" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="AM53" s="1" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="AN53" s="1" t="n">
-        <v>0.074</v>
-      </c>
-      <c r="AO53" s="1" t="n">
-        <v>-0.116</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>68.4</v>
+        <v>68.54</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.009</v>
+        <v>0.002</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.037</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.003</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.177</v>
+        <v>0.162</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.062</v>
+        <v>0.07</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.935</v>
+        <v>0.939</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.608</v>
+        <v>0.62</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.287</v>
+        <v>1.261</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.062</v>
+        <v>0.065</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>115.56</v>
+        <v>116.84</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.014</v>
+        <v>0.018</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.068</v>
+        <v>0.08</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.098</v>
+        <v>0.122</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.166</v>
+        <v>0.18</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.163</v>
+        <v>0.171</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.617</v>
+        <v>0.635</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.685</v>
+        <v>0.704</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.779</v>
+        <v>1.765</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.221</v>
+        <v>0.235</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.55</v>
+        <v>38.66</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.077</v>
+        <v>0.084</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.15</v>
+        <v>0.152</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.122</v>
+        <v>0.126</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.271</v>
+        <v>0.275</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.433</v>
+        <v>0.438</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.301</v>
+        <v>0.305</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.104</v>
+        <v>0.107</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>91.7</v>
+        <v>92.9</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0.009</v>
+        <v>0.013</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.08</v>
+        <v>0.091</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.115</v>
+        <v>0.141</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.197</v>
+        <v>0.212</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.176</v>
+        <v>0.186</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.619</v>
+        <v>0.64</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.687</v>
+        <v>0.71</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.87</v>
+        <v>1.865</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.237</v>
+        <v>0.253</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,35 +7418,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>36.15</v>
+        <v>36.58</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.044</v>
+        <v>0.012</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>0.073</v>
+        <v>0.079</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.212</v>
+        <v>-0.198</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.469</v>
+        <v>-0.465</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.307</v>
+        <v>-0.321</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.895</v>
+        <v>-0.893</v>
       </c>
       <c r="K56" s="1" t="n">
         <v>-0.974</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.211</v>
+        <v>-0.201</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7455,34 +7455,34 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>73.09</v>
+        <v>73.1</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>0.028</v>
+        <v>0.026</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.036</v>
+        <v>0.051</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.169</v>
+        <v>0.175</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.628</v>
+        <v>0.629</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.765</v>
+        <v>0.758</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.476</v>
+        <v>2.434</v>
       </c>
       <c r="AA56" s="1" t="n">
         <v>0.116</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>95.24</v>
+        <v>96.61</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.014</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.006</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.027</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.065</v>
+        <v>0.077</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.02</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.34</v>
+        <v>0.359</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.323</v>
+        <v>0.336</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.762</v>
+        <v>0.767</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.039</v>
+        <v>0.054</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>82.78</v>
+        <v>83.25</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.008</v>
       </c>
       <c r="T58" s="1" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="U58" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="V58" s="1" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="W58" s="1" t="n">
         <v>-0.019</v>
       </c>
-      <c r="U58" s="1" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="V58" s="1" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="W58" s="1" t="n">
-        <v>-0.016</v>
-      </c>
       <c r="X58" s="1" t="n">
-        <v>0.343</v>
+        <v>0.35</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.497</v>
+        <v>0.499</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.896</v>
+        <v>0.881</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>89.6</v>
+        <v>90.9</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.013</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.01</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0.001</v>
+        <v>0.031</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.07</v>
+        <v>0.082</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.02</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.334</v>
+        <v>0.354</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.341</v>
+        <v>0.354</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.036</v>
+        <v>0.051</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>22.13</v>
+        <v>22.14</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="T60" s="1" t="n">
         <v>-0.025</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.03</v>
+        <v>0.043</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.174</v>
+        <v>0.169</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.048</v>
+        <v>0.042</v>
       </c>
       <c r="X60" s="1" t="n">
         <v>0.399</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.262</v>
+        <v>0.258</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.352</v>
+        <v>0.347</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>86.21</v>
+        <v>87.4</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.001</v>
+        <v>0.014</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.008</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.053</v>
+        <v>0.074</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.229</v>
+        <v>0.236</v>
       </c>
       <c r="W61" s="1" t="n">
         <v>0.1</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.387</v>
+        <v>0.406</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.804</v>
+        <v>0.814</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.486</v>
+        <v>1.482</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.078</v>
+        <v>0.093</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/15/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/16/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>332.92</v>
+        <v>330.8</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.006</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.016</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.085</v>
+        <v>0.075</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.281</v>
+        <v>0.305</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.202</v>
+        <v>0.19</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.125</v>
+        <v>1.112</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.198</v>
+        <v>1.187</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.352</v>
+        <v>3.304</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.16</v>
+        <v>0.153</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.01</v>
+        <v>45.42</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.013</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>-0.029</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.041</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.115</v>
+        <v>0.092</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.014</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.159</v>
+        <v>0.145</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.253</v>
+        <v>2.279</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.678</v>
+        <v>0.656</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.032</v>
+        <v>0.018</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,16 +1747,16 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>82.99</v>
+        <v>83.1</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0.017</v>
@@ -1765,19 +1765,19 @@
         <v>0.024</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.139</v>
+        <v>0.141</v>
       </c>
       <c r="AM5" s="1" t="n">
-        <v>0.077</v>
+        <v>0.078</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.168</v>
+        <v>0.17</v>
       </c>
       <c r="AO5" s="1" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1">
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>668.28</v>
+        <v>663.98</v>
       </c>
       <c r="D6" s="1" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>0.009</v>
-      </c>
       <c r="G6" s="1" t="n">
-        <v>0.072</v>
+        <v>0.062</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.245</v>
+        <v>0.265</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.162</v>
+        <v>0.149</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.943</v>
+        <v>0.93</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.06</v>
+        <v>1.048</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.893</v>
+        <v>2.851</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.146</v>
+        <v>0.138</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>88.36</v>
+        <v>86.77</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.018</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.048</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.058</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.021</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.145</v>
+        <v>0.11</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.044</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.045</v>
+        <v>0.027</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>2.645</v>
+        <v>2.692</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.752</v>
+        <v>0.714</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.014</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,16 +1866,16 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>119.96</v>
+        <v>120.35</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG6" s="1" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AH6" s="1" t="n">
         <v>0.005</v>
-      </c>
-      <c r="AH6" s="1" t="n">
-        <v>0.003</v>
       </c>
       <c r="AI6" s="1" t="n">
         <v>0.029</v>
@@ -1884,19 +1884,19 @@
         <v>0.036</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.052</v>
+        <v>0.055</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.156</v>
+        <v>0.16</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="AN6" s="1" t="n">
-        <v>0.156</v>
+        <v>0.161</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.065</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>65.14</v>
+        <v>64.34</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.012</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.012</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.016</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.045</v>
+        <v>0.028</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.192</v>
+        <v>0.191</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.044</v>
+        <v>0.022</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.519</v>
+        <v>0.501</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.751</v>
+        <v>0.734</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.647</v>
+        <v>1.614</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.055</v>
+        <v>0.042</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.38</v>
+        <v>18.25</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.007</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.035</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.046</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.064</v>
+        <v>0.072</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.171</v>
+        <v>0.157</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.071</v>
+        <v>-0.09</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.164</v>
+        <v>0.156</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.567</v>
+        <v>1.697</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.477</v>
+        <v>-0.466</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.064</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>97.1</v>
+        <v>97.55</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AG7" s="1" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="AH7" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="AH7" s="1" t="n">
-        <v>0.003</v>
-      </c>
       <c r="AI7" s="1" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="AJ7" s="1" t="n">
         <v>0.047</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.049</v>
+        <v>0.052</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.138</v>
+        <v>0.143</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.096</v>
+        <v>-0.091</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.113</v>
+        <v>0.12</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.081</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>250.33</v>
+        <v>245.06</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.021</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.049</v>
+        <v>0.028</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.147</v>
+        <v>0.112</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.348</v>
+        <v>0.332</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.134</v>
+        <v>0.093</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.56</v>
+        <v>0.527</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.635</v>
+        <v>0.605</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.468</v>
+        <v>1.419</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.142</v>
+        <v>0.118</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.87</v>
+        <v>16.79</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0.027</v>
+        <v>-0.005</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.054</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.139</v>
+        <v>0.128</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.25</v>
+        <v>0.247</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.287</v>
+        <v>0.265</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1" t="n">
         <v>-0.144</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.966</v>
+        <v>0.972</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.498</v>
+        <v>0.491</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>104.08</v>
+        <v>104.77</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.007</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.011</v>
+        <v>0.019</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.068</v>
+        <v>0.073</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.056</v>
+        <v>0.057</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.109</v>
+        <v>0.116</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.256</v>
+        <v>-0.25</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.008</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.078</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.75</v>
+        <v>24.55</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.008</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.019</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.031</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.178</v>
+        <v>0.154</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.033</v>
+        <v>0.021</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.228</v>
+        <v>0.218</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.865</v>
+        <v>1.877</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>0.894</v>
+        <v>0.883</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.103</v>
+        <v>0.094</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>90.66</v>
+        <v>91.34</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.008</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.016</v>
+        <v>0.024</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.009</v>
+        <v>0.014</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.078</v>
+        <v>0.085</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.056</v>
+        <v>0.058</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>0.031</v>
+        <v>0.039</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.35</v>
+        <v>-0.343</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.039</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.072</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.8</v>
+        <v>148.22</v>
       </c>
       <c r="R10" s="1" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="S10" s="1" t="n">
         <v>-0.003</v>
       </c>
-      <c r="S10" s="1" t="n">
-        <v>-0.018</v>
-      </c>
       <c r="T10" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.18</v>
+        <v>0.182</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0</v>
+        <v>-0.012</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.432</v>
+        <v>0.426</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.583</v>
+        <v>0.571</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.457</v>
+        <v>1.45</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.158</v>
+        <v>0.153</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.64</v>
+        <v>111.9</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.147</v>
+        <v>0.15</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.067</v>
+        <v>0.069</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.318</v>
+        <v>0.324</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.074</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>203.87</v>
+        <v>201.84</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.01</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.055</v>
+        <v>0.041</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.157</v>
+        <v>0.158</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.082</v>
+        <v>0.063</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.569</v>
+        <v>0.553</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.827</v>
+        <v>0.804</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.57</v>
+        <v>1.536</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.116</v>
+        <v>0.105</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.38</v>
+        <v>46.04</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.007</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.078</v>
+        <v>0.073</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.2</v>
+        <v>0.184</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.397</v>
+        <v>0.393</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.166</v>
+        <v>0.149</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.524</v>
+        <v>0.513</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.101</v>
+        <v>1.085</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.129</v>
+        <v>2.163</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.351</v>
+        <v>0.341</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,13 +2413,13 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.38</v>
+        <v>103.5</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>0.001</v>
@@ -2431,19 +2431,19 @@
         <v>0.031</v>
       </c>
       <c r="AK11" s="1" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="AL11" s="1" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="AM11" s="1" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="AN11" s="1" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="AO11" s="1" t="n">
         <v>0.06</v>
-      </c>
-      <c r="AL11" s="1" t="n">
-        <v>0.168</v>
-      </c>
-      <c r="AM11" s="1" t="n">
-        <v>0.204</v>
-      </c>
-      <c r="AN11" s="1" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="AO11" s="1" t="n">
-        <v>0.059</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1">
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>467.03</v>
+        <v>464.77</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.021</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.087</v>
+        <v>0.078</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.329</v>
+        <v>0.363</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.234</v>
+        <v>0.227</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.297</v>
+        <v>1.286</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.132</v>
+        <v>1.131</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.238</v>
+        <v>4.191</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.166</v>
+        <v>0.161</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>69.69</v>
+        <v>72.16</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0.043</v>
+        <v>0.035</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.038</v>
+        <v>0.122</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.16</v>
+        <v>0.227</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.602</v>
+        <v>0.654</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.655</v>
+        <v>0.671</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1.086</v>
+        <v>1.141</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>3.156</v>
+        <v>3.304</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.279</v>
+        <v>1.378</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5.003</v>
+        <v>5.36</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.492</v>
+        <v>1.581</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,37 +2532,37 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>107.1</v>
+        <v>107.42</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.042</v>
+        <v>0.047</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>0.023</v>
+        <v>0.026</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>0.132</v>
+        <v>0.135</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.052</v>
+        <v>0.055</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.245</v>
+        <v>0.248</v>
       </c>
       <c r="AO12" s="1" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1">
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>193.71</v>
+        <v>192.29</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.007</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.018</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.014</v>
+        <v>0.008</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.063</v>
+        <v>0.051</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.183</v>
+        <v>0.2</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.081</v>
+        <v>0.068</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.932</v>
+        <v>0.918</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0.92</v>
+        <v>0.907</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.564</v>
+        <v>2.518</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.095</v>
+        <v>0.087</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>30.2</v>
+        <v>31.29</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0.047</v>
+        <v>0.036</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.056</v>
+        <v>0.13</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.177</v>
+        <v>0.244</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.648</v>
+        <v>0.72</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.896</v>
+        <v>0.913</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.194</v>
+        <v>1.261</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.511</v>
+        <v>2.638</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.901</v>
+        <v>1.004</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.758</v>
+        <v>3.964</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.623</v>
+        <v>1.718</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.36</v>
+        <v>22.33</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.001</v>
       </c>
       <c r="AH13" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AI13" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.03</v>
+        <v>0.024</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.02</v>
+        <v>0.018</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.106</v>
+        <v>0.105</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.092</v>
+        <v>0.088</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.221</v>
+        <v>0.22</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>94.25</v>
+        <v>93.33</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.01</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.016</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.026</v>
+        <v>0.01</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.038</v>
+        <v>0.022</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.506</v>
+        <v>0.491</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.566</v>
+        <v>0.548</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.754</v>
+        <v>1.705</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.073</v>
+        <v>0.063</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>39.22</v>
+        <v>39.33</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.006</v>
+        <v>0.014</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.122</v>
+        <v>0.131</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.324</v>
+        <v>0.327</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.594</v>
+        <v>0.593</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.318</v>
+        <v>0.306</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.553</v>
+        <v>0.557</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.62</v>
+        <v>75.92</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.014</v>
       </c>
       <c r="AI14" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.029</v>
+        <v>0.024</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.074</v>
+        <v>0.082</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.034</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.122</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>254.86</v>
+        <v>252.89</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.008</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.012</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.077</v>
+        <v>0.064</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.287</v>
+        <v>0.305</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.245</v>
+        <v>0.225</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.953</v>
+        <v>0.938</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.762</v>
+        <v>0.752</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>3.049</v>
+        <v>2.985</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.24</v>
+        <v>0.231</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.95</v>
+        <v>12.96</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.071</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.036</v>
+        <v>-0.036</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.304</v>
+        <v>0.211</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.624</v>
+        <v>0.512</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.904</v>
+        <v>0.816</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.312</v>
+        <v>0.212</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.588</v>
+        <v>0.475</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.57</v>
+        <v>95.71</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="AH15" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.108</v>
+        <v>0.109</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.435</v>
+        <v>0.437</v>
       </c>
       <c r="AM15" s="1" t="n">
         <v>0.085</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.415</v>
+        <v>0.409</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.117</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>121.44</v>
+        <v>120.99</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>-0.003</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.036</v>
+        <v>0.023</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.092</v>
+        <v>0.097</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.058</v>
+        <v>0.049</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.429</v>
+        <v>0.423</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.775</v>
+        <v>0.766</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.354</v>
+        <v>1.328</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.106</v>
+        <v>0.102</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,34 +2957,34 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.9</v>
+        <v>69.87</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.009</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-0.067</v>
+        <v>-0.075</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.056</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="W16" s="1" t="n">
         <v>-0.138</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.086</v>
+        <v>0.085</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.139</v>
+        <v>0.135</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.71</v>
+        <v>0.702</v>
       </c>
       <c r="AA16" s="1" t="n">
         <v>-0.075</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.25</v>
+        <v>41.36</v>
       </c>
       <c r="AF16" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AG16" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="AG16" s="1" t="n">
-        <v>0.005</v>
-      </c>
       <c r="AH16" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.028</v>
+        <v>0.025</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.096</v>
+        <v>0.089</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.095</v>
+        <v>0.104</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.315</v>
+        <v>0.318</v>
       </c>
       <c r="AM16" s="1" t="n">
         <v>0.048</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.165</v>
+        <v>0.171</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.143</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>145.34</v>
+        <v>144.48</v>
       </c>
       <c r="D17" s="1" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>-0.013</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>0.009</v>
-      </c>
       <c r="G17" s="1" t="n">
-        <v>0.073</v>
+        <v>0.063</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.247</v>
+        <v>0.268</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.153</v>
+        <v>0.141</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.906</v>
+        <v>0.895</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.956</v>
+        <v>0.946</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.137</v>
+        <v>0.13</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.43</v>
+        <v>95.57</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.009</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.181</v>
+        <v>0.167</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.433</v>
+        <v>0.439</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.187</v>
+        <v>0.156</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.611</v>
+        <v>1.588</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.473</v>
+        <v>1.454</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.194</v>
+        <v>3.165</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.275</v>
+        <v>0.264</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.59</v>
+        <v>42.79</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.032</v>
+        <v>0.025</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.052</v>
+        <v>0.057</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.2</v>
+        <v>0.206</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.191</v>
+        <v>-0.188</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.055</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.109</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.27</v>
+        <v>143.66</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.011</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.015</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.006</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.018</v>
+        <v>0.001</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.175</v>
+        <v>0.179</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.077</v>
+        <v>0.055</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.763</v>
+        <v>0.744</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.739</v>
+        <v>0.711</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.205</v>
+        <v>2.175</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.095</v>
+        <v>0.083</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.38</v>
+        <v>29.32</v>
       </c>
       <c r="R19" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="S19" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="S19" s="1" t="n">
-        <v>-0.004</v>
-      </c>
       <c r="T19" s="1" t="n">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.083</v>
+        <v>0.079</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.337</v>
+        <v>0.357</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.18</v>
+        <v>0.167</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.196</v>
+        <v>0.194</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.96</v>
+        <v>50.62</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.007</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.107</v>
+        <v>0.089</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.266</v>
+        <v>0.248</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.253</v>
+        <v>0.233</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.789</v>
+        <v>0.777</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>1.003</v>
+        <v>0.995</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.544</v>
+        <v>1.535</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.273</v>
+        <v>0.265</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.15</v>
+        <v>70.84</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.004</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.012</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.202</v>
+        <v>0.22</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.015</v>
+        <v>-0.004</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.475</v>
+        <v>0.468</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.419</v>
+        <v>0.431</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.169</v>
+        <v>1.193</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.062</v>
+        <v>0.058</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.74</v>
+        <v>101.1</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.049</v>
+        <v>0.052</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.182</v>
+        <v>0.186</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.011</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.203</v>
+        <v>0.208</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.071</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,13 +3409,13 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>27.97</v>
+        <v>28.12</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.008</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>-0.015</v>
@@ -3424,22 +3424,22 @@
         <v>0.108</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.251</v>
+        <v>0.255</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.174</v>
+        <v>0.18</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.42</v>
+        <v>0.428</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.791</v>
+        <v>0.815</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.842</v>
+        <v>0.861</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.369</v>
+        <v>0.376</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>207.68</v>
+        <v>206.25</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.007</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.024</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.033</v>
+        <v>0.022</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.079</v>
+        <v>0.065</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.388</v>
+        <v>0.385</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.37</v>
+        <v>0.346</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.293</v>
+        <v>1.278</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.646</v>
+        <v>1.608</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.083</v>
+        <v>3.066</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.438</v>
+        <v>0.428</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,35 +3487,35 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.65</v>
+        <v>51.78</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>0.006</v>
+        <v>0.009</v>
       </c>
       <c r="AI21" s="1" t="n">
         <v>0.016</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="AK21" s="1" t="n">
         <v>0.041</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.191</v>
+        <v>0.194</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.035</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>65.87</v>
+        <v>67.05</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.002</v>
+        <v>0.025</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.004</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.109</v>
+        <v>0.122</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.285</v>
+        <v>0.287</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.286</v>
+        <v>0.32</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.61</v>
+        <v>0.639</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.172</v>
+        <v>1.205</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.432</v>
+        <v>0.458</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.5</v>
+        <v>102.19</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.013</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.008</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.034</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.039</v>
+        <v>0.025</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.215</v>
+        <v>0.227</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.185</v>
+        <v>0.166</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.851</v>
+        <v>0.827</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.643</v>
+        <v>0.633</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.113</v>
+        <v>2.059</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.081</v>
+        <v>0.068</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.22</v>
+        <v>49.34</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG22" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.197</v>
+        <v>0.2</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.07</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>29.32</v>
+        <v>29.24</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.003</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.014</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.047</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.067</v>
+        <v>0.061</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0.201</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.202</v>
+        <v>0.199</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.466</v>
+        <v>0.475</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>0.997</v>
+        <v>1.01</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.327</v>
+        <v>0.323</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>103.36</v>
+        <v>102.78</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-0.006</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.017</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.077</v>
+        <v>-0.079</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.099</v>
+        <v>0.083</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.169</v>
+        <v>0.188</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.174</v>
+        <v>-0.189</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>1.047</v>
+        <v>1.035</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.794</v>
+        <v>0.803</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.053</v>
+        <v>3.008</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.015</v>
+        <v>0.009</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.53</v>
+        <v>95.89</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
       <c r="AH23" s="1" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.054</v>
+        <v>0.057</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.189</v>
+        <v>0.194</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.143</v>
+        <v>0.148</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.076</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>61.99</v>
+        <v>62.58</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.011</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.013</v>
+        <v>0.026</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.052</v>
+        <v>0.059</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.192</v>
+        <v>0.206</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.267</v>
+        <v>0.28</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.074</v>
+        <v>1.094</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.839</v>
+        <v>0.841</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.192</v>
+        <v>1.217</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.341</v>
+        <v>0.354</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.95</v>
+        <v>36.76</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.005</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.003</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.027</v>
+        <v>0.013</v>
       </c>
       <c r="U24" s="1" t="n">
         <v>0.134</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.356</v>
+        <v>0.378</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.253</v>
+        <v>0.241</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.208</v>
+        <v>0.201</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.15</v>
+        <v>0.142</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.277</v>
+        <v>0.27</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>112.1</v>
+        <v>112.42</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="AH24" s="1" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="AK24" s="1" t="n">
         <v>0.052</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.27</v>
+        <v>0.273</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.006</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.085</v>
+        <v>0.088</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.53</v>
+        <v>42.84</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.001</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.025</v>
+        <v>0.043</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.053</v>
+        <v>0.06</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.17</v>
+        <v>0.194</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.206</v>
+        <v>0.223</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.854</v>
+        <v>0.867</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.047</v>
+        <v>1.048</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.613</v>
+        <v>1.631</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.212</v>
+        <v>0.221</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.19</v>
+        <v>83.96</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.014</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.039</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.079</v>
+        <v>0.063</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.302</v>
+        <v>0.298</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.118</v>
+        <v>0.085</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.557</v>
+        <v>0.534</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.679</v>
+        <v>0.673</v>
       </c>
       <c r="Z25" s="1" t="n">
-        <v>1.173</v>
+        <v>1.13</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.077</v>
+        <v>0.062</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.38</v>
+        <v>93.15</v>
       </c>
       <c r="AF25" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AG25" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="AG25" s="1" t="n">
-        <v>0.001</v>
-      </c>
       <c r="AH25" s="1" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.027</v>
+        <v>0.026</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.067</v>
+        <v>0.064</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.32</v>
+        <v>0.317</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.308</v>
+        <v>0.306</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.519</v>
+        <v>0.515</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.055</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.02</v>
+        <v>41.99</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.002</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.17</v>
+        <v>0.172</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.199</v>
+        <v>0.188</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.798</v>
+        <v>0.797</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.999</v>
+        <v>0.978</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.758</v>
+        <v>0.761</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.265</v>
+        <v>0.264</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.06</v>
+        <v>58.1</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.016</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>-0.049</v>
+        <v>-0.05</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.029</v>
+        <v>0.007</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.267</v>
+        <v>0.256</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.206</v>
+        <v>0.183</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.675</v>
+        <v>0.648</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.861</v>
+        <v>0.835</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.664</v>
+        <v>0.64</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.133</v>
+        <v>0.115</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.95</v>
+        <v>26.98</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="AJ26" s="1" t="n">
         <v>0.086</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.272</v>
+        <v>0.273</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.155</v>
+        <v>0.157</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.096</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>44.42</v>
+        <v>45.15</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.003</v>
+        <v>0.029</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.012</v>
+        <v>0.03</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.044</v>
+        <v>0.056</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.187</v>
+        <v>0.2</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.757</v>
+        <v>0.786</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.822</v>
+        <v>0.835</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.247</v>
+        <v>1.286</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.266</v>
+        <v>0.287</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.26</v>
+        <v>26.61</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.031</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.022</v>
+        <v>0.03</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.064</v>
+        <v>0.071</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.218</v>
+        <v>0.246</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.124</v>
+        <v>0.139</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>53.06</v>
+        <v>53.13</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>0.024</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="AK27" s="1" t="n">
         <v>0.061</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.217</v>
+        <v>0.219</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.305</v>
+        <v>0.307</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>41.53</v>
+        <v>41.59</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.001</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.012</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.014</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.135</v>
+        <v>0.136</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.273</v>
+        <v>0.278</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.212</v>
+        <v>1.215</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.625</v>
+        <v>0.609</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.008</v>
+        <v>1.021</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.327</v>
+        <v>0.329</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,34 +4269,34 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.55</v>
+        <v>68.52</v>
       </c>
       <c r="R28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="W28" s="1" t="n">
         <v>-0.002</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="T28" s="1" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="U28" s="1" t="n">
-        <v>-0.005</v>
-      </c>
-      <c r="V28" s="1" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="W28" s="1" t="n">
-        <v>-0.001</v>
       </c>
       <c r="X28" s="1" t="n">
         <v>0.214</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.476</v>
+        <v>0.48</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.394</v>
+        <v>1.371</v>
       </c>
       <c r="AA28" s="1" t="n">
         <v>0.062</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.26</v>
+        <v>54.4</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="AH28" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AI28" s="1" t="n">
         <v>0.045</v>
       </c>
       <c r="AJ28" s="1" t="n">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="AK28" s="1" t="n">
         <v>0.071</v>
       </c>
       <c r="AL28" s="1" t="n">
-        <v>0.298</v>
+        <v>0.301</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.063</v>
+        <v>0.067</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.377</v>
+        <v>0.381</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.091</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>56.64</v>
+        <v>57.47</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.02</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.019</v>
+        <v>0.036</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.045</v>
+        <v>0.054</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.122</v>
+        <v>0.142</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.13</v>
+        <v>0.147</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.625</v>
+        <v>0.649</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.52</v>
+        <v>0.533</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.166</v>
+        <v>1.204</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.256</v>
+        <v>0.274</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.78</v>
+        <v>38.85</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.004</v>
       </c>
       <c r="T29" s="1" t="n">
         <v>-0.027</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.032</v>
+        <v>-0.031</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.069</v>
+        <v>0.078</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.069</v>
+        <v>0.06</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.42</v>
+        <v>0.422</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.047</v>
+        <v>1.052</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>51.96</v>
+        <v>52.12</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>0.011</v>
+        <v>0.017</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.075</v>
+        <v>0.077</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.098</v>
+        <v>0.097</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="AL29" s="1" t="n">
-        <v>0.291</v>
+        <v>0.295</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.092</v>
+        <v>-0.084</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.094</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>92.98</v>
+        <v>93.68</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.019</v>
+        <v>0.008</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.007</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.025</v>
+        <v>0.022</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.108</v>
+        <v>0.112</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.315</v>
+        <v>0.342</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.219</v>
+        <v>0.217</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.763</v>
+        <v>0.777</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.324</v>
+        <v>0.326</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.028</v>
+        <v>1.031</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.301</v>
+        <v>0.31</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.94</v>
+        <v>45.52</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.009</v>
       </c>
       <c r="S30" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="T30" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.024</v>
       </c>
       <c r="U30" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.043</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="W30" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.036</v>
       </c>
       <c r="X30" s="1" t="n">
-        <v>0.127</v>
+        <v>0.117</v>
       </c>
       <c r="Y30" s="1" t="n">
-        <v>0.427</v>
+        <v>0.417</v>
       </c>
       <c r="Z30" s="1" t="n">
-        <v>0.609</v>
+        <v>0.574</v>
       </c>
       <c r="AA30" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,37 +4546,37 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.61</v>
+        <v>24.55</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.002</v>
       </c>
       <c r="AG30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AH30" s="1" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.038</v>
+        <v>0.034</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.082</v>
+        <v>0.08</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.074</v>
+        <v>0.071</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="AM30" s="1" t="n">
-        <v>0.352</v>
+        <v>0.355</v>
       </c>
       <c r="AN30" s="1" t="n">
-        <v>0.586</v>
+        <v>0.588</v>
       </c>
       <c r="AO30" s="1" t="n">
-        <v>0.063</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="31" ht="25" customHeight="1">
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.13</v>
+        <v>17.1</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.002</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.015</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.029</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>0.039</v>
+        <v>0.033</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.159</v>
+        <v>0.155</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.43</v>
+        <v>0.427</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.693</v>
+        <v>0.692</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.748</v>
+        <v>0.739</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.097</v>
+        <v>0.095</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.08</v>
+        <v>60.02</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.014</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.083</v>
+        <v>0.069</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.057</v>
+        <v>0.065</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.06</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.207</v>
+        <v>0.206</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.378</v>
+        <v>0.362</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.365</v>
+        <v>1.344</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.04</v>
+        <v>0.039</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.8</v>
+        <v>80.51</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="AG31" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AH31" s="1" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AI31" s="1" t="n">
-        <v>0.027</v>
+        <v>0.02</v>
       </c>
       <c r="AJ31" s="1" t="n">
-        <v>0.076</v>
+        <v>0.072</v>
       </c>
       <c r="AK31" s="1" t="n">
-        <v>0.076</v>
+        <v>0.07</v>
       </c>
       <c r="AL31" s="1" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
       <c r="AM31" s="1" t="n">
-        <v>0.245</v>
+        <v>0.242</v>
       </c>
       <c r="AN31" s="1" t="n">
-        <v>0.614</v>
+        <v>0.601</v>
       </c>
       <c r="AO31" s="1" t="n">
-        <v>0.073</v>
+        <v>0.069</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4706,37 +4706,37 @@
         <v>67</v>
       </c>
       <c r="C32" t="n">
-        <v>40.89</v>
+        <v>40.78</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.003</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.114</v>
+        <v>0.105</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.074</v>
+        <v>0.07</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.073</v>
+        <v>0.07</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>0.494</v>
+        <v>0.484</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>0.947</v>
+        <v>0.942</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0.019</v>
+        <v>0.016</v>
       </c>
       <c r="O32" s="6" t="s">
         <v>168</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.39</v>
+        <v>50.21</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.004</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.011</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.045</v>
+        <v>0.051</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.141</v>
+        <v>0.131</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.066</v>
+        <v>-0.063</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.076</v>
+        <v>-0.098</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.239</v>
+        <v>0.227</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.206</v>
+        <v>1.175</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.003</v>
       </c>
       <c r="AG32" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AH32" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.004</v>
       </c>
       <c r="AI32" s="1" t="n">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.092</v>
+        <v>0.088</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.078</v>
+        <v>0.072</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.352</v>
+        <v>0.348</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.274</v>
+        <v>0.273</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.937</v>
+        <v>0.935</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.078</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>53.76</v>
+        <v>54.07</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.019</v>
+        <v>0.006</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.022</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0.051</v>
+        <v>0.058</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.045</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.663</v>
+        <v>0.669</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>1.079</v>
+        <v>1.064</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0.021</v>
+        <v>0.027</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.34</v>
+        <v>74.18</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.002</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.019</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.064</v>
+        <v>0.058</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.127</v>
+        <v>0.099</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.192</v>
+        <v>0.208</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.056</v>
+        <v>0.05</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.372</v>
+        <v>0.369</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.44</v>
+        <v>0.428</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.7</v>
+        <v>0.676</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.146</v>
+        <v>0.144</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,35 +4903,35 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.23</v>
+        <v>48.36</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AG33" s="1" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="AH33" s="1" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AI33" s="1" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.054</v>
+        <v>0.053</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.21</v>
+        <v>0.213</v>
       </c>
       <c r="AM33" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.002</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1" t="n">
-        <v>0.068</v>
+        <v>0.071</v>
       </c>
     </row>
     <row r="34" ht="25" customHeight="1">
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>81.29</v>
+        <v>81.55</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.016</v>
+        <v>0.003</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>-0.006</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.134</v>
+        <v>0.132</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.215</v>
+        <v>0.231</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.194</v>
+        <v>0.191</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.77</v>
+        <v>0.776</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.504</v>
+        <v>0.512</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>0.987</v>
+        <v>0.983</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.221</v>
+        <v>0.225</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,34 +4981,34 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.39</v>
+        <v>153.42</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="S34" s="1" t="n">
         <v>0.009</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.189</v>
+        <v>0.17</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.281</v>
+        <v>0.303</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="X34" s="1" t="n">
         <v>0.293</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.116</v>
+        <v>0.112</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.499</v>
+        <v>0.501</v>
       </c>
       <c r="AA34" s="1" t="n">
         <v>0.162</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>103.43</v>
+        <v>102.26</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.011</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.057</v>
+        <v>0.045</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.135</v>
+        <v>0.117</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.276</v>
+        <v>0.267</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.251</v>
+        <v>0.234</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.608</v>
+        <v>0.59</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.468</v>
+        <v>0.453</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.072</v>
+        <v>2.037</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.235</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>63.25</v>
+        <v>63.4</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-0.044</v>
+        <v>-0.026</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.023</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.116</v>
+        <v>0.122</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.273</v>
+        <v>0.302</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.327</v>
+        <v>0.313</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.718</v>
+        <v>0.722</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.088</v>
+        <v>-0.096</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.559</v>
+        <v>0.56</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.2</v>
+        <v>59.12</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.015</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.02</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.027</v>
       </c>
       <c r="V35" s="1" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.013</v>
+        <v>0.008</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.262</v>
+        <v>0.261</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.167</v>
+        <v>0.153</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.211</v>
+        <v>2.175</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>21.09</v>
+        <v>20.99</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.026</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.034</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.05</v>
+        <v>0.042</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.318</v>
+        <v>0.312</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.229</v>
+        <v>0.211</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.337</v>
+        <v>0.331</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.135</v>
+        <v>0.132</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.411</v>
+        <v>0.392</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.293</v>
+        <v>0.287</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.05</v>
+        <v>24.79</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>0.033</v>
+        <v>-0.01</v>
       </c>
       <c r="S36" s="1" t="n">
         <v>0.009</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.111</v>
+        <v>0.09</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.197</v>
+        <v>0.16</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.297</v>
+        <v>0.303</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.03</v>
+        <v>0.017</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.024</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.366</v>
+        <v>-0.378</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.115</v>
+        <v>0.103</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>64.99</v>
+        <v>65.17</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.02</v>
+        <v>0.003</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.005</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.115</v>
+        <v>0.105</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.411</v>
+        <v>0.449</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.229</v>
+        <v>0.218</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.138</v>
+        <v>1.144</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>1.033</v>
+        <v>1.047</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.725</v>
+        <v>2.733</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.256</v>
+        <v>0.259</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>124.48</v>
+        <v>120.85</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.029</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.031</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.034</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.041</v>
+        <v>0.002</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.174</v>
+        <v>0.159</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.169</v>
+        <v>0.123</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.892</v>
+        <v>0.837</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.292</v>
+        <v>1.225</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.383</v>
+        <v>2.266</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.137</v>
+        <v>0.103</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>79.32</v>
+        <v>81.15</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.041</v>
+        <v>0.084</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.143</v>
+        <v>0.167</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.263</v>
+        <v>0.286</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.302</v>
+        <v>0.29</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.578</v>
+        <v>0.606</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.545</v>
+        <v>1.603</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.182</v>
+        <v>1.24</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.47</v>
+        <v>2.575</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.602</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>85.17</v>
+        <v>87.88</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.012</v>
+        <v>0.053</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.076</v>
+        <v>0.089</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.166</v>
+        <v>0.203</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.566</v>
+        <v>0.626</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.404</v>
+        <v>0.431</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.863</v>
+        <v>0.922</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.4</v>
+        <v>0.445</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.887</v>
+        <v>0.957</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.674</v>
+        <v>0.727</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>58.25</v>
+        <v>55.09</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.018</v>
+        <v>-0.054</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.062</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.074</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>0.03</v>
+        <v>-0.033</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.232</v>
+        <v>0.168</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.085</v>
+        <v>0.012</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.378</v>
+        <v>0.303</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>1.062</v>
+        <v>0.946</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.202</v>
+        <v>1.084</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.071</v>
+        <v>0.013</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>48.33</v>
+        <v>49.17</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>0.033</v>
+        <v>0.017</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.085</v>
+        <v>0.1</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.247</v>
+        <v>0.274</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.411</v>
+        <v>0.429</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.643</v>
+        <v>0.652</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.683</v>
+        <v>0.701</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>1.139</v>
+        <v>1.193</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>2.14</v>
+        <v>2.218</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.836</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.65</v>
+        <v>24.78</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.011</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.069</v>
+        <v>0.058</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.2</v>
+        <v>0.194</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.508</v>
+        <v>0.495</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.753</v>
+        <v>0.762</v>
       </c>
       <c r="K39" s="1" t="n">
         <v>0.569</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.536</v>
+        <v>0.553</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.593</v>
+        <v>0.602</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.98</v>
+        <v>58.14</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.062</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.076</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.082</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.055</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.232</v>
+        <v>0.156</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>0.076</v>
+        <v>-0.004</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.104</v>
+        <v>0.035</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.808</v>
+        <v>0.692</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.909</v>
+        <v>0.79</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>0.047</v>
+        <v>-0.017</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>151.25</v>
+        <v>155.64</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>0.012</v>
+        <v>0.029</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.054</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.18</v>
+        <v>0.227</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.217</v>
+        <v>0.207</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.72</v>
+        <v>0.757</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.672</v>
+        <v>0.705</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.807</v>
+        <v>0.859</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.859</v>
+        <v>0.919</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.56</v>
+        <v>0.586</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.821</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>66.03</v>
+        <v>67.33</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.011</v>
+        <v>0.02</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.035</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.084</v>
+        <v>0.104</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.249</v>
+        <v>0.26</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.419</v>
+        <v>0.436</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.432</v>
+        <v>0.441</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>1.077</v>
+        <v>1.117</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.139</v>
+        <v>1.178</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.713</v>
+        <v>0.741</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.594</v>
+        <v>0.626</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.42</v>
+        <v>126.21</v>
       </c>
       <c r="R40" s="1" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>-0.054</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>-0.029</v>
+      </c>
+      <c r="U40" s="1" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="V40" s="1" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="W40" s="1" t="n">
         <v>-0.026</v>
       </c>
-      <c r="S40" s="1" t="n">
-        <v>-0.033</v>
-      </c>
-      <c r="T40" s="1" t="n">
-        <v>-0.008</v>
-      </c>
-      <c r="U40" s="1" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V40" s="1" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="W40" s="1" t="n">
-        <v>0.016</v>
-      </c>
       <c r="X40" s="1" t="n">
-        <v>0.654</v>
+        <v>0.601</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.464</v>
+        <v>1.385</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.137</v>
+        <v>2.012</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.044</v>
+        <v>0.01</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>30.74</v>
+        <v>30.84</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.026</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.059</v>
+        <v>0.065</v>
       </c>
       <c r="AI40" s="1" t="n">
-        <v>-0.104</v>
+        <v>-0.098</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.06</v>
+        <v>0.052</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.127</v>
+        <v>0.125</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.497</v>
+        <v>0.501</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.604</v>
+        <v>0.624</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.921</v>
+        <v>0.912</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.222</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>26.89</v>
+        <v>26.97</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.002</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.015</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="H41" s="1" t="n">
         <v>0.169</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.531</v>
+        <v>0.535</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.578</v>
+        <v>0.583</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.093</v>
+        <v>1.105</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.144</v>
+        <v>0.148</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>173.49</v>
+        <v>170.22</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.019</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.034</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.031</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>0.02</v>
+        <v>-0.006</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.303</v>
+        <v>0.307</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.291</v>
+        <v>0.247</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.115</v>
+        <v>1.075</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>1.879</v>
+        <v>1.816</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.201</v>
+        <v>4.073</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.214</v>
+        <v>0.191</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,37 +5842,37 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>65.56</v>
+        <v>65.86</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.004</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.012</v>
+        <v>0.016</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>0.083</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.222</v>
+        <v>0.234</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.21</v>
+        <v>0.209</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.791</v>
+        <v>0.799</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.599</v>
+        <v>0.601</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.031</v>
+        <v>1.041</v>
       </c>
       <c r="M42" s="1" t="n">
-        <v>0.275</v>
+        <v>0.281</v>
       </c>
       <c r="O42" s="6" t="s">
         <v>188</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.17</v>
+        <v>33.24</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.027</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.054</v>
       </c>
       <c r="T42" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.032</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.039</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.267</v>
+        <v>0.252</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.177</v>
+        <v>0.133</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.756</v>
+        <v>0.709</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.093</v>
+        <v>-0.117</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.094</v>
+        <v>0.065</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>93.85</v>
+        <v>94.34</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.004</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.003</v>
+        <v>0.011</v>
       </c>
       <c r="G43" s="1" t="n">
-        <v>0.066</v>
+        <v>0.067</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.185</v>
+        <v>0.196</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.192</v>
+        <v>0.195</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.82</v>
+        <v>0.829</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.687</v>
+        <v>0.688</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.046</v>
+        <v>1.058</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.263</v>
+        <v>0.269</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>196.6</v>
+        <v>196.48</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>0.01</v>
+        <v>-0.001</v>
       </c>
       <c r="S43" s="1" t="n">
         <v>-0.021</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.032</v>
+        <v>0.034</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.113</v>
+        <v>0.11</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.437</v>
+        <v>0.488</v>
       </c>
       <c r="W43" s="1" t="n">
-        <v>0.278</v>
+        <v>0.277</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.527</v>
+        <v>1.535</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>7.014</v>
+        <v>6.989</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.234</v>
+        <v>0.233</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>58.11</v>
+        <v>55.74</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>0.02</v>
+        <v>-0.041</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.139</v>
+        <v>0.083</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.264</v>
+        <v>0.257</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.483</v>
+        <v>0.394</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.557</v>
+        <v>1.454</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.974</v>
+        <v>0.77</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>2.382</v>
+        <v>2.244</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>5.335</v>
+        <v>5.1</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.898</v>
+        <v>3.715</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>1.17</v>
+        <v>1.081</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,34 +6076,34 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.27</v>
+        <v>40.29</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.008</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.021</v>
+        <v>0.03</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.191</v>
+        <v>0.206</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.176</v>
+        <v>0.169</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.023</v>
+        <v>1.016</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.626</v>
+        <v>1.618</v>
       </c>
       <c r="M44" s="1" t="n">
         <v>0.179</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.29</v>
+        <v>112.8</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.025</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.039</v>
+        <v>0.027</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.272</v>
+        <v>0.297</v>
       </c>
       <c r="W44" s="1" t="n">
         <v>0.226</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.714</v>
+        <v>0.7</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>4.738</v>
+        <v>4.66</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.132</v>
+        <v>0.127</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>68.99</v>
+        <v>67.81</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>0</v>
+        <v>-0.017</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.062</v>
+        <v>-0.065</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-0.071</v>
+        <v>-0.104</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>-0.083</v>
+        <v>-0.098</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>0.038</v>
+        <v>0.001</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>-0.052</v>
+        <v>-0.063</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.034</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.384</v>
+        <v>1.361</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.43</v>
+        <v>-0.443</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.087</v>
+        <v>-0.102</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,37 +6195,37 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>53.84</v>
+        <v>54.19</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.016</v>
+        <v>0.007</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.005</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.106</v>
+        <v>0.108</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.292</v>
+        <v>0.315</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.696</v>
+        <v>0.707</v>
       </c>
       <c r="K45" s="1" t="n">
-        <v>0.328</v>
+        <v>0.331</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>0.858</v>
+        <v>0.868</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>0.3</v>
+        <v>0.308</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>194</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>86.54</v>
+        <v>85.24</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.015</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.043</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.034</v>
+        <v>0.016</v>
       </c>
       <c r="V45" s="1" t="n">
         <v>0.209</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.219</v>
+        <v>0.197</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.096</v>
+        <v>1.064</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.758</v>
+        <v>0.738</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.444</v>
+        <v>2.373</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.162</v>
+        <v>0.144</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>28.25</v>
+        <v>27.78</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>0</v>
+        <v>-0.017</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>-0.061</v>
+        <v>-0.062</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>-0.069</v>
+        <v>-0.099</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.065</v>
+        <v>-0.079</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>0.045</v>
+        <v>0.008</v>
       </c>
       <c r="AK45" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.054</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>-0.038</v>
+        <v>-0.054</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.587</v>
+        <v>1.57</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.67</v>
+        <v>0.632</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>-0.057</v>
+        <v>-0.072</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.5</v>
+        <v>30.23</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.009</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.09</v>
+        <v>0.074</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.267</v>
+        <v>0.263</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>287.64</v>
+        <v>288.98</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0.031</v>
+        <v>0.005</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.004</v>
       </c>
       <c r="T46" s="1" t="n">
         <v>0.118</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.17</v>
+        <v>0.179</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.659</v>
+        <v>0.734</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.274</v>
+        <v>0.28</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.959</v>
+        <v>1.973</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.751</v>
+        <v>1.777</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>9.872</v>
+        <v>9.897</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.342</v>
+        <v>0.349</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.88</v>
+        <v>11.58</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.025</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>-0.093</v>
+        <v>-0.091</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>-0.08</v>
+        <v>-0.124</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.236</v>
+        <v>-0.267</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.316</v>
+        <v>-0.32</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.152</v>
+        <v>-0.138</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.867</v>
+        <v>-0.871</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.76</v>
+        <v>-0.764</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.934</v>
+        <v>-0.935</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.293</v>
+        <v>-0.311</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6423,37 +6423,37 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>44.64</v>
+        <v>44.7</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.004</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.145</v>
+        <v>0.152</v>
       </c>
       <c r="I47" s="1" t="n">
-        <v>0.137</v>
+        <v>0.139</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.737</v>
+        <v>0.739</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.586</v>
+        <v>0.58</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.234</v>
+        <v>1.237</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>0.22</v>
+        <v>0.221</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>198</v>
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>127.84</v>
+        <v>127.61</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>0.012</v>
+        <v>-0.002</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.014</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.129</v>
+        <v>0.124</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.453</v>
+        <v>0.495</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.314</v>
+        <v>0.312</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.885</v>
+        <v>1.88</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.406</v>
+        <v>1.41</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.536</v>
+        <v>6.49</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.254</v>
+        <v>0.252</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.56</v>
+        <v>36.71</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.004</v>
+        <v>0.014</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>-0.007</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.233</v>
+        <v>0.232</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.308</v>
+        <v>0.304</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.949</v>
+        <v>0.957</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.957</v>
+        <v>0.959</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.137</v>
+        <v>1.149</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.389</v>
+        <v>0.395</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6581,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>48.68</v>
+        <v>48.34</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>0.021</v>
+        <v>-0.007</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.025</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.087</v>
+        <v>0.083</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.167</v>
+        <v>0.156</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.581</v>
+        <v>0.614</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.376</v>
+        <v>0.368</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>1.172</v>
+        <v>1.156</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.491</v>
+        <v>0.48</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.313</v>
+        <v>0.304</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6618,37 +6618,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.58</v>
+        <v>26.73</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.009</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.048</v>
+        <v>-0.037</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.037</v>
+        <v>0.033</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>0.017</v>
+        <v>0.008</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.065</v>
+        <v>0.081</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.449</v>
+        <v>0.457</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.955</v>
+        <v>0.973</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.402</v>
+        <v>0.416</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>47.4</v>
+        <v>47.49</v>
       </c>
       <c r="D49" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E49" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="E49" s="1" t="n">
-        <v>-0.014</v>
-      </c>
       <c r="F49" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.004</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.063</v>
+        <v>0.057</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.201</v>
+        <v>0.205</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.222</v>
+        <v>0.218</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.894</v>
+        <v>0.897</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.594</v>
+        <v>0.59</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.397</v>
+        <v>1.402</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.283</v>
+        <v>0.285</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>34.94</v>
+        <v>35.13</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="S49" s="1" t="n">
         <v>-0.022</v>
       </c>
       <c r="T49" s="1" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.643</v>
+        <v>0.7</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.29</v>
+        <v>0.297</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.42</v>
+        <v>17.51</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>0.009</v>
+        <v>0.005</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.003</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.025</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.007</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.107</v>
+        <v>-0.106</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.011</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.369</v>
+        <v>-0.366</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.238</v>
+        <v>-0.236</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.072</v>
+        <v>-0.067</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6785,37 +6785,37 @@
         <v>205</v>
       </c>
       <c r="Q50" t="n">
-        <v>33.19</v>
+        <v>32.83</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.011</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.005</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.039</v>
+        <v>0.032</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.139</v>
+        <v>0.121</v>
       </c>
       <c r="V50" s="1" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="W50" s="1" t="n">
         <v>0.283</v>
       </c>
-      <c r="W50" s="1" t="n">
-        <v>0.316</v>
-      </c>
       <c r="X50" s="1" t="n">
-        <v>0.722</v>
+        <v>0.704</v>
       </c>
       <c r="Y50" s="1" t="n">
-        <v>0.341</v>
+        <v>0.33</v>
       </c>
       <c r="Z50" s="1" t="n">
-        <v>0.474</v>
+        <v>0.456</v>
       </c>
       <c r="AA50" s="1" t="n">
-        <v>0.258</v>
+        <v>0.245</v>
       </c>
       <c r="AC50" s="6" t="s">
         <v>313</v>
@@ -6824,37 +6824,37 @@
         <v>314</v>
       </c>
       <c r="AE50" t="n">
-        <v>4.03</v>
+        <v>4.05</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.01</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.056</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.096</v>
+        <v>-0.094</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.148</v>
+        <v>-0.147</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.225</v>
+        <v>-0.224</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.539</v>
+        <v>-0.537</v>
       </c>
       <c r="AM50" s="1" t="n">
-        <v>-0.328</v>
+        <v>-0.325</v>
       </c>
       <c r="AN50" s="1" t="n">
-        <v>-0.593</v>
+        <v>-0.585</v>
       </c>
       <c r="AO50" s="1" t="n">
-        <v>-0.164</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="51" ht="25" customHeight="1">
@@ -6880,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>64.13</v>
+        <v>63.52</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.026</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.016</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.056</v>
+        <v>0.041</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.333</v>
+        <v>0.354</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.308</v>
+        <v>0.305</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.786</v>
+        <v>0.778</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.61</v>
+        <v>1.577</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.253</v>
+        <v>0.241</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6919,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.59</v>
+        <v>21.65</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.009</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.033</v>
       </c>
       <c r="AI51" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.008</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.184</v>
+        <v>-0.182</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.335</v>
+        <v>0.347</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.183</v>
+        <v>0.192</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>63.17</v>
+        <v>61.43</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.028</v>
       </c>
       <c r="E52" s="1" t="n">
-        <v>-0.098</v>
+        <v>-0.106</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>-0.036</v>
+        <v>-0.074</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.094</v>
       </c>
       <c r="H52" s="1" t="n">
-        <v>0.323</v>
+        <v>0.281</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.655</v>
+        <v>0.592</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.191</v>
+        <v>0.158</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>57.97</v>
+        <v>57.69</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.005</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.037</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.067</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.077</v>
+        <v>0.074</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.404</v>
+        <v>0.434</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.24</v>
+        <v>1.229</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.176</v>
+        <v>0.171</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.179</v>
+        <v>2.103</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.373</v>
+        <v>0.366</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>30.15</v>
+        <v>29.24</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>-0.03</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-0.118</v>
+        <v>-0.109</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>-0.113</v>
+        <v>-0.14</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.308</v>
+        <v>0.141</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.479</v>
+        <v>1.435</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.534</v>
+        <v>0.475</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.192</v>
+        <v>0.156</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>116.64</v>
+        <v>115.32</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.011</v>
       </c>
       <c r="S53" s="1" t="n">
         <v>-0.028</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.051</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.11</v>
+        <v>0.076</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.594</v>
+        <v>0.571</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>2.109</v>
+        <v>2.074</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>1</v>
+        <v>0.978</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.399</v>
+        <v>0.383</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>9.96</v>
+        <v>10.05</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.009</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.031</v>
       </c>
       <c r="AH53" s="1" t="n">
-        <v>-0.07</v>
+        <v>-0.053</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.097</v>
+        <v>-0.09</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.127</v>
+        <v>-0.133</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.236</v>
+        <v>-0.21</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.096</v>
+        <v>0.106</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.586</v>
+        <v>0.593</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.054</v>
+        <v>0.061</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.129</v>
+        <v>-0.121</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>68.54</v>
+        <v>67.17</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.02</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.019</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.05</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>-0.003</v>
+        <v>-0.046</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.162</v>
+        <v>0.159</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.07</v>
+        <v>0.038</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.939</v>
+        <v>0.901</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.62</v>
+        <v>0.578</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.261</v>
+        <v>1.217</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.065</v>
+        <v>0.043</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>116.84</v>
+        <v>115.75</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.009</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.018</v>
+        <v>0.012</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.08</v>
+        <v>0.088</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.122</v>
+        <v>0.11</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.18</v>
+        <v>0.179</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.171</v>
+        <v>0.14</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.635</v>
+        <v>0.62</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.704</v>
+        <v>0.672</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.765</v>
+        <v>1.736</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.235</v>
+        <v>0.223</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.66</v>
+        <v>38.69</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.038</v>
+        <v>0.035</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.084</v>
+        <v>0.085</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.152</v>
+        <v>0.149</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.126</v>
+        <v>0.12</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.438</v>
+        <v>0.442</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.305</v>
+        <v>0.301</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.107</v>
+        <v>0.108</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>92.9</v>
+        <v>91.89</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>0.013</v>
+        <v>-0.011</v>
       </c>
       <c r="S55" s="1" t="n">
-        <v>0.023</v>
+        <v>0.015</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.091</v>
+        <v>0.099</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.141</v>
+        <v>0.128</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.212</v>
+        <v>0.21</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.186</v>
+        <v>0.151</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.64</v>
+        <v>0.622</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.71</v>
+        <v>0.674</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.865</v>
+        <v>1.83</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.253</v>
+        <v>0.239</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,35 +7418,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>36.58</v>
+        <v>39.97</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.012</v>
+        <v>0.093</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.1</v>
+        <v>0.203</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>0.079</v>
+        <v>0.158</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.198</v>
+        <v>-0.129</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.465</v>
+        <v>-0.455</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.321</v>
+        <v>-0.251</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.893</v>
+        <v>-0.884</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-0.974</v>
+        <v>-0.972</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.201</v>
+        <v>-0.127</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7455,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>73.1</v>
+        <v>72.81</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>0</v>
+        <v>-0.004</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.002</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>0.026</v>
+        <v>0.019</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.051</v>
+        <v>0.044</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.175</v>
+        <v>0.184</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.038</v>
+        <v>0.028</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.629</v>
+        <v>0.622</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.758</v>
+        <v>0.744</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.434</v>
+        <v>2.447</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.116</v>
+        <v>0.112</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>96.61</v>
+        <v>96.32</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.003</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.004</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.027</v>
+        <v>0.013</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.077</v>
+        <v>0.076</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.033</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.336</v>
+        <v>0.34</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.767</v>
+        <v>0.748</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>83.25</v>
+        <v>83.43</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0.008</v>
+        <v>0.018</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.004</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>0.016</v>
+        <v>0.01</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.034</v>
+        <v>0.039</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.019</v>
+        <v>-0.027</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.499</v>
+        <v>0.524</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.881</v>
+        <v>0.866</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.044</v>
+        <v>0.047</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>90.9</v>
+        <v>90.58</v>
       </c>
       <c r="R59" s="1" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="S59" s="1" t="n">
         <v>0.015</v>
       </c>
-      <c r="S59" s="1" t="n">
-        <v>0.013</v>
-      </c>
       <c r="T59" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.008</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0.031</v>
+        <v>0.018</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.082</v>
+        <v>0.079</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.034</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.354</v>
+        <v>0.349</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.354</v>
+        <v>0.359</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.711</v>
+        <v>0.692</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>22.14</v>
+        <v>21.78</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>0</v>
+        <v>-0.016</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.028</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.043</v>
+        <v>0.013</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.169</v>
+        <v>0.164</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.042</v>
+        <v>0.012</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.399</v>
+        <v>0.376</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.258</v>
+        <v>0.25</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.347</v>
+        <v>0.327</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.091</v>
+        <v>0.073</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>87.4</v>
+        <v>87.2</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>0.014</v>
+        <v>-0.002</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.009</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.074</v>
+        <v>0.061</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.236</v>
+        <v>0.243</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.1</v>
+        <v>0.091</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.406</v>
+        <v>0.403</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.814</v>
+        <v>0.809</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.482</v>
+        <v>1.47</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.093</v>
+        <v>0.091</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/16/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/17/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>330.8</v>
+        <v>333.12</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.02</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.013</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.075</v>
+        <v>0.077</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.305</v>
+        <v>0.317</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.19</v>
+        <v>0.197</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.112</v>
+        <v>1.071</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.187</v>
+        <v>1.203</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.304</v>
+        <v>3.334</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.153</v>
+        <v>0.161</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.42</v>
+        <v>45.72</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.007</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.029</v>
+        <v>0.007</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.037</v>
       </c>
       <c r="U5" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.092</v>
+        <v>0.074</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.013</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.145</v>
+        <v>0.139</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.279</v>
+        <v>2.301</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.656</v>
+        <v>0.667</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,28 +1747,28 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>83.1</v>
+        <v>83.09</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="AH5" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AI5" s="1" t="n">
         <v>0.017</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.046</v>
+        <v>0.047</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.141</v>
+        <v>0.139</v>
       </c>
       <c r="AM5" s="1" t="n">
         <v>0.078</v>
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>663.98</v>
+        <v>667.69</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.006</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.018</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.265</v>
+        <v>0.271</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.149</v>
+        <v>0.155</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.93</v>
+        <v>0.892</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.048</v>
+        <v>1.06</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.851</v>
+        <v>2.872</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.138</v>
+        <v>0.145</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>86.77</v>
+        <v>87.06</v>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.003</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.048</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.054</v>
       </c>
       <c r="U6" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.031</v>
       </c>
       <c r="V6" s="1" t="n">
-        <v>0.11</v>
+        <v>0.085</v>
       </c>
       <c r="W6" s="1" t="n">
-        <v>-0.044</v>
+        <v>-0.049</v>
       </c>
       <c r="X6" s="1" t="n">
-        <v>0.027</v>
+        <v>0.018</v>
       </c>
       <c r="Y6" s="1" t="n">
-        <v>2.692</v>
+        <v>2.705</v>
       </c>
       <c r="Z6" s="1" t="n">
-        <v>0.714</v>
+        <v>0.719</v>
       </c>
       <c r="AA6" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.011</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,37 +1866,37 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>120.35</v>
+        <v>120.18</v>
       </c>
       <c r="AF6" s="1" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="AG6" s="1" t="n">
         <v>0.003</v>
       </c>
-      <c r="AG6" s="1" t="n">
-        <v>0.009</v>
-      </c>
       <c r="AH6" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AI6" s="1" t="n">
         <v>0.029</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.16</v>
+        <v>0.156</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="1" t="n">
-        <v>0.161</v>
+        <v>0.159</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.069</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>64.34</v>
+        <v>64.47</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.002</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.019</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.013</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.028</v>
+        <v>0.019</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.191</v>
+        <v>0.183</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.501</v>
+        <v>0.464</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.734</v>
+        <v>0.737</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.614</v>
+        <v>1.619</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.25</v>
+        <v>18.4</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.008</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.035</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.026</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.072</v>
+        <v>0.067</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.157</v>
+        <v>0.128</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.09</v>
+        <v>-0.082</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.156</v>
+        <v>0.138</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.697</v>
+        <v>1.719</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.466</v>
+        <v>-0.461</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.064</v>
+        <v>-0.056</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>97.55</v>
+        <v>97.39</v>
       </c>
       <c r="AF7" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AG7" s="1" t="n">
         <v>0.005</v>
-      </c>
-      <c r="AG7" s="1" t="n">
-        <v>0.013</v>
       </c>
       <c r="AH7" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.046</v>
+        <v>0.044</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="AK7" s="1" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.143</v>
+        <v>0.14</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.091</v>
+        <v>-0.092</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.12</v>
+        <v>0.118</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.086</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>245.06</v>
+        <v>243.41</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-0.021</v>
+        <v>-0.007</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.028</v>
+        <v>0.019</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.112</v>
+        <v>0.09</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.332</v>
+        <v>0.313</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.093</v>
+        <v>0.088</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.527</v>
+        <v>0.47</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.605</v>
+        <v>0.594</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.419</v>
+        <v>1.403</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.118</v>
+        <v>0.11</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.79</v>
+        <v>16.53</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.015</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.04</v>
+        <v>0.048</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.128</v>
+        <v>0.098</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.247</v>
+        <v>0.23</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.499</v>
+        <v>0.45</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.265</v>
+        <v>0.258</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>0</v>
+        <v>-0.034</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.144</v>
+        <v>-0.157</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.972</v>
+        <v>0.942</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.491</v>
+        <v>0.468</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>104.77</v>
+        <v>104.57</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.019</v>
+        <v>0.005</v>
       </c>
       <c r="AH8" s="1" t="n">
         <v>0.012</v>
       </c>
       <c r="AI8" s="1" t="n">
-        <v>0.073</v>
+        <v>0.071</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.057</v>
+        <v>0.062</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.25</v>
+        <v>-0.251</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.01</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.085</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.55</v>
+        <v>24.67</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.005</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.011</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.026</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.154</v>
+        <v>0.136</v>
       </c>
       <c r="W9" s="1" t="n">
         <v>0.021</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.218</v>
+        <v>0.207</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.877</v>
+        <v>1.891</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>0.883</v>
+        <v>0.893</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.094</v>
+        <v>0.099</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>91.34</v>
+        <v>91.2</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.002</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.024</v>
+        <v>0.006</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="AI9" s="1" t="n">
-        <v>0.085</v>
+        <v>0.083</v>
       </c>
       <c r="AJ9" s="1" t="n">
-        <v>0.058</v>
+        <v>0.065</v>
       </c>
       <c r="AK9" s="1" t="n">
-        <v>0.001</v>
+        <v>0.015</v>
       </c>
       <c r="AL9" s="1" t="n">
-        <v>0.039</v>
+        <v>0.042</v>
       </c>
       <c r="AM9" s="1" t="n">
-        <v>-0.343</v>
+        <v>-0.344</v>
       </c>
       <c r="AN9" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.04</v>
       </c>
       <c r="AO9" s="1" t="n">
-        <v>0.08</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.22</v>
+        <v>146.9</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.009</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.01</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.042</v>
+        <v>0.025</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.182</v>
+        <v>0.165</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.022</v>
       </c>
       <c r="X10" s="1" t="n">
-        <v>0.426</v>
+        <v>0.38</v>
       </c>
       <c r="Y10" s="1" t="n">
-        <v>0.571</v>
+        <v>0.557</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1.45</v>
+        <v>1.429</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>0.153</v>
+        <v>0.143</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.9</v>
+        <v>111.68</v>
       </c>
       <c r="AF10" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AG10" s="1" t="n">
         <v>0.002</v>
       </c>
-      <c r="AG10" s="1" t="n">
-        <v>0.007</v>
-      </c>
       <c r="AH10" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AI10" s="1" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.15</v>
+        <v>0.144</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.069</v>
+        <v>0.067</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.324</v>
+        <v>0.322</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.077</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>201.84</v>
+        <v>202.84</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.005</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.017</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.158</v>
+        <v>0.161</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.063</v>
+        <v>0.069</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.553</v>
+        <v>0.528</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.804</v>
+        <v>0.813</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.536</v>
+        <v>1.548</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.04</v>
+        <v>45.48</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.012</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.027</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.073</v>
+        <v>0.069</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.184</v>
+        <v>0.163</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.393</v>
+        <v>0.363</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.149</v>
+        <v>0.145</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.513</v>
+        <v>0.452</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.085</v>
+        <v>1.06</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.163</v>
+        <v>2.125</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.341</v>
+        <v>0.325</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2413,31 +2413,31 @@
         <v>242</v>
       </c>
       <c r="AE11" t="n">
-        <v>103.5</v>
+        <v>103.45</v>
       </c>
       <c r="AF11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="AG11" s="1" t="n">
-        <v>0.003</v>
       </c>
       <c r="AH11" s="1" t="n">
         <v>0.001</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="AJ11" s="1" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="AK11" s="1" t="n">
         <v>0.061</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.169</v>
+        <v>0.167</v>
       </c>
       <c r="AM11" s="1" t="n">
-        <v>0.205</v>
+        <v>0.204</v>
       </c>
       <c r="AN11" s="1" t="n">
         <v>0.359</v>
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>464.77</v>
+        <v>467.12</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.005</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.017</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.003</v>
+        <v>0.012</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.363</v>
+        <v>0.37</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.227</v>
+        <v>0.232</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.286</v>
+        <v>1.227</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.131</v>
+        <v>1.141</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.191</v>
+        <v>4.217</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.161</v>
+        <v>0.167</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>72.16</v>
+        <v>66.94</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0.035</v>
+        <v>-0.072</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.122</v>
+        <v>0.044</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.227</v>
+        <v>0.144</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.654</v>
+        <v>0.549</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.671</v>
+        <v>0.578</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>1.141</v>
+        <v>0.964</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>3.304</v>
+        <v>2.891</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.378</v>
+        <v>1.206</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>5.36</v>
+        <v>4.9</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.581</v>
+        <v>1.394</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2535,22 +2535,22 @@
         <v>107.42</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="AH12" s="1" t="n">
         <v>0.01</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.047</v>
+        <v>0.049</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="AK12" s="1" t="n">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="AL12" s="1" t="n">
         <v>0.135</v>
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>192.29</v>
+        <v>193.46</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.006</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>-0.018</v>
+        <v>0.013</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>0.051</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.068</v>
+        <v>0.076</v>
       </c>
       <c r="J13" s="1" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K13" s="1" t="n">
         <v>0.918</v>
       </c>
-      <c r="K13" s="1" t="n">
-        <v>0.907</v>
-      </c>
       <c r="L13" s="1" t="n">
-        <v>2.518</v>
+        <v>2.539</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.087</v>
+        <v>0.094</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.29</v>
+        <v>28.67</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0.036</v>
+        <v>-0.084</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.13</v>
+        <v>0.047</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.244</v>
+        <v>0.167</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.72</v>
+        <v>0.595</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.913</v>
+        <v>0.787</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.261</v>
+        <v>1.084</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.638</v>
+        <v>2.245</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>1.004</v>
+        <v>0.836</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.964</v>
+        <v>3.548</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.718</v>
+        <v>1.491</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.33</v>
+        <v>22.4</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AH13" s="1" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.105</v>
+        <v>0.104</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.088</v>
+        <v>0.091</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.22</v>
+        <v>0.224</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>93.33</v>
+        <v>94.06</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.008</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.001</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.047</v>
+        <v>0.052</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.491</v>
+        <v>0.474</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.548</v>
+        <v>0.56</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.705</v>
+        <v>1.726</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.063</v>
+        <v>0.071</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>39.33</v>
+        <v>38.09</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.031</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.131</v>
+        <v>0.108</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.327</v>
+        <v>0.287</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.593</v>
+        <v>0.523</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.306</v>
+        <v>0.276</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.557</v>
+        <v>0.508</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,37 +2764,37 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.92</v>
+        <v>75.86</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="AG14" s="1" t="n">
-        <v>0.011</v>
+        <v>0.007</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.012</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="AJ14" s="1" t="n">
         <v>0.024</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.224</v>
+        <v>0.21</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.035</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.127</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>252.89</v>
+        <v>252.8</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>-0.008</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.011</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.064</v>
+        <v>0.059</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.305</v>
+        <v>0.3</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.225</v>
+        <v>0.224</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.938</v>
+        <v>0.911</v>
       </c>
       <c r="K15" s="1" t="n">
         <v>0.752</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>2.985</v>
+        <v>2.984</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.231</v>
+        <v>0.23</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.96</v>
+        <v>12.8</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.071</v>
+        <v>-0.013</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.036</v>
+        <v>0.045</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.211</v>
+        <v>0.183</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.512</v>
+        <v>0.439</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.816</v>
+        <v>0.77</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.212</v>
+        <v>0.228</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.475</v>
+        <v>0.456</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,34 +2877,34 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.71</v>
+        <v>95.74</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AH15" s="1" t="n">
         <v>0.007</v>
       </c>
-      <c r="AH15" s="1" t="n">
-        <v>0.006</v>
-      </c>
       <c r="AI15" s="1" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.109</v>
+        <v>0.106</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.091</v>
+        <v>0.099</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.437</v>
+        <v>0.43</v>
       </c>
       <c r="AM15" s="1" t="n">
         <v>0.085</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.409</v>
+        <v>0.41</v>
       </c>
       <c r="AO15" s="1" t="n">
         <v>0.118</v>
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>120.99</v>
+        <v>122.14</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.01</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.012</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.023</v>
+        <v>0.029</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.097</v>
+        <v>0.094</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.049</v>
+        <v>0.058</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.423</v>
+        <v>0.416</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.766</v>
+        <v>0.783</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.328</v>
+        <v>1.35</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.102</v>
+        <v>0.112</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.87</v>
+        <v>70.15</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.017</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-0.075</v>
+        <v>-0.068</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.048</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-0.138</v>
+        <v>-0.124</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.085</v>
+        <v>0.056</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.135</v>
+        <v>0.139</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.702</v>
+        <v>0.709</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.075</v>
+        <v>-0.072</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.36</v>
+        <v>41.52</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>0.006</v>
+        <v>0.013</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.025</v>
+        <v>0.032</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.089</v>
+        <v>0.088</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.104</v>
+        <v>0.109</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.318</v>
+        <v>0.315</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.171</v>
+        <v>0.176</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.146</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>144.48</v>
+        <v>145.28</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.006</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.017</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.268</v>
+        <v>0.273</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.141</v>
+        <v>0.148</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.895</v>
+        <v>0.858</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.946</v>
+        <v>0.957</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.13</v>
+        <v>0.136</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.57</v>
+        <v>95.13</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.005</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.015</v>
+        <v>0.031</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.028</v>
+        <v>0.027</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.167</v>
+        <v>0.149</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.439</v>
+        <v>0.432</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.156</v>
+        <v>0.154</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.588</v>
+        <v>1.51</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.454</v>
+        <v>1.443</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.165</v>
+        <v>3.146</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.264</v>
+        <v>0.258</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.79</v>
+        <v>42.63</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.004</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>0.02</v>
+        <v>0.009</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.009</v>
       </c>
       <c r="AI17" s="1" t="n">
         <v>0.014</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.025</v>
+        <v>0.021</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.057</v>
+        <v>0.053</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.206</v>
+        <v>0.188</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.188</v>
+        <v>-0.191</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.058</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.114</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>143.66</v>
+        <v>144.58</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.006</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.015</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.001</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.179</v>
+        <v>0.182</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.055</v>
+        <v>0.061</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.744</v>
+        <v>0.712</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.711</v>
+        <v>0.722</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.175</v>
+        <v>2.196</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.083</v>
+        <v>0.09</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.32</v>
+        <v>29.17</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.005</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0.006</v>
+        <v>0.027</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.079</v>
+        <v>0.056</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.357</v>
+        <v>0.344</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.167</v>
+        <v>0.157</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.194</v>
+        <v>0.188</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.62</v>
+        <v>50.28</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>-0.007</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.089</v>
+        <v>0.076</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.248</v>
+        <v>0.232</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.233</v>
+        <v>0.225</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.777</v>
+        <v>0.719</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0.995</v>
+        <v>0.982</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.535</v>
+        <v>1.518</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.265</v>
+        <v>0.256</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.84</v>
+        <v>70.95</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.002</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.022</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.013</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.014</v>
+        <v>0.009</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.22</v>
+        <v>0.196</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.016</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.468</v>
+        <v>0.439</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.431</v>
+        <v>0.434</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.193</v>
+        <v>1.196</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>101.1</v>
+        <v>100.96</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="AG20" s="1" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="AH20" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="AI20" s="1" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.052</v>
+        <v>0.055</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.186</v>
+        <v>0.182</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.012</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.208</v>
+        <v>0.207</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.074</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>28.12</v>
+        <v>28.23</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.008</v>
+        <v>0.037</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.012</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.255</v>
+        <v>0.233</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.18</v>
+        <v>0.189</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.428</v>
+        <v>0.406</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.815</v>
+        <v>0.822</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.861</v>
+        <v>0.869</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.376</v>
+        <v>0.382</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>206.25</v>
+        <v>205.93</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.001</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.022</v>
+        <v>0.027</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.065</v>
+        <v>0.055</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.385</v>
+        <v>0.383</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.346</v>
+        <v>0.342</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.278</v>
+        <v>1.216</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.608</v>
+        <v>1.604</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.066</v>
+        <v>3.059</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.428</v>
+        <v>0.426</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,35 +3487,35 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.78</v>
+        <v>51.69</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="AI21" s="1" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="AJ21" s="1" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.194</v>
+        <v>0.187</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>67.05</v>
+        <v>66.13</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>0.018</v>
+        <v>-0.014</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.006</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.122</v>
+        <v>0.106</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.287</v>
+        <v>0.226</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.32</v>
+        <v>0.296</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.639</v>
+        <v>0.58</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.205</v>
+        <v>1.175</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.57</v>
+        <v>0.548</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.458</v>
+        <v>0.438</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.19</v>
+        <v>102.94</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.007</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.021</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.027</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.025</v>
+        <v>0.026</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.227</v>
+        <v>0.221</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.166</v>
+        <v>0.178</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.827</v>
+        <v>0.782</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.633</v>
+        <v>0.645</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.059</v>
+        <v>2.082</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.068</v>
+        <v>0.075</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.34</v>
+        <v>49.39</v>
       </c>
       <c r="AF22" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG22" s="1" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="AH22" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.034</v>
+        <v>0.031</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.06</v>
+        <v>0.067</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.2</v>
+        <v>0.206</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.25</v>
+        <v>0.251</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.073</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>29.24</v>
+        <v>29.71</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.016</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.032</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-0.047</v>
+        <v>-0.04</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.061</v>
+        <v>0.073</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.201</v>
+        <v>0.2</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.095</v>
+        <v>0.115</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.199</v>
+        <v>0.193</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.475</v>
+        <v>0.499</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1.01</v>
+        <v>1.042</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.323</v>
+        <v>0.344</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>102.78</v>
+        <v>103.5</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.007</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0.017</v>
+        <v>0.037</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.079</v>
+        <v>-0.063</v>
       </c>
       <c r="U23" s="1" t="n">
         <v>0.083</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.188</v>
+        <v>0.172</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.189</v>
+        <v>-0.177</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>1.035</v>
+        <v>1.004</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.803</v>
+        <v>0.816</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.008</v>
+        <v>3.036</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.009</v>
+        <v>0.017</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,28 +3723,28 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.89</v>
+        <v>95.88</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="AH23" s="1" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="AI23" s="1" t="n">
         <v>0.046</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.056</v>
+        <v>0.059</v>
       </c>
       <c r="AK23" s="1" t="n">
-        <v>0.057</v>
+        <v>0.063</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.194</v>
+        <v>0.192</v>
       </c>
       <c r="AM23" s="1" t="n">
         <v>0.002</v>
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>62.58</v>
+        <v>62.56</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.011</v>
+        <v>0.025</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.026</v>
+        <v>0.031</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.059</v>
+        <v>0.056</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.206</v>
+        <v>0.197</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.28</v>
+        <v>0.277</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.094</v>
+        <v>1.021</v>
       </c>
       <c r="K24" s="1" t="n">
         <v>0.841</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.217</v>
+        <v>1.216</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.76</v>
+        <v>36.96</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.005</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.052</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.134</v>
+        <v>0.102</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.241</v>
+        <v>0.278</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.201</v>
+        <v>0.169</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.142</v>
+        <v>0.148</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.27</v>
+        <v>0.277</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>112.42</v>
+        <v>112.2</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.012</v>
+        <v>0.008</v>
       </c>
       <c r="AH24" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.054</v>
+        <v>0.05</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.076</v>
+        <v>0.075</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.052</v>
+        <v>0.058</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.273</v>
+        <v>0.265</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.008</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.088</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.84</v>
+        <v>42.86</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.001</v>
+        <v>0.021</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.043</v>
+        <v>0.047</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.194</v>
+        <v>0.186</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.223</v>
+        <v>0.209</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.867</v>
+        <v>0.822</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.048</v>
+        <v>1.049</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.631</v>
+        <v>1.633</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.221</v>
+        <v>0.222</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.96</v>
+        <v>84.02</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.001</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0.005</v>
+        <v>0.038</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.04</v>
       </c>
       <c r="U25" s="1" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="W25" s="1" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="Y25" s="1" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="Z25" s="1" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="AA25" s="1" t="n">
         <v>0.063</v>
-      </c>
-      <c r="V25" s="1" t="n">
-        <v>0.298</v>
-      </c>
-      <c r="W25" s="1" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="X25" s="1" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="Y25" s="1" t="n">
-        <v>0.673</v>
-      </c>
-      <c r="Z25" s="1" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AA25" s="1" t="n">
-        <v>0.062</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.15</v>
+        <v>93.17</v>
       </c>
       <c r="AF25" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.06</v>
+        <v>0.062</v>
       </c>
       <c r="AK25" s="1" t="n">
         <v>0.064</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.317</v>
+        <v>0.309</v>
       </c>
       <c r="AM25" s="1" t="n">
         <v>0.306</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.515</v>
+        <v>0.516</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>41.99</v>
+        <v>42.07</v>
       </c>
       <c r="D26" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.008</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.172</v>
+        <v>0.161</v>
       </c>
       <c r="I26" s="1" t="n">
         <v>0.188</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.797</v>
+        <v>0.752</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.978</v>
+        <v>0.981</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.761</v>
+        <v>0.764</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.264</v>
+        <v>0.266</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>58.1</v>
+        <v>57.89</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.004</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.016</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.058</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>0.007</v>
+        <v>-0.011</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.256</v>
+        <v>0.241</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.183</v>
+        <v>0.179</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.648</v>
+        <v>0.614</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.835</v>
+        <v>0.828</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.64</v>
+        <v>0.634</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.98</v>
+        <v>26.95</v>
       </c>
       <c r="AF26" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG26" s="1" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="AH26" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.086</v>
+        <v>0.084</v>
       </c>
       <c r="AK26" s="1" t="n">
-        <v>0.057</v>
+        <v>0.064</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.273</v>
+        <v>0.261</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.157</v>
+        <v>0.156</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>45.15</v>
+        <v>45.23</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.016</v>
+        <v>0.002</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.029</v>
+        <v>0.045</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.03</v>
+        <v>0.039</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.2</v>
+        <v>0.198</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.786</v>
+        <v>0.73</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.835</v>
+        <v>0.839</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.286</v>
+        <v>1.29</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.287</v>
+        <v>0.289</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>26.61</v>
+        <v>27.05</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0.031</v>
+        <v>0.075</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.03</v>
+        <v>0.047</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.071</v>
+        <v>0.092</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.246</v>
+        <v>0.248</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.139</v>
+        <v>0.16</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.125</v>
+        <v>0.143</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,37 +4189,37 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>53.13</v>
+        <v>53.08</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AH27" s="1" t="n">
         <v>0.004</v>
       </c>
       <c r="AI27" s="1" t="n">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="AJ27" s="1" t="n">
-        <v>0.043</v>
+        <v>0.042</v>
       </c>
       <c r="AK27" s="1" t="n">
         <v>0.061</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.219</v>
+        <v>0.215</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.124</v>
+        <v>0.123</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.307</v>
+        <v>0.306</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>41.59</v>
+        <v>41.38</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.003</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.023</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.136</v>
+        <v>0.125</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.278</v>
+        <v>0.271</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.215</v>
+        <v>1.126</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.609</v>
+        <v>0.601</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.021</v>
+        <v>1.01</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.329</v>
+        <v>0.322</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,37 +4269,37 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.52</v>
+        <v>69.37</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>0.008</v>
+        <v>0.014</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="U28" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.01</v>
       </c>
       <c r="V28" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.017</v>
       </c>
       <c r="W28" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.014</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.214</v>
+        <v>0.215</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.48</v>
+        <v>0.498</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.371</v>
+        <v>1.4</v>
       </c>
       <c r="AA28" s="1" t="n">
-        <v>0.062</v>
+        <v>0.075</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>272</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.4</v>
+        <v>54.31</v>
       </c>
       <c r="AF28" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AG28" s="1" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="AH28" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AI28" s="1" t="n">
-        <v>0.045</v>
+        <v>0.042</v>
       </c>
       <c r="AJ28" s="1" t="n">
+        <v>0.072</v>
+      </c>
+      <c r="AK28" s="1" t="n">
         <v>0.074</v>
       </c>
-      <c r="AK28" s="1" t="n">
-        <v>0.071</v>
-      </c>
       <c r="AL28" s="1" t="n">
-        <v>0.301</v>
+        <v>0.294</v>
       </c>
       <c r="AM28" s="1" t="n">
-        <v>0.067</v>
+        <v>0.065</v>
       </c>
       <c r="AN28" s="1" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="AO28" s="1" t="n">
-        <v>0.093</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="29" ht="25" customHeight="1">
@@ -4349,37 +4349,37 @@
         <v>61</v>
       </c>
       <c r="C29" t="n">
-        <v>57.47</v>
+        <v>57.78</v>
       </c>
       <c r="D29" s="1" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="E29" s="1" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>0.036</v>
+        <v>0.045</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>0.054</v>
+        <v>0.063</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>0.142</v>
+        <v>0.133</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>0.147</v>
+        <v>0.149</v>
       </c>
       <c r="J29" s="1" t="n">
-        <v>0.649</v>
+        <v>0.611</v>
       </c>
       <c r="K29" s="1" t="n">
-        <v>0.533</v>
+        <v>0.541</v>
       </c>
       <c r="L29" s="1" t="n">
-        <v>1.204</v>
+        <v>1.215</v>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0.274</v>
+        <v>0.281</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>162</v>
@@ -4388,37 +4388,37 @@
         <v>163</v>
       </c>
       <c r="Q29" t="n">
-        <v>38.85</v>
+        <v>39.06</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.021</v>
       </c>
       <c r="T29" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.019</v>
       </c>
       <c r="U29" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.023</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>0.078</v>
+        <v>0.076</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>0.042</v>
+        <v>0.024</v>
       </c>
       <c r="Y29" s="1" t="n">
-        <v>0.422</v>
+        <v>0.429</v>
       </c>
       <c r="Z29" s="1" t="n">
-        <v>1.052</v>
+        <v>1.063</v>
       </c>
       <c r="AA29" s="1" t="n">
-        <v>0.108</v>
+        <v>0.113</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>274</v>
@@ -4427,37 +4427,37 @@
         <v>275</v>
       </c>
       <c r="AE29" t="n">
-        <v>52.12</v>
+        <v>52.07</v>
       </c>
       <c r="AF29" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AG29" s="1" t="n">
-        <v>0.017</v>
+        <v>0.011</v>
       </c>
       <c r="AH29" s="1" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="AI29" s="1" t="n">
-        <v>0.077</v>
+        <v>0.072</v>
       </c>
       <c r="AJ29" s="1" t="n">
-        <v>0.097</v>
+        <v>0.1</v>
       </c>
       <c r="AK29" s="1" t="n">
-        <v>0.039</v>
+        <v>0.05</v>
       </c>
       <c r="AL29" s="1" t="n">
-        <v>0.295</v>
+        <v>0.287</v>
       </c>
       <c r="AM29" s="1" t="n">
-        <v>-0.084</v>
+        <v>-0.085</v>
       </c>
       <c r="AN29" s="1" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="AO29" s="1" t="n">
-        <v>0.097</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="30" ht="25" customHeight="1">
@@ -4468,37 +4468,37 @@
         <v>63</v>
       </c>
       <c r="C30" t="n">
-        <v>93.68</v>
+        <v>93.73</v>
       </c>
       <c r="D30" s="1" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="E30" s="1" t="n">
-        <v>0.007</v>
+        <v>0.051</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>0.112</v>
+        <v>0.106</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>0.342</v>
+        <v>0.332</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>0.217</v>
+        <v>0.221</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>0.777</v>
+        <v>0.735</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1.031</v>
+        <v>1.032</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>0.31</v>
+        <v>0.311</v>
       </c>
       <c r="O30" s="6" t="s">
         <v>164</v>
@@ -4507,37 +4507,37 @@
         <v>165</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.52</v>
+        <v>45.89</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.008</v>
       </c>
       <c r="S30" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>-0.027</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="AA30" s="1" t="n">
         <v>0.002</v>
-      </c>
-      <c r="T30" s="1" t="n">
-        <v>-0.024</v>
-      </c>
-      <c r="U30" s="1" t="n">
-        <v>-0.043</v>
-      </c>
-      <c r="V30" s="1" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="W30" s="1" t="n">
-        <v>-0.036</v>
-      </c>
-      <c r="X30" s="1" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="Y30" s="1" t="n">
-        <v>0.417</v>
-      </c>
-      <c r="Z30" s="1" t="n">
-        <v>0.574</v>
-      </c>
-      <c r="AA30" s="1" t="n">
-        <v>-0.006</v>
       </c>
       <c r="AC30" s="6" t="s">
         <v>276</v>
@@ -4546,28 +4546,28 @@
         <v>277</v>
       </c>
       <c r="AE30" t="n">
-        <v>24.55</v>
+        <v>24.56</v>
       </c>
       <c r="AF30" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="1" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="AH30" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="AI30" s="1" t="n">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="AJ30" s="1" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="AK30" s="1" t="n">
-        <v>0.071</v>
+        <v>0.072</v>
       </c>
       <c r="AL30" s="1" t="n">
-        <v>0.369</v>
+        <v>0.357</v>
       </c>
       <c r="AM30" s="1" t="n">
         <v>0.355</v>
@@ -4587,37 +4587,37 @@
         <v>65</v>
       </c>
       <c r="C31" t="n">
-        <v>17.1</v>
+        <v>17.23</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.008</v>
       </c>
       <c r="E31" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.022</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.025</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>0.033</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>0.155</v>
+        <v>0.148</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>0.031</v>
+        <v>0.028</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>0.427</v>
+        <v>0.419</v>
       </c>
       <c r="K31" s="1" t="n">
-        <v>0.692</v>
+        <v>0.704</v>
       </c>
       <c r="L31" s="1" t="n">
-        <v>0.739</v>
+        <v>0.752</v>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0.095</v>
+        <v>0.104</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>166</v>
@@ -4626,37 +4626,37 @@
         <v>167</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.02</v>
+        <v>60.38</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.006</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.009</v>
       </c>
       <c r="T31" s="1" t="n">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="U31" s="1" t="n">
-        <v>0.069</v>
+        <v>0.087</v>
       </c>
       <c r="V31" s="1" t="n">
-        <v>0.065</v>
+        <v>0.079</v>
       </c>
       <c r="W31" s="1" t="n">
-        <v>-0.06</v>
+        <v>-0.049</v>
       </c>
       <c r="X31" s="1" t="n">
-        <v>0.206</v>
+        <v>0.192</v>
       </c>
       <c r="Y31" s="1" t="n">
-        <v>0.362</v>
+        <v>0.37</v>
       </c>
       <c r="Z31" s="1" t="n">
-        <v>1.344</v>
+        <v>1.358</v>
       </c>
       <c r="AA31" s="1" t="n">
-        <v>0.039</v>
+        <v>0.046</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>278</v>
@@ -4665,37 +4665,37 @@
         <v>279</v>
       </c>
       <c r="AE31" t="n">
-        <v>80.51</v>
+        <v>80.72</v>
       </c>
       <c r="AF31" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AG31" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AH31" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="AH31" s="1" t="n">
-        <v>-0.003</v>
-      </c>
       <c r="AI31" s="1" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="AJ31" s="1" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="AK31" s="1" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="AL31" s="1" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AM31" s="1" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="AN31" s="1" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="AO31" s="1" t="n">
         <v>0.072</v>
-      </c>
-      <c r="AK31" s="1" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="AL31" s="1" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="AM31" s="1" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="AN31" s="1" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="AO31" s="1" t="n">
-        <v>0.069</v>
       </c>
     </row>
     <row r="32" ht="25" customHeight="1">
@@ -4709,25 +4709,25 @@
         <v>40.78</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>-0.003</v>
+        <v>0</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>0.002</v>
+        <v>0.024</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>0.105</v>
+        <v>0.09</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>0.07</v>
+        <v>0.068</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>0.036</v>
+        <v>0.032</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>0.07</v>
+        <v>0.046</v>
       </c>
       <c r="K32" s="1" t="n">
         <v>0.484</v>
@@ -4745,37 +4745,37 @@
         <v>169</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.21</v>
+        <v>50.41</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.004</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>-0.011</v>
+        <v>0.016</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0.131</v>
+        <v>0.158</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>-0.063</v>
+        <v>0.008</v>
       </c>
       <c r="W32" s="1" t="n">
-        <v>-0.098</v>
+        <v>-0.07</v>
       </c>
       <c r="X32" s="1" t="n">
-        <v>0.014</v>
+        <v>0.003</v>
       </c>
       <c r="Y32" s="1" t="n">
-        <v>0.227</v>
+        <v>0.232</v>
       </c>
       <c r="Z32" s="1" t="n">
-        <v>1.175</v>
+        <v>1.184</v>
       </c>
       <c r="AA32" s="1" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>280</v>
@@ -4784,37 +4784,37 @@
         <v>281</v>
       </c>
       <c r="AE32" t="n">
-        <v>29.4</v>
+        <v>29.46</v>
       </c>
       <c r="AF32" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AG32" s="1" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AH32" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="AH32" s="1" t="n">
-        <v>-0.004</v>
-      </c>
       <c r="AI32" s="1" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="AJ32" s="1" t="n">
-        <v>0.088</v>
+        <v>0.086</v>
       </c>
       <c r="AK32" s="1" t="n">
-        <v>0.072</v>
+        <v>0.076</v>
       </c>
       <c r="AL32" s="1" t="n">
-        <v>0.348</v>
+        <v>0.334</v>
       </c>
       <c r="AM32" s="1" t="n">
-        <v>0.273</v>
+        <v>0.276</v>
       </c>
       <c r="AN32" s="1" t="n">
-        <v>0.935</v>
+        <v>0.939</v>
       </c>
       <c r="AO32" s="1" t="n">
-        <v>0.075</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="33" ht="25" customHeight="1">
@@ -4825,37 +4825,37 @@
         <v>69</v>
       </c>
       <c r="C33" t="n">
-        <v>54.07</v>
+        <v>54.45</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>0.004</v>
+        <v>0.008</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.01</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>0.058</v>
+        <v>0.042</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>-0.045</v>
+        <v>-0.027</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>0.353</v>
+        <v>0.333</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>0.669</v>
+        <v>0.681</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>1.064</v>
+        <v>1.079</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>0.027</v>
+        <v>0.034</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>170</v>
@@ -4864,37 +4864,37 @@
         <v>171</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.18</v>
+        <v>74.29</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.003</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0.099</v>
+        <v>0.108</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0.208</v>
+        <v>0.157</v>
       </c>
       <c r="W33" s="1" t="n">
-        <v>0.05</v>
+        <v>0.053</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0.369</v>
+        <v>0.35</v>
       </c>
       <c r="Y33" s="1" t="n">
-        <v>0.428</v>
+        <v>0.43</v>
       </c>
       <c r="Z33" s="1" t="n">
-        <v>0.676</v>
+        <v>0.679</v>
       </c>
       <c r="AA33" s="1" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="AC33" s="6" t="s">
         <v>282</v>
@@ -4903,28 +4903,28 @@
         <v>283</v>
       </c>
       <c r="AE33" t="n">
-        <v>48.36</v>
+        <v>48.34</v>
       </c>
       <c r="AF33" s="1" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="1" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="AH33" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AI33" s="1" t="n">
         <v>0.033</v>
       </c>
       <c r="AJ33" s="1" t="n">
-        <v>0.053</v>
+        <v>0.055</v>
       </c>
       <c r="AK33" s="1" t="n">
-        <v>0.053</v>
+        <v>0.058</v>
       </c>
       <c r="AL33" s="1" t="n">
-        <v>0.213</v>
+        <v>0.209</v>
       </c>
       <c r="AM33" s="1" t="n">
         <v>-0.002</v>
@@ -4942,37 +4942,37 @@
         <v>71</v>
       </c>
       <c r="C34" t="n">
-        <v>81.55</v>
+        <v>82</v>
       </c>
       <c r="D34" s="1" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="E34" s="1" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>0.132</v>
+        <v>0.133</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>0.231</v>
+        <v>0.214</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>0.191</v>
+        <v>0.203</v>
       </c>
       <c r="J34" s="1" t="n">
-        <v>0.776</v>
+        <v>0.768</v>
       </c>
       <c r="K34" s="1" t="n">
-        <v>0.512</v>
+        <v>0.52</v>
       </c>
       <c r="L34" s="1" t="n">
-        <v>0.983</v>
+        <v>0.994</v>
       </c>
       <c r="M34" s="1" t="n">
-        <v>0.225</v>
+        <v>0.232</v>
       </c>
       <c r="O34" s="6" t="s">
         <v>172</v>
@@ -4981,37 +4981,37 @@
         <v>173</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.42</v>
+        <v>154.19</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>0.009</v>
+        <v>0.028</v>
       </c>
       <c r="T34" s="1" t="n">
-        <v>0.089</v>
+        <v>0.094</v>
       </c>
       <c r="U34" s="1" t="n">
-        <v>0.17</v>
+        <v>0.171</v>
       </c>
       <c r="V34" s="1" t="n">
-        <v>0.303</v>
+        <v>0.304</v>
       </c>
       <c r="W34" s="1" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="X34" s="1" t="n">
-        <v>0.293</v>
+        <v>0.269</v>
       </c>
       <c r="Y34" s="1" t="n">
-        <v>0.112</v>
+        <v>0.118</v>
       </c>
       <c r="Z34" s="1" t="n">
-        <v>0.501</v>
+        <v>0.509</v>
       </c>
       <c r="AA34" s="1" t="n">
-        <v>0.162</v>
+        <v>0.168</v>
       </c>
       <c r="AC34" s="6" t="s">
         <v>284</v>
@@ -5020,37 +5020,37 @@
         <v>285</v>
       </c>
       <c r="AE34" t="n">
-        <v>102.26</v>
+        <v>101.81</v>
       </c>
       <c r="AF34" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.004</v>
       </c>
       <c r="AG34" s="1" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="AH34" s="1" t="n">
-        <v>0.045</v>
+        <v>0.036</v>
       </c>
       <c r="AI34" s="1" t="n">
-        <v>0.117</v>
+        <v>0.103</v>
       </c>
       <c r="AJ34" s="1" t="n">
-        <v>0.267</v>
+        <v>0.258</v>
       </c>
       <c r="AK34" s="1" t="n">
-        <v>0.234</v>
+        <v>0.232</v>
       </c>
       <c r="AL34" s="1" t="n">
-        <v>0.59</v>
+        <v>0.562</v>
       </c>
       <c r="AM34" s="1" t="n">
-        <v>0.453</v>
+        <v>0.447</v>
       </c>
       <c r="AN34" s="1" t="n">
-        <v>2.037</v>
+        <v>2.024</v>
       </c>
       <c r="AO34" s="1" t="n">
-        <v>0.221</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="35" ht="25" customHeight="1">
@@ -5061,37 +5061,37 @@
         <v>73</v>
       </c>
       <c r="C35" t="n">
-        <v>63.4</v>
+        <v>63.31</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="E35" s="1" t="n">
-        <v>-0.026</v>
+        <v>0.031</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.038</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>0.122</v>
+        <v>0.112</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>0.302</v>
+        <v>0.297</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>0.313</v>
+        <v>0.347</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>0.722</v>
+        <v>0.67</v>
       </c>
       <c r="K35" s="1" t="n">
-        <v>-0.096</v>
+        <v>-0.097</v>
       </c>
       <c r="L35" s="1" t="n">
-        <v>0.56</v>
+        <v>0.558</v>
       </c>
       <c r="M35" s="1" t="n">
-        <v>0.366</v>
+        <v>0.364</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>174</v>
@@ -5100,37 +5100,37 @@
         <v>175</v>
       </c>
       <c r="Q35" t="n">
-        <v>59.12</v>
+        <v>59.82</v>
       </c>
       <c r="R35" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>-0.009</v>
+      </c>
+      <c r="U35" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="S35" s="1" t="n">
-        <v>-0.015</v>
-      </c>
-      <c r="T35" s="1" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="U35" s="1" t="n">
-        <v>-0.027</v>
-      </c>
       <c r="V35" s="1" t="n">
-        <v>0.046</v>
+        <v>0.053</v>
       </c>
       <c r="W35" s="1" t="n">
-        <v>0.008</v>
+        <v>0.024</v>
       </c>
       <c r="X35" s="1" t="n">
-        <v>0.261</v>
+        <v>0.243</v>
       </c>
       <c r="Y35" s="1" t="n">
-        <v>0.153</v>
+        <v>0.167</v>
       </c>
       <c r="Z35" s="1" t="n">
-        <v>2.175</v>
+        <v>2.213</v>
       </c>
       <c r="AA35" s="1" t="n">
-        <v>0.016</v>
+        <v>0.028</v>
       </c>
       <c r="AC35" t="s">
         <v>25</v>
@@ -5156,37 +5156,37 @@
         <v>75</v>
       </c>
       <c r="C36" t="n">
-        <v>20.99</v>
+        <v>21.19</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E36" s="1" t="n">
-        <v>-0.026</v>
+        <v>0.026</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.028</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>0.312</v>
+        <v>0.318</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>0.211</v>
+        <v>0.244</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>0.331</v>
+        <v>0.32</v>
       </c>
       <c r="K36" s="1" t="n">
-        <v>0.132</v>
+        <v>0.143</v>
       </c>
       <c r="L36" s="1" t="n">
-        <v>0.392</v>
+        <v>0.405</v>
       </c>
       <c r="M36" s="1" t="n">
-        <v>0.287</v>
+        <v>0.299</v>
       </c>
       <c r="O36" s="6" t="s">
         <v>176</v>
@@ -5195,35 +5195,35 @@
         <v>177</v>
       </c>
       <c r="Q36" t="n">
-        <v>24.79</v>
+        <v>24.61</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.007</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>0.009</v>
+        <v>0.025</v>
       </c>
       <c r="T36" s="1" t="n">
-        <v>0.09</v>
+        <v>0.083</v>
       </c>
       <c r="U36" s="1" t="n">
-        <v>0.16</v>
+        <v>0.147</v>
       </c>
       <c r="V36" s="1" t="n">
-        <v>0.303</v>
+        <v>0.283</v>
       </c>
       <c r="W36" s="1" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="X36" s="1" t="n">
-        <v>-0.024</v>
+        <v>-0.062</v>
       </c>
       <c r="Y36" s="1" t="n">
-        <v>-0.378</v>
+        <v>-0.382</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1" t="n">
-        <v>0.103</v>
+        <v>0.096</v>
       </c>
       <c r="AC36" s="4" t="s">
         <v>286</v>
@@ -5249,37 +5249,37 @@
         <v>77</v>
       </c>
       <c r="C37" t="n">
-        <v>65.17</v>
+        <v>65.09</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>0.005</v>
+        <v>0.056</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>0.105</v>
+        <v>0.094</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>0.218</v>
+        <v>0.185</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1.144</v>
+        <v>1.097</v>
       </c>
       <c r="K37" s="1" t="n">
-        <v>1.047</v>
+        <v>1.044</v>
       </c>
       <c r="L37" s="1" t="n">
-        <v>2.733</v>
+        <v>2.728</v>
       </c>
       <c r="M37" s="1" t="n">
-        <v>0.259</v>
+        <v>0.258</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>178</v>
@@ -5288,37 +5288,37 @@
         <v>179</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.85</v>
+        <v>121.3</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>-0.029</v>
+        <v>0.004</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.004</v>
       </c>
       <c r="T37" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.038</v>
       </c>
       <c r="U37" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.006</v>
       </c>
       <c r="V37" s="1" t="n">
-        <v>0.159</v>
+        <v>0.158</v>
       </c>
       <c r="W37" s="1" t="n">
-        <v>0.123</v>
+        <v>0.122</v>
       </c>
       <c r="X37" s="1" t="n">
-        <v>0.837</v>
+        <v>0.798</v>
       </c>
       <c r="Y37" s="1" t="n">
-        <v>1.225</v>
+        <v>1.233</v>
       </c>
       <c r="Z37" s="1" t="n">
-        <v>2.266</v>
+        <v>2.279</v>
       </c>
       <c r="AA37" s="1" t="n">
-        <v>0.103</v>
+        <v>0.108</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>287</v>
@@ -5327,37 +5327,37 @@
         <v>288</v>
       </c>
       <c r="AE37" t="n">
-        <v>81.15</v>
+        <v>79.63</v>
       </c>
       <c r="AF37" s="1" t="n">
-        <v>0.023</v>
+        <v>-0.019</v>
       </c>
       <c r="AG37" s="1" t="n">
-        <v>0.084</v>
+        <v>0.054</v>
       </c>
       <c r="AH37" s="1" t="n">
-        <v>0.167</v>
+        <v>0.154</v>
       </c>
       <c r="AI37" s="1" t="n">
-        <v>0.286</v>
+        <v>0.265</v>
       </c>
       <c r="AJ37" s="1" t="n">
-        <v>0.29</v>
+        <v>0.271</v>
       </c>
       <c r="AK37" s="1" t="n">
-        <v>0.606</v>
+        <v>0.566</v>
       </c>
       <c r="AL37" s="1" t="n">
-        <v>1.603</v>
+        <v>1.546</v>
       </c>
       <c r="AM37" s="1" t="n">
-        <v>1.24</v>
+        <v>1.199</v>
       </c>
       <c r="AN37" s="1" t="n">
-        <v>2.575</v>
+        <v>2.508</v>
       </c>
       <c r="AO37" s="1" t="n">
-        <v>0.639</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -5368,37 +5368,37 @@
         <v>79</v>
       </c>
       <c r="C38" t="n">
-        <v>87.88</v>
+        <v>88.52</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>0.032</v>
+        <v>0.007</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>0.053</v>
+        <v>0.097</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>0.089</v>
+        <v>0.109</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>0.203</v>
+        <v>0.212</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>0.626</v>
+        <v>0.63</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>0.431</v>
+        <v>0.453</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>0.922</v>
+        <v>0.877</v>
       </c>
       <c r="K38" s="1" t="n">
-        <v>0.445</v>
+        <v>0.456</v>
       </c>
       <c r="L38" s="1" t="n">
-        <v>0.957</v>
+        <v>0.972</v>
       </c>
       <c r="M38" s="1" t="n">
-        <v>0.727</v>
+        <v>0.739</v>
       </c>
       <c r="O38" s="6" t="s">
         <v>180</v>
@@ -5407,37 +5407,37 @@
         <v>181</v>
       </c>
       <c r="Q38" t="n">
-        <v>55.09</v>
+        <v>55.86</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>-0.054</v>
+        <v>0.014</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>-0.062</v>
+        <v>-0.011</v>
       </c>
       <c r="T38" s="1" t="n">
-        <v>-0.074</v>
+        <v>-0.072</v>
       </c>
       <c r="U38" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.037</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0.168</v>
+        <v>0.177</v>
       </c>
       <c r="W38" s="1" t="n">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0.303</v>
+        <v>0.287</v>
       </c>
       <c r="Y38" s="1" t="n">
-        <v>0.946</v>
+        <v>0.973</v>
       </c>
       <c r="Z38" s="1" t="n">
-        <v>1.084</v>
+        <v>1.114</v>
       </c>
       <c r="AA38" s="1" t="n">
-        <v>0.013</v>
+        <v>0.027</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>289</v>
@@ -5446,37 +5446,37 @@
         <v>290</v>
       </c>
       <c r="AE38" t="n">
-        <v>49.17</v>
+        <v>46.99</v>
       </c>
       <c r="AF38" s="1" t="n">
-        <v>0.017</v>
+        <v>-0.044</v>
       </c>
       <c r="AG38" s="1" t="n">
-        <v>0.1</v>
+        <v>0.034</v>
       </c>
       <c r="AH38" s="1" t="n">
-        <v>0.274</v>
+        <v>0.243</v>
       </c>
       <c r="AI38" s="1" t="n">
-        <v>0.429</v>
+        <v>0.356</v>
       </c>
       <c r="AJ38" s="1" t="n">
-        <v>0.652</v>
+        <v>0.59</v>
       </c>
       <c r="AK38" s="1" t="n">
-        <v>0.701</v>
+        <v>0.627</v>
       </c>
       <c r="AL38" s="1" t="n">
-        <v>1.925</v>
+        <v>1.745</v>
       </c>
       <c r="AM38" s="1" t="n">
-        <v>1.193</v>
+        <v>1.096</v>
       </c>
       <c r="AN38" s="1" t="n">
-        <v>2.218</v>
+        <v>2.075</v>
       </c>
       <c r="AO38" s="1" t="n">
-        <v>0.867</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="39" ht="25" customHeight="1">
@@ -5487,37 +5487,37 @@
         <v>81</v>
       </c>
       <c r="C39" t="n">
-        <v>24.78</v>
+        <v>24.34</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.018</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>0.011</v>
+        <v>0.027</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>0.058</v>
+        <v>0.04</v>
       </c>
       <c r="G39" s="1" t="n">
-        <v>0.194</v>
+        <v>0.172</v>
       </c>
       <c r="H39" s="1" t="n">
-        <v>0.437</v>
+        <v>0.391</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>0.495</v>
+        <v>0.448</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>0.762</v>
+        <v>0.678</v>
       </c>
       <c r="K39" s="1" t="n">
-        <v>0.569</v>
+        <v>0.541</v>
       </c>
       <c r="L39" s="1" t="n">
-        <v>0.553</v>
+        <v>0.526</v>
       </c>
       <c r="M39" s="1" t="n">
-        <v>0.602</v>
+        <v>0.573</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>182</v>
@@ -5526,37 +5526,37 @@
         <v>183</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.14</v>
+        <v>59.07</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>-0.062</v>
+        <v>0.016</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>-0.076</v>
+        <v>-0.019</v>
       </c>
       <c r="T39" s="1" t="n">
-        <v>-0.082</v>
+        <v>-0.078</v>
       </c>
       <c r="U39" s="1" t="n">
-        <v>-0.055</v>
+        <v>-0.059</v>
       </c>
       <c r="V39" s="1" t="n">
-        <v>0.156</v>
+        <v>0.164</v>
       </c>
       <c r="W39" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="X39" s="1" t="n">
-        <v>0.035</v>
+        <v>0.025</v>
       </c>
       <c r="Y39" s="1" t="n">
-        <v>0.692</v>
+        <v>0.719</v>
       </c>
       <c r="Z39" s="1" t="n">
-        <v>0.79</v>
+        <v>0.819</v>
       </c>
       <c r="AA39" s="1" t="n">
-        <v>-0.017</v>
+        <v>-0.002</v>
       </c>
       <c r="AC39" s="6" t="s">
         <v>291</v>
@@ -5565,37 +5565,37 @@
         <v>292</v>
       </c>
       <c r="AE39" t="n">
-        <v>155.64</v>
+        <v>146.21</v>
       </c>
       <c r="AF39" s="1" t="n">
-        <v>0.029</v>
+        <v>-0.061</v>
       </c>
       <c r="AG39" s="1" t="n">
-        <v>0.054</v>
+        <v>0.003</v>
       </c>
       <c r="AH39" s="1" t="n">
-        <v>0.227</v>
+        <v>0.181</v>
       </c>
       <c r="AI39" s="1" t="n">
-        <v>0.207</v>
+        <v>0.1</v>
       </c>
       <c r="AJ39" s="1" t="n">
-        <v>0.757</v>
+        <v>0.652</v>
       </c>
       <c r="AK39" s="1" t="n">
-        <v>0.705</v>
+        <v>0.604</v>
       </c>
       <c r="AL39" s="1" t="n">
-        <v>0.859</v>
+        <v>0.726</v>
       </c>
       <c r="AM39" s="1" t="n">
-        <v>0.919</v>
+        <v>0.803</v>
       </c>
       <c r="AN39" s="1" t="n">
-        <v>0.586</v>
+        <v>0.49</v>
       </c>
       <c r="AO39" s="1" t="n">
-        <v>0.874</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="40" ht="25" customHeight="1">
@@ -5606,37 +5606,37 @@
         <v>83</v>
       </c>
       <c r="C40" t="n">
-        <v>67.33</v>
+        <v>65.41</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0.02</v>
+        <v>-0.029</v>
       </c>
       <c r="E40" s="1" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>0.104</v>
+        <v>0.075</v>
       </c>
       <c r="G40" s="1" t="n">
-        <v>0.26</v>
+        <v>0.221</v>
       </c>
       <c r="H40" s="1" t="n">
-        <v>0.436</v>
+        <v>0.382</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>0.441</v>
+        <v>0.401</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>1.117</v>
+        <v>0.948</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>1.178</v>
+        <v>1.116</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>0.741</v>
+        <v>0.691</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>0.626</v>
+        <v>0.579</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>184</v>
@@ -5645,37 +5645,37 @@
         <v>185</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.21</v>
+        <v>127.22</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>-0.032</v>
+        <v>0.008</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>-0.054</v>
+        <v>-0.035</v>
       </c>
       <c r="T40" s="1" t="n">
-        <v>-0.029</v>
+        <v>-0.026</v>
       </c>
       <c r="U40" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.01</v>
       </c>
       <c r="V40" s="1" t="n">
-        <v>-0.022</v>
+        <v>-0.011</v>
       </c>
       <c r="W40" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.031</v>
       </c>
       <c r="X40" s="1" t="n">
-        <v>0.601</v>
+        <v>0.585</v>
       </c>
       <c r="Y40" s="1" t="n">
-        <v>1.385</v>
+        <v>1.404</v>
       </c>
       <c r="Z40" s="1" t="n">
-        <v>2.012</v>
+        <v>2.037</v>
       </c>
       <c r="AA40" s="1" t="n">
-        <v>0.01</v>
+        <v>0.018</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>293</v>
@@ -5684,37 +5684,37 @@
         <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>30.84</v>
+        <v>30.82</v>
       </c>
       <c r="AF40" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.001</v>
       </c>
       <c r="AG40" s="1" t="n">
-        <v>-0.026</v>
+        <v>0.018</v>
       </c>
       <c r="AH40" s="1" t="n">
-        <v>0.065</v>
+        <v>0.084</v>
       </c>
       <c r="AI40" s="1" t="n">
         <v>-0.098</v>
       </c>
       <c r="AJ40" s="1" t="n">
-        <v>0.052</v>
+        <v>0.046</v>
       </c>
       <c r="AK40" s="1" t="n">
-        <v>0.125</v>
+        <v>0.133</v>
       </c>
       <c r="AL40" s="1" t="n">
-        <v>0.501</v>
+        <v>0.506</v>
       </c>
       <c r="AM40" s="1" t="n">
-        <v>0.624</v>
+        <v>0.623</v>
       </c>
       <c r="AN40" s="1" t="n">
-        <v>0.912</v>
+        <v>0.911</v>
       </c>
       <c r="AO40" s="1" t="n">
-        <v>0.226</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="41" ht="25" customHeight="1">
@@ -5725,37 +5725,37 @@
         <v>85</v>
       </c>
       <c r="C41" t="n">
-        <v>26.97</v>
+        <v>26.92</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>0.002</v>
+        <v>0.018</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>-0.015</v>
+        <v>-0.008</v>
       </c>
       <c r="G41" s="1" t="n">
-        <v>0.03</v>
+        <v>0.024</v>
       </c>
       <c r="H41" s="1" t="n">
-        <v>0.169</v>
+        <v>0.158</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>0.535</v>
+        <v>0.502</v>
       </c>
       <c r="K41" s="1" t="n">
-        <v>0.583</v>
+        <v>0.58</v>
       </c>
       <c r="L41" s="1" t="n">
-        <v>1.105</v>
+        <v>1.101</v>
       </c>
       <c r="M41" s="1" t="n">
-        <v>0.148</v>
+        <v>0.146</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>186</v>
@@ -5764,37 +5764,37 @@
         <v>187</v>
       </c>
       <c r="Q41" t="n">
-        <v>170.22</v>
+        <v>170.35</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.001</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.007</v>
       </c>
       <c r="T41" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.038</v>
       </c>
       <c r="U41" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.015</v>
       </c>
       <c r="V41" s="1" t="n">
-        <v>0.307</v>
+        <v>0.296</v>
       </c>
       <c r="W41" s="1" t="n">
-        <v>0.247</v>
+        <v>0.253</v>
       </c>
       <c r="X41" s="1" t="n">
-        <v>1.075</v>
+        <v>1.045</v>
       </c>
       <c r="Y41" s="1" t="n">
-        <v>1.816</v>
+        <v>1.819</v>
       </c>
       <c r="Z41" s="1" t="n">
-        <v>4.073</v>
+        <v>4.077</v>
       </c>
       <c r="AA41" s="1" t="n">
-        <v>0.191</v>
+        <v>0.192</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>295</v>
@@ -5842,34 +5842,34 @@
         <v>87</v>
       </c>
       <c r="C42" t="n">
-        <v>65.86</v>
+        <v>65.89</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="n">
-        <v>0.004</v>
+        <v>0.03</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="G42" s="1" t="n">
-        <v>0.083</v>
+        <v>0.08</v>
       </c>
       <c r="H42" s="1" t="n">
-        <v>0.234</v>
+        <v>0.223</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>0.209</v>
+        <v>0.211</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>0.799</v>
+        <v>0.755</v>
       </c>
       <c r="K42" s="1" t="n">
-        <v>0.601</v>
+        <v>0.602</v>
       </c>
       <c r="L42" s="1" t="n">
-        <v>1.041</v>
+        <v>1.042</v>
       </c>
       <c r="M42" s="1" t="n">
         <v>0.281</v>
@@ -5881,35 +5881,35 @@
         <v>189</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.24</v>
+        <v>33.37</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>-0.027</v>
+        <v>0.004</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>-0.054</v>
+        <v>-0.002</v>
       </c>
       <c r="T42" s="1" t="n">
         <v>-0.032</v>
       </c>
       <c r="U42" s="1" t="n">
-        <v>-0.039</v>
+        <v>-0.047</v>
       </c>
       <c r="V42" s="1" t="n">
-        <v>0.252</v>
+        <v>0.249</v>
       </c>
       <c r="W42" s="1" t="n">
-        <v>0.133</v>
+        <v>0.147</v>
       </c>
       <c r="X42" s="1" t="n">
-        <v>0.709</v>
+        <v>0.642</v>
       </c>
       <c r="Y42" s="1" t="n">
-        <v>-0.117</v>
+        <v>-0.114</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1" t="n">
-        <v>0.065</v>
+        <v>0.069</v>
       </c>
       <c r="AC42" s="6" t="s">
         <v>297</v>
@@ -5957,37 +5957,37 @@
         <v>89</v>
       </c>
       <c r="C43" t="n">
-        <v>94.34</v>
+        <v>94.51</v>
       </c>
       <c r="D43" s="1" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="E43" s="1" t="n">
-        <v>0.004</v>
+        <v>0.025</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>0.011</v>
+        <v>0.016</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>0.067</v>
       </c>
       <c r="H43" s="1" t="n">
-        <v>0.196</v>
+        <v>0.186</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>0.195</v>
+        <v>0.197</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>0.829</v>
+        <v>0.789</v>
       </c>
       <c r="K43" s="1" t="n">
-        <v>0.688</v>
+        <v>0.691</v>
       </c>
       <c r="L43" s="1" t="n">
-        <v>1.058</v>
+        <v>1.062</v>
       </c>
       <c r="M43" s="1" t="n">
-        <v>0.269</v>
+        <v>0.272</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>190</v>
@@ -5996,37 +5996,37 @@
         <v>191</v>
       </c>
       <c r="Q43" t="n">
-        <v>196.48</v>
+        <v>197.17</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.004</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>-0.021</v>
+        <v>0.023</v>
       </c>
       <c r="T43" s="1" t="n">
-        <v>0.034</v>
+        <v>0.043</v>
       </c>
       <c r="U43" s="1" t="n">
-        <v>0.11</v>
+        <v>0.104</v>
       </c>
       <c r="V43" s="1" t="n">
-        <v>0.488</v>
+        <v>0.503</v>
       </c>
       <c r="W43" s="1" t="n">
         <v>0.277</v>
       </c>
       <c r="X43" s="1" t="n">
-        <v>1.778</v>
+        <v>1.697</v>
       </c>
       <c r="Y43" s="1" t="n">
-        <v>1.535</v>
+        <v>1.544</v>
       </c>
       <c r="Z43" s="1" t="n">
-        <v>6.989</v>
+        <v>7.017</v>
       </c>
       <c r="AA43" s="1" t="n">
-        <v>0.233</v>
+        <v>0.238</v>
       </c>
       <c r="AC43" s="6" t="s">
         <v>299</v>
@@ -6035,37 +6035,37 @@
         <v>300</v>
       </c>
       <c r="AE43" t="n">
-        <v>55.74</v>
+        <v>53.31</v>
       </c>
       <c r="AF43" s="1" t="n">
-        <v>-0.041</v>
+        <v>-0.044</v>
       </c>
       <c r="AG43" s="1" t="n">
-        <v>0.083</v>
+        <v>0.028</v>
       </c>
       <c r="AH43" s="1" t="n">
-        <v>0.257</v>
+        <v>0.197</v>
       </c>
       <c r="AI43" s="1" t="n">
-        <v>0.394</v>
+        <v>0.319</v>
       </c>
       <c r="AJ43" s="1" t="n">
-        <v>1.454</v>
+        <v>1.331</v>
       </c>
       <c r="AK43" s="1" t="n">
-        <v>0.77</v>
+        <v>0.671</v>
       </c>
       <c r="AL43" s="1" t="n">
-        <v>2.244</v>
+        <v>1.955</v>
       </c>
       <c r="AM43" s="1" t="n">
-        <v>5.1</v>
+        <v>4.834</v>
       </c>
       <c r="AN43" s="1" t="n">
-        <v>3.715</v>
+        <v>3.51</v>
       </c>
       <c r="AO43" s="1" t="n">
-        <v>1.081</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="44" ht="25" customHeight="1">
@@ -6076,37 +6076,37 @@
         <v>91</v>
       </c>
       <c r="C44" t="n">
-        <v>40.29</v>
+        <v>40.41</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>-0.008</v>
+        <v>0.02</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="G44" s="1" t="n">
-        <v>0.073</v>
+        <v>0.07</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>0.206</v>
+        <v>0.195</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>0.169</v>
+        <v>0.172</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>0.744</v>
+        <v>0.723</v>
       </c>
       <c r="K44" s="1" t="n">
-        <v>1.016</v>
+        <v>1.022</v>
       </c>
       <c r="L44" s="1" t="n">
-        <v>1.618</v>
+        <v>1.626</v>
       </c>
       <c r="M44" s="1" t="n">
-        <v>0.179</v>
+        <v>0.183</v>
       </c>
       <c r="O44" s="6" t="s">
         <v>192</v>
@@ -6115,37 +6115,37 @@
         <v>193</v>
       </c>
       <c r="Q44" t="n">
-        <v>112.8</v>
+        <v>112.68</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>-0.004</v>
+        <v>-0.001</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.005</v>
       </c>
       <c r="T44" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.005</v>
       </c>
       <c r="U44" s="1" t="n">
-        <v>0.027</v>
+        <v>0.012</v>
       </c>
       <c r="V44" s="1" t="n">
-        <v>0.297</v>
+        <v>0.301</v>
       </c>
       <c r="W44" s="1" t="n">
-        <v>0.226</v>
+        <v>0.224</v>
       </c>
       <c r="X44" s="1" t="n">
-        <v>1.33</v>
+        <v>1.242</v>
       </c>
       <c r="Y44" s="1" t="n">
-        <v>0.7</v>
+        <v>0.699</v>
       </c>
       <c r="Z44" s="1" t="n">
-        <v>4.66</v>
+        <v>4.654</v>
       </c>
       <c r="AA44" s="1" t="n">
-        <v>0.127</v>
+        <v>0.125</v>
       </c>
       <c r="AC44" s="6" t="s">
         <v>301</v>
@@ -6154,37 +6154,37 @@
         <v>302</v>
       </c>
       <c r="AE44" t="n">
-        <v>67.81</v>
+        <v>67.98</v>
       </c>
       <c r="AF44" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.003</v>
       </c>
       <c r="AG44" s="1" t="n">
-        <v>-0.065</v>
+        <v>-0.02</v>
       </c>
       <c r="AH44" s="1" t="n">
-        <v>-0.104</v>
+        <v>-0.093</v>
       </c>
       <c r="AI44" s="1" t="n">
-        <v>-0.098</v>
+        <v>-0.107</v>
       </c>
       <c r="AJ44" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.022</v>
       </c>
       <c r="AK44" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.064</v>
       </c>
       <c r="AL44" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.031</v>
       </c>
       <c r="AM44" s="1" t="n">
-        <v>1.361</v>
+        <v>1.367</v>
       </c>
       <c r="AN44" s="1" t="n">
-        <v>-0.443</v>
+        <v>-0.442</v>
       </c>
       <c r="AO44" s="1" t="n">
-        <v>-0.102</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="45" ht="25" customHeight="1">
@@ -6195,28 +6195,28 @@
         <v>93</v>
       </c>
       <c r="C45" t="n">
-        <v>54.19</v>
+        <v>54.18</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1" t="n">
-        <v>0.005</v>
+        <v>0.043</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>0.022</v>
+        <v>0.017</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>0.108</v>
+        <v>0.101</v>
       </c>
       <c r="H45" s="1" t="n">
-        <v>0.315</v>
+        <v>0.305</v>
       </c>
       <c r="I45" s="1" t="n">
-        <v>0.222</v>
+        <v>0.223</v>
       </c>
       <c r="J45" s="1" t="n">
-        <v>0.707</v>
+        <v>0.661</v>
       </c>
       <c r="K45" s="1" t="n">
         <v>0.331</v>
@@ -6234,37 +6234,37 @@
         <v>195</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.24</v>
+        <v>85.28</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>-0.015</v>
+        <v>0</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>-0.043</v>
+        <v>-0.01</v>
       </c>
       <c r="T45" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.002</v>
       </c>
       <c r="U45" s="1" t="n">
-        <v>0.016</v>
+        <v>0.009</v>
       </c>
       <c r="V45" s="1" t="n">
-        <v>0.209</v>
+        <v>0.216</v>
       </c>
       <c r="W45" s="1" t="n">
-        <v>0.197</v>
+        <v>0.198</v>
       </c>
       <c r="X45" s="1" t="n">
-        <v>1.064</v>
+        <v>0.992</v>
       </c>
       <c r="Y45" s="1" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="Z45" s="1" t="n">
-        <v>2.373</v>
+        <v>2.375</v>
       </c>
       <c r="AA45" s="1" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>303</v>
@@ -6273,37 +6273,37 @@
         <v>304</v>
       </c>
       <c r="AE45" t="n">
-        <v>27.78</v>
+        <v>27.87</v>
       </c>
       <c r="AF45" s="1" t="n">
-        <v>-0.017</v>
+        <v>0.003</v>
       </c>
       <c r="AG45" s="1" t="n">
-        <v>-0.062</v>
+        <v>-0.022</v>
       </c>
       <c r="AH45" s="1" t="n">
-        <v>-0.099</v>
+        <v>-0.088</v>
       </c>
       <c r="AI45" s="1" t="n">
-        <v>-0.079</v>
+        <v>-0.087</v>
       </c>
       <c r="AJ45" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.011</v>
       </c>
       <c r="AK45" s="1" t="n">
         <v>-0.054</v>
       </c>
       <c r="AL45" s="1" t="n">
-        <v>-0.054</v>
+        <v>-0.05</v>
       </c>
       <c r="AM45" s="1" t="n">
-        <v>1.57</v>
+        <v>1.578</v>
       </c>
       <c r="AN45" s="1" t="n">
-        <v>0.632</v>
+        <v>0.637</v>
       </c>
       <c r="AO45" s="1" t="n">
-        <v>-0.072</v>
+        <v>-0.069</v>
       </c>
     </row>
     <row r="46" ht="25" customHeight="1">
@@ -6314,22 +6314,22 @@
         <v>95</v>
       </c>
       <c r="C46" t="n">
-        <v>30.23</v>
+        <v>30.17</v>
       </c>
       <c r="D46" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.002</v>
       </c>
       <c r="E46" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.018</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>0.074</v>
+        <v>0.061</v>
       </c>
       <c r="H46" s="1" t="n">
-        <v>0.263</v>
+        <v>0.248</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -6343,37 +6343,37 @@
         <v>197</v>
       </c>
       <c r="Q46" t="n">
-        <v>288.98</v>
+        <v>288.17</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.003</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.059</v>
       </c>
       <c r="T46" s="1" t="n">
-        <v>0.118</v>
+        <v>0.115</v>
       </c>
       <c r="U46" s="1" t="n">
-        <v>0.179</v>
+        <v>0.171</v>
       </c>
       <c r="V46" s="1" t="n">
-        <v>0.734</v>
+        <v>0.738</v>
       </c>
       <c r="W46" s="1" t="n">
-        <v>0.28</v>
+        <v>0.267</v>
       </c>
       <c r="X46" s="1" t="n">
-        <v>1.973</v>
+        <v>1.903</v>
       </c>
       <c r="Y46" s="1" t="n">
-        <v>1.777</v>
+        <v>1.769</v>
       </c>
       <c r="Z46" s="1" t="n">
-        <v>9.897</v>
+        <v>9.867</v>
       </c>
       <c r="AA46" s="1" t="n">
-        <v>0.349</v>
+        <v>0.345</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>305</v>
@@ -6382,37 +6382,37 @@
         <v>306</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.58</v>
+        <v>11.87</v>
       </c>
       <c r="AF46" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.025</v>
       </c>
       <c r="AG46" s="1" t="n">
-        <v>-0.091</v>
+        <v>-0.037</v>
       </c>
       <c r="AH46" s="1" t="n">
-        <v>-0.124</v>
+        <v>-0.094</v>
       </c>
       <c r="AI46" s="1" t="n">
-        <v>-0.267</v>
+        <v>-0.244</v>
       </c>
       <c r="AJ46" s="1" t="n">
-        <v>-0.32</v>
+        <v>-0.303</v>
       </c>
       <c r="AK46" s="1" t="n">
-        <v>-0.138</v>
+        <v>-0.108</v>
       </c>
       <c r="AL46" s="1" t="n">
-        <v>-0.871</v>
+        <v>-0.858</v>
       </c>
       <c r="AM46" s="1" t="n">
-        <v>-0.764</v>
+        <v>-0.758</v>
       </c>
       <c r="AN46" s="1" t="n">
-        <v>-0.935</v>
+        <v>-0.933</v>
       </c>
       <c r="AO46" s="1" t="n">
-        <v>-0.311</v>
+        <v>-0.294</v>
       </c>
     </row>
     <row r="47" ht="25" customHeight="1">
@@ -6423,34 +6423,34 @@
         <v>97</v>
       </c>
       <c r="C47" t="n">
-        <v>44.7</v>
+        <v>44.67</v>
       </c>
       <c r="D47" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.001</v>
       </c>
       <c r="E47" s="1" t="n">
-        <v>0.004</v>
+        <v>0.019</v>
       </c>
       <c r="F47" s="1" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="G47" s="1" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="H47" s="1" t="n">
-        <v>0.152</v>
+        <v>0.14</v>
       </c>
       <c r="I47" s="1" t="n">
         <v>0.139</v>
       </c>
       <c r="J47" s="1" t="n">
-        <v>0.739</v>
+        <v>0.69</v>
       </c>
       <c r="K47" s="1" t="n">
-        <v>0.58</v>
+        <v>0.579</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>1.237</v>
+        <v>1.235</v>
       </c>
       <c r="M47" s="1" t="n">
         <v>0.221</v>
@@ -6462,37 +6462,37 @@
         <v>199</v>
       </c>
       <c r="Q47" t="n">
-        <v>127.61</v>
+        <v>127.81</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.002</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>-0.014</v>
+        <v>0.029</v>
       </c>
       <c r="T47" s="1" t="n">
-        <v>0.03</v>
+        <v>0.034</v>
       </c>
       <c r="U47" s="1" t="n">
-        <v>0.124</v>
+        <v>0.116</v>
       </c>
       <c r="V47" s="1" t="n">
-        <v>0.495</v>
+        <v>0.505</v>
       </c>
       <c r="W47" s="1" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="X47" s="1" t="n">
-        <v>1.88</v>
+        <v>1.785</v>
       </c>
       <c r="Y47" s="1" t="n">
-        <v>1.41</v>
+        <v>1.414</v>
       </c>
       <c r="Z47" s="1" t="n">
-        <v>6.49</v>
+        <v>6.501</v>
       </c>
       <c r="AA47" s="1" t="n">
-        <v>0.252</v>
+        <v>0.254</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>307</v>
@@ -6542,37 +6542,37 @@
         <v>99</v>
       </c>
       <c r="C48" t="n">
-        <v>36.71</v>
+        <v>36.82</v>
       </c>
       <c r="D48" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E48" s="1" t="n">
-        <v>0.014</v>
+        <v>0.025</v>
       </c>
       <c r="F48" s="1" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="G48" s="1" t="n">
-        <v>0.06</v>
+        <v>0.067</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>0.232</v>
+        <v>0.224</v>
       </c>
       <c r="I48" s="1" t="n">
-        <v>0.304</v>
+        <v>0.313</v>
       </c>
       <c r="J48" s="1" t="n">
-        <v>0.957</v>
+        <v>0.909</v>
       </c>
       <c r="K48" s="1" t="n">
-        <v>0.959</v>
+        <v>0.965</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>1.149</v>
+        <v>1.156</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>0.395</v>
+        <v>0.399</v>
       </c>
       <c r="O48" s="6" t="s">
         <v>200</v>
@@ -6581,35 +6581,35 @@
         <v>201</v>
       </c>
       <c r="Q48" t="n">
-        <v>48.34</v>
+        <v>48.19</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.003</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>-0.025</v>
+        <v>0.021</v>
       </c>
       <c r="T48" s="1" t="n">
-        <v>0.083</v>
+        <v>0.086</v>
       </c>
       <c r="U48" s="1" t="n">
-        <v>0.156</v>
+        <v>0.139</v>
       </c>
       <c r="V48" s="1" t="n">
-        <v>0.614</v>
+        <v>0.617</v>
       </c>
       <c r="W48" s="1" t="n">
-        <v>0.368</v>
+        <v>0.356</v>
       </c>
       <c r="X48" s="1" t="n">
-        <v>1.156</v>
+        <v>1.067</v>
       </c>
       <c r="Y48" s="1" t="n">
-        <v>0.48</v>
+        <v>0.475</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1" t="n">
-        <v>0.304</v>
+        <v>0.3</v>
       </c>
       <c r="AC48" s="6" t="s">
         <v>309</v>
@@ -6618,37 +6618,37 @@
         <v>310</v>
       </c>
       <c r="AE48" t="n">
-        <v>26.73</v>
+        <v>26.54</v>
       </c>
       <c r="AF48" s="1" t="n">
-        <v>0.006</v>
+        <v>-0.007</v>
       </c>
       <c r="AG48" s="1" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="AH48" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.024</v>
       </c>
       <c r="AI48" s="1" t="n">
-        <v>0.033</v>
+        <v>0.029</v>
       </c>
       <c r="AJ48" s="1" t="n">
-        <v>0.008</v>
+        <v>-0.004</v>
       </c>
       <c r="AK48" s="1" t="n">
-        <v>0.081</v>
+        <v>0.076</v>
       </c>
       <c r="AL48" s="1" t="n">
-        <v>0.457</v>
+        <v>0.447</v>
       </c>
       <c r="AM48" s="1" t="n">
-        <v>0.973</v>
+        <v>0.959</v>
       </c>
       <c r="AN48" s="1" t="n">
-        <v>0.416</v>
+        <v>0.406</v>
       </c>
       <c r="AO48" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="49" ht="25" customHeight="1">
@@ -6659,37 +6659,37 @@
         <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>47.49</v>
+        <v>47.16</v>
       </c>
       <c r="D49" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.007</v>
       </c>
       <c r="E49" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.006</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>-0.004</v>
       </c>
       <c r="G49" s="1" t="n">
-        <v>0.057</v>
+        <v>0.046</v>
       </c>
       <c r="H49" s="1" t="n">
-        <v>0.205</v>
+        <v>0.184</v>
       </c>
       <c r="I49" s="1" t="n">
-        <v>0.218</v>
+        <v>0.208</v>
       </c>
       <c r="J49" s="1" t="n">
-        <v>0.897</v>
+        <v>0.841</v>
       </c>
       <c r="K49" s="1" t="n">
-        <v>0.59</v>
+        <v>0.579</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1.402</v>
+        <v>1.385</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>0.285</v>
+        <v>0.276</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>202</v>
@@ -6698,29 +6698,29 @@
         <v>203</v>
       </c>
       <c r="Q49" t="n">
-        <v>35.13</v>
+        <v>34.83</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>0.005</v>
+        <v>-0.009</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>-0.022</v>
+        <v>0.019</v>
       </c>
       <c r="T49" s="1" t="n">
         <v>0.018</v>
       </c>
       <c r="U49" s="1" t="n">
-        <v>0.19</v>
+        <v>0.166</v>
       </c>
       <c r="V49" s="1" t="n">
-        <v>0.7</v>
+        <v>0.699</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1" t="n">
-        <v>0.297</v>
+        <v>0.286</v>
       </c>
       <c r="AC49" s="6" t="s">
         <v>311</v>
@@ -6729,37 +6729,37 @@
         <v>312</v>
       </c>
       <c r="AE49" t="n">
-        <v>17.51</v>
+        <v>17.54</v>
       </c>
       <c r="AF49" s="1" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="AG49" s="1" t="n">
-        <v>0.003</v>
+        <v>0.014</v>
       </c>
       <c r="AH49" s="1" t="n">
-        <v>-0.025</v>
+        <v>-0.019</v>
       </c>
       <c r="AI49" s="1" t="n">
-        <v>-0.007</v>
+        <v>-0.001</v>
       </c>
       <c r="AJ49" s="1" t="n">
-        <v>-0.106</v>
+        <v>-0.104</v>
       </c>
       <c r="AK49" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.008</v>
       </c>
       <c r="AL49" s="1" t="n">
-        <v>-0.366</v>
+        <v>-0.358</v>
       </c>
       <c r="AM49" s="1" t="n">
-        <v>0.29</v>
+        <v>0.293</v>
       </c>
       <c r="AN49" s="1" t="n">
-        <v>-0.236</v>
+        <v>-0.235</v>
       </c>
       <c r="AO49" s="1" t="n">
-        <v>-0.067</v>
+        <v>-0.066</v>
       </c>
     </row>
     <row r="50" ht="25" customHeight="1">
@@ -6788,25 +6788,25 @@
         <v>32.83</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>-0.011</v>
+        <v>0</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.019</v>
       </c>
       <c r="T50" s="1" t="n">
-        <v>0.032</v>
+        <v>0.027</v>
       </c>
       <c r="U50" s="1" t="n">
-        <v>0.121</v>
+        <v>0.106</v>
       </c>
       <c r="V50" s="1" t="n">
-        <v>0.295</v>
+        <v>0.289</v>
       </c>
       <c r="W50" s="1" t="n">
-        <v>0.283</v>
+        <v>0.276</v>
       </c>
       <c r="X50" s="1" t="n">
-        <v>0.704</v>
+        <v>0.656</v>
       </c>
       <c r="Y50" s="1" t="n">
         <v>0.33</v>
@@ -6827,25 +6827,25 @@
         <v>4.05</v>
       </c>
       <c r="AF50" s="1" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.002</v>
       </c>
       <c r="AH50" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.047</v>
       </c>
       <c r="AI50" s="1" t="n">
-        <v>-0.094</v>
+        <v>-0.084</v>
       </c>
       <c r="AJ50" s="1" t="n">
-        <v>-0.147</v>
+        <v>-0.149</v>
       </c>
       <c r="AK50" s="1" t="n">
-        <v>-0.224</v>
+        <v>-0.23</v>
       </c>
       <c r="AL50" s="1" t="n">
-        <v>-0.537</v>
+        <v>-0.538</v>
       </c>
       <c r="AM50" s="1" t="n">
         <v>-0.325</v>
@@ -6880,37 +6880,37 @@
         <v>207</v>
       </c>
       <c r="Q51" t="n">
-        <v>63.52</v>
+        <v>63.9</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.006</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>-0.026</v>
+        <v>0.017</v>
       </c>
       <c r="T51" s="1" t="n">
-        <v>-0.016</v>
+        <v>-0.01</v>
       </c>
       <c r="U51" s="1" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="V51" s="1" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="W51" s="1" t="n">
-        <v>0.305</v>
+        <v>0.309</v>
       </c>
       <c r="X51" s="1" t="n">
-        <v>1.03</v>
+        <v>0.974</v>
       </c>
       <c r="Y51" s="1" t="n">
-        <v>0.778</v>
+        <v>0.789</v>
       </c>
       <c r="Z51" s="1" t="n">
-        <v>1.577</v>
+        <v>1.593</v>
       </c>
       <c r="AA51" s="1" t="n">
-        <v>0.241</v>
+        <v>0.249</v>
       </c>
       <c r="AC51" s="6" t="s">
         <v>315</v>
@@ -6919,37 +6919,37 @@
         <v>316</v>
       </c>
       <c r="AE51" t="n">
-        <v>21.65</v>
+        <v>21.82</v>
       </c>
       <c r="AF51" s="1" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="AG51" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.012</v>
       </c>
       <c r="AH51" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.019</v>
       </c>
       <c r="AI51" s="1" t="n">
         <v>-0.001</v>
       </c>
       <c r="AJ51" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.009</v>
       </c>
       <c r="AK51" s="1" t="n">
-        <v>0.008</v>
+        <v>0.015</v>
       </c>
       <c r="AL51" s="1" t="n">
-        <v>-0.182</v>
+        <v>-0.172</v>
       </c>
       <c r="AM51" s="1" t="n">
-        <v>0.347</v>
+        <v>0.358</v>
       </c>
       <c r="AN51" s="1" t="n">
-        <v>0.192</v>
+        <v>0.202</v>
       </c>
       <c r="AO51" s="1" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="52" ht="25" customHeight="1">
@@ -6960,31 +6960,31 @@
         <v>104</v>
       </c>
       <c r="C52" t="n">
-        <v>61.43</v>
+        <v>60.47</v>
       </c>
       <c r="D52" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.016</v>
       </c>
       <c r="E52" s="1" t="n">
+        <v>-0.087</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="G52" s="1" t="n">
         <v>-0.106</v>
       </c>
-      <c r="F52" s="1" t="n">
-        <v>-0.074</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>-0.094</v>
-      </c>
       <c r="H52" s="1" t="n">
-        <v>0.281</v>
+        <v>0.253</v>
       </c>
       <c r="I52" s="1" t="n">
-        <v>0.592</v>
+        <v>0.589</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="n">
-        <v>0.158</v>
+        <v>0.14</v>
       </c>
       <c r="O52" s="6" t="s">
         <v>208</v>
@@ -6993,37 +6993,37 @@
         <v>209</v>
       </c>
       <c r="Q52" t="n">
-        <v>57.69</v>
+        <v>57.32</v>
       </c>
       <c r="R52" s="1" t="n">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="S52" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.001</v>
       </c>
       <c r="T52" s="1" t="n">
-        <v>-0.067</v>
+        <v>-0.085</v>
       </c>
       <c r="U52" s="1" t="n">
-        <v>0.074</v>
+        <v>0.062</v>
       </c>
       <c r="V52" s="1" t="n">
-        <v>0.434</v>
+        <v>0.415</v>
       </c>
       <c r="W52" s="1" t="n">
-        <v>0.372</v>
+        <v>0.383</v>
       </c>
       <c r="X52" s="1" t="n">
-        <v>1.229</v>
+        <v>1.139</v>
       </c>
       <c r="Y52" s="1" t="n">
-        <v>0.171</v>
+        <v>0.163</v>
       </c>
       <c r="Z52" s="1" t="n">
-        <v>2.103</v>
+        <v>2.083</v>
       </c>
       <c r="AA52" s="1" t="n">
-        <v>0.366</v>
+        <v>0.357</v>
       </c>
       <c r="AC52" s="6" t="s">
         <v>317</v>
@@ -7071,31 +7071,31 @@
         <v>106</v>
       </c>
       <c r="C53" t="n">
-        <v>29.24</v>
+        <v>28.94</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="E53" s="1" t="n">
-        <v>-0.109</v>
+        <v>-0.042</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>-0.14</v>
+        <v>-0.153</v>
       </c>
       <c r="G53" s="1" t="n">
-        <v>0.141</v>
+        <v>0.118</v>
       </c>
       <c r="H53" s="1" t="n">
-        <v>1.435</v>
+        <v>1.416</v>
       </c>
       <c r="I53" s="1" t="n">
-        <v>0.475</v>
+        <v>0.471</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="n">
-        <v>0.156</v>
+        <v>0.144</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>210</v>
@@ -7104,35 +7104,35 @@
         <v>211</v>
       </c>
       <c r="Q53" t="n">
-        <v>115.32</v>
+        <v>115.37</v>
       </c>
       <c r="R53" s="1" t="n">
-        <v>-0.011</v>
+        <v>0</v>
       </c>
       <c r="S53" s="1" t="n">
-        <v>-0.028</v>
+        <v>0.005</v>
       </c>
       <c r="T53" s="1" t="n">
-        <v>-0.051</v>
+        <v>-0.057</v>
       </c>
       <c r="U53" s="1" t="n">
-        <v>0.076</v>
+        <v>0.061</v>
       </c>
       <c r="V53" s="1" t="n">
-        <v>0.33</v>
+        <v>0.303</v>
       </c>
       <c r="W53" s="1" t="n">
-        <v>0.571</v>
+        <v>0.591</v>
       </c>
       <c r="X53" s="1" t="n">
-        <v>2.074</v>
+        <v>1.959</v>
       </c>
       <c r="Y53" s="1" t="n">
-        <v>0.978</v>
+        <v>0.979</v>
       </c>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="AC53" s="6" t="s">
         <v>319</v>
@@ -7141,37 +7141,37 @@
         <v>320</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.05</v>
+        <v>9.89</v>
       </c>
       <c r="AF53" s="1" t="n">
-        <v>0.009</v>
+        <v>-0.016</v>
       </c>
       <c r="AG53" s="1" t="n">
-        <v>-0.031</v>
+        <v>-0.037</v>
       </c>
       <c r="AH53" s="1" t="n">
         <v>-0.053</v>
       </c>
       <c r="AI53" s="1" t="n">
-        <v>-0.09</v>
+        <v>-0.112</v>
       </c>
       <c r="AJ53" s="1" t="n">
-        <v>-0.133</v>
+        <v>-0.147</v>
       </c>
       <c r="AK53" s="1" t="n">
-        <v>-0.21</v>
+        <v>-0.226</v>
       </c>
       <c r="AL53" s="1" t="n">
-        <v>0.106</v>
+        <v>0.082</v>
       </c>
       <c r="AM53" s="1" t="n">
-        <v>0.593</v>
+        <v>0.567</v>
       </c>
       <c r="AN53" s="1" t="n">
-        <v>0.061</v>
+        <v>0.044</v>
       </c>
       <c r="AO53" s="1" t="n">
-        <v>-0.121</v>
+        <v>-0.135</v>
       </c>
     </row>
     <row r="54" ht="25" customHeight="1">
@@ -7182,37 +7182,37 @@
         <v>108</v>
       </c>
       <c r="C54" t="n">
-        <v>67.17</v>
+        <v>67.03</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>-0.02</v>
+        <v>-0.002</v>
       </c>
       <c r="E54" s="1" t="n">
-        <v>-0.019</v>
+        <v>0.005</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>-0.05</v>
+        <v>-0.053</v>
       </c>
       <c r="G54" s="1" t="n">
-        <v>-0.046</v>
+        <v>-0.059</v>
       </c>
       <c r="H54" s="1" t="n">
-        <v>0.159</v>
+        <v>0.144</v>
       </c>
       <c r="I54" s="1" t="n">
-        <v>0.038</v>
+        <v>0.023</v>
       </c>
       <c r="J54" s="1" t="n">
-        <v>0.901</v>
+        <v>0.833</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>0.578</v>
+        <v>0.575</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>1.217</v>
+        <v>1.213</v>
       </c>
       <c r="M54" s="1" t="n">
-        <v>0.043</v>
+        <v>0.041</v>
       </c>
       <c r="O54" s="7" t="s">
         <v>212</v>
@@ -7221,37 +7221,37 @@
         <v>213</v>
       </c>
       <c r="Q54" t="n">
-        <v>115.75</v>
+        <v>115.4</v>
       </c>
       <c r="R54" s="1" t="n">
-        <v>-0.009</v>
+        <v>-0.003</v>
       </c>
       <c r="S54" s="1" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
       <c r="T54" s="1" t="n">
-        <v>0.088</v>
+        <v>0.082</v>
       </c>
       <c r="U54" s="1" t="n">
-        <v>0.11</v>
+        <v>0.103</v>
       </c>
       <c r="V54" s="1" t="n">
-        <v>0.179</v>
+        <v>0.164</v>
       </c>
       <c r="W54" s="1" t="n">
-        <v>0.14</v>
+        <v>0.146</v>
       </c>
       <c r="X54" s="1" t="n">
-        <v>0.62</v>
+        <v>0.581</v>
       </c>
       <c r="Y54" s="1" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="Z54" s="1" t="n">
-        <v>1.736</v>
+        <v>1.728</v>
       </c>
       <c r="AA54" s="1" t="n">
-        <v>0.223</v>
+        <v>0.22</v>
       </c>
       <c r="AC54" s="6" t="s">
         <v>321</v>
@@ -7301,37 +7301,37 @@
         <v>110</v>
       </c>
       <c r="C55" t="n">
-        <v>38.69</v>
+        <v>38.59</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="E55" s="1" t="n">
-        <v>0.005</v>
+        <v>0.016</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>0.035</v>
+        <v>0.033</v>
       </c>
       <c r="G55" s="1" t="n">
-        <v>0.085</v>
+        <v>0.074</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>0.12</v>
+        <v>0.115</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>0.276</v>
+        <v>0.273</v>
       </c>
       <c r="K55" s="1" t="n">
-        <v>0.442</v>
+        <v>0.438</v>
       </c>
       <c r="L55" s="1" t="n">
-        <v>0.301</v>
+        <v>0.297</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>0.108</v>
+        <v>0.105</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>214</v>
@@ -7340,37 +7340,37 @@
         <v>215</v>
       </c>
       <c r="Q55" t="n">
-        <v>91.89</v>
+        <v>91.57</v>
       </c>
       <c r="R55" s="1" t="n">
-        <v>-0.011</v>
+        <v>-0.003</v>
       </c>
       <c r="S55" s="1" t="n">
         <v>0.015</v>
       </c>
       <c r="T55" s="1" t="n">
-        <v>0.099</v>
+        <v>0.093</v>
       </c>
       <c r="U55" s="1" t="n">
-        <v>0.128</v>
+        <v>0.119</v>
       </c>
       <c r="V55" s="1" t="n">
-        <v>0.21</v>
+        <v>0.194</v>
       </c>
       <c r="W55" s="1" t="n">
-        <v>0.151</v>
+        <v>0.157</v>
       </c>
       <c r="X55" s="1" t="n">
-        <v>0.622</v>
+        <v>0.584</v>
       </c>
       <c r="Y55" s="1" t="n">
-        <v>0.674</v>
+        <v>0.668</v>
       </c>
       <c r="Z55" s="1" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AA55" s="1" t="n">
-        <v>0.239</v>
+        <v>0.235</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>323</v>
@@ -7418,35 +7418,35 @@
         <v>112</v>
       </c>
       <c r="C56" t="n">
-        <v>39.97</v>
+        <v>36.95</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>0.093</v>
+        <v>-0.076</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>0.203</v>
+        <v>-0.014</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>0.158</v>
+        <v>0.109</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>-0.129</v>
+        <v>-0.194</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>-0.455</v>
+        <v>-0.482</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>-0.251</v>
+        <v>-0.296</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>-0.884</v>
+        <v>-0.889</v>
       </c>
       <c r="K56" s="1" t="n">
-        <v>-0.972</v>
+        <v>-0.974</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="n">
-        <v>-0.127</v>
+        <v>-0.193</v>
       </c>
       <c r="O56" s="6" t="s">
         <v>216</v>
@@ -7455,37 +7455,37 @@
         <v>217</v>
       </c>
       <c r="Q56" t="n">
-        <v>72.81</v>
+        <v>73.14</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.005</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>0.002</v>
+        <v>0.019</v>
       </c>
       <c r="T56" s="1" t="n">
-        <v>0.019</v>
+        <v>0.03</v>
       </c>
       <c r="U56" s="1" t="n">
-        <v>0.044</v>
+        <v>0.035</v>
       </c>
       <c r="V56" s="1" t="n">
-        <v>0.184</v>
+        <v>0.178</v>
       </c>
       <c r="W56" s="1" t="n">
-        <v>0.028</v>
+        <v>0.04</v>
       </c>
       <c r="X56" s="1" t="n">
-        <v>0.622</v>
+        <v>0.577</v>
       </c>
       <c r="Y56" s="1" t="n">
-        <v>0.744</v>
+        <v>0.752</v>
       </c>
       <c r="Z56" s="1" t="n">
-        <v>2.447</v>
+        <v>2.462</v>
       </c>
       <c r="AA56" s="1" t="n">
-        <v>0.112</v>
+        <v>0.117</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>325</v>
@@ -7543,37 +7543,37 @@
         <v>219</v>
       </c>
       <c r="Q57" t="n">
-        <v>96.32</v>
+        <v>96.95</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.007</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>0.016</v>
+        <v>0.035</v>
       </c>
       <c r="T57" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.003</v>
       </c>
       <c r="U57" s="1" t="n">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
       <c r="V57" s="1" t="n">
-        <v>0.076</v>
+        <v>0.067</v>
       </c>
       <c r="W57" s="1" t="n">
-        <v>-0.033</v>
+        <v>-0.019</v>
       </c>
       <c r="X57" s="1" t="n">
-        <v>0.355</v>
+        <v>0.315</v>
       </c>
       <c r="Y57" s="1" t="n">
-        <v>0.34</v>
+        <v>0.349</v>
       </c>
       <c r="Z57" s="1" t="n">
-        <v>0.748</v>
+        <v>0.759</v>
       </c>
       <c r="AA57" s="1" t="n">
-        <v>0.051</v>
+        <v>0.058</v>
       </c>
       <c r="AC57"/>
       <c r="AD57"/>
@@ -7607,37 +7607,37 @@
         <v>221</v>
       </c>
       <c r="Q58" t="n">
-        <v>83.43</v>
+        <v>84.17</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>0.002</v>
+        <v>0.009</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>0.018</v>
+        <v>0.033</v>
       </c>
       <c r="T58" s="1" t="n">
-        <v>0.004</v>
+        <v>0.014</v>
       </c>
       <c r="U58" s="1" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="V58" s="1" t="n">
-        <v>0.039</v>
+        <v>0.035</v>
       </c>
       <c r="W58" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.014</v>
       </c>
       <c r="X58" s="1" t="n">
-        <v>0.353</v>
+        <v>0.316</v>
       </c>
       <c r="Y58" s="1" t="n">
-        <v>0.524</v>
+        <v>0.537</v>
       </c>
       <c r="Z58" s="1" t="n">
-        <v>0.866</v>
+        <v>0.883</v>
       </c>
       <c r="AA58" s="1" t="n">
-        <v>0.047</v>
+        <v>0.056</v>
       </c>
       <c r="AC58"/>
       <c r="AD58" s="9" t="s">
@@ -7675,37 +7675,37 @@
         <v>223</v>
       </c>
       <c r="Q59" t="n">
-        <v>90.58</v>
+        <v>91.17</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.007</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>0.015</v>
+        <v>0.034</v>
       </c>
       <c r="T59" s="1" t="n">
-        <v>-0.008</v>
+        <v>0</v>
       </c>
       <c r="U59" s="1" t="n">
-        <v>0.018</v>
+        <v>0.026</v>
       </c>
       <c r="V59" s="1" t="n">
-        <v>0.079</v>
+        <v>0.07</v>
       </c>
       <c r="W59" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.02</v>
       </c>
       <c r="X59" s="1" t="n">
-        <v>0.349</v>
+        <v>0.308</v>
       </c>
       <c r="Y59" s="1" t="n">
-        <v>0.359</v>
+        <v>0.368</v>
       </c>
       <c r="Z59" s="1" t="n">
-        <v>0.692</v>
+        <v>0.703</v>
       </c>
       <c r="AA59" s="1" t="n">
-        <v>0.047</v>
+        <v>0.054</v>
       </c>
       <c r="AC59"/>
       <c r="AD59"/>
@@ -7741,37 +7741,37 @@
         <v>225</v>
       </c>
       <c r="Q60" t="n">
-        <v>21.78</v>
+        <v>21.96</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>-0.016</v>
+        <v>0.008</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>-0.006</v>
+        <v>0.012</v>
       </c>
       <c r="T60" s="1" t="n">
-        <v>-0.028</v>
+        <v>-0.026</v>
       </c>
       <c r="U60" s="1" t="n">
-        <v>0.013</v>
+        <v>0.031</v>
       </c>
       <c r="V60" s="1" t="n">
-        <v>0.164</v>
+        <v>0.153</v>
       </c>
       <c r="W60" s="1" t="n">
-        <v>0.012</v>
+        <v>0.025</v>
       </c>
       <c r="X60" s="1" t="n">
-        <v>0.376</v>
+        <v>0.356</v>
       </c>
       <c r="Y60" s="1" t="n">
-        <v>0.25</v>
+        <v>0.261</v>
       </c>
       <c r="Z60" s="1" t="n">
-        <v>0.327</v>
+        <v>0.338</v>
       </c>
       <c r="AA60" s="1" t="n">
-        <v>0.073</v>
+        <v>0.082</v>
       </c>
       <c r="AC60"/>
       <c r="AD60"/>
@@ -7807,37 +7807,37 @@
         <v>227</v>
       </c>
       <c r="Q61" t="n">
-        <v>87.2</v>
+        <v>87.09</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>-0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.016</v>
       </c>
       <c r="T61" s="1" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="U61" s="1" t="n">
-        <v>0.061</v>
+        <v>0.048</v>
       </c>
       <c r="V61" s="1" t="n">
-        <v>0.243</v>
+        <v>0.227</v>
       </c>
       <c r="W61" s="1" t="n">
-        <v>0.091</v>
+        <v>0.097</v>
       </c>
       <c r="X61" s="1" t="n">
-        <v>0.403</v>
+        <v>0.352</v>
       </c>
       <c r="Y61" s="1" t="n">
-        <v>0.809</v>
+        <v>0.806</v>
       </c>
       <c r="Z61" s="1" t="n">
-        <v>1.47</v>
+        <v>1.467</v>
       </c>
       <c r="AA61" s="1" t="n">
-        <v>0.091</v>
+        <v>0.089</v>
       </c>
       <c r="AC61"/>
       <c r="AD61"/>

--- a/etf_returns.xlsx
+++ b/etf_returns.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Last Observation From Closing Prices</t>
   </si>
   <si>
-    <t xml:space="preserve">10/17/2025 at 4:00 PM ET</t>
+    <t xml:space="preserve">10/20/2025 at 4:00 PM ET</t>
   </si>
   <si>
     <t xml:space="preserve">Ticker</t>
@@ -1669,37 +1669,37 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>333.12</v>
+        <v>336.58</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>0.013</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0.077</v>
+        <v>0.09</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0.317</v>
+        <v>0.331</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0.197</v>
+        <v>0.204</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>1.071</v>
+        <v>1.097</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1.203</v>
+        <v>1.253</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>3.334</v>
+        <v>3.383</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0.161</v>
+        <v>0.173</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -1708,37 +1708,37 @@
         <v>115</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.72</v>
+        <v>46.19</v>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="T5" s="1" t="n">
-        <v>-0.037</v>
+        <v>-0.011</v>
       </c>
       <c r="U5" s="1" t="n">
-        <v>0.001</v>
+        <v>0.017</v>
       </c>
       <c r="V5" s="1" t="n">
-        <v>0.074</v>
+        <v>0.085</v>
       </c>
       <c r="W5" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.002</v>
       </c>
       <c r="X5" s="1" t="n">
-        <v>0.139</v>
+        <v>0.111</v>
       </c>
       <c r="Y5" s="1" t="n">
-        <v>2.301</v>
+        <v>2.364</v>
       </c>
       <c r="Z5" s="1" t="n">
-        <v>0.667</v>
+        <v>0.715</v>
       </c>
       <c r="AA5" s="1" t="n">
-        <v>0.025</v>
+        <v>0.036</v>
       </c>
       <c r="AC5" s="6" t="s">
         <v>229</v>
@@ -1747,34 +1747,34 @@
         <v>230</v>
       </c>
       <c r="AE5" t="n">
-        <v>83.09</v>
+        <v>83.1</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="AG5" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AI5" s="1" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
       <c r="AJ5" s="1" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="AK5" s="1" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="AL5" s="1" t="n">
-        <v>0.139</v>
+        <v>0.142</v>
       </c>
       <c r="AM5" s="1" t="n">
         <v>0.078</v>
       </c>
       <c r="AN5" s="1" t="n">
-        <v>0.17</v>
+        <v>0.171</v>
       </c>
       <c r="AO5" s="1" t="n">
         <v>0.043</v>
@@ -1788,37 +1788,37 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>667.69</v>
+        <v>674.59</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0.006</v>
+        <v>0.01</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.018</v>
+        <v>0.013</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0.061</v>
+        <v>0.073</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0.271</v>
+        <v>0.284</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0.155</v>
+        <v>0.163</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0.892</v>
+        <v>0.919</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>1.06</v>
+        <v>1.104</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>2.872</v>
+        <v>2.915</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0.145</v>
+        <v>0.157</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>116</v>
@@ -1827,37 +1827,37 @@
         <v>117</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.06</v>
+        <v>88.26</v>
       </c>
       <c r="R6" s="1" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>-0.032</v>
+      </c>
+      <c r="X6" s="1" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="Y6" s="1" t="n">
+        <v>2.803</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="AA6" s="1" t="n">
         <v>0.003</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>-0.054</v>
-      </c>
-      <c r="U6" s="1" t="n">
-        <v>-0.031</v>
-      </c>
-      <c r="V6" s="1" t="n">
-        <v>0.085</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>-0.049</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>0.018</v>
-      </c>
-      <c r="Y6" s="1" t="n">
-        <v>2.705</v>
-      </c>
-      <c r="Z6" s="1" t="n">
-        <v>0.719</v>
-      </c>
-      <c r="AA6" s="1" t="n">
-        <v>-0.011</v>
       </c>
       <c r="AC6" s="6" t="s">
         <v>231</v>
@@ -1866,37 +1866,37 @@
         <v>232</v>
       </c>
       <c r="AE6" t="n">
-        <v>120.18</v>
+        <v>120.25</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AG6" s="1" t="n">
         <v>0.003</v>
       </c>
       <c r="AH6" s="1" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="AI6" s="1" t="n">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
       <c r="AJ6" s="1" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="AK6" s="1" t="n">
-        <v>0.056</v>
+        <v>0.055</v>
       </c>
       <c r="AL6" s="1" t="n">
-        <v>0.156</v>
+        <v>0.167</v>
       </c>
       <c r="AM6" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AN6" s="1" t="n">
-        <v>0.159</v>
+        <v>0.162</v>
       </c>
       <c r="AO6" s="1" t="n">
-        <v>0.067</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1">
@@ -1907,37 +1907,37 @@
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>64.47</v>
+        <v>65.26</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.019</v>
+        <v>0.012</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>-0.013</v>
+        <v>-0.005</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0.019</v>
+        <v>0.032</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0.183</v>
+        <v>0.197</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0.023</v>
+        <v>0.035</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0.464</v>
+        <v>0.509</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0.737</v>
+        <v>0.771</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>1.619</v>
+        <v>1.644</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0.044</v>
+        <v>0.057</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>118</v>
@@ -1946,37 +1946,37 @@
         <v>119</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.4</v>
+        <v>18.82</v>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0.008</v>
+        <v>0.023</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0.03</v>
+        <v>0.029</v>
       </c>
       <c r="T7" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.001</v>
       </c>
       <c r="U7" s="1" t="n">
-        <v>0.067</v>
+        <v>0.103</v>
       </c>
       <c r="V7" s="1" t="n">
-        <v>0.128</v>
+        <v>0.154</v>
       </c>
       <c r="W7" s="1" t="n">
-        <v>-0.082</v>
+        <v>-0.035</v>
       </c>
       <c r="X7" s="1" t="n">
-        <v>0.138</v>
+        <v>0.088</v>
       </c>
       <c r="Y7" s="1" t="n">
-        <v>1.719</v>
+        <v>1.692</v>
       </c>
       <c r="Z7" s="1" t="n">
-        <v>-0.461</v>
+        <v>-0.452</v>
       </c>
       <c r="AA7" s="1" t="n">
-        <v>-0.056</v>
+        <v>-0.034</v>
       </c>
       <c r="AC7" s="6" t="s">
         <v>233</v>
@@ -1985,37 +1985,37 @@
         <v>234</v>
       </c>
       <c r="AE7" t="n">
-        <v>97.39</v>
+        <v>97.52</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG7" s="1" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="AH7" s="1" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="AI7" s="1" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="AJ7" s="1" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="AK7" s="1" t="n">
         <v>0.056</v>
       </c>
       <c r="AL7" s="1" t="n">
-        <v>0.14</v>
+        <v>0.159</v>
       </c>
       <c r="AM7" s="1" t="n">
-        <v>-0.092</v>
+        <v>-0.088</v>
       </c>
       <c r="AN7" s="1" t="n">
-        <v>0.118</v>
+        <v>0.124</v>
       </c>
       <c r="AO7" s="1" t="n">
-        <v>0.084</v>
+        <v>0.085</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1">
@@ -2026,37 +2026,37 @@
         <v>24</v>
       </c>
       <c r="C8" t="n">
-        <v>243.41</v>
+        <v>248.16</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>0.09</v>
+        <v>0.119</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>0.313</v>
+        <v>0.338</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>0.088</v>
+        <v>0.112</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>0.47</v>
+        <v>0.526</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>0.594</v>
+        <v>0.641</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>1.403</v>
+        <v>1.449</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>0.11</v>
+        <v>0.132</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>120</v>
@@ -2065,37 +2065,37 @@
         <v>121</v>
       </c>
       <c r="Q8" t="n">
-        <v>16.53</v>
+        <v>16.6</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.015</v>
+        <v>0.004</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0.048</v>
+        <v>0.014</v>
       </c>
       <c r="T8" s="1" t="n">
-        <v>0.098</v>
+        <v>0.094</v>
       </c>
       <c r="U8" s="1" t="n">
-        <v>0.23</v>
+        <v>0.222</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>0.45</v>
+        <v>0.456</v>
       </c>
       <c r="W8" s="1" t="n">
-        <v>0.258</v>
+        <v>0.26</v>
       </c>
       <c r="X8" s="1" t="n">
-        <v>-0.034</v>
+        <v>-0.017</v>
       </c>
       <c r="Y8" s="1" t="n">
-        <v>-0.157</v>
+        <v>-0.164</v>
       </c>
       <c r="Z8" s="1" t="n">
-        <v>0.942</v>
+        <v>0.961</v>
       </c>
       <c r="AA8" s="1" t="n">
-        <v>0.468</v>
+        <v>0.474</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>235</v>
@@ -2104,37 +2104,37 @@
         <v>236</v>
       </c>
       <c r="AE8" t="n">
-        <v>104.57</v>
+        <v>104.86</v>
       </c>
       <c r="AF8" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AG8" s="1" t="n">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="AH8" s="1" t="n">
-        <v>0.012</v>
+        <v>0.024</v>
       </c>
       <c r="AI8" s="1" t="n">
         <v>0.071</v>
       </c>
       <c r="AJ8" s="1" t="n">
-        <v>0.062</v>
+        <v>0.065</v>
       </c>
       <c r="AK8" s="1" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
       <c r="AL8" s="1" t="n">
-        <v>0.117</v>
+        <v>0.145</v>
       </c>
       <c r="AM8" s="1" t="n">
-        <v>-0.251</v>
+        <v>-0.242</v>
       </c>
       <c r="AN8" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.002</v>
       </c>
       <c r="AO8" s="1" t="n">
-        <v>0.083</v>
+        <v>0.086</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1">
@@ -2160,37 +2160,37 @@
         <v>123</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.67</v>
+        <v>24.92</v>
       </c>
       <c r="R9" s="1" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S9" s="1" t="n">
         <v>0.005</v>
       </c>
-      <c r="S9" s="1" t="n">
-        <v>0.011</v>
-      </c>
       <c r="T9" s="1" t="n">
-        <v>-0.026</v>
+        <v>-0.001</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.02</v>
+        <v>0.035</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.136</v>
+        <v>0.148</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.021</v>
+        <v>0.031</v>
       </c>
       <c r="X9" s="1" t="n">
-        <v>0.207</v>
+        <v>0.187</v>
       </c>
       <c r="Y9" s="1" t="n">
-        <v>1.891</v>
+        <v>1.954</v>
       </c>
       <c r="Z9" s="1" t="n">
-        <v>0.893</v>
+        <v>0.968</v>
       </c>
       <c r="AA9" s="1" t="n">
-        <v>0.099</v>
+        <v>0.11</v>
       </c>
       <c r="AC9" s="6" t="s">
         <v>237</v>
@@ -2199,37 +2199,37 @@
         <v>238</v>
       </c>
       <c r="AE9" t="n">
-        <v>91.2</v>
+        <v>91.55</v>
       </c>
       <c r="AF9" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AG9" s="1" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="AH9" s="1" t="n">
-        <v>0.016</v>
+        <v>0.032</v>
       </c>
       <c r="AI9" s="1" t="n">
+        <v>0.086</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>-0.028</v>
+      </c>
+      <c r="AO9" s="1" t="n">
         <v>0.083</v>
-      </c>
-      <c r="AJ9" s="1" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="AK9" s="1" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="AL9" s="1" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="AM9" s="1" t="n">
-        <v>-0.344</v>
-      </c>
-      <c r="AN9" s="1" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="AO9" s="1" t="n">
-        <v>0.079</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1">
@@ -2255,37 +2255,37 @@
         <v>125</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9</v>
+        <v>149.75</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.019</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.01</v>
+        <v>0.009</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>-0.01</v>
+        <v>0.004</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="V10" s="1" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>0.399</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="AA10" s="1" t="n">
         <v>0.165</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="X10" s="1" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Y10" s="1" t="n">
-        <v>0.557</v>
-      </c>
-      <c r="Z10" s="1" t="n">
-        <v>1.429</v>
-      </c>
-      <c r="AA10" s="1" t="n">
-        <v>0.143</v>
       </c>
       <c r="AC10" s="6" t="s">
         <v>239</v>
@@ -2294,37 +2294,37 @@
         <v>240</v>
       </c>
       <c r="AE10" t="n">
-        <v>111.68</v>
+        <v>111.78</v>
       </c>
       <c r="AF10" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AG10" s="1" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="1" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AI10" s="1" t="n">
         <v>0.027</v>
       </c>
       <c r="AJ10" s="1" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="AK10" s="1" t="n">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="AL10" s="1" t="n">
-        <v>0.144</v>
+        <v>0.155</v>
       </c>
       <c r="AM10" s="1" t="n">
-        <v>0.067</v>
+        <v>0.071</v>
       </c>
       <c r="AN10" s="1" t="n">
-        <v>0.322</v>
+        <v>0.327</v>
       </c>
       <c r="AO10" s="1" t="n">
-        <v>0.075</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1">
@@ -2335,37 +2335,37 @@
         <v>28</v>
       </c>
       <c r="C11" t="n">
-        <v>202.84</v>
+        <v>204.91</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>0.017</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>0.039</v>
+        <v>0.051</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>0.161</v>
+        <v>0.173</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>0.069</v>
+        <v>0.078</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>0.528</v>
+        <v>0.552</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>0.813</v>
+        <v>0.849</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>1.548</v>
+        <v>1.579</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>0.11</v>
+        <v>0.121</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>126</v>
@@ -2374,37 +2374,37 @@
         <v>127</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.48</v>
+        <v>46.32</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.018</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0.027</v>
+        <v>0.002</v>
       </c>
       <c r="T11" s="1" t="n">
-        <v>0.069</v>
+        <v>0.088</v>
       </c>
       <c r="U11" s="1" t="n">
-        <v>0.163</v>
+        <v>0.182</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>0.363</v>
+        <v>0.388</v>
       </c>
       <c r="W11" s="1" t="n">
-        <v>0.145</v>
+        <v>0.157</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>0.452</v>
+        <v>0.494</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>1.06</v>
+        <v>1.083</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2.125</v>
+        <v>2.313</v>
       </c>
       <c r="AA11" s="1" t="n">
-        <v>0.325</v>
+        <v>0.349</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>241</v>
@@ -2419,28 +2419,28 @@
         <v>0</v>
       </c>
       <c r="AG11" s="1" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="1" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AI11" s="1" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="AJ11" s="1" t="n">
         <v>0.028</v>
       </c>
       <c r="AK11" s="1" t="n">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="AL11" s="1" t="n">
-        <v>0.167</v>
+        <v>0.17</v>
       </c>
       <c r="AM11" s="1" t="n">
         <v>0.204</v>
       </c>
       <c r="AN11" s="1" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="AO11" s="1" t="n">
         <v>0.06</v>
@@ -2454,37 +2454,37 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>467.12</v>
+        <v>472.67</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>0.017</v>
+        <v>0.009</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>0.012</v>
+        <v>0.009</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0.076</v>
+        <v>0.089</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0.37</v>
+        <v>0.386</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>0.232</v>
+        <v>0.24</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>1.227</v>
+        <v>1.26</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>1.141</v>
+        <v>1.194</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>4.217</v>
+        <v>4.278</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>0.167</v>
+        <v>0.181</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>128</v>
@@ -2493,37 +2493,37 @@
         <v>129</v>
       </c>
       <c r="Q12" t="n">
-        <v>66.94</v>
+        <v>68.76</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.072</v>
+        <v>0.027</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0.044</v>
+        <v>0.02</v>
       </c>
       <c r="T12" s="1" t="n">
-        <v>0.144</v>
+        <v>0.113</v>
       </c>
       <c r="U12" s="1" t="n">
-        <v>0.549</v>
+        <v>0.595</v>
       </c>
       <c r="V12" s="1" t="n">
-        <v>0.578</v>
+        <v>0.621</v>
       </c>
       <c r="W12" s="1" t="n">
-        <v>0.964</v>
+        <v>0.945</v>
       </c>
       <c r="X12" s="1" t="n">
-        <v>2.891</v>
+        <v>3.044</v>
       </c>
       <c r="Y12" s="1" t="n">
-        <v>1.206</v>
+        <v>1.305</v>
       </c>
       <c r="Z12" s="1" t="n">
-        <v>4.9</v>
+        <v>5.127</v>
       </c>
       <c r="AA12" s="1" t="n">
-        <v>1.394</v>
+        <v>1.459</v>
       </c>
       <c r="AC12" s="6" t="s">
         <v>243</v>
@@ -2532,34 +2532,34 @@
         <v>244</v>
       </c>
       <c r="AE12" t="n">
-        <v>107.42</v>
+        <v>107.51</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG12" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AH12" s="1" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="AI12" s="1" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="AJ12" s="1" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="AK12" s="1" t="n">
         <v>0.028</v>
       </c>
       <c r="AL12" s="1" t="n">
-        <v>0.135</v>
+        <v>0.145</v>
       </c>
       <c r="AM12" s="1" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="AN12" s="1" t="n">
-        <v>0.248</v>
+        <v>0.249</v>
       </c>
       <c r="AO12" s="1" t="n">
         <v>0.033</v>
@@ -2573,37 +2573,37 @@
         <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>193.46</v>
+        <v>195.61</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0.051</v>
+        <v>0.066</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>0.204</v>
+        <v>0.217</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>0.076</v>
+        <v>0.083</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>0.918</v>
+        <v>0.961</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>2.539</v>
+        <v>2.573</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>0.094</v>
+        <v>0.106</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>130</v>
@@ -2612,37 +2612,37 @@
         <v>131</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.67</v>
+        <v>29.46</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.084</v>
+        <v>0.028</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0.047</v>
+        <v>0.012</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>0.167</v>
+        <v>0.168</v>
       </c>
       <c r="U13" s="1" t="n">
-        <v>0.595</v>
+        <v>0.663</v>
       </c>
       <c r="V13" s="1" t="n">
-        <v>0.787</v>
+        <v>0.837</v>
       </c>
       <c r="W13" s="1" t="n">
-        <v>1.084</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1" t="n">
-        <v>2.245</v>
+        <v>2.368</v>
       </c>
       <c r="Y13" s="1" t="n">
-        <v>0.836</v>
+        <v>0.898</v>
       </c>
       <c r="Z13" s="1" t="n">
-        <v>3.548</v>
+        <v>3.919</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1.491</v>
+        <v>1.559</v>
       </c>
       <c r="AC13" s="6" t="s">
         <v>245</v>
@@ -2651,37 +2651,37 @@
         <v>246</v>
       </c>
       <c r="AE13" t="n">
-        <v>22.4</v>
+        <v>22.35</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>0.003</v>
+        <v>-0.002</v>
       </c>
       <c r="AG13" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AH13" s="1" t="n">
-        <v>0</v>
+        <v>-0.003</v>
       </c>
       <c r="AI13" s="1" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="AJ13" s="1" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="AK13" s="1" t="n">
-        <v>0.021</v>
+        <v>0.016</v>
       </c>
       <c r="AL13" s="1" t="n">
-        <v>0.104</v>
+        <v>0.11</v>
       </c>
       <c r="AM13" s="1" t="n">
-        <v>0.091</v>
+        <v>0.085</v>
       </c>
       <c r="AN13" s="1" t="n">
-        <v>0.224</v>
+        <v>0.226</v>
       </c>
       <c r="AO13" s="1" t="n">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1">
@@ -2692,37 +2692,37 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>94.06</v>
+        <v>94.62</v>
       </c>
       <c r="D14" s="1" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <v>0.008</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="F14" s="1" t="n">
-        <v>0.005</v>
-      </c>
       <c r="G14" s="1" t="n">
-        <v>0.015</v>
+        <v>0.022</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0.052</v>
+        <v>0.059</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0.029</v>
+        <v>0.035</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>0.474</v>
+        <v>0.491</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>0.56</v>
+        <v>0.591</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>1.726</v>
+        <v>1.741</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>0.071</v>
+        <v>0.077</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>132</v>
@@ -2731,31 +2731,31 @@
         <v>133</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.09</v>
+        <v>39.15</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.031</v>
+        <v>0.028</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0.016</v>
+        <v>-0.006</v>
       </c>
       <c r="T14" s="1" t="n">
-        <v>0.108</v>
+        <v>0.129</v>
       </c>
       <c r="U14" s="1" t="n">
-        <v>0.287</v>
+        <v>0.317</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0.523</v>
+        <v>0.565</v>
       </c>
       <c r="W14" s="1" t="n">
-        <v>0.276</v>
+        <v>0.295</v>
       </c>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1" t="n">
-        <v>0.508</v>
+        <v>0.55</v>
       </c>
       <c r="AC14" s="6" t="s">
         <v>247</v>
@@ -2764,7 +2764,7 @@
         <v>248</v>
       </c>
       <c r="AE14" t="n">
-        <v>75.86</v>
+        <v>75.76</v>
       </c>
       <c r="AF14" s="1" t="n">
         <v>-0.001</v>
@@ -2773,28 +2773,28 @@
         <v>0.007</v>
       </c>
       <c r="AH14" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.006</v>
       </c>
       <c r="AI14" s="1" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="AJ14" s="1" t="n">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="AK14" s="1" t="n">
-        <v>0.081</v>
+        <v>0.078</v>
       </c>
       <c r="AL14" s="1" t="n">
-        <v>0.21</v>
+        <v>0.219</v>
       </c>
       <c r="AM14" s="1" t="n">
-        <v>-0.035</v>
+        <v>-0.04</v>
       </c>
       <c r="AN14" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AO14" s="1" t="n">
-        <v>0.126</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="15" ht="25" customHeight="1">
@@ -2805,37 +2805,37 @@
         <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>252.8</v>
+        <v>254.22</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>0.011</v>
+        <v>-0.002</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-0.001</v>
+        <v>-0.01</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0.059</v>
+        <v>0.066</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>0.3</v>
+        <v>0.307</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>0.224</v>
+        <v>0.227</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>0.911</v>
+        <v>0.908</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>0.752</v>
+        <v>0.792</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>2.984</v>
+        <v>3.022</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>0.23</v>
+        <v>0.237</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>134</v>
@@ -2844,31 +2844,31 @@
         <v>135</v>
       </c>
       <c r="Q15" t="n">
-        <v>12.8</v>
+        <v>13.13</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.013</v>
+        <v>0.026</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0.045</v>
+        <v>-0.06</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>0.183</v>
+        <v>0.195</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>0.439</v>
+        <v>0.421</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>0.77</v>
+        <v>0.817</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>0.228</v>
+        <v>0.246</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1" t="n">
-        <v>0.456</v>
+        <v>0.494</v>
       </c>
       <c r="AC15" s="6" t="s">
         <v>249</v>
@@ -2877,37 +2877,37 @@
         <v>250</v>
       </c>
       <c r="AE15" t="n">
-        <v>95.74</v>
+        <v>96.16</v>
       </c>
       <c r="AF15" s="1" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="AG15" s="1" t="n">
-        <v>0.012</v>
+        <v>0.009</v>
       </c>
       <c r="AH15" s="1" t="n">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
       <c r="AI15" s="1" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="AJ15" s="1" t="n">
-        <v>0.106</v>
+        <v>0.111</v>
       </c>
       <c r="AK15" s="1" t="n">
-        <v>0.099</v>
+        <v>0.101</v>
       </c>
       <c r="AL15" s="1" t="n">
-        <v>0.43</v>
+        <v>0.457</v>
       </c>
       <c r="AM15" s="1" t="n">
-        <v>0.085</v>
+        <v>0.096</v>
       </c>
       <c r="AN15" s="1" t="n">
-        <v>0.41</v>
+        <v>0.423</v>
       </c>
       <c r="AO15" s="1" t="n">
-        <v>0.118</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="16" ht="25" customHeight="1">
@@ -2918,37 +2918,37 @@
         <v>38</v>
       </c>
       <c r="C16" t="n">
-        <v>122.14</v>
+        <v>122.61</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>0.029</v>
+        <v>0.039</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>0.094</v>
+        <v>0.098</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>0.416</v>
+        <v>0.421</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>0.783</v>
+        <v>0.813</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>1.35</v>
+        <v>1.372</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>0.112</v>
+        <v>0.117</v>
       </c>
       <c r="O16" s="6" t="s">
         <v>136</v>
@@ -2957,37 +2957,37 @@
         <v>137</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.15</v>
+        <v>70.61</v>
       </c>
       <c r="R16" s="1" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>-0.042</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="V16" s="1" t="n">
         <v>0.004</v>
       </c>
-      <c r="S16" s="1" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="T16" s="1" t="n">
-        <v>-0.068</v>
-      </c>
-      <c r="U16" s="1" t="n">
-        <v>-0.048</v>
-      </c>
-      <c r="V16" s="1" t="n">
-        <v>-0.003</v>
-      </c>
       <c r="W16" s="1" t="n">
-        <v>-0.124</v>
+        <v>-0.121</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>0.056</v>
+        <v>0.083</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>0.139</v>
+        <v>0.138</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>0.709</v>
+        <v>0.745</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-0.072</v>
+        <v>-0.065</v>
       </c>
       <c r="AC16" s="6" t="s">
         <v>251</v>
@@ -2996,37 +2996,37 @@
         <v>252</v>
       </c>
       <c r="AE16" t="n">
-        <v>41.52</v>
+        <v>41.41</v>
       </c>
       <c r="AF16" s="1" t="n">
-        <v>0.004</v>
+        <v>-0.003</v>
       </c>
       <c r="AG16" s="1" t="n">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="AH16" s="1" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="AI16" s="1" t="n">
-        <v>0.032</v>
+        <v>0.028</v>
       </c>
       <c r="AJ16" s="1" t="n">
-        <v>0.088</v>
+        <v>0.085</v>
       </c>
       <c r="AK16" s="1" t="n">
-        <v>0.109</v>
+        <v>0.106</v>
       </c>
       <c r="AL16" s="1" t="n">
-        <v>0.315</v>
+        <v>0.321</v>
       </c>
       <c r="AM16" s="1" t="n">
-        <v>0.052</v>
+        <v>0.046</v>
       </c>
       <c r="AN16" s="1" t="n">
-        <v>0.176</v>
+        <v>0.182</v>
       </c>
       <c r="AO16" s="1" t="n">
-        <v>0.15</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="17" ht="25" customHeight="1">
@@ -3037,35 +3037,35 @@
         <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>145.28</v>
+        <v>146.82</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>0.017</v>
+        <v>0.013</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>0.062</v>
+        <v>0.074</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>0.273</v>
+        <v>0.287</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0.148</v>
+        <v>0.156</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>0.858</v>
+        <v>0.886</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>0.957</v>
+        <v>1.001</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="n">
-        <v>0.136</v>
+        <v>0.148</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>138</v>
@@ -3074,37 +3074,37 @@
         <v>139</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.13</v>
+        <v>96.58</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.015</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0.031</v>
+        <v>0.025</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>0.027</v>
+        <v>0.022</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>0.149</v>
+        <v>0.167</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>0.432</v>
+        <v>0.454</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>0.154</v>
+        <v>0.165</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>1.51</v>
+        <v>1.653</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1.443</v>
+        <v>1.506</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>3.146</v>
+        <v>3.186</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>0.258</v>
+        <v>0.277</v>
       </c>
       <c r="AC17" s="6" t="s">
         <v>253</v>
@@ -3113,37 +3113,37 @@
         <v>254</v>
       </c>
       <c r="AE17" t="n">
-        <v>42.63</v>
+        <v>42.62</v>
       </c>
       <c r="AF17" s="1" t="n">
-        <v>-0.004</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="1" t="n">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="AH17" s="1" t="n">
-        <v>-0.009</v>
+        <v>0.002</v>
       </c>
       <c r="AI17" s="1" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="AJ17" s="1" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="AK17" s="1" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
       <c r="AL17" s="1" t="n">
-        <v>0.188</v>
+        <v>0.202</v>
       </c>
       <c r="AM17" s="1" t="n">
-        <v>-0.191</v>
+        <v>-0.195</v>
       </c>
       <c r="AN17" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.053</v>
       </c>
       <c r="AO17" s="1" t="n">
-        <v>0.11</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="18" ht="25" customHeight="1">
@@ -3169,37 +3169,37 @@
         <v>141</v>
       </c>
       <c r="Q18" t="n">
-        <v>144.58</v>
+        <v>146.28</v>
       </c>
       <c r="R18" s="1" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="T18" s="1" t="n">
         <v>0.006</v>
       </c>
-      <c r="S18" s="1" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="T18" s="1" t="n">
-        <v>-0.001</v>
-      </c>
       <c r="U18" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.013</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0.182</v>
+        <v>0.196</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>0.061</v>
+        <v>0.071</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>0.712</v>
+        <v>0.741</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>0.722</v>
+        <v>0.757</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>2.196</v>
+        <v>2.218</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>0.09</v>
+        <v>0.103</v>
       </c>
       <c r="AC18" t="s">
         <v>25</v>
@@ -3240,31 +3240,31 @@
         <v>143</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.17</v>
+        <v>29.59</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.014</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="T19" s="1" t="n">
         <v>0.016</v>
       </c>
       <c r="U19" s="1" t="n">
-        <v>0.056</v>
+        <v>0.073</v>
       </c>
       <c r="V19" s="1" t="n">
-        <v>0.344</v>
+        <v>0.363</v>
       </c>
       <c r="W19" s="1" t="n">
-        <v>0.157</v>
+        <v>0.173</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1" t="n">
-        <v>0.188</v>
+        <v>0.205</v>
       </c>
       <c r="AC19" s="4" t="s">
         <v>255</v>
@@ -3290,37 +3290,37 @@
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>50.28</v>
+        <v>50.72</v>
       </c>
       <c r="D20" s="1" t="n">
-        <v>-0.007</v>
+        <v>0.009</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="F20" s="1" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>0.076</v>
+        <v>0.089</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>0.232</v>
+        <v>0.242</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>0.225</v>
+        <v>0.231</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>0.719</v>
+        <v>0.74</v>
       </c>
       <c r="K20" s="1" t="n">
-        <v>0.982</v>
+        <v>1.01</v>
       </c>
       <c r="L20" s="1" t="n">
-        <v>1.518</v>
+        <v>1.556</v>
       </c>
       <c r="M20" s="1" t="n">
-        <v>0.256</v>
+        <v>0.267</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>144</v>
@@ -3329,37 +3329,37 @@
         <v>145</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.95</v>
+        <v>71.98</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0.002</v>
+        <v>0.015</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="T20" s="1" t="n">
-        <v>0.013</v>
+        <v>0.009</v>
       </c>
       <c r="U20" s="1" t="n">
-        <v>0.009</v>
+        <v>0.029</v>
       </c>
       <c r="V20" s="1" t="n">
-        <v>0.196</v>
+        <v>0.214</v>
       </c>
       <c r="W20" s="1" t="n">
-        <v>0.016</v>
+        <v>0.027</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>0.439</v>
+        <v>0.498</v>
       </c>
       <c r="Y20" s="1" t="n">
-        <v>0.434</v>
+        <v>0.451</v>
       </c>
       <c r="Z20" s="1" t="n">
-        <v>1.196</v>
+        <v>1.208</v>
       </c>
       <c r="AA20" s="1" t="n">
-        <v>0.059</v>
+        <v>0.075</v>
       </c>
       <c r="AC20" s="6" t="s">
         <v>256</v>
@@ -3368,37 +3368,37 @@
         <v>257</v>
       </c>
       <c r="AE20" t="n">
-        <v>100.96</v>
+        <v>101.13</v>
       </c>
       <c r="AF20" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AG20" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AH20" s="1" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="AI20" s="1" t="n">
         <v>0.041</v>
       </c>
       <c r="AJ20" s="1" t="n">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="AK20" s="1" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="AL20" s="1" t="n">
-        <v>0.182</v>
+        <v>0.2</v>
       </c>
       <c r="AM20" s="1" t="n">
-        <v>-0.012</v>
+        <v>-0.008</v>
       </c>
       <c r="AN20" s="1" t="n">
-        <v>0.207</v>
+        <v>0.21</v>
       </c>
       <c r="AO20" s="1" t="n">
-        <v>0.073</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="21" ht="25" customHeight="1">
@@ -3409,37 +3409,37 @@
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>28.23</v>
+        <v>28.55</v>
       </c>
       <c r="D21" s="1" t="n">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
       <c r="E21" s="1" t="n">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="F21" s="1" t="n">
-        <v>-0.012</v>
+        <v>0.001</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0.105</v>
+        <v>0.14</v>
       </c>
       <c r="H21" s="1" t="n">
-        <v>0.233</v>
+        <v>0.247</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>0.189</v>
+        <v>0.204</v>
       </c>
       <c r="J21" s="1" t="n">
-        <v>0.406</v>
+        <v>0.376</v>
       </c>
       <c r="K21" s="1" t="n">
-        <v>0.822</v>
+        <v>0.793</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0.869</v>
+        <v>0.919</v>
       </c>
       <c r="M21" s="1" t="n">
-        <v>0.382</v>
+        <v>0.398</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>146</v>
@@ -3448,37 +3448,37 @@
         <v>147</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.93</v>
+        <v>209.61</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.018</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.002</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0.027</v>
+        <v>0.031</v>
       </c>
       <c r="U21" s="1" t="n">
-        <v>0.055</v>
+        <v>0.073</v>
       </c>
       <c r="V21" s="1" t="n">
-        <v>0.383</v>
+        <v>0.408</v>
       </c>
       <c r="W21" s="1" t="n">
-        <v>0.342</v>
+        <v>0.366</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>1.216</v>
+        <v>1.162</v>
       </c>
       <c r="Y21" s="1" t="n">
-        <v>1.604</v>
+        <v>1.687</v>
       </c>
       <c r="Z21" s="1" t="n">
-        <v>3.059</v>
+        <v>3.125</v>
       </c>
       <c r="AA21" s="1" t="n">
-        <v>0.426</v>
+        <v>0.451</v>
       </c>
       <c r="AC21" s="6" t="s">
         <v>258</v>
@@ -3487,16 +3487,16 @@
         <v>259</v>
       </c>
       <c r="AE21" t="n">
-        <v>51.69</v>
+        <v>51.7</v>
       </c>
       <c r="AF21" s="1" t="n">
-        <v>-0.002</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AH21" s="1" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="AI21" s="1" t="n">
         <v>0.015</v>
@@ -3505,17 +3505,17 @@
         <v>0.023</v>
       </c>
       <c r="AK21" s="1" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="AL21" s="1" t="n">
-        <v>0.187</v>
+        <v>0.192</v>
       </c>
       <c r="AM21" s="1" t="n">
-        <v>0.034</v>
+        <v>0.035</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="n">
-        <v>0.035</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="22" ht="25" customHeight="1">
@@ -3526,37 +3526,37 @@
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>66.13</v>
+        <v>65.94</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>-0.014</v>
+        <v>-0.003</v>
       </c>
       <c r="E22" s="1" t="n">
-        <v>0.027</v>
+        <v>0.007</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>-0.006</v>
+        <v>-0.002</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>0.106</v>
+        <v>0.109</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>0.226</v>
+        <v>0.222</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>0.296</v>
+        <v>0.283</v>
       </c>
       <c r="J22" s="1" t="n">
-        <v>0.58</v>
+        <v>0.575</v>
       </c>
       <c r="K22" s="1" t="n">
-        <v>1.175</v>
+        <v>1.145</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0.548</v>
+        <v>0.552</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>0.438</v>
+        <v>0.434</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>148</v>
@@ -3565,37 +3565,37 @@
         <v>149</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.94</v>
+        <v>103.69</v>
       </c>
       <c r="R22" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0.021</v>
+        <v>0.012</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>-0.027</v>
+        <v>-0.019</v>
       </c>
       <c r="U22" s="1" t="n">
-        <v>0.026</v>
+        <v>0.032</v>
       </c>
       <c r="V22" s="1" t="n">
-        <v>0.221</v>
+        <v>0.23</v>
       </c>
       <c r="W22" s="1" t="n">
-        <v>0.178</v>
+        <v>0.177</v>
       </c>
       <c r="X22" s="1" t="n">
-        <v>0.782</v>
+        <v>0.806</v>
       </c>
       <c r="Y22" s="1" t="n">
-        <v>0.645</v>
+        <v>0.669</v>
       </c>
       <c r="Z22" s="1" t="n">
-        <v>2.082</v>
+        <v>2.098</v>
       </c>
       <c r="AA22" s="1" t="n">
-        <v>0.075</v>
+        <v>0.083</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>260</v>
@@ -3604,37 +3604,37 @@
         <v>261</v>
       </c>
       <c r="AE22" t="n">
-        <v>49.39</v>
+        <v>49.29</v>
       </c>
       <c r="AF22" s="1" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="AG22" s="1" t="n">
         <v>0.001</v>
-      </c>
-      <c r="AG22" s="1" t="n">
-        <v>0.004</v>
       </c>
       <c r="AH22" s="1" t="n">
         <v>0.007</v>
       </c>
       <c r="AI22" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="AJ22" s="1" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="AK22" s="1" t="n">
-        <v>0.067</v>
+        <v>0.065</v>
       </c>
       <c r="AL22" s="1" t="n">
-        <v>0.206</v>
+        <v>0.211</v>
       </c>
       <c r="AM22" s="1" t="n">
-        <v>0.036</v>
+        <v>0.03</v>
       </c>
       <c r="AN22" s="1" t="n">
-        <v>0.251</v>
+        <v>0.252</v>
       </c>
       <c r="AO22" s="1" t="n">
-        <v>0.074</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="23" ht="25" customHeight="1">
@@ -3645,37 +3645,37 @@
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>29.71</v>
+        <v>30.22</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="E23" s="1" t="n">
-        <v>0.032</v>
+        <v>0.036</v>
       </c>
       <c r="F23" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.023</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>0.073</v>
+        <v>0.126</v>
       </c>
       <c r="H23" s="1" t="n">
-        <v>0.2</v>
+        <v>0.221</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>0.115</v>
+        <v>0.142</v>
       </c>
       <c r="J23" s="1" t="n">
-        <v>0.193</v>
+        <v>0.154</v>
       </c>
       <c r="K23" s="1" t="n">
-        <v>0.499</v>
+        <v>0.487</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>1.042</v>
+        <v>1.126</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>0.344</v>
+        <v>0.368</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>150</v>
@@ -3684,37 +3684,37 @@
         <v>151</v>
       </c>
       <c r="Q23" t="n">
-        <v>103.5</v>
+        <v>103.88</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0.007</v>
+        <v>0.004</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="T23" s="1" t="n">
-        <v>-0.063</v>
+        <v>-0.045</v>
       </c>
       <c r="U23" s="1" t="n">
-        <v>0.083</v>
+        <v>0.094</v>
       </c>
       <c r="V23" s="1" t="n">
-        <v>0.172</v>
+        <v>0.176</v>
       </c>
       <c r="W23" s="1" t="n">
-        <v>-0.177</v>
+        <v>-0.184</v>
       </c>
       <c r="X23" s="1" t="n">
-        <v>1.004</v>
+        <v>1.104</v>
       </c>
       <c r="Y23" s="1" t="n">
-        <v>0.816</v>
+        <v>0.848</v>
       </c>
       <c r="Z23" s="1" t="n">
-        <v>3.036</v>
+        <v>2.977</v>
       </c>
       <c r="AA23" s="1" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="AC23" s="6" t="s">
         <v>262</v>
@@ -3723,37 +3723,37 @@
         <v>263</v>
       </c>
       <c r="AE23" t="n">
-        <v>95.88</v>
+        <v>95.96</v>
       </c>
       <c r="AF23" s="1" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="AG23" s="1" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="AH23" s="1" t="n">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="AI23" s="1" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="AJ23" s="1" t="n">
-        <v>0.059</v>
+        <v>0.06</v>
       </c>
       <c r="AK23" s="1" t="n">
         <v>0.063</v>
       </c>
       <c r="AL23" s="1" t="n">
-        <v>0.192</v>
+        <v>0.211</v>
       </c>
       <c r="AM23" s="1" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="AN23" s="1" t="n">
-        <v>0.148</v>
+        <v>0.149</v>
       </c>
       <c r="AO23" s="1" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="24" ht="25" customHeight="1">
@@ -3764,37 +3764,37 @@
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>62.56</v>
+        <v>62.88</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E24" s="1" t="n">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>0.056</v>
+        <v>0.064</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>0.197</v>
+        <v>0.203</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>0.277</v>
+        <v>0.27</v>
       </c>
       <c r="J24" s="1" t="n">
-        <v>1.021</v>
+        <v>1.032</v>
       </c>
       <c r="K24" s="1" t="n">
-        <v>0.841</v>
+        <v>0.843</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1.216</v>
+        <v>1.239</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>0.353</v>
+        <v>0.36</v>
       </c>
       <c r="O24" s="6" t="s">
         <v>152</v>
@@ -3803,35 +3803,35 @@
         <v>153</v>
       </c>
       <c r="Q24" t="n">
-        <v>36.96</v>
+        <v>37.53</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>0.052</v>
+        <v>0.028</v>
       </c>
       <c r="T24" s="1" t="n">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
       <c r="U24" s="1" t="n">
-        <v>0.102</v>
+        <v>0.113</v>
       </c>
       <c r="V24" s="1" t="n">
-        <v>0.376</v>
+        <v>0.397</v>
       </c>
       <c r="W24" s="1" t="n">
-        <v>0.278</v>
+        <v>0.282</v>
       </c>
       <c r="X24" s="1" t="n">
-        <v>0.169</v>
+        <v>0.195</v>
       </c>
       <c r="Y24" s="1" t="n">
-        <v>0.148</v>
+        <v>0.168</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1" t="n">
-        <v>0.277</v>
+        <v>0.297</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>264</v>
@@ -3840,37 +3840,37 @@
         <v>265</v>
       </c>
       <c r="AE24" t="n">
-        <v>112.2</v>
+        <v>112.54</v>
       </c>
       <c r="AF24" s="1" t="n">
-        <v>-0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AG24" s="1" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="AH24" s="1" t="n">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="AI24" s="1" t="n">
-        <v>0.05</v>
+        <v>0.051</v>
       </c>
       <c r="AJ24" s="1" t="n">
-        <v>0.075</v>
+        <v>0.078</v>
       </c>
       <c r="AK24" s="1" t="n">
-        <v>0.058</v>
+        <v>0.062</v>
       </c>
       <c r="AL24" s="1" t="n">
-        <v>0.265</v>
+        <v>0.29</v>
       </c>
       <c r="AM24" s="1" t="n">
-        <v>-0.008</v>
+        <v>-0.001</v>
       </c>
       <c r="AN24" s="1" t="n">
-        <v>0.352</v>
+        <v>0.359</v>
       </c>
       <c r="AO24" s="1" t="n">
-        <v>0.086</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="25" ht="25" customHeight="1">
@@ -3881,37 +3881,37 @@
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>42.86</v>
+        <v>43.2</v>
       </c>
       <c r="D25" s="1" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="E25" s="1" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="F25" s="1" t="n">
-        <v>0.047</v>
+        <v>0.041</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>0.055</v>
+        <v>0.069</v>
       </c>
       <c r="H25" s="1" t="n">
-        <v>0.186</v>
+        <v>0.196</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="J25" s="1" t="n">
-        <v>0.822</v>
+        <v>0.827</v>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1.049</v>
+        <v>1.074</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1.633</v>
+        <v>1.662</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0.222</v>
+        <v>0.231</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>154</v>
@@ -3920,37 +3920,37 @@
         <v>155</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.02</v>
+        <v>84.82</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0.038</v>
+        <v>0.014</v>
       </c>
       <c r="T25" s="1" t="n">
-        <v>-0.04</v>
+        <v>-0.027</v>
       </c>
       <c r="U25" s="1" t="n">
-        <v>0.058</v>
+        <v>0.066</v>
       </c>
       <c r="V25" s="1" t="n">
-        <v>0.268</v>
+        <v>0.28</v>
       </c>
       <c r="W25" s="1" t="n">
-        <v>0.089</v>
+        <v>0.1</v>
       </c>
       <c r="X25" s="1" t="n">
-        <v>0.493</v>
+        <v>0.547</v>
       </c>
       <c r="Y25" s="1" t="n">
-        <v>0.674</v>
+        <v>0.705</v>
       </c>
       <c r="Z25" s="1" t="n">
         <v>1.132</v>
       </c>
       <c r="AA25" s="1" t="n">
-        <v>0.063</v>
+        <v>0.073</v>
       </c>
       <c r="AC25" s="6" t="s">
         <v>266</v>
@@ -3959,37 +3959,37 @@
         <v>267</v>
       </c>
       <c r="AE25" t="n">
-        <v>93.17</v>
+        <v>93.31</v>
       </c>
       <c r="AF25" s="1" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="AG25" s="1" t="n">
         <v>0.005</v>
       </c>
       <c r="AH25" s="1" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="AI25" s="1" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="AJ25" s="1" t="n">
-        <v>0.062</v>
+        <v>0.064</v>
       </c>
       <c r="AK25" s="1" t="n">
-        <v>0.064</v>
+        <v>0.067</v>
       </c>
       <c r="AL25" s="1" t="n">
-        <v>0.309</v>
+        <v>0.312</v>
       </c>
       <c r="AM25" s="1" t="n">
-        <v>0.306</v>
+        <v>0.311</v>
       </c>
       <c r="AN25" s="1" t="n">
-        <v>0.516</v>
+        <v>0.521</v>
       </c>
       <c r="AO25" s="1" t="n">
-        <v>0.053</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="26" ht="25" customHeight="1">
@@ -4000,37 +4000,37 @@
         <v>55</v>
       </c>
       <c r="C26" t="n">
-        <v>42.07</v>
+        <v>42.16</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0.002</v>
       </c>
       <c r="E26" s="1" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>0.007</v>
+        <v>0.019</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>0.056</v>
+        <v>0.059</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>0.161</v>
+        <v>0.164</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>0.188</v>
+        <v>0.187</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>0.752</v>
+        <v>0.77</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>0.981</v>
+        <v>0.993</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>0.764</v>
+        <v>0.778</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0.266</v>
+        <v>0.269</v>
       </c>
       <c r="O26" s="6" t="s">
         <v>156</v>
@@ -4039,37 +4039,37 @@
         <v>157</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.89</v>
+        <v>58.63</v>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-0.004</v>
+        <v>0.013</v>
       </c>
       <c r="S26" s="1" t="n">
         <v>0.016</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>-0.058</v>
+        <v>-0.051</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>-0.011</v>
+        <v>0</v>
       </c>
       <c r="V26" s="1" t="n">
-        <v>0.241</v>
+        <v>0.257</v>
       </c>
       <c r="W26" s="1" t="n">
-        <v>0.179</v>
+        <v>0.191</v>
       </c>
       <c r="X26" s="1" t="n">
-        <v>0.614</v>
+        <v>0.629</v>
       </c>
       <c r="Y26" s="1" t="n">
-        <v>0.828</v>
+        <v>0.881</v>
       </c>
       <c r="Z26" s="1" t="n">
-        <v>0.634</v>
+        <v>0.633</v>
       </c>
       <c r="AA26" s="1" t="n">
-        <v>0.11</v>
+        <v>0.125</v>
       </c>
       <c r="AC26" s="6" t="s">
         <v>268</v>
@@ -4078,35 +4078,35 @@
         <v>269</v>
       </c>
       <c r="AE26" t="n">
-        <v>26.95</v>
+        <v>27.03</v>
       </c>
       <c r="AF26" s="1" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AG26" s="1" t="n">
         <v>-0.001</v>
       </c>
-      <c r="AG26" s="1" t="n">
-        <v>0.004</v>
-      </c>
       <c r="AH26" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.005</v>
       </c>
       <c r="AI26" s="1" t="n">
-        <v>0.039</v>
+        <v>0.042</v>
       </c>
       <c r="AJ26" s="1" t="n">
-        <v>0.084</v>
+        <v>0.087</v>
       </c>
       <c r="AK26" s="1" t="n">
         <v>0.064</v>
       </c>
       <c r="AL26" s="1" t="n">
-        <v>0.261</v>
+        <v>0.283</v>
       </c>
       <c r="AM26" s="1" t="n">
-        <v>0.156</v>
+        <v>0.162</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1" t="n">
-        <v>0.096</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="27" ht="25" customHeight="1">
@@ -4117,37 +4117,37 @@
         <v>57</v>
       </c>
       <c r="C27" t="n">
-        <v>45.23</v>
+        <v>45.2</v>
       </c>
       <c r="D27" s="1" t="n">
-        <v>0.002</v>
+        <v>-0.001</v>
       </c>
       <c r="E27" s="1" t="n">
-        <v>0.045</v>
+        <v>0.043</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>0.039</v>
+        <v>0.035</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>0.18</v>
+        <v>0.179</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>0.198</v>
+        <v>0.187</v>
       </c>
       <c r="J27" s="1" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="K27" s="1" t="n">
-        <v>0.839</v>
+        <v>0.822</v>
       </c>
       <c r="L27" s="1" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M27" s="1" t="n">
-        <v>0.289</v>
+        <v>0.288</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>158</v>
@@ -4156,31 +4156,31 @@
         <v>159</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.05</v>
+        <v>27.31</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0.017</v>
+        <v>0.009</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="T27" s="1" t="n">
-        <v>0.047</v>
+        <v>0.06</v>
       </c>
       <c r="U27" s="1" t="n">
-        <v>0.092</v>
+        <v>0.102</v>
       </c>
       <c r="V27" s="1" t="n">
-        <v>0.248</v>
+        <v>0.26</v>
       </c>
       <c r="W27" s="1" t="n">
-        <v>0.16</v>
+        <v>0.156</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1" t="n">
-        <v>0.143</v>
+        <v>0.154</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>270</v>
@@ -4189,16 +4189,16 @@
         <v>271</v>
       </c>
       <c r="AE27" t="n">
-        <v>53.08</v>
+        <v>53.12</v>
       </c>
       <c r="AF27" s="1" t="n">
-        <v>-0.001</v>
+        <v>0.001</v>
       </c>
       <c r="AG27" s="1" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AH27" s="1" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="AI27" s="1" t="n">
         <v>0.022</v>
@@ -4207,19 +4207,19 @@
         <v>0.042</v>
       </c>
       <c r="AK27" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="AL27" s="1" t="n">
-        <v>0.215</v>
+        <v>0.224</v>
       </c>
       <c r="AM27" s="1" t="n">
-        <v>0.123</v>
+        <v>0.124</v>
       </c>
       <c r="AN27" s="1" t="n">
-        <v>0.306</v>
+        <v>0.307</v>
       </c>
       <c r="AO27" s="1" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="28" ht="25" customHeight="1">
@@ -4230,37 +4230,37 @@
         <v>59</v>
       </c>
       <c r="C28" t="n">
-        <v>41.38</v>
+        <v>41.88</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>-0.005</v>
+        <v>0.012</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>-0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>-0.023</v>
+        <v>-0.006</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>0.125</v>
+        <v>0.138</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>0.271</v>
+        <v>0.276</v>
       </c>
       <c r="J28" s="1" t="n">
-        <v>1.126</v>
+        <v>1.162</v>
       </c>
       <c r="K28" s="1" t="n">
-        <v>0.601</v>
+        <v>0.626</v>
       </c>
       <c r="L28" s="1" t="n">
-        <v>1.01</v>
+        <v>1.033</v>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0.322</v>
+        <v>0.338</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>160</v>
@@ -4269,19 +4269,19 @@
         <v>161</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.37</v>
+        <v>69.36</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T28" s="1" t="n">
         <v>0.014</v>
       </c>
-      <c r="T28" s="1" t="n">
-        <v>0.004</v>
-      </c>
       <c r="U28" s="1" t="n">
-        <v>-0.01</v>
+        <v>-0.006</v>
       </c>
       <c r="V28" s="1" t="n">
         <v>-0.017</v>
@@ -4290,13 +4290,13 @@
         <v>0.014</v>
       </c>
       <c r="X28" s="1" t="n">
-        <v>0.215</v>
+        <v>0.22</v>
       </c>
       <c r="Y28" s="1" t="n">
-        <v>0.498</v>
+        <v>0.524</v>
       </c>
       <c r="Z28" s="1" t="n">
-        <v>1.4</v>
+        <v>1.396</v>
       </c>
       <c r="AA28" s="1" t="n">
         <v>0.075</v>
@@ -4308,37 +4308,37 @@
         <v>273</v>
       </c>
       <c r="AE28" t="n">
-        <v>54.31</v>
+        <v>54.41</v>
       </c